--- a/covid-manual-excel.xlsx
+++ b/covid-manual-excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspaces\covid-19-data-analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A711FF95-F268-45D5-8707-B0EDA95D3EF2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED97AC4B-C701-494F-A88F-CA142008E94F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="18960" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -388,10 +388,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E75EBFD-15CF-4FAD-9CA9-0C1E4CDC9AF7}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -429,6 +429,20 @@
         <v>1016</v>
       </c>
     </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>43904.395138888889</v>
+      </c>
+      <c r="B3">
+        <v>17660</v>
+      </c>
+      <c r="C3">
+        <v>1439</v>
+      </c>
+      <c r="D3">
+        <v>1266</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -437,10 +451,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8DB2288-E66E-44BC-933C-9471E73C5145}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -476,6 +490,20 @@
       </c>
       <c r="D2">
         <v>429</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>43904.395138888889</v>
+      </c>
+      <c r="B3">
+        <v>11364</v>
+      </c>
+      <c r="C3">
+        <v>3529</v>
+      </c>
+      <c r="D3">
+        <v>514</v>
       </c>
     </row>
   </sheetData>
@@ -521,10 +549,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -562,6 +590,20 @@
         <v>6</v>
       </c>
     </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>43904.395138888889</v>
+      </c>
+      <c r="B3">
+        <v>3675</v>
+      </c>
+      <c r="C3">
+        <v>46</v>
+      </c>
+      <c r="D3">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -570,10 +612,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{584CF58A-B6AB-4B55-A232-0ECA8145474E}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -611,6 +653,20 @@
         <v>61</v>
       </c>
     </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>43904.395138888889</v>
+      </c>
+      <c r="B3">
+        <v>3661</v>
+      </c>
+      <c r="C3">
+        <v>12</v>
+      </c>
+      <c r="D3">
+        <v>79</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -619,10 +675,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{526A6C31-C389-4FCA-ABC1-1A7A35286209}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -660,6 +716,20 @@
         <v>67</v>
       </c>
     </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>43904.395138888889</v>
+      </c>
+      <c r="B3">
+        <v>5232</v>
+      </c>
+      <c r="C3">
+        <v>193</v>
+      </c>
+      <c r="D3">
+        <v>133</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -668,10 +738,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADCED248-DC47-4D72-B4A8-11B0E4326564}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -709,6 +779,20 @@
         <v>10</v>
       </c>
     </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>43904.395138888889</v>
+      </c>
+      <c r="B3">
+        <v>798</v>
+      </c>
+      <c r="C3">
+        <v>12</v>
+      </c>
+      <c r="D3">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -717,10 +801,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7DAB03D-2093-43D6-930A-C5C263DB0B65}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -758,6 +842,20 @@
         <v>36</v>
       </c>
     </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>43904.395138888889</v>
+      </c>
+      <c r="B3">
+        <v>2615</v>
+      </c>
+      <c r="C3">
+        <v>9</v>
+      </c>
+      <c r="D3">
+        <v>47</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -766,10 +864,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B8DAF25-F5B0-47E4-BAFA-42517715F0C0}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -807,6 +905,20 @@
         <v>1</v>
       </c>
     </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>43904.395138888889</v>
+      </c>
+      <c r="B3">
+        <v>504</v>
+      </c>
+      <c r="C3">
+        <v>6</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -815,10 +927,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C93D820-3EC4-4C78-B8BB-92CDAF853513}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -856,6 +968,20 @@
         <v>7</v>
       </c>
     </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>43904.395138888889</v>
+      </c>
+      <c r="B3">
+        <v>1121</v>
+      </c>
+      <c r="C3">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -864,10 +990,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E279C389-C415-4B73-9113-FDA48BBDF828}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -905,6 +1031,20 @@
         <v>67</v>
       </c>
     </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>43904.395138888889</v>
+      </c>
+      <c r="B3">
+        <v>8086</v>
+      </c>
+      <c r="C3">
+        <v>714</v>
+      </c>
+      <c r="D3">
+        <v>72</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/covid-manual-excel.xlsx
+++ b/covid-manual-excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspaces\covid-19-data-analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED97AC4B-C701-494F-A88F-CA142008E94F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9499DFF6-545A-4EB0-B900-F75FDA9C2A67}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="18960" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -388,10 +388,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E75EBFD-15CF-4FAD-9CA9-0C1E4CDC9AF7}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -443,6 +443,20 @@
         <v>1266</v>
       </c>
     </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>43905.2</v>
+      </c>
+      <c r="B4">
+        <v>21157</v>
+      </c>
+      <c r="C4">
+        <v>1966</v>
+      </c>
+      <c r="D4">
+        <v>1441</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -451,10 +465,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8DB2288-E66E-44BC-933C-9471E73C5145}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -504,6 +518,20 @@
       </c>
       <c r="D3">
         <v>514</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>43905.2</v>
+      </c>
+      <c r="B4">
+        <v>12729</v>
+      </c>
+      <c r="C4">
+        <v>4339</v>
+      </c>
+      <c r="D4">
+        <v>611</v>
       </c>
     </row>
   </sheetData>
@@ -549,10 +577,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -604,6 +632,20 @@
         <v>8</v>
       </c>
     </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>43905.2</v>
+      </c>
+      <c r="B4">
+        <v>4585</v>
+      </c>
+      <c r="C4">
+        <v>46</v>
+      </c>
+      <c r="D4">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -612,10 +654,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{584CF58A-B6AB-4B55-A232-0ECA8145474E}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -667,6 +709,20 @@
         <v>79</v>
       </c>
     </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>43905.2</v>
+      </c>
+      <c r="B4">
+        <v>4499</v>
+      </c>
+      <c r="C4">
+        <v>12</v>
+      </c>
+      <c r="D4">
+        <v>91</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -675,10 +731,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{526A6C31-C389-4FCA-ABC1-1A7A35286209}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -730,6 +786,20 @@
         <v>133</v>
       </c>
     </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>43905.2</v>
+      </c>
+      <c r="B4">
+        <v>6391</v>
+      </c>
+      <c r="C4">
+        <v>517</v>
+      </c>
+      <c r="D4">
+        <v>196</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -738,10 +808,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADCED248-DC47-4D72-B4A8-11B0E4326564}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -793,6 +863,20 @@
         <v>10</v>
       </c>
     </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>43905.2</v>
+      </c>
+      <c r="B4">
+        <v>1140</v>
+      </c>
+      <c r="C4">
+        <v>18</v>
+      </c>
+      <c r="D4">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -801,10 +885,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7DAB03D-2093-43D6-930A-C5C263DB0B65}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -856,6 +940,20 @@
         <v>47</v>
       </c>
     </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>43905.2</v>
+      </c>
+      <c r="B4">
+        <v>2808</v>
+      </c>
+      <c r="C4">
+        <v>9</v>
+      </c>
+      <c r="D4">
+        <v>57</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -864,10 +962,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B8DAF25-F5B0-47E4-BAFA-42517715F0C0}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -919,6 +1017,20 @@
         <v>1</v>
       </c>
     </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>43905.2</v>
+      </c>
+      <c r="B4">
+        <v>655</v>
+      </c>
+      <c r="C4">
+        <v>6</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -927,10 +1039,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C93D820-3EC4-4C78-B8BB-92CDAF853513}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -982,6 +1094,20 @@
         <v>11</v>
       </c>
     </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>43905.2</v>
+      </c>
+      <c r="B4">
+        <v>1355</v>
+      </c>
+      <c r="C4">
+        <v>4</v>
+      </c>
+      <c r="D4">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -990,10 +1116,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E279C389-C415-4B73-9113-FDA48BBDF828}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1045,6 +1171,20 @@
         <v>72</v>
       </c>
     </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>43905.2</v>
+      </c>
+      <c r="B4">
+        <v>8162</v>
+      </c>
+      <c r="C4">
+        <v>834</v>
+      </c>
+      <c r="D4">
+        <v>75</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/covid-manual-excel.xlsx
+++ b/covid-manual-excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspaces\covid-19-data-analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9499DFF6-545A-4EB0-B900-F75FDA9C2A67}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{544CFEB5-6722-4CFD-813E-38591E23D151}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="18960" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="18960" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Italy" sheetId="6" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="France" sheetId="2" r:id="rId3"/>
     <sheet name="Spain" sheetId="3" r:id="rId4"/>
     <sheet name="United Kingdom" sheetId="4" r:id="rId5"/>
-    <sheet name="United States" sheetId="7" r:id="rId6"/>
+    <sheet name="US" sheetId="7" r:id="rId6"/>
     <sheet name="Austria" sheetId="8" r:id="rId7"/>
     <sheet name="Switzerland" sheetId="9" r:id="rId8"/>
     <sheet name="Korea, South" sheetId="11" r:id="rId9"/>
@@ -388,10 +388,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E75EBFD-15CF-4FAD-9CA9-0C1E4CDC9AF7}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -457,6 +457,20 @@
         <v>1441</v>
       </c>
     </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>43906.337500000001</v>
+      </c>
+      <c r="B5">
+        <v>24747</v>
+      </c>
+      <c r="C5">
+        <v>2335</v>
+      </c>
+      <c r="D5">
+        <v>1809</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -465,10 +479,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8DB2288-E66E-44BC-933C-9471E73C5145}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -532,6 +546,20 @@
       </c>
       <c r="D4">
         <v>611</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>43906.337500000001</v>
+      </c>
+      <c r="B5">
+        <v>13938</v>
+      </c>
+      <c r="C5">
+        <v>4590</v>
+      </c>
+      <c r="D5">
+        <v>724</v>
       </c>
     </row>
   </sheetData>
@@ -577,10 +605,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -646,6 +674,20 @@
         <v>9</v>
       </c>
     </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>43906.337500000001</v>
+      </c>
+      <c r="B5">
+        <v>5813</v>
+      </c>
+      <c r="C5">
+        <v>46</v>
+      </c>
+      <c r="D5">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -654,10 +696,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{584CF58A-B6AB-4B55-A232-0ECA8145474E}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -723,6 +765,20 @@
         <v>91</v>
       </c>
     </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>43906.337500000001</v>
+      </c>
+      <c r="B5">
+        <v>5423</v>
+      </c>
+      <c r="C5">
+        <v>12</v>
+      </c>
+      <c r="D5">
+        <v>127</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -731,10 +787,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{526A6C31-C389-4FCA-ABC1-1A7A35286209}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -800,6 +856,20 @@
         <v>196</v>
       </c>
     </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>43906.337500000001</v>
+      </c>
+      <c r="B5">
+        <v>7844</v>
+      </c>
+      <c r="C5">
+        <v>517</v>
+      </c>
+      <c r="D5">
+        <v>292</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -808,10 +878,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADCED248-DC47-4D72-B4A8-11B0E4326564}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -877,6 +947,23 @@
         <v>21</v>
       </c>
     </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>43906.337500000001</v>
+      </c>
+      <c r="B5">
+        <v>1372</v>
+      </c>
+      <c r="C5">
+        <v>18</v>
+      </c>
+      <c r="D5">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -885,10 +972,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7DAB03D-2093-43D6-930A-C5C263DB0B65}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -954,6 +1041,20 @@
         <v>57</v>
       </c>
     </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>43906.337500000001</v>
+      </c>
+      <c r="B5">
+        <v>3791</v>
+      </c>
+      <c r="C5">
+        <v>9</v>
+      </c>
+      <c r="D5">
+        <v>65</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -962,10 +1063,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B8DAF25-F5B0-47E4-BAFA-42517715F0C0}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1031,6 +1132,20 @@
         <v>1</v>
       </c>
     </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>43906.337500000001</v>
+      </c>
+      <c r="B5">
+        <v>860</v>
+      </c>
+      <c r="C5">
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1039,10 +1154,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C93D820-3EC4-4C78-B8BB-92CDAF853513}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1108,6 +1223,20 @@
         <v>13</v>
       </c>
     </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>43906.337500000001</v>
+      </c>
+      <c r="B5">
+        <v>2200</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1116,10 +1245,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E279C389-C415-4B73-9113-FDA48BBDF828}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1185,6 +1314,20 @@
         <v>75</v>
       </c>
     </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>43906.337500000001</v>
+      </c>
+      <c r="B5">
+        <v>8236</v>
+      </c>
+      <c r="C5">
+        <v>1137</v>
+      </c>
+      <c r="D5">
+        <v>75</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/covid-manual-excel.xlsx
+++ b/covid-manual-excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspaces\covid-19-data-analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{544CFEB5-6722-4CFD-813E-38591E23D151}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C1C9271-85EC-401A-8ABA-2D0E6F60F93B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="18960" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="18960" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Italy" sheetId="6" r:id="rId1"/>
@@ -388,10 +388,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E75EBFD-15CF-4FAD-9CA9-0C1E4CDC9AF7}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -471,6 +471,20 @@
         <v>1809</v>
       </c>
     </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>43907.37222222222</v>
+      </c>
+      <c r="B6">
+        <v>27980</v>
+      </c>
+      <c r="C6">
+        <v>2749</v>
+      </c>
+      <c r="D6">
+        <v>2158</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -479,10 +493,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8DB2288-E66E-44BC-933C-9471E73C5145}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -560,6 +574,20 @@
       </c>
       <c r="D5">
         <v>724</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>43907.37222222222</v>
+      </c>
+      <c r="B6">
+        <v>14991</v>
+      </c>
+      <c r="C6">
+        <v>4996</v>
+      </c>
+      <c r="D6">
+        <v>853</v>
       </c>
     </row>
   </sheetData>
@@ -605,10 +633,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -688,6 +716,20 @@
         <v>13</v>
       </c>
     </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>43907.37222222222</v>
+      </c>
+      <c r="B6">
+        <v>7272</v>
+      </c>
+      <c r="C6">
+        <v>67</v>
+      </c>
+      <c r="D6">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -696,10 +738,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{584CF58A-B6AB-4B55-A232-0ECA8145474E}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -779,6 +821,20 @@
         <v>127</v>
       </c>
     </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>43907.37222222222</v>
+      </c>
+      <c r="B6">
+        <v>6655</v>
+      </c>
+      <c r="C6">
+        <v>12</v>
+      </c>
+      <c r="D6">
+        <v>148</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -787,10 +843,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{526A6C31-C389-4FCA-ABC1-1A7A35286209}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -870,6 +926,20 @@
         <v>292</v>
       </c>
     </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>43907.37222222222</v>
+      </c>
+      <c r="B6">
+        <v>9942</v>
+      </c>
+      <c r="C6">
+        <v>530</v>
+      </c>
+      <c r="D6">
+        <v>342</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -881,7 +951,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -962,7 +1032,18 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
+      <c r="A6" s="1">
+        <v>43907.37222222222</v>
+      </c>
+      <c r="B6">
+        <v>1553</v>
+      </c>
+      <c r="C6">
+        <v>53</v>
+      </c>
+      <c r="D6">
+        <v>56</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -972,10 +1053,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7DAB03D-2093-43D6-930A-C5C263DB0B65}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1055,6 +1136,20 @@
         <v>65</v>
       </c>
     </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>43907.37222222222</v>
+      </c>
+      <c r="B6">
+        <v>4661</v>
+      </c>
+      <c r="C6">
+        <v>17</v>
+      </c>
+      <c r="D6">
+        <v>85</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1063,10 +1158,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B8DAF25-F5B0-47E4-BAFA-42517715F0C0}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1146,6 +1241,20 @@
         <v>1</v>
       </c>
     </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>43907.37222222222</v>
+      </c>
+      <c r="B6">
+        <v>1018</v>
+      </c>
+      <c r="C6">
+        <v>8</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1154,10 +1263,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C93D820-3EC4-4C78-B8BB-92CDAF853513}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1237,6 +1346,20 @@
         <v>14</v>
       </c>
     </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>43907.37222222222</v>
+      </c>
+      <c r="B6">
+        <v>2330</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1245,10 +1368,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E279C389-C415-4B73-9113-FDA48BBDF828}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1328,6 +1451,20 @@
         <v>75</v>
       </c>
     </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>43907.37222222222</v>
+      </c>
+      <c r="B6">
+        <v>8320</v>
+      </c>
+      <c r="C6">
+        <v>1137</v>
+      </c>
+      <c r="D6">
+        <v>75</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/covid-manual-excel.xlsx
+++ b/covid-manual-excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspaces\covid-19-data-analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C1C9271-85EC-401A-8ABA-2D0E6F60F93B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F578EFC-44E5-4DB4-B332-4716A62E4FDF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="18960" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -388,10 +388,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E75EBFD-15CF-4FAD-9CA9-0C1E4CDC9AF7}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -485,6 +485,20 @@
         <v>2158</v>
       </c>
     </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>43908.298611111109</v>
+      </c>
+      <c r="B7">
+        <v>31506</v>
+      </c>
+      <c r="C7">
+        <v>2941</v>
+      </c>
+      <c r="D7">
+        <v>2503</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -493,10 +507,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8DB2288-E66E-44BC-933C-9471E73C5145}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -588,6 +602,20 @@
       </c>
       <c r="D6">
         <v>853</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>43908.298611111109</v>
+      </c>
+      <c r="B7">
+        <v>16169</v>
+      </c>
+      <c r="C7">
+        <v>5389</v>
+      </c>
+      <c r="D7">
+        <v>988</v>
       </c>
     </row>
   </sheetData>
@@ -633,10 +661,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -730,6 +758,20 @@
         <v>17</v>
       </c>
     </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>43908.298611111109</v>
+      </c>
+      <c r="B7">
+        <v>9360</v>
+      </c>
+      <c r="C7">
+        <v>71</v>
+      </c>
+      <c r="D7">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -738,10 +780,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{584CF58A-B6AB-4B55-A232-0ECA8145474E}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -835,6 +877,20 @@
         <v>148</v>
       </c>
     </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>43908.298611111109</v>
+      </c>
+      <c r="B7">
+        <v>7730</v>
+      </c>
+      <c r="C7">
+        <v>12</v>
+      </c>
+      <c r="D7">
+        <v>175</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -843,10 +899,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{526A6C31-C389-4FCA-ABC1-1A7A35286209}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -940,6 +996,20 @@
         <v>342</v>
       </c>
     </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>43908.298611111109</v>
+      </c>
+      <c r="B7">
+        <v>11826</v>
+      </c>
+      <c r="C7">
+        <v>1028</v>
+      </c>
+      <c r="D7">
+        <v>533</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -948,10 +1018,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADCED248-DC47-4D72-B4A8-11B0E4326564}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1045,6 +1115,20 @@
         <v>56</v>
       </c>
     </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>43908.298611111109</v>
+      </c>
+      <c r="B7">
+        <v>1960</v>
+      </c>
+      <c r="C7">
+        <v>66</v>
+      </c>
+      <c r="D7">
+        <v>72</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1053,10 +1137,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7DAB03D-2093-43D6-930A-C5C263DB0B65}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1150,6 +1234,20 @@
         <v>85</v>
       </c>
     </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>43908.298611111109</v>
+      </c>
+      <c r="B7">
+        <v>6496</v>
+      </c>
+      <c r="C7">
+        <v>17</v>
+      </c>
+      <c r="D7">
+        <v>114</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1158,10 +1256,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B8DAF25-F5B0-47E4-BAFA-42517715F0C0}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1255,6 +1353,20 @@
         <v>3</v>
       </c>
     </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>43908.298611111109</v>
+      </c>
+      <c r="B7">
+        <v>1332</v>
+      </c>
+      <c r="C7">
+        <v>9</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1263,10 +1375,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C93D820-3EC4-4C78-B8BB-92CDAF853513}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1360,6 +1472,20 @@
         <v>19</v>
       </c>
     </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>43908.298611111109</v>
+      </c>
+      <c r="B7">
+        <v>2700</v>
+      </c>
+      <c r="C7">
+        <v>4</v>
+      </c>
+      <c r="D7">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1368,10 +1494,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E279C389-C415-4B73-9113-FDA48BBDF828}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1465,6 +1591,20 @@
         <v>75</v>
       </c>
     </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>43908.298611111109</v>
+      </c>
+      <c r="B7">
+        <v>8413</v>
+      </c>
+      <c r="C7">
+        <v>1540</v>
+      </c>
+      <c r="D7">
+        <v>84</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/covid-manual-excel.xlsx
+++ b/covid-manual-excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspaces\covid-19-data-analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F578EFC-44E5-4DB4-B332-4716A62E4FDF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB7F2FEC-4746-4195-BD4B-29053393EC65}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="18960" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="18960" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Italy" sheetId="6" r:id="rId1"/>
@@ -32,6 +32,40 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>cs</author>
+  </authors>
+  <commentList>
+    <comment ref="D8" authorId="0" shapeId="0" xr:uid="{3F8890DB-AB6A-4F26-A8BE-E8F5B0B5AC09}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>cs:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+67</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -65,7 +99,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -80,6 +114,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Segoe UI"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Segoe UI"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -388,10 +435,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E75EBFD-15CF-4FAD-9CA9-0C1E4CDC9AF7}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -499,6 +546,20 @@
         <v>2503</v>
       </c>
     </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>43909.195138888892</v>
+      </c>
+      <c r="B8">
+        <v>35713</v>
+      </c>
+      <c r="C8">
+        <v>4025</v>
+      </c>
+      <c r="D8">
+        <v>2978</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -507,10 +568,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8DB2288-E66E-44BC-933C-9471E73C5145}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -616,6 +677,20 @@
       </c>
       <c r="D7">
         <v>988</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>43909.195138888892</v>
+      </c>
+      <c r="B8">
+        <v>17361</v>
+      </c>
+      <c r="C8">
+        <v>5389</v>
+      </c>
+      <c r="D8">
+        <v>1134</v>
       </c>
     </row>
   </sheetData>
@@ -661,10 +736,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -772,6 +847,20 @@
         <v>26</v>
       </c>
     </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>43909.195138888892</v>
+      </c>
+      <c r="B8">
+        <v>12327</v>
+      </c>
+      <c r="C8">
+        <v>105</v>
+      </c>
+      <c r="D8">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -780,10 +869,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{584CF58A-B6AB-4B55-A232-0ECA8145474E}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -891,6 +980,20 @@
         <v>175</v>
       </c>
     </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>43909.195138888892</v>
+      </c>
+      <c r="B8">
+        <v>9134</v>
+      </c>
+      <c r="C8">
+        <v>12</v>
+      </c>
+      <c r="D8">
+        <v>264</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -899,10 +1002,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{526A6C31-C389-4FCA-ABC1-1A7A35286209}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1010,6 +1113,20 @@
         <v>533</v>
       </c>
     </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>43909.195138888892</v>
+      </c>
+      <c r="B8">
+        <v>14769</v>
+      </c>
+      <c r="C8">
+        <v>1081</v>
+      </c>
+      <c r="D8">
+        <v>638</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1017,11 +1134,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADCED248-DC47-4D72-B4A8-11B0E4326564}">
-  <dimension ref="A1:D7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADCED248-DC47-4D72-B4A8-11B0E4326564}">
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1129,18 +1246,33 @@
         <v>72</v>
       </c>
     </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>43909.195138888892</v>
+      </c>
+      <c r="B8">
+        <v>2644</v>
+      </c>
+      <c r="C8">
+        <v>67</v>
+      </c>
+      <c r="D8">
+        <v>104</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7DAB03D-2093-43D6-930A-C5C263DB0B65}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1248,6 +1380,20 @@
         <v>114</v>
       </c>
     </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>43909.195138888892</v>
+      </c>
+      <c r="B8">
+        <v>9345</v>
+      </c>
+      <c r="C8">
+        <v>106</v>
+      </c>
+      <c r="D8">
+        <v>150</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1256,10 +1402,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B8DAF25-F5B0-47E4-BAFA-42517715F0C0}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1367,6 +1513,20 @@
         <v>3</v>
       </c>
     </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>43909.195138888892</v>
+      </c>
+      <c r="B8">
+        <v>1646</v>
+      </c>
+      <c r="C8">
+        <v>9</v>
+      </c>
+      <c r="D8">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1375,10 +1535,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C93D820-3EC4-4C78-B8BB-92CDAF853513}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1486,6 +1646,20 @@
         <v>27</v>
       </c>
     </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>43909.195138888892</v>
+      </c>
+      <c r="B8">
+        <v>3067</v>
+      </c>
+      <c r="C8">
+        <v>15</v>
+      </c>
+      <c r="D8">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1494,10 +1668,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E279C389-C415-4B73-9113-FDA48BBDF828}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1605,6 +1779,20 @@
         <v>84</v>
       </c>
     </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>43909.195138888892</v>
+      </c>
+      <c r="B8">
+        <v>8565</v>
+      </c>
+      <c r="C8">
+        <v>1947</v>
+      </c>
+      <c r="D8">
+        <v>91</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/covid-manual-excel.xlsx
+++ b/covid-manual-excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspaces\covid-19-data-analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB7F2FEC-4746-4195-BD4B-29053393EC65}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3907EAD7-ED7A-410A-8984-64F3EDB8D708}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="18960" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -435,10 +435,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E75EBFD-15CF-4FAD-9CA9-0C1E4CDC9AF7}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -560,6 +560,20 @@
         <v>2978</v>
       </c>
     </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>43910.340277777781</v>
+      </c>
+      <c r="B9">
+        <v>41035</v>
+      </c>
+      <c r="C9">
+        <v>4440</v>
+      </c>
+      <c r="D9">
+        <v>3405</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -568,10 +582,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8DB2288-E66E-44BC-933C-9471E73C5145}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -691,6 +705,20 @@
       </c>
       <c r="D8">
         <v>1134</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>43910.340277777781</v>
+      </c>
+      <c r="B9">
+        <v>18407</v>
+      </c>
+      <c r="C9">
+        <v>5979</v>
+      </c>
+      <c r="D9">
+        <v>1284</v>
       </c>
     </row>
   </sheetData>
@@ -736,10 +764,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -861,6 +889,20 @@
         <v>28</v>
       </c>
     </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>43910.340277777781</v>
+      </c>
+      <c r="B9">
+        <v>15320</v>
+      </c>
+      <c r="C9">
+        <v>115</v>
+      </c>
+      <c r="D9">
+        <v>44</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -869,10 +911,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{584CF58A-B6AB-4B55-A232-0ECA8145474E}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -994,6 +1036,20 @@
         <v>264</v>
       </c>
     </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>43910.340277777781</v>
+      </c>
+      <c r="B9">
+        <v>11010</v>
+      </c>
+      <c r="C9">
+        <v>12</v>
+      </c>
+      <c r="D9">
+        <v>372</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1002,10 +1058,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{526A6C31-C389-4FCA-ABC1-1A7A35286209}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1127,6 +1183,20 @@
         <v>638</v>
       </c>
     </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>43910.340277777781</v>
+      </c>
+      <c r="B9">
+        <v>18077</v>
+      </c>
+      <c r="C9">
+        <v>1107</v>
+      </c>
+      <c r="D9">
+        <v>833</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1135,10 +1205,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADCED248-DC47-4D72-B4A8-11B0E4326564}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1260,6 +1330,20 @@
         <v>104</v>
       </c>
     </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>43910.340277777781</v>
+      </c>
+      <c r="B9">
+        <v>3269</v>
+      </c>
+      <c r="C9">
+        <v>67</v>
+      </c>
+      <c r="D9">
+        <v>144</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1269,10 +1353,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7DAB03D-2093-43D6-930A-C5C263DB0B65}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1394,6 +1478,20 @@
         <v>150</v>
       </c>
     </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>43910.340277777781</v>
+      </c>
+      <c r="B9">
+        <v>14312</v>
+      </c>
+      <c r="C9">
+        <v>121</v>
+      </c>
+      <c r="D9">
+        <v>208</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1402,10 +1500,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B8DAF25-F5B0-47E4-BAFA-42517715F0C0}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1527,6 +1625,20 @@
         <v>4</v>
       </c>
     </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>43910.340277777781</v>
+      </c>
+      <c r="B9">
+        <v>2013</v>
+      </c>
+      <c r="C9">
+        <v>9</v>
+      </c>
+      <c r="D9">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1535,10 +1647,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C93D820-3EC4-4C78-B8BB-92CDAF853513}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1660,6 +1772,20 @@
         <v>33</v>
       </c>
     </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>43910.340277777781</v>
+      </c>
+      <c r="B9">
+        <v>4164</v>
+      </c>
+      <c r="C9">
+        <v>15</v>
+      </c>
+      <c r="D9">
+        <v>43</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1668,10 +1794,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E279C389-C415-4B73-9113-FDA48BBDF828}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1793,6 +1919,20 @@
         <v>91</v>
       </c>
     </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>43910.340277777781</v>
+      </c>
+      <c r="B9">
+        <v>8652</v>
+      </c>
+      <c r="C9">
+        <v>2233</v>
+      </c>
+      <c r="D9">
+        <v>94</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/covid-manual-excel.xlsx
+++ b/covid-manual-excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspaces\covid-19-data-analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3907EAD7-ED7A-410A-8984-64F3EDB8D708}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BAD0B72-8D08-4F8E-B927-019F2AB2D5ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="18960" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="18960" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Italy" sheetId="6" r:id="rId1"/>
@@ -435,10 +435,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E75EBFD-15CF-4FAD-9CA9-0C1E4CDC9AF7}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -574,6 +574,20 @@
         <v>3405</v>
       </c>
     </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>43911.32708333333</v>
+      </c>
+      <c r="B10">
+        <v>47021</v>
+      </c>
+      <c r="C10">
+        <v>5129</v>
+      </c>
+      <c r="D10">
+        <v>4032</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -582,10 +596,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8DB2288-E66E-44BC-933C-9471E73C5145}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -719,6 +733,20 @@
       </c>
       <c r="D9">
         <v>1284</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>43911.32708333333</v>
+      </c>
+      <c r="B10">
+        <v>19644</v>
+      </c>
+      <c r="C10">
+        <v>6745</v>
+      </c>
+      <c r="D10">
+        <v>1433</v>
       </c>
     </row>
   </sheetData>
@@ -764,10 +792,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -903,6 +931,20 @@
         <v>44</v>
       </c>
     </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>43911.32708333333</v>
+      </c>
+      <c r="B10">
+        <v>19848</v>
+      </c>
+      <c r="C10">
+        <v>180</v>
+      </c>
+      <c r="D10">
+        <v>68</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -911,10 +953,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{584CF58A-B6AB-4B55-A232-0ECA8145474E}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1050,6 +1092,20 @@
         <v>372</v>
       </c>
     </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>43911.32708333333</v>
+      </c>
+      <c r="B10">
+        <v>12612</v>
+      </c>
+      <c r="C10">
+        <v>1587</v>
+      </c>
+      <c r="D10">
+        <v>450</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1058,10 +1114,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{526A6C31-C389-4FCA-ABC1-1A7A35286209}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1197,6 +1253,20 @@
         <v>833</v>
       </c>
     </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>43911.32708333333</v>
+      </c>
+      <c r="B10">
+        <v>21571</v>
+      </c>
+      <c r="C10">
+        <v>1588</v>
+      </c>
+      <c r="D10">
+        <v>1093</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1205,10 +1275,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADCED248-DC47-4D72-B4A8-11B0E4326564}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1344,6 +1414,20 @@
         <v>144</v>
       </c>
     </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>43911.32708333333</v>
+      </c>
+      <c r="B10">
+        <v>4014</v>
+      </c>
+      <c r="C10">
+        <v>67</v>
+      </c>
+      <c r="D10">
+        <v>178</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1353,10 +1437,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7DAB03D-2093-43D6-930A-C5C263DB0B65}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1492,6 +1576,20 @@
         <v>208</v>
       </c>
     </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>43911.32708333333</v>
+      </c>
+      <c r="B10">
+        <v>19671</v>
+      </c>
+      <c r="C10">
+        <v>147</v>
+      </c>
+      <c r="D10">
+        <v>260</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1500,10 +1598,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B8DAF25-F5B0-47E4-BAFA-42517715F0C0}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1639,6 +1737,20 @@
         <v>6</v>
       </c>
     </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>43911.32708333333</v>
+      </c>
+      <c r="B10">
+        <v>2388</v>
+      </c>
+      <c r="C10">
+        <v>9</v>
+      </c>
+      <c r="D10">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1647,10 +1759,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C93D820-3EC4-4C78-B8BB-92CDAF853513}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1786,6 +1898,20 @@
         <v>43</v>
       </c>
     </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>43911.32708333333</v>
+      </c>
+      <c r="B10">
+        <v>5544</v>
+      </c>
+      <c r="C10">
+        <v>15</v>
+      </c>
+      <c r="D10">
+        <v>56</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1794,10 +1920,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E279C389-C415-4B73-9113-FDA48BBDF828}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1933,6 +2059,20 @@
         <v>94</v>
       </c>
     </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>43911.32708333333</v>
+      </c>
+      <c r="B10">
+        <v>8799</v>
+      </c>
+      <c r="C10">
+        <v>2233</v>
+      </c>
+      <c r="D10">
+        <v>104</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/covid-manual-excel.xlsx
+++ b/covid-manual-excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspaces\covid-19-data-analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BAD0B72-8D08-4F8E-B927-019F2AB2D5ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C403B9C4-C8EA-423D-AA8E-A893B83B3763}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="18960" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="18960" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Italy" sheetId="6" r:id="rId1"/>
@@ -435,10 +435,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E75EBFD-15CF-4FAD-9CA9-0C1E4CDC9AF7}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -588,6 +588,20 @@
         <v>4032</v>
       </c>
     </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>43912.161111111112</v>
+      </c>
+      <c r="B11">
+        <v>53578</v>
+      </c>
+      <c r="C11">
+        <v>6072</v>
+      </c>
+      <c r="D11">
+        <v>4825</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -596,10 +610,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8DB2288-E66E-44BC-933C-9471E73C5145}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -747,6 +761,20 @@
       </c>
       <c r="D10">
         <v>1433</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>43912.161111111112</v>
+      </c>
+      <c r="B11">
+        <v>20610</v>
+      </c>
+      <c r="C11">
+        <v>7635</v>
+      </c>
+      <c r="D11">
+        <v>1556</v>
       </c>
     </row>
   </sheetData>
@@ -792,10 +820,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -945,6 +973,20 @@
         <v>68</v>
       </c>
     </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>43912.161111111112</v>
+      </c>
+      <c r="B11">
+        <v>22364</v>
+      </c>
+      <c r="C11">
+        <v>239</v>
+      </c>
+      <c r="D11">
+        <v>84</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -953,10 +995,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{584CF58A-B6AB-4B55-A232-0ECA8145474E}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1106,6 +1148,20 @@
         <v>450</v>
       </c>
     </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>43912.161111111112</v>
+      </c>
+      <c r="B11">
+        <v>14485</v>
+      </c>
+      <c r="C11">
+        <v>1587</v>
+      </c>
+      <c r="D11">
+        <v>562</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1114,10 +1170,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{526A6C31-C389-4FCA-ABC1-1A7A35286209}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1267,6 +1323,20 @@
         <v>1093</v>
       </c>
     </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>43912.161111111112</v>
+      </c>
+      <c r="B11">
+        <v>25496</v>
+      </c>
+      <c r="C11">
+        <v>2125</v>
+      </c>
+      <c r="D11">
+        <v>1381</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1275,10 +1345,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADCED248-DC47-4D72-B4A8-11B0E4326564}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1428,6 +1498,20 @@
         <v>178</v>
       </c>
     </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>43912.161111111112</v>
+      </c>
+      <c r="B11">
+        <v>5067</v>
+      </c>
+      <c r="C11">
+        <v>79</v>
+      </c>
+      <c r="D11">
+        <v>234</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1437,10 +1521,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7DAB03D-2093-43D6-930A-C5C263DB0B65}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1590,6 +1674,20 @@
         <v>260</v>
       </c>
     </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>43912.161111111112</v>
+      </c>
+      <c r="B11">
+        <v>26138</v>
+      </c>
+      <c r="C11">
+        <v>176</v>
+      </c>
+      <c r="D11">
+        <v>336</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1598,10 +1696,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B8DAF25-F5B0-47E4-BAFA-42517715F0C0}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1751,6 +1849,20 @@
         <v>11</v>
       </c>
     </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>43912.161111111112</v>
+      </c>
+      <c r="B11">
+        <v>2814</v>
+      </c>
+      <c r="C11">
+        <v>9</v>
+      </c>
+      <c r="D11">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1759,10 +1871,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C93D820-3EC4-4C78-B8BB-92CDAF853513}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1912,6 +2024,20 @@
         <v>56</v>
       </c>
     </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>43912.161111111112</v>
+      </c>
+      <c r="B11">
+        <v>6652</v>
+      </c>
+      <c r="C11">
+        <v>131</v>
+      </c>
+      <c r="D11">
+        <v>80</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1920,10 +2046,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E279C389-C415-4B73-9113-FDA48BBDF828}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2073,6 +2199,20 @@
         <v>104</v>
       </c>
     </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>43912.161111111112</v>
+      </c>
+      <c r="B11">
+        <v>8897</v>
+      </c>
+      <c r="C11">
+        <v>2909</v>
+      </c>
+      <c r="D11">
+        <v>104</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/covid-manual-excel.xlsx
+++ b/covid-manual-excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspaces\covid-19-data-analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C403B9C4-C8EA-423D-AA8E-A893B83B3763}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50B5FAF0-5233-4EF5-BFBC-71CC9599D248}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="18960" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="18960" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Italy" sheetId="6" r:id="rId1"/>
@@ -61,6 +61,74 @@
           </rPr>
           <t xml:space="preserve">
 67</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>cs</author>
+  </authors>
+  <commentList>
+    <comment ref="C12" authorId="0" shapeId="0" xr:uid="{9920E91E-55C7-4843-BA05-B34A1C304AEE}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>cs:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+data problem</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>cs</author>
+  </authors>
+  <commentList>
+    <comment ref="B12" authorId="0" shapeId="0" xr:uid="{35248B0F-504F-4EC9-8BA1-3FA46F3C4441}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>cs:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+3.244</t>
         </r>
       </text>
     </comment>
@@ -435,10 +503,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E75EBFD-15CF-4FAD-9CA9-0C1E4CDC9AF7}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -602,6 +670,20 @@
         <v>4825</v>
       </c>
     </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>43913.329861111109</v>
+      </c>
+      <c r="B12">
+        <v>59138</v>
+      </c>
+      <c r="C12">
+        <v>7024</v>
+      </c>
+      <c r="D12">
+        <v>5476</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -610,10 +692,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8DB2288-E66E-44BC-933C-9471E73C5145}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -775,6 +857,20 @@
       </c>
       <c r="D11">
         <v>1556</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>43913.329861111109</v>
+      </c>
+      <c r="B12">
+        <v>21638</v>
+      </c>
+      <c r="C12">
+        <v>7913</v>
+      </c>
+      <c r="D12">
+        <v>1685</v>
       </c>
     </row>
   </sheetData>
@@ -820,10 +916,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -987,6 +1083,20 @@
         <v>84</v>
       </c>
     </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>43913.329861111109</v>
+      </c>
+      <c r="B12">
+        <v>24873</v>
+      </c>
+      <c r="C12">
+        <v>266</v>
+      </c>
+      <c r="D12">
+        <v>94</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -995,10 +1105,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{584CF58A-B6AB-4B55-A232-0ECA8145474E}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1162,6 +1272,20 @@
         <v>562</v>
       </c>
     </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>43913.329861111109</v>
+      </c>
+      <c r="B12">
+        <v>16243</v>
+      </c>
+      <c r="C12">
+        <v>2201</v>
+      </c>
+      <c r="D12">
+        <v>676</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1170,10 +1294,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{526A6C31-C389-4FCA-ABC1-1A7A35286209}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1337,6 +1461,20 @@
         <v>1381</v>
       </c>
     </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>43913.329861111109</v>
+      </c>
+      <c r="B12">
+        <v>28768</v>
+      </c>
+      <c r="C12">
+        <v>2575</v>
+      </c>
+      <c r="D12">
+        <v>1772</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1345,10 +1483,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADCED248-DC47-4D72-B4A8-11B0E4326564}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1512,6 +1650,20 @@
         <v>234</v>
       </c>
     </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>43913.329861111109</v>
+      </c>
+      <c r="B12">
+        <v>5745</v>
+      </c>
+      <c r="C12">
+        <v>137</v>
+      </c>
+      <c r="D12">
+        <v>282</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1520,11 +1672,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7DAB03D-2093-43D6-930A-C5C263DB0B65}">
-  <dimension ref="A1:D11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7DAB03D-2093-43D6-930A-C5C263DB0B65}">
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1688,18 +1840,33 @@
         <v>336</v>
       </c>
     </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>43913.329861111109</v>
+      </c>
+      <c r="B12">
+        <v>35206</v>
+      </c>
+      <c r="C12">
+        <v>176</v>
+      </c>
+      <c r="D12">
+        <v>471</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B8DAF25-F5B0-47E4-BAFA-42517715F0C0}">
-  <dimension ref="A1:D11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B8DAF25-F5B0-47E4-BAFA-42517715F0C0}">
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1863,18 +2030,33 @@
         <v>11</v>
       </c>
     </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>43913.329861111109</v>
+      </c>
+      <c r="B12">
+        <v>3582</v>
+      </c>
+      <c r="C12">
+        <v>9</v>
+      </c>
+      <c r="D12">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C93D820-3EC4-4C78-B8BB-92CDAF853513}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2038,6 +2220,20 @@
         <v>80</v>
       </c>
     </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>43913.329861111109</v>
+      </c>
+      <c r="B12">
+        <v>7474</v>
+      </c>
+      <c r="C12">
+        <v>131</v>
+      </c>
+      <c r="D12">
+        <v>98</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -2046,10 +2242,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E279C389-C415-4B73-9113-FDA48BBDF828}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2213,6 +2409,20 @@
         <v>104</v>
       </c>
     </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>43913.329861111109</v>
+      </c>
+      <c r="B12">
+        <v>8961</v>
+      </c>
+      <c r="C12">
+        <v>3166</v>
+      </c>
+      <c r="D12">
+        <v>111</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/covid-manual-excel.xlsx
+++ b/covid-manual-excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspaces\covid-19-data-analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50B5FAF0-5233-4EF5-BFBC-71CC9599D248}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23F71118-B726-47A0-ABE8-A741D130E02A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="18960" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="18960" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Italy" sheetId="6" r:id="rId1"/>
@@ -98,6 +98,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="C13" authorId="0" shapeId="0" xr:uid="{414298AA-D0D9-4103-A0D0-8F4E21236E6B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>cs:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+data problem</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -129,6 +153,30 @@
           </rPr>
           <t xml:space="preserve">
 3.244</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B13" authorId="0" shapeId="0" xr:uid="{29CB68E8-AE89-45C8-BC26-D472733BEE57}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>cs:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+3924</t>
         </r>
       </text>
     </comment>
@@ -503,10 +551,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E75EBFD-15CF-4FAD-9CA9-0C1E4CDC9AF7}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -684,6 +732,20 @@
         <v>5476</v>
       </c>
     </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>43914.166666666664</v>
+      </c>
+      <c r="B13">
+        <v>63927</v>
+      </c>
+      <c r="C13">
+        <v>7432</v>
+      </c>
+      <c r="D13">
+        <v>6077</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -692,10 +754,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8DB2288-E66E-44BC-933C-9471E73C5145}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -871,6 +933,20 @@
       </c>
       <c r="D12">
         <v>1685</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>43914.166666666664</v>
+      </c>
+      <c r="B13">
+        <v>23049</v>
+      </c>
+      <c r="C13">
+        <v>8376</v>
+      </c>
+      <c r="D13">
+        <v>1812</v>
       </c>
     </row>
   </sheetData>
@@ -916,10 +992,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1097,6 +1173,20 @@
         <v>94</v>
       </c>
     </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>43914.166666666664</v>
+      </c>
+      <c r="B13">
+        <v>29056</v>
+      </c>
+      <c r="C13">
+        <v>453</v>
+      </c>
+      <c r="D13">
+        <v>123</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1105,10 +1195,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{584CF58A-B6AB-4B55-A232-0ECA8145474E}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1286,6 +1376,20 @@
         <v>676</v>
       </c>
     </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>43914.166666666664</v>
+      </c>
+      <c r="B13">
+        <v>20123</v>
+      </c>
+      <c r="C13">
+        <v>2207</v>
+      </c>
+      <c r="D13">
+        <v>862</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1294,10 +1398,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{526A6C31-C389-4FCA-ABC1-1A7A35286209}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1475,6 +1579,20 @@
         <v>1772</v>
       </c>
     </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>43914.166666666664</v>
+      </c>
+      <c r="B13">
+        <v>35136</v>
+      </c>
+      <c r="C13">
+        <v>3355</v>
+      </c>
+      <c r="D13">
+        <v>2311</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1483,10 +1601,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADCED248-DC47-4D72-B4A8-11B0E4326564}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1664,6 +1782,20 @@
         <v>282</v>
       </c>
     </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>43914.166666666664</v>
+      </c>
+      <c r="B13">
+        <v>6726</v>
+      </c>
+      <c r="C13">
+        <v>140</v>
+      </c>
+      <c r="D13">
+        <v>336</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1673,7 +1805,618 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7DAB03D-2093-43D6-930A-C5C263DB0B65}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>43903.408333333333</v>
+      </c>
+      <c r="B2">
+        <v>1336</v>
+      </c>
+      <c r="C2">
+        <v>9</v>
+      </c>
+      <c r="D2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>43904.395138888889</v>
+      </c>
+      <c r="B3">
+        <v>2615</v>
+      </c>
+      <c r="C3">
+        <v>9</v>
+      </c>
+      <c r="D3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>43905.2</v>
+      </c>
+      <c r="B4">
+        <v>2808</v>
+      </c>
+      <c r="C4">
+        <v>9</v>
+      </c>
+      <c r="D4">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>43906.337500000001</v>
+      </c>
+      <c r="B5">
+        <v>3791</v>
+      </c>
+      <c r="C5">
+        <v>9</v>
+      </c>
+      <c r="D5">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>43907.37222222222</v>
+      </c>
+      <c r="B6">
+        <v>4661</v>
+      </c>
+      <c r="C6">
+        <v>17</v>
+      </c>
+      <c r="D6">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>43908.298611111109</v>
+      </c>
+      <c r="B7">
+        <v>6496</v>
+      </c>
+      <c r="C7">
+        <v>17</v>
+      </c>
+      <c r="D7">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>43909.195138888892</v>
+      </c>
+      <c r="B8">
+        <v>9345</v>
+      </c>
+      <c r="C8">
+        <v>106</v>
+      </c>
+      <c r="D8">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>43910.340277777781</v>
+      </c>
+      <c r="B9">
+        <v>14312</v>
+      </c>
+      <c r="C9">
+        <v>121</v>
+      </c>
+      <c r="D9">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>43911.32708333333</v>
+      </c>
+      <c r="B10">
+        <v>19671</v>
+      </c>
+      <c r="C10">
+        <v>147</v>
+      </c>
+      <c r="D10">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>43912.161111111112</v>
+      </c>
+      <c r="B11">
+        <v>26138</v>
+      </c>
+      <c r="C11">
+        <v>176</v>
+      </c>
+      <c r="D11">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>43913.329861111109</v>
+      </c>
+      <c r="B12">
+        <v>35206</v>
+      </c>
+      <c r="C12">
+        <v>176</v>
+      </c>
+      <c r="D12">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>43914.166666666664</v>
+      </c>
+      <c r="B13">
+        <v>46332</v>
+      </c>
+      <c r="C13">
+        <v>176</v>
+      </c>
+      <c r="D13">
+        <v>610</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B8DAF25-F5B0-47E4-BAFA-42517715F0C0}">
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>43903.408333333333</v>
+      </c>
+      <c r="B2">
+        <v>361</v>
+      </c>
+      <c r="C2">
+        <v>4</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>43904.395138888889</v>
+      </c>
+      <c r="B3">
+        <v>504</v>
+      </c>
+      <c r="C3">
+        <v>6</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>43905.2</v>
+      </c>
+      <c r="B4">
+        <v>655</v>
+      </c>
+      <c r="C4">
+        <v>6</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>43906.337500000001</v>
+      </c>
+      <c r="B5">
+        <v>860</v>
+      </c>
+      <c r="C5">
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>43907.37222222222</v>
+      </c>
+      <c r="B6">
+        <v>1018</v>
+      </c>
+      <c r="C6">
+        <v>8</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>43908.298611111109</v>
+      </c>
+      <c r="B7">
+        <v>1332</v>
+      </c>
+      <c r="C7">
+        <v>9</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>43909.195138888892</v>
+      </c>
+      <c r="B8">
+        <v>1646</v>
+      </c>
+      <c r="C8">
+        <v>9</v>
+      </c>
+      <c r="D8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>43910.340277777781</v>
+      </c>
+      <c r="B9">
+        <v>2013</v>
+      </c>
+      <c r="C9">
+        <v>9</v>
+      </c>
+      <c r="D9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>43911.32708333333</v>
+      </c>
+      <c r="B10">
+        <v>2388</v>
+      </c>
+      <c r="C10">
+        <v>9</v>
+      </c>
+      <c r="D10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>43912.161111111112</v>
+      </c>
+      <c r="B11">
+        <v>2814</v>
+      </c>
+      <c r="C11">
+        <v>9</v>
+      </c>
+      <c r="D11">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>43913.329861111109</v>
+      </c>
+      <c r="B12">
+        <v>3582</v>
+      </c>
+      <c r="C12">
+        <v>9</v>
+      </c>
+      <c r="D12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>43914.166666666664</v>
+      </c>
+      <c r="B13">
+        <v>4474</v>
+      </c>
+      <c r="C13">
+        <v>9</v>
+      </c>
+      <c r="D13">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C93D820-3EC4-4C78-B8BB-92CDAF853513}">
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>43903.408333333333</v>
+      </c>
+      <c r="B2">
+        <v>854</v>
+      </c>
+      <c r="C2">
+        <v>4</v>
+      </c>
+      <c r="D2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>43904.395138888889</v>
+      </c>
+      <c r="B3">
+        <v>1121</v>
+      </c>
+      <c r="C3">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>43905.2</v>
+      </c>
+      <c r="B4">
+        <v>1355</v>
+      </c>
+      <c r="C4">
+        <v>4</v>
+      </c>
+      <c r="D4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>43906.337500000001</v>
+      </c>
+      <c r="B5">
+        <v>2200</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>43907.37222222222</v>
+      </c>
+      <c r="B6">
+        <v>2330</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>43908.298611111109</v>
+      </c>
+      <c r="B7">
+        <v>2700</v>
+      </c>
+      <c r="C7">
+        <v>4</v>
+      </c>
+      <c r="D7">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>43909.195138888892</v>
+      </c>
+      <c r="B8">
+        <v>3067</v>
+      </c>
+      <c r="C8">
+        <v>15</v>
+      </c>
+      <c r="D8">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>43910.340277777781</v>
+      </c>
+      <c r="B9">
+        <v>4164</v>
+      </c>
+      <c r="C9">
+        <v>15</v>
+      </c>
+      <c r="D9">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>43911.32708333333</v>
+      </c>
+      <c r="B10">
+        <v>5544</v>
+      </c>
+      <c r="C10">
+        <v>15</v>
+      </c>
+      <c r="D10">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>43912.161111111112</v>
+      </c>
+      <c r="B11">
+        <v>6652</v>
+      </c>
+      <c r="C11">
+        <v>131</v>
+      </c>
+      <c r="D11">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>43913.329861111109</v>
+      </c>
+      <c r="B12">
+        <v>7474</v>
+      </c>
+      <c r="C12">
+        <v>131</v>
+      </c>
+      <c r="D12">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>43914.166666666664</v>
+      </c>
+      <c r="B13">
+        <v>8795</v>
+      </c>
+      <c r="C13">
+        <v>131</v>
+      </c>
+      <c r="D13">
+        <v>120</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E279C389-C415-4B73-9113-FDA48BBDF828}">
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
@@ -1705,13 +2448,13 @@
         <v>43903.408333333333</v>
       </c>
       <c r="B2">
-        <v>1336</v>
+        <v>7979</v>
       </c>
       <c r="C2">
-        <v>9</v>
+        <v>510</v>
       </c>
       <c r="D2">
-        <v>36</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1719,13 +2462,13 @@
         <v>43904.395138888889</v>
       </c>
       <c r="B3">
-        <v>2615</v>
+        <v>8086</v>
       </c>
       <c r="C3">
-        <v>9</v>
+        <v>714</v>
       </c>
       <c r="D3">
-        <v>47</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1733,13 +2476,13 @@
         <v>43905.2</v>
       </c>
       <c r="B4">
-        <v>2808</v>
+        <v>8162</v>
       </c>
       <c r="C4">
-        <v>9</v>
+        <v>834</v>
       </c>
       <c r="D4">
-        <v>57</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1747,13 +2490,13 @@
         <v>43906.337500000001</v>
       </c>
       <c r="B5">
-        <v>3791</v>
+        <v>8236</v>
       </c>
       <c r="C5">
-        <v>9</v>
+        <v>1137</v>
       </c>
       <c r="D5">
-        <v>65</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1761,13 +2504,13 @@
         <v>43907.37222222222</v>
       </c>
       <c r="B6">
-        <v>4661</v>
+        <v>8320</v>
       </c>
       <c r="C6">
-        <v>17</v>
+        <v>1137</v>
       </c>
       <c r="D6">
-        <v>85</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -1775,13 +2518,13 @@
         <v>43908.298611111109</v>
       </c>
       <c r="B7">
-        <v>6496</v>
+        <v>8413</v>
       </c>
       <c r="C7">
-        <v>17</v>
+        <v>1540</v>
       </c>
       <c r="D7">
-        <v>114</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -1789,13 +2532,13 @@
         <v>43909.195138888892</v>
       </c>
       <c r="B8">
-        <v>9345</v>
+        <v>8565</v>
       </c>
       <c r="C8">
-        <v>106</v>
+        <v>1947</v>
       </c>
       <c r="D8">
-        <v>150</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -1803,13 +2546,13 @@
         <v>43910.340277777781</v>
       </c>
       <c r="B9">
-        <v>14312</v>
+        <v>8652</v>
       </c>
       <c r="C9">
-        <v>121</v>
+        <v>2233</v>
       </c>
       <c r="D9">
-        <v>208</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -1817,13 +2560,13 @@
         <v>43911.32708333333</v>
       </c>
       <c r="B10">
-        <v>19671</v>
+        <v>8799</v>
       </c>
       <c r="C10">
-        <v>147</v>
+        <v>2233</v>
       </c>
       <c r="D10">
-        <v>260</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -1831,13 +2574,13 @@
         <v>43912.161111111112</v>
       </c>
       <c r="B11">
-        <v>26138</v>
+        <v>8897</v>
       </c>
       <c r="C11">
-        <v>176</v>
+        <v>2909</v>
       </c>
       <c r="D11">
-        <v>336</v>
+        <v>104</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -1845,575 +2588,6 @@
         <v>43913.329861111109</v>
       </c>
       <c r="B12">
-        <v>35206</v>
-      </c>
-      <c r="C12">
-        <v>176</v>
-      </c>
-      <c r="D12">
-        <v>471</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B8DAF25-F5B0-47E4-BAFA-42517715F0C0}">
-  <dimension ref="A1:D12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>43903.408333333333</v>
-      </c>
-      <c r="B2">
-        <v>361</v>
-      </c>
-      <c r="C2">
-        <v>4</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>43904.395138888889</v>
-      </c>
-      <c r="B3">
-        <v>504</v>
-      </c>
-      <c r="C3">
-        <v>6</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>43905.2</v>
-      </c>
-      <c r="B4">
-        <v>655</v>
-      </c>
-      <c r="C4">
-        <v>6</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>43906.337500000001</v>
-      </c>
-      <c r="B5">
-        <v>860</v>
-      </c>
-      <c r="C5">
-        <v>6</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>43907.37222222222</v>
-      </c>
-      <c r="B6">
-        <v>1018</v>
-      </c>
-      <c r="C6">
-        <v>8</v>
-      </c>
-      <c r="D6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>43908.298611111109</v>
-      </c>
-      <c r="B7">
-        <v>1332</v>
-      </c>
-      <c r="C7">
-        <v>9</v>
-      </c>
-      <c r="D7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>43909.195138888892</v>
-      </c>
-      <c r="B8">
-        <v>1646</v>
-      </c>
-      <c r="C8">
-        <v>9</v>
-      </c>
-      <c r="D8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>43910.340277777781</v>
-      </c>
-      <c r="B9">
-        <v>2013</v>
-      </c>
-      <c r="C9">
-        <v>9</v>
-      </c>
-      <c r="D9">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>43911.32708333333</v>
-      </c>
-      <c r="B10">
-        <v>2388</v>
-      </c>
-      <c r="C10">
-        <v>9</v>
-      </c>
-      <c r="D10">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>43912.161111111112</v>
-      </c>
-      <c r="B11">
-        <v>2814</v>
-      </c>
-      <c r="C11">
-        <v>9</v>
-      </c>
-      <c r="D11">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>43913.329861111109</v>
-      </c>
-      <c r="B12">
-        <v>3582</v>
-      </c>
-      <c r="C12">
-        <v>9</v>
-      </c>
-      <c r="D12">
-        <v>16</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C93D820-3EC4-4C78-B8BB-92CDAF853513}">
-  <dimension ref="A1:D12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>43903.408333333333</v>
-      </c>
-      <c r="B2">
-        <v>854</v>
-      </c>
-      <c r="C2">
-        <v>4</v>
-      </c>
-      <c r="D2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>43904.395138888889</v>
-      </c>
-      <c r="B3">
-        <v>1121</v>
-      </c>
-      <c r="C3">
-        <v>4</v>
-      </c>
-      <c r="D3">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>43905.2</v>
-      </c>
-      <c r="B4">
-        <v>1355</v>
-      </c>
-      <c r="C4">
-        <v>4</v>
-      </c>
-      <c r="D4">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>43906.337500000001</v>
-      </c>
-      <c r="B5">
-        <v>2200</v>
-      </c>
-      <c r="C5">
-        <v>4</v>
-      </c>
-      <c r="D5">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>43907.37222222222</v>
-      </c>
-      <c r="B6">
-        <v>2330</v>
-      </c>
-      <c r="C6">
-        <v>4</v>
-      </c>
-      <c r="D6">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>43908.298611111109</v>
-      </c>
-      <c r="B7">
-        <v>2700</v>
-      </c>
-      <c r="C7">
-        <v>4</v>
-      </c>
-      <c r="D7">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>43909.195138888892</v>
-      </c>
-      <c r="B8">
-        <v>3067</v>
-      </c>
-      <c r="C8">
-        <v>15</v>
-      </c>
-      <c r="D8">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>43910.340277777781</v>
-      </c>
-      <c r="B9">
-        <v>4164</v>
-      </c>
-      <c r="C9">
-        <v>15</v>
-      </c>
-      <c r="D9">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>43911.32708333333</v>
-      </c>
-      <c r="B10">
-        <v>5544</v>
-      </c>
-      <c r="C10">
-        <v>15</v>
-      </c>
-      <c r="D10">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>43912.161111111112</v>
-      </c>
-      <c r="B11">
-        <v>6652</v>
-      </c>
-      <c r="C11">
-        <v>131</v>
-      </c>
-      <c r="D11">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>43913.329861111109</v>
-      </c>
-      <c r="B12">
-        <v>7474</v>
-      </c>
-      <c r="C12">
-        <v>131</v>
-      </c>
-      <c r="D12">
-        <v>98</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E279C389-C415-4B73-9113-FDA48BBDF828}">
-  <dimension ref="A1:D12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>43903.408333333333</v>
-      </c>
-      <c r="B2">
-        <v>7979</v>
-      </c>
-      <c r="C2">
-        <v>510</v>
-      </c>
-      <c r="D2">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>43904.395138888889</v>
-      </c>
-      <c r="B3">
-        <v>8086</v>
-      </c>
-      <c r="C3">
-        <v>714</v>
-      </c>
-      <c r="D3">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>43905.2</v>
-      </c>
-      <c r="B4">
-        <v>8162</v>
-      </c>
-      <c r="C4">
-        <v>834</v>
-      </c>
-      <c r="D4">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>43906.337500000001</v>
-      </c>
-      <c r="B5">
-        <v>8236</v>
-      </c>
-      <c r="C5">
-        <v>1137</v>
-      </c>
-      <c r="D5">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>43907.37222222222</v>
-      </c>
-      <c r="B6">
-        <v>8320</v>
-      </c>
-      <c r="C6">
-        <v>1137</v>
-      </c>
-      <c r="D6">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>43908.298611111109</v>
-      </c>
-      <c r="B7">
-        <v>8413</v>
-      </c>
-      <c r="C7">
-        <v>1540</v>
-      </c>
-      <c r="D7">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>43909.195138888892</v>
-      </c>
-      <c r="B8">
-        <v>8565</v>
-      </c>
-      <c r="C8">
-        <v>1947</v>
-      </c>
-      <c r="D8">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>43910.340277777781</v>
-      </c>
-      <c r="B9">
-        <v>8652</v>
-      </c>
-      <c r="C9">
-        <v>2233</v>
-      </c>
-      <c r="D9">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>43911.32708333333</v>
-      </c>
-      <c r="B10">
-        <v>8799</v>
-      </c>
-      <c r="C10">
-        <v>2233</v>
-      </c>
-      <c r="D10">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>43912.161111111112</v>
-      </c>
-      <c r="B11">
-        <v>8897</v>
-      </c>
-      <c r="C11">
-        <v>2909</v>
-      </c>
-      <c r="D11">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>43913.329861111109</v>
-      </c>
-      <c r="B12">
         <v>8961</v>
       </c>
       <c r="C12">
@@ -2421,6 +2595,20 @@
       </c>
       <c r="D12">
         <v>111</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>43914.166666666664</v>
+      </c>
+      <c r="B13">
+        <v>9037</v>
+      </c>
+      <c r="C13">
+        <v>3507</v>
+      </c>
+      <c r="D13">
+        <v>120</v>
       </c>
     </row>
   </sheetData>

--- a/covid-manual-excel.xlsx
+++ b/covid-manual-excel.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspaces\covid-19-data-analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23F71118-B726-47A0-ABE8-A741D130E02A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B993EC47-D8FF-4655-9242-49B6B110C799}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="18960" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="18960" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Italy" sheetId="6" r:id="rId1"/>
-    <sheet name="Germany" sheetId="1" r:id="rId2"/>
-    <sheet name="France" sheetId="2" r:id="rId3"/>
-    <sheet name="Spain" sheetId="3" r:id="rId4"/>
+    <sheet name="Germany" sheetId="1" r:id="rId1"/>
+    <sheet name="Italy" sheetId="6" r:id="rId2"/>
+    <sheet name="Spain" sheetId="3" r:id="rId3"/>
+    <sheet name="France" sheetId="2" r:id="rId4"/>
     <sheet name="United Kingdom" sheetId="4" r:id="rId5"/>
     <sheet name="US" sheetId="7" r:id="rId6"/>
     <sheet name="Austria" sheetId="8" r:id="rId7"/>
@@ -550,11 +550,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E75EBFD-15CF-4FAD-9CA9-0C1E4CDC9AF7}">
-  <dimension ref="A1:D13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -583,13 +583,13 @@
         <v>43903.408333333333</v>
       </c>
       <c r="B2">
-        <v>15113</v>
+        <v>2750</v>
       </c>
       <c r="C2">
-        <v>1258</v>
+        <v>25</v>
       </c>
       <c r="D2">
-        <v>1016</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -597,13 +597,13 @@
         <v>43904.395138888889</v>
       </c>
       <c r="B3">
-        <v>17660</v>
+        <v>3675</v>
       </c>
       <c r="C3">
-        <v>1439</v>
+        <v>46</v>
       </c>
       <c r="D3">
-        <v>1266</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -611,13 +611,13 @@
         <v>43905.2</v>
       </c>
       <c r="B4">
-        <v>21157</v>
+        <v>4585</v>
       </c>
       <c r="C4">
-        <v>1966</v>
+        <v>46</v>
       </c>
       <c r="D4">
-        <v>1441</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -625,13 +625,13 @@
         <v>43906.337500000001</v>
       </c>
       <c r="B5">
-        <v>24747</v>
+        <v>5813</v>
       </c>
       <c r="C5">
-        <v>2335</v>
+        <v>46</v>
       </c>
       <c r="D5">
-        <v>1809</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -639,13 +639,13 @@
         <v>43907.37222222222</v>
       </c>
       <c r="B6">
-        <v>27980</v>
+        <v>7272</v>
       </c>
       <c r="C6">
-        <v>2749</v>
+        <v>67</v>
       </c>
       <c r="D6">
-        <v>2158</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -653,13 +653,13 @@
         <v>43908.298611111109</v>
       </c>
       <c r="B7">
-        <v>31506</v>
+        <v>9360</v>
       </c>
       <c r="C7">
-        <v>2941</v>
+        <v>71</v>
       </c>
       <c r="D7">
-        <v>2503</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -667,13 +667,13 @@
         <v>43909.195138888892</v>
       </c>
       <c r="B8">
-        <v>35713</v>
+        <v>12327</v>
       </c>
       <c r="C8">
-        <v>4025</v>
+        <v>105</v>
       </c>
       <c r="D8">
-        <v>2978</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -681,13 +681,13 @@
         <v>43910.340277777781</v>
       </c>
       <c r="B9">
-        <v>41035</v>
+        <v>15320</v>
       </c>
       <c r="C9">
-        <v>4440</v>
+        <v>115</v>
       </c>
       <c r="D9">
-        <v>3405</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -695,13 +695,13 @@
         <v>43911.32708333333</v>
       </c>
       <c r="B10">
-        <v>47021</v>
+        <v>19848</v>
       </c>
       <c r="C10">
-        <v>5129</v>
+        <v>180</v>
       </c>
       <c r="D10">
-        <v>4032</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -709,13 +709,13 @@
         <v>43912.161111111112</v>
       </c>
       <c r="B11">
-        <v>53578</v>
+        <v>22364</v>
       </c>
       <c r="C11">
-        <v>6072</v>
+        <v>239</v>
       </c>
       <c r="D11">
-        <v>4825</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -723,13 +723,13 @@
         <v>43913.329861111109</v>
       </c>
       <c r="B12">
-        <v>59138</v>
+        <v>24873</v>
       </c>
       <c r="C12">
-        <v>7024</v>
+        <v>266</v>
       </c>
       <c r="D12">
-        <v>5476</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -737,13 +737,27 @@
         <v>43914.166666666664</v>
       </c>
       <c r="B13">
-        <v>63927</v>
+        <v>29056</v>
       </c>
       <c r="C13">
-        <v>7432</v>
+        <v>453</v>
       </c>
       <c r="D13">
-        <v>6077</v>
+        <v>123</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>43915.1875</v>
+      </c>
+      <c r="B14">
+        <v>32991</v>
+      </c>
+      <c r="C14">
+        <v>3290</v>
+      </c>
+      <c r="D14">
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -754,10 +768,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8DB2288-E66E-44BC-933C-9471E73C5145}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -947,6 +961,20 @@
       </c>
       <c r="D13">
         <v>1812</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>43915.1875</v>
+      </c>
+      <c r="B14">
+        <v>24811</v>
+      </c>
+      <c r="C14">
+        <v>8913</v>
+      </c>
+      <c r="D14">
+        <v>1934</v>
       </c>
     </row>
   </sheetData>
@@ -991,11 +1019,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E75EBFD-15CF-4FAD-9CA9-0C1E4CDC9AF7}">
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1024,13 +1052,13 @@
         <v>43903.408333333333</v>
       </c>
       <c r="B2">
-        <v>2750</v>
+        <v>15113</v>
       </c>
       <c r="C2">
-        <v>25</v>
+        <v>1258</v>
       </c>
       <c r="D2">
-        <v>6</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1038,13 +1066,13 @@
         <v>43904.395138888889</v>
       </c>
       <c r="B3">
-        <v>3675</v>
+        <v>17660</v>
       </c>
       <c r="C3">
-        <v>46</v>
+        <v>1439</v>
       </c>
       <c r="D3">
-        <v>8</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1052,13 +1080,13 @@
         <v>43905.2</v>
       </c>
       <c r="B4">
-        <v>4585</v>
+        <v>21157</v>
       </c>
       <c r="C4">
-        <v>46</v>
+        <v>1966</v>
       </c>
       <c r="D4">
-        <v>9</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1066,13 +1094,13 @@
         <v>43906.337500000001</v>
       </c>
       <c r="B5">
-        <v>5813</v>
+        <v>24747</v>
       </c>
       <c r="C5">
-        <v>46</v>
+        <v>2335</v>
       </c>
       <c r="D5">
-        <v>13</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1080,13 +1108,13 @@
         <v>43907.37222222222</v>
       </c>
       <c r="B6">
-        <v>7272</v>
+        <v>27980</v>
       </c>
       <c r="C6">
-        <v>67</v>
+        <v>2749</v>
       </c>
       <c r="D6">
-        <v>17</v>
+        <v>2158</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -1094,13 +1122,13 @@
         <v>43908.298611111109</v>
       </c>
       <c r="B7">
-        <v>9360</v>
+        <v>31506</v>
       </c>
       <c r="C7">
-        <v>71</v>
+        <v>2941</v>
       </c>
       <c r="D7">
-        <v>26</v>
+        <v>2503</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -1108,13 +1136,13 @@
         <v>43909.195138888892</v>
       </c>
       <c r="B8">
-        <v>12327</v>
+        <v>35713</v>
       </c>
       <c r="C8">
-        <v>105</v>
+        <v>4025</v>
       </c>
       <c r="D8">
-        <v>28</v>
+        <v>2978</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -1122,13 +1150,13 @@
         <v>43910.340277777781</v>
       </c>
       <c r="B9">
-        <v>15320</v>
+        <v>41035</v>
       </c>
       <c r="C9">
-        <v>115</v>
+        <v>4440</v>
       </c>
       <c r="D9">
-        <v>44</v>
+        <v>3405</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -1136,13 +1164,13 @@
         <v>43911.32708333333</v>
       </c>
       <c r="B10">
-        <v>19848</v>
+        <v>47021</v>
       </c>
       <c r="C10">
-        <v>180</v>
+        <v>5129</v>
       </c>
       <c r="D10">
-        <v>68</v>
+        <v>4032</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -1150,13 +1178,13 @@
         <v>43912.161111111112</v>
       </c>
       <c r="B11">
-        <v>22364</v>
+        <v>53578</v>
       </c>
       <c r="C11">
-        <v>239</v>
+        <v>6072</v>
       </c>
       <c r="D11">
-        <v>84</v>
+        <v>4825</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -1164,13 +1192,13 @@
         <v>43913.329861111109</v>
       </c>
       <c r="B12">
-        <v>24873</v>
+        <v>59138</v>
       </c>
       <c r="C12">
-        <v>266</v>
+        <v>7024</v>
       </c>
       <c r="D12">
-        <v>94</v>
+        <v>5476</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -1178,13 +1206,27 @@
         <v>43914.166666666664</v>
       </c>
       <c r="B13">
-        <v>29056</v>
+        <v>63927</v>
       </c>
       <c r="C13">
-        <v>453</v>
+        <v>7432</v>
       </c>
       <c r="D13">
-        <v>123</v>
+        <v>6077</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>43915.1875</v>
+      </c>
+      <c r="B14">
+        <v>69176</v>
+      </c>
+      <c r="C14">
+        <v>8326</v>
+      </c>
+      <c r="D14">
+        <v>6820</v>
       </c>
     </row>
   </sheetData>
@@ -1194,11 +1236,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{584CF58A-B6AB-4B55-A232-0ECA8145474E}">
-  <dimension ref="A1:D13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{526A6C31-C389-4FCA-ABC1-1A7A35286209}">
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1227,13 +1269,13 @@
         <v>43903.408333333333</v>
       </c>
       <c r="B2">
-        <v>2876</v>
+        <v>3146</v>
       </c>
       <c r="C2">
-        <v>12</v>
+        <v>189</v>
       </c>
       <c r="D2">
-        <v>61</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1241,13 +1283,13 @@
         <v>43904.395138888889</v>
       </c>
       <c r="B3">
-        <v>3661</v>
+        <v>5232</v>
       </c>
       <c r="C3">
-        <v>12</v>
+        <v>193</v>
       </c>
       <c r="D3">
-        <v>79</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1255,13 +1297,13 @@
         <v>43905.2</v>
       </c>
       <c r="B4">
-        <v>4499</v>
+        <v>6391</v>
       </c>
       <c r="C4">
-        <v>12</v>
+        <v>517</v>
       </c>
       <c r="D4">
-        <v>91</v>
+        <v>196</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1269,13 +1311,13 @@
         <v>43906.337500000001</v>
       </c>
       <c r="B5">
-        <v>5423</v>
+        <v>7844</v>
       </c>
       <c r="C5">
-        <v>12</v>
+        <v>517</v>
       </c>
       <c r="D5">
-        <v>127</v>
+        <v>292</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1283,13 +1325,13 @@
         <v>43907.37222222222</v>
       </c>
       <c r="B6">
-        <v>6655</v>
+        <v>9942</v>
       </c>
       <c r="C6">
-        <v>12</v>
+        <v>530</v>
       </c>
       <c r="D6">
-        <v>148</v>
+        <v>342</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -1297,13 +1339,13 @@
         <v>43908.298611111109</v>
       </c>
       <c r="B7">
-        <v>7730</v>
+        <v>11826</v>
       </c>
       <c r="C7">
-        <v>12</v>
+        <v>1028</v>
       </c>
       <c r="D7">
-        <v>175</v>
+        <v>533</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -1311,13 +1353,13 @@
         <v>43909.195138888892</v>
       </c>
       <c r="B8">
-        <v>9134</v>
+        <v>14769</v>
       </c>
       <c r="C8">
-        <v>12</v>
+        <v>1081</v>
       </c>
       <c r="D8">
-        <v>264</v>
+        <v>638</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -1325,13 +1367,13 @@
         <v>43910.340277777781</v>
       </c>
       <c r="B9">
-        <v>11010</v>
+        <v>18077</v>
       </c>
       <c r="C9">
-        <v>12</v>
+        <v>1107</v>
       </c>
       <c r="D9">
-        <v>372</v>
+        <v>833</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -1339,13 +1381,13 @@
         <v>43911.32708333333</v>
       </c>
       <c r="B10">
-        <v>12612</v>
+        <v>21571</v>
       </c>
       <c r="C10">
-        <v>1587</v>
+        <v>1588</v>
       </c>
       <c r="D10">
-        <v>450</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -1353,13 +1395,13 @@
         <v>43912.161111111112</v>
       </c>
       <c r="B11">
-        <v>14485</v>
+        <v>25496</v>
       </c>
       <c r="C11">
-        <v>1587</v>
+        <v>2125</v>
       </c>
       <c r="D11">
-        <v>562</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -1367,13 +1409,13 @@
         <v>43913.329861111109</v>
       </c>
       <c r="B12">
-        <v>16243</v>
+        <v>28768</v>
       </c>
       <c r="C12">
-        <v>2201</v>
+        <v>2575</v>
       </c>
       <c r="D12">
-        <v>676</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -1381,13 +1423,27 @@
         <v>43914.166666666664</v>
       </c>
       <c r="B13">
-        <v>20123</v>
+        <v>35136</v>
       </c>
       <c r="C13">
-        <v>2207</v>
+        <v>3355</v>
       </c>
       <c r="D13">
-        <v>862</v>
+        <v>2311</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>43915.1875</v>
+      </c>
+      <c r="B14">
+        <v>42058</v>
+      </c>
+      <c r="C14">
+        <v>3794</v>
+      </c>
+      <c r="D14">
+        <v>2991</v>
       </c>
     </row>
   </sheetData>
@@ -1397,11 +1453,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{526A6C31-C389-4FCA-ABC1-1A7A35286209}">
-  <dimension ref="A1:D13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{584CF58A-B6AB-4B55-A232-0ECA8145474E}">
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1430,13 +1486,13 @@
         <v>43903.408333333333</v>
       </c>
       <c r="B2">
-        <v>3146</v>
+        <v>2876</v>
       </c>
       <c r="C2">
-        <v>189</v>
+        <v>12</v>
       </c>
       <c r="D2">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1444,13 +1500,13 @@
         <v>43904.395138888889</v>
       </c>
       <c r="B3">
-        <v>5232</v>
+        <v>3661</v>
       </c>
       <c r="C3">
-        <v>193</v>
+        <v>12</v>
       </c>
       <c r="D3">
-        <v>133</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1458,13 +1514,13 @@
         <v>43905.2</v>
       </c>
       <c r="B4">
-        <v>6391</v>
+        <v>4499</v>
       </c>
       <c r="C4">
-        <v>517</v>
+        <v>12</v>
       </c>
       <c r="D4">
-        <v>196</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1472,13 +1528,13 @@
         <v>43906.337500000001</v>
       </c>
       <c r="B5">
-        <v>7844</v>
+        <v>5423</v>
       </c>
       <c r="C5">
-        <v>517</v>
+        <v>12</v>
       </c>
       <c r="D5">
-        <v>292</v>
+        <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1486,13 +1542,13 @@
         <v>43907.37222222222</v>
       </c>
       <c r="B6">
-        <v>9942</v>
+        <v>6655</v>
       </c>
       <c r="C6">
-        <v>530</v>
+        <v>12</v>
       </c>
       <c r="D6">
-        <v>342</v>
+        <v>148</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -1500,13 +1556,13 @@
         <v>43908.298611111109</v>
       </c>
       <c r="B7">
-        <v>11826</v>
+        <v>7730</v>
       </c>
       <c r="C7">
-        <v>1028</v>
+        <v>12</v>
       </c>
       <c r="D7">
-        <v>533</v>
+        <v>175</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -1514,13 +1570,13 @@
         <v>43909.195138888892</v>
       </c>
       <c r="B8">
-        <v>14769</v>
+        <v>9134</v>
       </c>
       <c r="C8">
-        <v>1081</v>
+        <v>12</v>
       </c>
       <c r="D8">
-        <v>638</v>
+        <v>264</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -1528,13 +1584,13 @@
         <v>43910.340277777781</v>
       </c>
       <c r="B9">
-        <v>18077</v>
+        <v>11010</v>
       </c>
       <c r="C9">
-        <v>1107</v>
+        <v>12</v>
       </c>
       <c r="D9">
-        <v>833</v>
+        <v>372</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -1542,13 +1598,13 @@
         <v>43911.32708333333</v>
       </c>
       <c r="B10">
-        <v>21571</v>
+        <v>12612</v>
       </c>
       <c r="C10">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="D10">
-        <v>1093</v>
+        <v>450</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -1556,13 +1612,13 @@
         <v>43912.161111111112</v>
       </c>
       <c r="B11">
-        <v>25496</v>
+        <v>14485</v>
       </c>
       <c r="C11">
-        <v>2125</v>
+        <v>1587</v>
       </c>
       <c r="D11">
-        <v>1381</v>
+        <v>562</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -1570,13 +1626,13 @@
         <v>43913.329861111109</v>
       </c>
       <c r="B12">
-        <v>28768</v>
+        <v>16243</v>
       </c>
       <c r="C12">
-        <v>2575</v>
+        <v>2201</v>
       </c>
       <c r="D12">
-        <v>1772</v>
+        <v>676</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -1584,13 +1640,27 @@
         <v>43914.166666666664</v>
       </c>
       <c r="B13">
-        <v>35136</v>
+        <v>20123</v>
       </c>
       <c r="C13">
-        <v>3355</v>
+        <v>2207</v>
       </c>
       <c r="D13">
-        <v>2311</v>
+        <v>862</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>43915.1875</v>
+      </c>
+      <c r="B14">
+        <v>22633</v>
+      </c>
+      <c r="C14">
+        <v>3288</v>
+      </c>
+      <c r="D14">
+        <v>1102</v>
       </c>
     </row>
   </sheetData>
@@ -1601,10 +1671,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADCED248-DC47-4D72-B4A8-11B0E4326564}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1796,6 +1866,20 @@
         <v>336</v>
       </c>
     </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>43915.1875</v>
+      </c>
+      <c r="B14">
+        <v>8164</v>
+      </c>
+      <c r="C14">
+        <v>140</v>
+      </c>
+      <c r="D14">
+        <v>423</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1805,10 +1889,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7DAB03D-2093-43D6-930A-C5C263DB0B65}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2000,6 +2084,20 @@
         <v>610</v>
       </c>
     </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>43915.1875</v>
+      </c>
+      <c r="B14">
+        <v>55041</v>
+      </c>
+      <c r="C14">
+        <v>348</v>
+      </c>
+      <c r="D14">
+        <v>790</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -2009,10 +2107,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B8DAF25-F5B0-47E4-BAFA-42517715F0C0}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2204,6 +2302,20 @@
         <v>21</v>
       </c>
     </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>43915.1875</v>
+      </c>
+      <c r="B14">
+        <v>5283</v>
+      </c>
+      <c r="C14">
+        <v>9</v>
+      </c>
+      <c r="D14">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -2213,10 +2325,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C93D820-3EC4-4C78-B8BB-92CDAF853513}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2408,6 +2520,20 @@
         <v>120</v>
       </c>
     </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>43915.1875</v>
+      </c>
+      <c r="B14">
+        <v>9877</v>
+      </c>
+      <c r="C14">
+        <v>131</v>
+      </c>
+      <c r="D14">
+        <v>130</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -2416,10 +2542,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E279C389-C415-4B73-9113-FDA48BBDF828}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2611,6 +2737,20 @@
         <v>120</v>
       </c>
     </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>43915.1875</v>
+      </c>
+      <c r="B14">
+        <v>9037</v>
+      </c>
+      <c r="C14">
+        <v>3507</v>
+      </c>
+      <c r="D14">
+        <v>124</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/covid-manual-excel.xlsx
+++ b/covid-manual-excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspaces\covid-19-data-analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B993EC47-D8FF-4655-9242-49B6B110C799}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69100CC8-6EE6-4323-A2B5-8326DDA8EE42}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="18960" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="18960" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="1" r:id="rId1"/>
@@ -551,10 +551,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -760,6 +760,20 @@
         <v>159</v>
       </c>
     </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>43916.411111111112</v>
+      </c>
+      <c r="B15">
+        <v>37323</v>
+      </c>
+      <c r="C15">
+        <v>3547</v>
+      </c>
+      <c r="D15">
+        <v>206</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -768,10 +782,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8DB2288-E66E-44BC-933C-9471E73C5145}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -975,6 +989,20 @@
       </c>
       <c r="D14">
         <v>1934</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>43916.411111111112</v>
+      </c>
+      <c r="B15">
+        <v>27017</v>
+      </c>
+      <c r="C15">
+        <v>9625</v>
+      </c>
+      <c r="D15">
+        <v>2077</v>
       </c>
     </row>
   </sheetData>
@@ -1020,10 +1048,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E75EBFD-15CF-4FAD-9CA9-0C1E4CDC9AF7}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1229,6 +1257,20 @@
         <v>6820</v>
       </c>
     </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>43916.411111111112</v>
+      </c>
+      <c r="B15">
+        <v>74386</v>
+      </c>
+      <c r="C15">
+        <v>9362</v>
+      </c>
+      <c r="D15">
+        <v>7503</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1237,10 +1279,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{526A6C31-C389-4FCA-ABC1-1A7A35286209}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1446,6 +1488,20 @@
         <v>2991</v>
       </c>
     </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>43916.411111111112</v>
+      </c>
+      <c r="B15">
+        <v>49515</v>
+      </c>
+      <c r="C15">
+        <v>5367</v>
+      </c>
+      <c r="D15">
+        <v>3647</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1454,10 +1510,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{584CF58A-B6AB-4B55-A232-0ECA8145474E}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1663,6 +1719,20 @@
         <v>1102</v>
       </c>
     </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>43916.411111111112</v>
+      </c>
+      <c r="B15">
+        <v>25600</v>
+      </c>
+      <c r="C15">
+        <v>3907</v>
+      </c>
+      <c r="D15">
+        <v>1333</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1671,10 +1741,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADCED248-DC47-4D72-B4A8-11B0E4326564}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1880,6 +1950,20 @@
         <v>423</v>
       </c>
     </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>43916.411111111112</v>
+      </c>
+      <c r="B15">
+        <v>9640</v>
+      </c>
+      <c r="C15">
+        <v>140</v>
+      </c>
+      <c r="D15">
+        <v>467</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1889,10 +1973,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7DAB03D-2093-43D6-930A-C5C263DB0B65}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2098,6 +2182,20 @@
         <v>790</v>
       </c>
     </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>43916.411111111112</v>
+      </c>
+      <c r="B15">
+        <v>69197</v>
+      </c>
+      <c r="C15">
+        <v>619</v>
+      </c>
+      <c r="D15">
+        <v>1050</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -2107,10 +2205,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B8DAF25-F5B0-47E4-BAFA-42517715F0C0}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2316,6 +2414,20 @@
         <v>28</v>
       </c>
     </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>43916.411111111112</v>
+      </c>
+      <c r="B15">
+        <v>6001</v>
+      </c>
+      <c r="C15">
+        <v>9</v>
+      </c>
+      <c r="D15">
+        <v>42</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -2325,10 +2437,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C93D820-3EC4-4C78-B8BB-92CDAF853513}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K47" sqref="K47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2534,6 +2646,20 @@
         <v>130</v>
       </c>
     </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>43916.411111111112</v>
+      </c>
+      <c r="B15">
+        <v>10897</v>
+      </c>
+      <c r="C15">
+        <v>131</v>
+      </c>
+      <c r="D15">
+        <v>153</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -2542,10 +2668,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E279C389-C415-4B73-9113-FDA48BBDF828}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2751,6 +2877,20 @@
         <v>124</v>
       </c>
     </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>43916.411111111112</v>
+      </c>
+      <c r="B15">
+        <v>9241</v>
+      </c>
+      <c r="C15">
+        <v>4144</v>
+      </c>
+      <c r="D15">
+        <v>131</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/covid-manual-excel.xlsx
+++ b/covid-manual-excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspaces\covid-19-data-analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69100CC8-6EE6-4323-A2B5-8326DDA8EE42}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71B6BBBA-AB8A-407F-BECB-54B26B480E4E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="18960" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="18960" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="1" r:id="rId1"/>
@@ -177,6 +177,30 @@
           </rPr>
           <t xml:space="preserve">
 3924</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B16" authorId="0" shapeId="0" xr:uid="{D8BFAAF6-3D5C-40E7-B734-62AC14C2CC6E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>cs:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+offiziell 6398</t>
         </r>
       </text>
     </comment>
@@ -551,10 +575,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -774,6 +798,20 @@
         <v>206</v>
       </c>
     </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>43917.324305555558</v>
+      </c>
+      <c r="B16">
+        <v>43211</v>
+      </c>
+      <c r="C16">
+        <v>5678</v>
+      </c>
+      <c r="D16">
+        <v>262</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -782,10 +820,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8DB2288-E66E-44BC-933C-9471E73C5145}">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1004,6 +1042,9 @@
       <c r="D15">
         <v>2077</v>
       </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1048,10 +1089,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E75EBFD-15CF-4FAD-9CA9-0C1E4CDC9AF7}">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1271,6 +1312,20 @@
         <v>7503</v>
       </c>
     </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>43917.324305555558</v>
+      </c>
+      <c r="B16">
+        <v>80589</v>
+      </c>
+      <c r="C16">
+        <v>10361</v>
+      </c>
+      <c r="D16">
+        <v>8215</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1279,10 +1334,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{526A6C31-C389-4FCA-ABC1-1A7A35286209}">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1502,6 +1557,20 @@
         <v>3647</v>
       </c>
     </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>43917.324305555558</v>
+      </c>
+      <c r="B16">
+        <v>57786</v>
+      </c>
+      <c r="C16">
+        <v>7015</v>
+      </c>
+      <c r="D16">
+        <v>4365</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1510,10 +1579,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{584CF58A-B6AB-4B55-A232-0ECA8145474E}">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1733,6 +1802,20 @@
         <v>1333</v>
       </c>
     </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>43917.324305555558</v>
+      </c>
+      <c r="B16">
+        <v>29566</v>
+      </c>
+      <c r="C16">
+        <v>4955</v>
+      </c>
+      <c r="D16">
+        <v>1698</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1741,10 +1824,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADCED248-DC47-4D72-B4A8-11B0E4326564}">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1964,6 +2047,20 @@
         <v>467</v>
       </c>
     </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>43917.324305555558</v>
+      </c>
+      <c r="B16">
+        <v>11812</v>
+      </c>
+      <c r="C16">
+        <v>150</v>
+      </c>
+      <c r="D16">
+        <v>580</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1973,10 +2070,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7DAB03D-2093-43D6-930A-C5C263DB0B65}">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2196,6 +2293,20 @@
         <v>1050</v>
       </c>
     </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>43917.324305555558</v>
+      </c>
+      <c r="B16">
+        <v>85991</v>
+      </c>
+      <c r="C16">
+        <v>753</v>
+      </c>
+      <c r="D16">
+        <v>1296</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -2205,10 +2316,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B8DAF25-F5B0-47E4-BAFA-42517715F0C0}">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2428,6 +2539,20 @@
         <v>42</v>
       </c>
     </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>43917.324305555558</v>
+      </c>
+      <c r="B16">
+        <v>6909</v>
+      </c>
+      <c r="C16">
+        <v>112</v>
+      </c>
+      <c r="D16">
+        <v>49</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -2437,10 +2562,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C93D820-3EC4-4C78-B8BB-92CDAF853513}">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K47" sqref="K47"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2660,6 +2785,20 @@
         <v>153</v>
       </c>
     </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>43917.324305555558</v>
+      </c>
+      <c r="B16">
+        <v>11811</v>
+      </c>
+      <c r="C16">
+        <v>131</v>
+      </c>
+      <c r="D16">
+        <v>192</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -2668,10 +2807,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E279C389-C415-4B73-9113-FDA48BBDF828}">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2891,6 +3030,9 @@
         <v>131</v>
       </c>
     </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/covid-manual-excel.xlsx
+++ b/covid-manual-excel.xlsx
@@ -8,18 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspaces\covid-19-data-analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71B6BBBA-AB8A-407F-BECB-54B26B480E4E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F6DBFAC-8F44-4537-A0AB-DEBF6A34AE21}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="18960" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="18960" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="1" r:id="rId1"/>
-    <sheet name="Italy" sheetId="6" r:id="rId2"/>
-    <sheet name="Spain" sheetId="3" r:id="rId3"/>
-    <sheet name="France" sheetId="2" r:id="rId4"/>
-    <sheet name="United Kingdom" sheetId="4" r:id="rId5"/>
-    <sheet name="US" sheetId="7" r:id="rId6"/>
-    <sheet name="Austria" sheetId="8" r:id="rId7"/>
+    <sheet name="Austria" sheetId="8" r:id="rId2"/>
+    <sheet name="Italy" sheetId="6" r:id="rId3"/>
+    <sheet name="Spain" sheetId="3" r:id="rId4"/>
+    <sheet name="France" sheetId="2" r:id="rId5"/>
+    <sheet name="United Kingdom" sheetId="4" r:id="rId6"/>
+    <sheet name="US" sheetId="7" r:id="rId7"/>
     <sheet name="Switzerland" sheetId="9" r:id="rId8"/>
     <sheet name="Korea, South" sheetId="11" r:id="rId9"/>
     <sheet name="Iran" sheetId="12" r:id="rId10"/>
@@ -35,98 +35,6 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>cs</author>
-  </authors>
-  <commentList>
-    <comment ref="D8" authorId="0" shapeId="0" xr:uid="{3F8890DB-AB6A-4F26-A8BE-E8F5B0B5AC09}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <charset val="1"/>
-          </rPr>
-          <t>cs:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-67</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>cs</author>
-  </authors>
-  <commentList>
-    <comment ref="C12" authorId="0" shapeId="0" xr:uid="{9920E91E-55C7-4843-BA05-B34A1C304AEE}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <charset val="1"/>
-          </rPr>
-          <t>cs:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-data problem</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C13" authorId="0" shapeId="0" xr:uid="{414298AA-D0D9-4103-A0D0-8F4E21236E6B}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <charset val="1"/>
-          </rPr>
-          <t>cs:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-data problem</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>cs</author>
@@ -201,6 +109,98 @@
           </rPr>
           <t xml:space="preserve">
 offiziell 6398</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>cs</author>
+  </authors>
+  <commentList>
+    <comment ref="D8" authorId="0" shapeId="0" xr:uid="{3F8890DB-AB6A-4F26-A8BE-E8F5B0B5AC09}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>cs:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+67</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>cs</author>
+  </authors>
+  <commentList>
+    <comment ref="C12" authorId="0" shapeId="0" xr:uid="{9920E91E-55C7-4843-BA05-B34A1C304AEE}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>cs:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+data problem</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C13" authorId="0" shapeId="0" xr:uid="{414298AA-D0D9-4103-A0D0-8F4E21236E6B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>cs:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+data problem</t>
         </r>
       </text>
     </comment>
@@ -575,10 +575,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -811,6 +811,9 @@
       <c r="D16">
         <v>262</v>
       </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1088,11 +1091,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E75EBFD-15CF-4FAD-9CA9-0C1E4CDC9AF7}">
-  <dimension ref="A1:D16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B8DAF25-F5B0-47E4-BAFA-42517715F0C0}">
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="A17" sqref="A17:D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1121,13 +1124,13 @@
         <v>43903.408333333333</v>
       </c>
       <c r="B2">
-        <v>15113</v>
+        <v>361</v>
       </c>
       <c r="C2">
-        <v>1258</v>
+        <v>4</v>
       </c>
       <c r="D2">
-        <v>1016</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1135,13 +1138,13 @@
         <v>43904.395138888889</v>
       </c>
       <c r="B3">
-        <v>17660</v>
+        <v>504</v>
       </c>
       <c r="C3">
-        <v>1439</v>
+        <v>6</v>
       </c>
       <c r="D3">
-        <v>1266</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1149,13 +1152,13 @@
         <v>43905.2</v>
       </c>
       <c r="B4">
-        <v>21157</v>
+        <v>655</v>
       </c>
       <c r="C4">
-        <v>1966</v>
+        <v>6</v>
       </c>
       <c r="D4">
-        <v>1441</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1163,13 +1166,13 @@
         <v>43906.337500000001</v>
       </c>
       <c r="B5">
-        <v>24747</v>
+        <v>860</v>
       </c>
       <c r="C5">
-        <v>2335</v>
+        <v>6</v>
       </c>
       <c r="D5">
-        <v>1809</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1177,13 +1180,13 @@
         <v>43907.37222222222</v>
       </c>
       <c r="B6">
-        <v>27980</v>
+        <v>1018</v>
       </c>
       <c r="C6">
-        <v>2749</v>
+        <v>8</v>
       </c>
       <c r="D6">
-        <v>2158</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -1191,13 +1194,13 @@
         <v>43908.298611111109</v>
       </c>
       <c r="B7">
-        <v>31506</v>
+        <v>1332</v>
       </c>
       <c r="C7">
-        <v>2941</v>
+        <v>9</v>
       </c>
       <c r="D7">
-        <v>2503</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -1205,13 +1208,13 @@
         <v>43909.195138888892</v>
       </c>
       <c r="B8">
-        <v>35713</v>
+        <v>1646</v>
       </c>
       <c r="C8">
-        <v>4025</v>
+        <v>9</v>
       </c>
       <c r="D8">
-        <v>2978</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -1219,13 +1222,13 @@
         <v>43910.340277777781</v>
       </c>
       <c r="B9">
-        <v>41035</v>
+        <v>2013</v>
       </c>
       <c r="C9">
-        <v>4440</v>
+        <v>9</v>
       </c>
       <c r="D9">
-        <v>3405</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -1233,13 +1236,13 @@
         <v>43911.32708333333</v>
       </c>
       <c r="B10">
-        <v>47021</v>
+        <v>2388</v>
       </c>
       <c r="C10">
-        <v>5129</v>
+        <v>9</v>
       </c>
       <c r="D10">
-        <v>4032</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -1247,13 +1250,13 @@
         <v>43912.161111111112</v>
       </c>
       <c r="B11">
-        <v>53578</v>
+        <v>2814</v>
       </c>
       <c r="C11">
-        <v>6072</v>
+        <v>9</v>
       </c>
       <c r="D11">
-        <v>4825</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -1261,13 +1264,13 @@
         <v>43913.329861111109</v>
       </c>
       <c r="B12">
-        <v>59138</v>
+        <v>3582</v>
       </c>
       <c r="C12">
-        <v>7024</v>
+        <v>9</v>
       </c>
       <c r="D12">
-        <v>5476</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -1275,13 +1278,13 @@
         <v>43914.166666666664</v>
       </c>
       <c r="B13">
-        <v>63927</v>
+        <v>4474</v>
       </c>
       <c r="C13">
-        <v>7432</v>
+        <v>9</v>
       </c>
       <c r="D13">
-        <v>6077</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -1289,13 +1292,13 @@
         <v>43915.1875</v>
       </c>
       <c r="B14">
-        <v>69176</v>
+        <v>5283</v>
       </c>
       <c r="C14">
-        <v>8326</v>
+        <v>9</v>
       </c>
       <c r="D14">
-        <v>6820</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -1303,13 +1306,13 @@
         <v>43916.411111111112</v>
       </c>
       <c r="B15">
-        <v>74386</v>
+        <v>6001</v>
       </c>
       <c r="C15">
-        <v>9362</v>
+        <v>9</v>
       </c>
       <c r="D15">
-        <v>7503</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -1317,27 +1320,31 @@
         <v>43917.324305555558</v>
       </c>
       <c r="B16">
-        <v>80589</v>
+        <v>6909</v>
       </c>
       <c r="C16">
-        <v>10361</v>
+        <v>112</v>
       </c>
       <c r="D16">
-        <v>8215</v>
-      </c>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{526A6C31-C389-4FCA-ABC1-1A7A35286209}">
-  <dimension ref="A1:D16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E75EBFD-15CF-4FAD-9CA9-0C1E4CDC9AF7}">
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1366,13 +1373,13 @@
         <v>43903.408333333333</v>
       </c>
       <c r="B2">
-        <v>3146</v>
+        <v>15113</v>
       </c>
       <c r="C2">
-        <v>189</v>
+        <v>1258</v>
       </c>
       <c r="D2">
-        <v>67</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1380,13 +1387,13 @@
         <v>43904.395138888889</v>
       </c>
       <c r="B3">
-        <v>5232</v>
+        <v>17660</v>
       </c>
       <c r="C3">
-        <v>193</v>
+        <v>1439</v>
       </c>
       <c r="D3">
-        <v>133</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1394,13 +1401,13 @@
         <v>43905.2</v>
       </c>
       <c r="B4">
-        <v>6391</v>
+        <v>21157</v>
       </c>
       <c r="C4">
-        <v>517</v>
+        <v>1966</v>
       </c>
       <c r="D4">
-        <v>196</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1408,13 +1415,13 @@
         <v>43906.337500000001</v>
       </c>
       <c r="B5">
-        <v>7844</v>
+        <v>24747</v>
       </c>
       <c r="C5">
-        <v>517</v>
+        <v>2335</v>
       </c>
       <c r="D5">
-        <v>292</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1422,13 +1429,13 @@
         <v>43907.37222222222</v>
       </c>
       <c r="B6">
-        <v>9942</v>
+        <v>27980</v>
       </c>
       <c r="C6">
-        <v>530</v>
+        <v>2749</v>
       </c>
       <c r="D6">
-        <v>342</v>
+        <v>2158</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -1436,13 +1443,13 @@
         <v>43908.298611111109</v>
       </c>
       <c r="B7">
-        <v>11826</v>
+        <v>31506</v>
       </c>
       <c r="C7">
-        <v>1028</v>
+        <v>2941</v>
       </c>
       <c r="D7">
-        <v>533</v>
+        <v>2503</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -1450,13 +1457,13 @@
         <v>43909.195138888892</v>
       </c>
       <c r="B8">
-        <v>14769</v>
+        <v>35713</v>
       </c>
       <c r="C8">
-        <v>1081</v>
+        <v>4025</v>
       </c>
       <c r="D8">
-        <v>638</v>
+        <v>2978</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -1464,13 +1471,13 @@
         <v>43910.340277777781</v>
       </c>
       <c r="B9">
-        <v>18077</v>
+        <v>41035</v>
       </c>
       <c r="C9">
-        <v>1107</v>
+        <v>4440</v>
       </c>
       <c r="D9">
-        <v>833</v>
+        <v>3405</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -1478,13 +1485,13 @@
         <v>43911.32708333333</v>
       </c>
       <c r="B10">
-        <v>21571</v>
+        <v>47021</v>
       </c>
       <c r="C10">
-        <v>1588</v>
+        <v>5129</v>
       </c>
       <c r="D10">
-        <v>1093</v>
+        <v>4032</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -1492,13 +1499,13 @@
         <v>43912.161111111112</v>
       </c>
       <c r="B11">
-        <v>25496</v>
+        <v>53578</v>
       </c>
       <c r="C11">
-        <v>2125</v>
+        <v>6072</v>
       </c>
       <c r="D11">
-        <v>1381</v>
+        <v>4825</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -1506,13 +1513,13 @@
         <v>43913.329861111109</v>
       </c>
       <c r="B12">
-        <v>28768</v>
+        <v>59138</v>
       </c>
       <c r="C12">
-        <v>2575</v>
+        <v>7024</v>
       </c>
       <c r="D12">
-        <v>1772</v>
+        <v>5476</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -1520,13 +1527,13 @@
         <v>43914.166666666664</v>
       </c>
       <c r="B13">
-        <v>35136</v>
+        <v>63927</v>
       </c>
       <c r="C13">
-        <v>3355</v>
+        <v>7432</v>
       </c>
       <c r="D13">
-        <v>2311</v>
+        <v>6077</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -1534,13 +1541,13 @@
         <v>43915.1875</v>
       </c>
       <c r="B14">
-        <v>42058</v>
+        <v>69176</v>
       </c>
       <c r="C14">
-        <v>3794</v>
+        <v>8326</v>
       </c>
       <c r="D14">
-        <v>2991</v>
+        <v>6820</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -1548,13 +1555,13 @@
         <v>43916.411111111112</v>
       </c>
       <c r="B15">
-        <v>49515</v>
+        <v>74386</v>
       </c>
       <c r="C15">
-        <v>5367</v>
+        <v>9362</v>
       </c>
       <c r="D15">
-        <v>3647</v>
+        <v>7503</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -1562,14 +1569,17 @@
         <v>43917.324305555558</v>
       </c>
       <c r="B16">
-        <v>57786</v>
+        <v>80589</v>
       </c>
       <c r="C16">
-        <v>7015</v>
+        <v>10361</v>
       </c>
       <c r="D16">
-        <v>4365</v>
-      </c>
+        <v>8215</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1578,11 +1588,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{584CF58A-B6AB-4B55-A232-0ECA8145474E}">
-  <dimension ref="A1:D16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{526A6C31-C389-4FCA-ABC1-1A7A35286209}">
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1611,13 +1621,13 @@
         <v>43903.408333333333</v>
       </c>
       <c r="B2">
-        <v>2876</v>
+        <v>3146</v>
       </c>
       <c r="C2">
-        <v>12</v>
+        <v>189</v>
       </c>
       <c r="D2">
-        <v>61</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1625,13 +1635,13 @@
         <v>43904.395138888889</v>
       </c>
       <c r="B3">
-        <v>3661</v>
+        <v>5232</v>
       </c>
       <c r="C3">
-        <v>12</v>
+        <v>193</v>
       </c>
       <c r="D3">
-        <v>79</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1639,13 +1649,13 @@
         <v>43905.2</v>
       </c>
       <c r="B4">
-        <v>4499</v>
+        <v>6391</v>
       </c>
       <c r="C4">
-        <v>12</v>
+        <v>517</v>
       </c>
       <c r="D4">
-        <v>91</v>
+        <v>196</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1653,13 +1663,13 @@
         <v>43906.337500000001</v>
       </c>
       <c r="B5">
-        <v>5423</v>
+        <v>7844</v>
       </c>
       <c r="C5">
-        <v>12</v>
+        <v>517</v>
       </c>
       <c r="D5">
-        <v>127</v>
+        <v>292</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1667,13 +1677,13 @@
         <v>43907.37222222222</v>
       </c>
       <c r="B6">
-        <v>6655</v>
+        <v>9942</v>
       </c>
       <c r="C6">
-        <v>12</v>
+        <v>530</v>
       </c>
       <c r="D6">
-        <v>148</v>
+        <v>342</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -1681,13 +1691,13 @@
         <v>43908.298611111109</v>
       </c>
       <c r="B7">
-        <v>7730</v>
+        <v>11826</v>
       </c>
       <c r="C7">
-        <v>12</v>
+        <v>1028</v>
       </c>
       <c r="D7">
-        <v>175</v>
+        <v>533</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -1695,13 +1705,13 @@
         <v>43909.195138888892</v>
       </c>
       <c r="B8">
-        <v>9134</v>
+        <v>14769</v>
       </c>
       <c r="C8">
-        <v>12</v>
+        <v>1081</v>
       </c>
       <c r="D8">
-        <v>264</v>
+        <v>638</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -1709,13 +1719,13 @@
         <v>43910.340277777781</v>
       </c>
       <c r="B9">
-        <v>11010</v>
+        <v>18077</v>
       </c>
       <c r="C9">
-        <v>12</v>
+        <v>1107</v>
       </c>
       <c r="D9">
-        <v>372</v>
+        <v>833</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -1723,13 +1733,13 @@
         <v>43911.32708333333</v>
       </c>
       <c r="B10">
-        <v>12612</v>
+        <v>21571</v>
       </c>
       <c r="C10">
-        <v>1587</v>
+        <v>1588</v>
       </c>
       <c r="D10">
-        <v>450</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -1737,13 +1747,13 @@
         <v>43912.161111111112</v>
       </c>
       <c r="B11">
-        <v>14485</v>
+        <v>25496</v>
       </c>
       <c r="C11">
-        <v>1587</v>
+        <v>2125</v>
       </c>
       <c r="D11">
-        <v>562</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -1751,13 +1761,13 @@
         <v>43913.329861111109</v>
       </c>
       <c r="B12">
-        <v>16243</v>
+        <v>28768</v>
       </c>
       <c r="C12">
-        <v>2201</v>
+        <v>2575</v>
       </c>
       <c r="D12">
-        <v>676</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -1765,13 +1775,13 @@
         <v>43914.166666666664</v>
       </c>
       <c r="B13">
-        <v>20123</v>
+        <v>35136</v>
       </c>
       <c r="C13">
-        <v>2207</v>
+        <v>3355</v>
       </c>
       <c r="D13">
-        <v>862</v>
+        <v>2311</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -1779,13 +1789,13 @@
         <v>43915.1875</v>
       </c>
       <c r="B14">
-        <v>22633</v>
+        <v>42058</v>
       </c>
       <c r="C14">
-        <v>3288</v>
+        <v>3794</v>
       </c>
       <c r="D14">
-        <v>1102</v>
+        <v>2991</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -1793,13 +1803,13 @@
         <v>43916.411111111112</v>
       </c>
       <c r="B15">
-        <v>25600</v>
+        <v>49515</v>
       </c>
       <c r="C15">
-        <v>3907</v>
+        <v>5367</v>
       </c>
       <c r="D15">
-        <v>1333</v>
+        <v>3647</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -1807,14 +1817,17 @@
         <v>43917.324305555558</v>
       </c>
       <c r="B16">
-        <v>29566</v>
+        <v>57786</v>
       </c>
       <c r="C16">
-        <v>4955</v>
+        <v>7015</v>
       </c>
       <c r="D16">
-        <v>1698</v>
-      </c>
+        <v>4365</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1823,11 +1836,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADCED248-DC47-4D72-B4A8-11B0E4326564}">
-  <dimension ref="A1:D16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{584CF58A-B6AB-4B55-A232-0ECA8145474E}">
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="A17" sqref="A17:D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1856,13 +1869,13 @@
         <v>43903.408333333333</v>
       </c>
       <c r="B2">
-        <v>590</v>
+        <v>2876</v>
       </c>
       <c r="C2">
         <v>12</v>
       </c>
       <c r="D2">
-        <v>10</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1870,13 +1883,13 @@
         <v>43904.395138888889</v>
       </c>
       <c r="B3">
-        <v>798</v>
+        <v>3661</v>
       </c>
       <c r="C3">
         <v>12</v>
       </c>
       <c r="D3">
-        <v>10</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1884,13 +1897,13 @@
         <v>43905.2</v>
       </c>
       <c r="B4">
-        <v>1140</v>
+        <v>4499</v>
       </c>
       <c r="C4">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D4">
-        <v>21</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1898,13 +1911,13 @@
         <v>43906.337500000001</v>
       </c>
       <c r="B5">
-        <v>1372</v>
+        <v>5423</v>
       </c>
       <c r="C5">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D5">
-        <v>35</v>
+        <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1912,13 +1925,13 @@
         <v>43907.37222222222</v>
       </c>
       <c r="B6">
-        <v>1553</v>
+        <v>6655</v>
       </c>
       <c r="C6">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="D6">
-        <v>56</v>
+        <v>148</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -1926,13 +1939,13 @@
         <v>43908.298611111109</v>
       </c>
       <c r="B7">
-        <v>1960</v>
+        <v>7730</v>
       </c>
       <c r="C7">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="D7">
-        <v>72</v>
+        <v>175</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -1940,13 +1953,13 @@
         <v>43909.195138888892</v>
       </c>
       <c r="B8">
-        <v>2644</v>
+        <v>9134</v>
       </c>
       <c r="C8">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="D8">
-        <v>104</v>
+        <v>264</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -1954,13 +1967,13 @@
         <v>43910.340277777781</v>
       </c>
       <c r="B9">
-        <v>3269</v>
+        <v>11010</v>
       </c>
       <c r="C9">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="D9">
-        <v>144</v>
+        <v>372</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -1968,13 +1981,13 @@
         <v>43911.32708333333</v>
       </c>
       <c r="B10">
-        <v>4014</v>
+        <v>12612</v>
       </c>
       <c r="C10">
-        <v>67</v>
+        <v>1587</v>
       </c>
       <c r="D10">
-        <v>178</v>
+        <v>450</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -1982,13 +1995,13 @@
         <v>43912.161111111112</v>
       </c>
       <c r="B11">
-        <v>5067</v>
+        <v>14485</v>
       </c>
       <c r="C11">
-        <v>79</v>
+        <v>1587</v>
       </c>
       <c r="D11">
-        <v>234</v>
+        <v>562</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -1996,13 +2009,13 @@
         <v>43913.329861111109</v>
       </c>
       <c r="B12">
-        <v>5745</v>
+        <v>16243</v>
       </c>
       <c r="C12">
-        <v>137</v>
+        <v>2201</v>
       </c>
       <c r="D12">
-        <v>282</v>
+        <v>676</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -2010,13 +2023,13 @@
         <v>43914.166666666664</v>
       </c>
       <c r="B13">
-        <v>6726</v>
+        <v>20123</v>
       </c>
       <c r="C13">
-        <v>140</v>
+        <v>2207</v>
       </c>
       <c r="D13">
-        <v>336</v>
+        <v>862</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -2024,13 +2037,13 @@
         <v>43915.1875</v>
       </c>
       <c r="B14">
-        <v>8164</v>
+        <v>22633</v>
       </c>
       <c r="C14">
-        <v>140</v>
+        <v>3288</v>
       </c>
       <c r="D14">
-        <v>423</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -2038,13 +2051,13 @@
         <v>43916.411111111112</v>
       </c>
       <c r="B15">
-        <v>9640</v>
+        <v>25600</v>
       </c>
       <c r="C15">
-        <v>140</v>
+        <v>3907</v>
       </c>
       <c r="D15">
-        <v>467</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -2052,28 +2065,30 @@
         <v>43917.324305555558</v>
       </c>
       <c r="B16">
-        <v>11812</v>
+        <v>29566</v>
       </c>
       <c r="C16">
-        <v>150</v>
+        <v>4955</v>
       </c>
       <c r="D16">
-        <v>580</v>
-      </c>
+        <v>1698</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7DAB03D-2093-43D6-930A-C5C263DB0B65}">
-  <dimension ref="A1:D16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADCED248-DC47-4D72-B4A8-11B0E4326564}">
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2102,13 +2117,13 @@
         <v>43903.408333333333</v>
       </c>
       <c r="B2">
-        <v>1336</v>
+        <v>590</v>
       </c>
       <c r="C2">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D2">
-        <v>36</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -2116,13 +2131,13 @@
         <v>43904.395138888889</v>
       </c>
       <c r="B3">
-        <v>2615</v>
+        <v>798</v>
       </c>
       <c r="C3">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D3">
-        <v>47</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -2130,13 +2145,13 @@
         <v>43905.2</v>
       </c>
       <c r="B4">
-        <v>2808</v>
+        <v>1140</v>
       </c>
       <c r="C4">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D4">
-        <v>57</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -2144,13 +2159,13 @@
         <v>43906.337500000001</v>
       </c>
       <c r="B5">
-        <v>3791</v>
+        <v>1372</v>
       </c>
       <c r="C5">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D5">
-        <v>65</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -2158,13 +2173,13 @@
         <v>43907.37222222222</v>
       </c>
       <c r="B6">
-        <v>4661</v>
+        <v>1553</v>
       </c>
       <c r="C6">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="D6">
-        <v>85</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -2172,13 +2187,13 @@
         <v>43908.298611111109</v>
       </c>
       <c r="B7">
-        <v>6496</v>
+        <v>1960</v>
       </c>
       <c r="C7">
-        <v>17</v>
+        <v>66</v>
       </c>
       <c r="D7">
-        <v>114</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -2186,13 +2201,13 @@
         <v>43909.195138888892</v>
       </c>
       <c r="B8">
-        <v>9345</v>
+        <v>2644</v>
       </c>
       <c r="C8">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="D8">
-        <v>150</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -2200,13 +2215,13 @@
         <v>43910.340277777781</v>
       </c>
       <c r="B9">
-        <v>14312</v>
+        <v>3269</v>
       </c>
       <c r="C9">
-        <v>121</v>
+        <v>67</v>
       </c>
       <c r="D9">
-        <v>208</v>
+        <v>144</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -2214,13 +2229,13 @@
         <v>43911.32708333333</v>
       </c>
       <c r="B10">
-        <v>19671</v>
+        <v>4014</v>
       </c>
       <c r="C10">
-        <v>147</v>
+        <v>67</v>
       </c>
       <c r="D10">
-        <v>260</v>
+        <v>178</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -2228,13 +2243,13 @@
         <v>43912.161111111112</v>
       </c>
       <c r="B11">
-        <v>26138</v>
+        <v>5067</v>
       </c>
       <c r="C11">
-        <v>176</v>
+        <v>79</v>
       </c>
       <c r="D11">
-        <v>336</v>
+        <v>234</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -2242,13 +2257,13 @@
         <v>43913.329861111109</v>
       </c>
       <c r="B12">
-        <v>35206</v>
+        <v>5745</v>
       </c>
       <c r="C12">
-        <v>176</v>
+        <v>137</v>
       </c>
       <c r="D12">
-        <v>471</v>
+        <v>282</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -2256,13 +2271,13 @@
         <v>43914.166666666664</v>
       </c>
       <c r="B13">
-        <v>46332</v>
+        <v>6726</v>
       </c>
       <c r="C13">
-        <v>176</v>
+        <v>140</v>
       </c>
       <c r="D13">
-        <v>610</v>
+        <v>336</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -2270,13 +2285,13 @@
         <v>43915.1875</v>
       </c>
       <c r="B14">
-        <v>55041</v>
+        <v>8164</v>
       </c>
       <c r="C14">
-        <v>348</v>
+        <v>140</v>
       </c>
       <c r="D14">
-        <v>790</v>
+        <v>423</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -2284,13 +2299,13 @@
         <v>43916.411111111112</v>
       </c>
       <c r="B15">
-        <v>69197</v>
+        <v>9640</v>
       </c>
       <c r="C15">
-        <v>619</v>
+        <v>140</v>
       </c>
       <c r="D15">
-        <v>1050</v>
+        <v>467</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -2298,14 +2313,17 @@
         <v>43917.324305555558</v>
       </c>
       <c r="B16">
-        <v>85991</v>
+        <v>11812</v>
       </c>
       <c r="C16">
-        <v>753</v>
+        <v>150</v>
       </c>
       <c r="D16">
-        <v>1296</v>
-      </c>
+        <v>580</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2315,11 +2333,11 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B8DAF25-F5B0-47E4-BAFA-42517715F0C0}">
-  <dimension ref="A1:D16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7DAB03D-2093-43D6-930A-C5C263DB0B65}">
+  <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2348,13 +2366,13 @@
         <v>43903.408333333333</v>
       </c>
       <c r="B2">
-        <v>361</v>
+        <v>1336</v>
       </c>
       <c r="C2">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -2362,13 +2380,13 @@
         <v>43904.395138888889</v>
       </c>
       <c r="B3">
-        <v>504</v>
+        <v>2615</v>
       </c>
       <c r="C3">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -2376,13 +2394,13 @@
         <v>43905.2</v>
       </c>
       <c r="B4">
-        <v>655</v>
+        <v>2808</v>
       </c>
       <c r="C4">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -2390,13 +2408,13 @@
         <v>43906.337500000001</v>
       </c>
       <c r="B5">
-        <v>860</v>
+        <v>3791</v>
       </c>
       <c r="C5">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -2404,13 +2422,13 @@
         <v>43907.37222222222</v>
       </c>
       <c r="B6">
-        <v>1018</v>
+        <v>4661</v>
       </c>
       <c r="C6">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D6">
-        <v>3</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -2418,13 +2436,13 @@
         <v>43908.298611111109</v>
       </c>
       <c r="B7">
-        <v>1332</v>
+        <v>6496</v>
       </c>
       <c r="C7">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D7">
-        <v>3</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -2432,13 +2450,13 @@
         <v>43909.195138888892</v>
       </c>
       <c r="B8">
-        <v>1646</v>
+        <v>9345</v>
       </c>
       <c r="C8">
-        <v>9</v>
+        <v>106</v>
       </c>
       <c r="D8">
-        <v>4</v>
+        <v>150</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -2446,13 +2464,13 @@
         <v>43910.340277777781</v>
       </c>
       <c r="B9">
-        <v>2013</v>
+        <v>14312</v>
       </c>
       <c r="C9">
-        <v>9</v>
+        <v>121</v>
       </c>
       <c r="D9">
-        <v>6</v>
+        <v>208</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -2460,13 +2478,13 @@
         <v>43911.32708333333</v>
       </c>
       <c r="B10">
-        <v>2388</v>
+        <v>19671</v>
       </c>
       <c r="C10">
-        <v>9</v>
+        <v>147</v>
       </c>
       <c r="D10">
-        <v>11</v>
+        <v>260</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -2474,13 +2492,13 @@
         <v>43912.161111111112</v>
       </c>
       <c r="B11">
-        <v>2814</v>
+        <v>26138</v>
       </c>
       <c r="C11">
-        <v>9</v>
+        <v>176</v>
       </c>
       <c r="D11">
-        <v>11</v>
+        <v>336</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -2488,13 +2506,13 @@
         <v>43913.329861111109</v>
       </c>
       <c r="B12">
-        <v>3582</v>
+        <v>35206</v>
       </c>
       <c r="C12">
-        <v>9</v>
+        <v>176</v>
       </c>
       <c r="D12">
-        <v>16</v>
+        <v>471</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -2502,13 +2520,13 @@
         <v>43914.166666666664</v>
       </c>
       <c r="B13">
-        <v>4474</v>
+        <v>46332</v>
       </c>
       <c r="C13">
-        <v>9</v>
+        <v>176</v>
       </c>
       <c r="D13">
-        <v>21</v>
+        <v>610</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -2516,13 +2534,13 @@
         <v>43915.1875</v>
       </c>
       <c r="B14">
-        <v>5283</v>
+        <v>55041</v>
       </c>
       <c r="C14">
-        <v>9</v>
+        <v>348</v>
       </c>
       <c r="D14">
-        <v>28</v>
+        <v>790</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -2530,13 +2548,13 @@
         <v>43916.411111111112</v>
       </c>
       <c r="B15">
-        <v>6001</v>
+        <v>69197</v>
       </c>
       <c r="C15">
-        <v>9</v>
+        <v>619</v>
       </c>
       <c r="D15">
-        <v>42</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -2544,14 +2562,17 @@
         <v>43917.324305555558</v>
       </c>
       <c r="B16">
-        <v>6909</v>
+        <v>85991</v>
       </c>
       <c r="C16">
-        <v>112</v>
+        <v>753</v>
       </c>
       <c r="D16">
-        <v>49</v>
-      </c>
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2562,10 +2583,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C93D820-3EC4-4C78-B8BB-92CDAF853513}">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2798,6 +2819,9 @@
       <c r="D16">
         <v>192</v>
       </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/covid-manual-excel.xlsx
+++ b/covid-manual-excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspaces\covid-19-data-analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F6DBFAC-8F44-4537-A0AB-DEBF6A34AE21}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{726EF2DE-31D7-41DA-AB78-C129F85BD5D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="18960" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="18960" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="1" r:id="rId1"/>
@@ -575,10 +575,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -812,8 +812,33 @@
         <v>262</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>43918.418055555558</v>
+      </c>
+      <c r="B17">
+        <v>49039</v>
+      </c>
+      <c r="C17">
+        <v>6932</v>
+      </c>
+      <c r="D17">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>43919.418055555558</v>
+      </c>
+      <c r="B18">
+        <v>54268</v>
+      </c>
+      <c r="C18">
+        <v>8481</v>
+      </c>
+      <c r="D18">
+        <v>398</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1092,10 +1117,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B8DAF25-F5B0-47E4-BAFA-42517715F0C0}">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:D17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1329,8 +1354,33 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>43918.418055555558</v>
+      </c>
+      <c r="B17">
+        <v>7657</v>
+      </c>
+      <c r="C17">
+        <v>225</v>
+      </c>
+      <c r="D17">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>43919.418055555558</v>
+      </c>
+      <c r="B18">
+        <v>8188</v>
+      </c>
+      <c r="C18">
+        <v>225</v>
+      </c>
+      <c r="D18">
+        <v>68</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2583,10 +2633,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C93D820-3EC4-4C78-B8BB-92CDAF853513}">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2819,9 +2869,6 @@
       <c r="D16">
         <v>192</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/covid-manual-excel.xlsx
+++ b/covid-manual-excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspaces\covid-19-data-analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{726EF2DE-31D7-41DA-AB78-C129F85BD5D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90E1905B-2EC9-4480-B0EA-2EC97A040F86}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="18960" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -575,10 +575,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -838,6 +838,20 @@
       </c>
       <c r="D18">
         <v>398</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>43920.367361111108</v>
+      </c>
+      <c r="B19">
+        <v>58655</v>
+      </c>
+      <c r="C19">
+        <v>9291</v>
+      </c>
+      <c r="D19">
+        <v>456</v>
       </c>
     </row>
   </sheetData>
@@ -1117,10 +1131,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B8DAF25-F5B0-47E4-BAFA-42517715F0C0}">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1380,6 +1394,20 @@
       </c>
       <c r="D18">
         <v>68</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>43920.367361111108</v>
+      </c>
+      <c r="B19">
+        <v>8743</v>
+      </c>
+      <c r="C19">
+        <v>479</v>
+      </c>
+      <c r="D19">
+        <v>86</v>
       </c>
     </row>
   </sheetData>

--- a/covid-manual-excel.xlsx
+++ b/covid-manual-excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspaces\covid-19-data-analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90E1905B-2EC9-4480-B0EA-2EC97A040F86}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C14364B5-E6AD-4060-BDA6-30325E63F9CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="18960" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -575,10 +575,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -852,6 +852,20 @@
       </c>
       <c r="D19">
         <v>456</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>43921.167361111111</v>
+      </c>
+      <c r="B20">
+        <v>62526</v>
+      </c>
+      <c r="C20">
+        <v>13500</v>
+      </c>
+      <c r="D20">
+        <v>565</v>
       </c>
     </row>
   </sheetData>
@@ -1131,10 +1145,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B8DAF25-F5B0-47E4-BAFA-42517715F0C0}">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1163,7 +1177,7 @@
         <v>43903.408333333333</v>
       </c>
       <c r="B2">
-        <v>361</v>
+        <v>445</v>
       </c>
       <c r="C2">
         <v>4</v>
@@ -1177,7 +1191,7 @@
         <v>43904.395138888889</v>
       </c>
       <c r="B3">
-        <v>504</v>
+        <v>635</v>
       </c>
       <c r="C3">
         <v>6</v>
@@ -1191,7 +1205,7 @@
         <v>43905.2</v>
       </c>
       <c r="B4">
-        <v>655</v>
+        <v>819</v>
       </c>
       <c r="C4">
         <v>6</v>
@@ -1205,7 +1219,7 @@
         <v>43906.337500000001</v>
       </c>
       <c r="B5">
-        <v>860</v>
+        <v>1028</v>
       </c>
       <c r="C5">
         <v>6</v>
@@ -1219,7 +1233,7 @@
         <v>43907.37222222222</v>
       </c>
       <c r="B6">
-        <v>1018</v>
+        <v>1315</v>
       </c>
       <c r="C6">
         <v>8</v>
@@ -1233,7 +1247,7 @@
         <v>43908.298611111109</v>
       </c>
       <c r="B7">
-        <v>1332</v>
+        <v>1662</v>
       </c>
       <c r="C7">
         <v>9</v>
@@ -1247,7 +1261,7 @@
         <v>43909.195138888892</v>
       </c>
       <c r="B8">
-        <v>1646</v>
+        <v>2084</v>
       </c>
       <c r="C8">
         <v>9</v>
@@ -1261,7 +1275,7 @@
         <v>43910.340277777781</v>
       </c>
       <c r="B9">
-        <v>2013</v>
+        <v>2554</v>
       </c>
       <c r="C9">
         <v>9</v>
@@ -1275,7 +1289,7 @@
         <v>43911.32708333333</v>
       </c>
       <c r="B10">
-        <v>2388</v>
+        <v>3087</v>
       </c>
       <c r="C10">
         <v>9</v>
@@ -1289,7 +1303,7 @@
         <v>43912.161111111112</v>
       </c>
       <c r="B11">
-        <v>2814</v>
+        <v>3533</v>
       </c>
       <c r="C11">
         <v>9</v>
@@ -1303,7 +1317,7 @@
         <v>43913.329861111109</v>
       </c>
       <c r="B12">
-        <v>3582</v>
+        <v>4163</v>
       </c>
       <c r="C12">
         <v>9</v>
@@ -1317,7 +1331,7 @@
         <v>43914.166666666664</v>
       </c>
       <c r="B13">
-        <v>4474</v>
+        <v>4970</v>
       </c>
       <c r="C13">
         <v>9</v>
@@ -1331,7 +1345,7 @@
         <v>43915.1875</v>
       </c>
       <c r="B14">
-        <v>5283</v>
+        <v>5761</v>
       </c>
       <c r="C14">
         <v>9</v>
@@ -1345,7 +1359,7 @@
         <v>43916.411111111112</v>
       </c>
       <c r="B15">
-        <v>6001</v>
+        <v>6409</v>
       </c>
       <c r="C15">
         <v>9</v>
@@ -1359,7 +1373,7 @@
         <v>43917.324305555558</v>
       </c>
       <c r="B16">
-        <v>6909</v>
+        <v>7361</v>
       </c>
       <c r="C16">
         <v>112</v>
@@ -1373,7 +1387,7 @@
         <v>43918.418055555558</v>
       </c>
       <c r="B17">
-        <v>7657</v>
+        <v>8147</v>
       </c>
       <c r="C17">
         <v>225</v>
@@ -1387,7 +1401,7 @@
         <v>43919.418055555558</v>
       </c>
       <c r="B18">
-        <v>8188</v>
+        <v>8662</v>
       </c>
       <c r="C18">
         <v>225</v>
@@ -1401,13 +1415,27 @@
         <v>43920.367361111108</v>
       </c>
       <c r="B19">
-        <v>8743</v>
+        <v>9066</v>
       </c>
       <c r="C19">
         <v>479</v>
       </c>
       <c r="D19">
         <v>86</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>43921.167361111111</v>
+      </c>
+      <c r="B20">
+        <v>9618</v>
+      </c>
+      <c r="C20">
+        <v>636</v>
+      </c>
+      <c r="D20">
+        <v>108</v>
       </c>
     </row>
   </sheetData>

--- a/covid-manual-excel.xlsx
+++ b/covid-manual-excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspaces\covid-19-data-analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C14364B5-E6AD-4060-BDA6-30325E63F9CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11FE4E6B-DACD-4E3F-9EA5-818184DC78BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="18960" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -575,10 +575,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -866,6 +866,20 @@
       </c>
       <c r="D20">
         <v>565</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>43922.416666666664</v>
+      </c>
+      <c r="B21">
+        <v>67074</v>
+      </c>
+      <c r="C21">
+        <v>15826</v>
+      </c>
+      <c r="D21">
+        <v>702</v>
       </c>
     </row>
   </sheetData>
@@ -1145,10 +1159,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B8DAF25-F5B0-47E4-BAFA-42517715F0C0}">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1436,6 +1450,20 @@
       </c>
       <c r="D20">
         <v>108</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>43922.416666666664</v>
+      </c>
+      <c r="B21">
+        <v>10223</v>
+      </c>
+      <c r="C21">
+        <v>1095</v>
+      </c>
+      <c r="D21">
+        <v>128</v>
       </c>
     </row>
   </sheetData>

--- a/covid-manual-excel.xlsx
+++ b/covid-manual-excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspaces\covid-19-data-analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11FE4E6B-DACD-4E3F-9EA5-818184DC78BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEA5BA1D-3E02-4193-BF1B-212776E2D573}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="18960" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -575,10 +575,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -880,6 +880,20 @@
       </c>
       <c r="D21">
         <v>702</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>43923.112500000003</v>
+      </c>
+      <c r="B22">
+        <v>72956</v>
+      </c>
+      <c r="C22">
+        <v>19175</v>
+      </c>
+      <c r="D22">
+        <v>867</v>
       </c>
     </row>
   </sheetData>
@@ -1159,10 +1173,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B8DAF25-F5B0-47E4-BAFA-42517715F0C0}">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1464,6 +1478,20 @@
       </c>
       <c r="D21">
         <v>128</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>43923.112500000003</v>
+      </c>
+      <c r="B22">
+        <v>10711</v>
+      </c>
+      <c r="C22">
+        <v>1436</v>
+      </c>
+      <c r="D22">
+        <v>146</v>
       </c>
     </row>
   </sheetData>

--- a/covid-manual-excel.xlsx
+++ b/covid-manual-excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspaces\covid-19-data-analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEA5BA1D-3E02-4193-BF1B-212776E2D573}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC8EFAAE-3888-4CEC-863A-4F624EF68213}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="18960" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -575,10 +575,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -894,6 +894,20 @@
       </c>
       <c r="D22">
         <v>867</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>43924.272916666669</v>
+      </c>
+      <c r="B23">
+        <v>79450</v>
+      </c>
+      <c r="C23">
+        <v>22440</v>
+      </c>
+      <c r="D23">
+        <v>1107</v>
       </c>
     </row>
   </sheetData>
@@ -1173,10 +1187,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B8DAF25-F5B0-47E4-BAFA-42517715F0C0}">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1492,6 +1506,20 @@
       </c>
       <c r="D22">
         <v>146</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>43924.272916666669</v>
+      </c>
+      <c r="B23">
+        <v>11129</v>
+      </c>
+      <c r="C23">
+        <v>1749</v>
+      </c>
+      <c r="D23">
+        <v>158</v>
       </c>
     </row>
   </sheetData>

--- a/covid-manual-excel.xlsx
+++ b/covid-manual-excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspaces\covid-19-data-analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC8EFAAE-3888-4CEC-863A-4F624EF68213}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83F88791-3B9E-4068-A17E-1AE1C94223D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="18960" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -575,10 +575,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -907,7 +907,21 @@
         <v>22440</v>
       </c>
       <c r="D23">
-        <v>1107</v>
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>43925.448611111111</v>
+      </c>
+      <c r="B24">
+        <v>85436</v>
+      </c>
+      <c r="C24">
+        <v>24981</v>
+      </c>
+      <c r="D24">
+        <v>1153</v>
       </c>
     </row>
   </sheetData>
@@ -1187,10 +1201,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B8DAF25-F5B0-47E4-BAFA-42517715F0C0}">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1429,7 +1443,7 @@
         <v>43918.418055555558</v>
       </c>
       <c r="B17">
-        <v>8147</v>
+        <v>8210</v>
       </c>
       <c r="C17">
         <v>225</v>
@@ -1443,7 +1457,7 @@
         <v>43919.418055555558</v>
       </c>
       <c r="B18">
-        <v>8662</v>
+        <v>8760</v>
       </c>
       <c r="C18">
         <v>225</v>
@@ -1457,7 +1471,7 @@
         <v>43920.367361111108</v>
       </c>
       <c r="B19">
-        <v>9066</v>
+        <v>9215</v>
       </c>
       <c r="C19">
         <v>479</v>
@@ -1471,7 +1485,7 @@
         <v>43921.167361111111</v>
       </c>
       <c r="B20">
-        <v>9618</v>
+        <v>9908</v>
       </c>
       <c r="C20">
         <v>636</v>
@@ -1485,7 +1499,7 @@
         <v>43922.416666666664</v>
       </c>
       <c r="B21">
-        <v>10223</v>
+        <v>10449</v>
       </c>
       <c r="C21">
         <v>1095</v>
@@ -1499,7 +1513,7 @@
         <v>43923.112500000003</v>
       </c>
       <c r="B22">
-        <v>10711</v>
+        <v>10909</v>
       </c>
       <c r="C22">
         <v>1436</v>
@@ -1513,13 +1527,27 @@
         <v>43924.272916666669</v>
       </c>
       <c r="B23">
-        <v>11129</v>
+        <v>11253</v>
       </c>
       <c r="C23">
         <v>1749</v>
       </c>
       <c r="D23">
         <v>158</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>43925.448611111111</v>
+      </c>
+      <c r="B24">
+        <v>11541</v>
+      </c>
+      <c r="C24">
+        <v>2022</v>
+      </c>
+      <c r="D24">
+        <v>168</v>
       </c>
     </row>
   </sheetData>

--- a/covid-manual-excel.xlsx
+++ b/covid-manual-excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspaces\covid-19-data-analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83F88791-3B9E-4068-A17E-1AE1C94223D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AE8DE67-436F-4256-9905-74C5EEE0ABA5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="18960" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="18960" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="1" r:id="rId1"/>
@@ -18,17 +18,24 @@
     <sheet name="Italy" sheetId="6" r:id="rId3"/>
     <sheet name="Spain" sheetId="3" r:id="rId4"/>
     <sheet name="France" sheetId="2" r:id="rId5"/>
-    <sheet name="United Kingdom" sheetId="4" r:id="rId6"/>
-    <sheet name="US" sheetId="7" r:id="rId7"/>
-    <sheet name="Switzerland" sheetId="9" r:id="rId8"/>
-    <sheet name="Korea, South" sheetId="11" r:id="rId9"/>
-    <sheet name="Iran" sheetId="12" r:id="rId10"/>
-    <sheet name="DataSource" sheetId="10" r:id="rId11"/>
+    <sheet name="France-calc" sheetId="13" r:id="rId6"/>
+    <sheet name="United Kingdom" sheetId="4" r:id="rId7"/>
+    <sheet name="US" sheetId="7" r:id="rId8"/>
+    <sheet name="Switzerland" sheetId="9" r:id="rId9"/>
+    <sheet name="Korea, South" sheetId="11" r:id="rId10"/>
+    <sheet name="Iran" sheetId="12" r:id="rId11"/>
+    <sheet name="DataSource" sheetId="10" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -209,7 +216,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="7">
   <si>
     <t>confirmed</t>
   </si>
@@ -575,10 +582,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -924,6 +931,20 @@
         <v>1153</v>
       </c>
     </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>43926.40625</v>
+      </c>
+      <c r="B25">
+        <v>91314</v>
+      </c>
+      <c r="C25">
+        <v>26144</v>
+      </c>
+      <c r="D25">
+        <v>1319</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -931,6 +952,240 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E279C389-C415-4B73-9113-FDA48BBDF828}">
+  <dimension ref="A1:D16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>43903.408333333333</v>
+      </c>
+      <c r="B2">
+        <v>7979</v>
+      </c>
+      <c r="C2">
+        <v>510</v>
+      </c>
+      <c r="D2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>43904.395138888889</v>
+      </c>
+      <c r="B3">
+        <v>8086</v>
+      </c>
+      <c r="C3">
+        <v>714</v>
+      </c>
+      <c r="D3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>43905.2</v>
+      </c>
+      <c r="B4">
+        <v>8162</v>
+      </c>
+      <c r="C4">
+        <v>834</v>
+      </c>
+      <c r="D4">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>43906.337500000001</v>
+      </c>
+      <c r="B5">
+        <v>8236</v>
+      </c>
+      <c r="C5">
+        <v>1137</v>
+      </c>
+      <c r="D5">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>43907.37222222222</v>
+      </c>
+      <c r="B6">
+        <v>8320</v>
+      </c>
+      <c r="C6">
+        <v>1137</v>
+      </c>
+      <c r="D6">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>43908.298611111109</v>
+      </c>
+      <c r="B7">
+        <v>8413</v>
+      </c>
+      <c r="C7">
+        <v>1540</v>
+      </c>
+      <c r="D7">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>43909.195138888892</v>
+      </c>
+      <c r="B8">
+        <v>8565</v>
+      </c>
+      <c r="C8">
+        <v>1947</v>
+      </c>
+      <c r="D8">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>43910.340277777781</v>
+      </c>
+      <c r="B9">
+        <v>8652</v>
+      </c>
+      <c r="C9">
+        <v>2233</v>
+      </c>
+      <c r="D9">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>43911.32708333333</v>
+      </c>
+      <c r="B10">
+        <v>8799</v>
+      </c>
+      <c r="C10">
+        <v>2233</v>
+      </c>
+      <c r="D10">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>43912.161111111112</v>
+      </c>
+      <c r="B11">
+        <v>8897</v>
+      </c>
+      <c r="C11">
+        <v>2909</v>
+      </c>
+      <c r="D11">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>43913.329861111109</v>
+      </c>
+      <c r="B12">
+        <v>8961</v>
+      </c>
+      <c r="C12">
+        <v>3166</v>
+      </c>
+      <c r="D12">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>43914.166666666664</v>
+      </c>
+      <c r="B13">
+        <v>9037</v>
+      </c>
+      <c r="C13">
+        <v>3507</v>
+      </c>
+      <c r="D13">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>43915.1875</v>
+      </c>
+      <c r="B14">
+        <v>9037</v>
+      </c>
+      <c r="C14">
+        <v>3507</v>
+      </c>
+      <c r="D14">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>43916.411111111112</v>
+      </c>
+      <c r="B15">
+        <v>9241</v>
+      </c>
+      <c r="C15">
+        <v>4144</v>
+      </c>
+      <c r="D15">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8DB2288-E66E-44BC-933C-9471E73C5145}">
   <dimension ref="A1:D16"/>
   <sheetViews>
@@ -1164,7 +1419,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D25A5ABB-3E14-4835-899E-9FE8918CC2DA}">
   <dimension ref="A2:A4"/>
   <sheetViews>
@@ -1201,10 +1456,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B8DAF25-F5B0-47E4-BAFA-42517715F0C0}">
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1513,7 +1768,7 @@
         <v>43923.112500000003</v>
       </c>
       <c r="B22">
-        <v>10909</v>
+        <v>10914</v>
       </c>
       <c r="C22">
         <v>1436</v>
@@ -1527,7 +1782,7 @@
         <v>43924.272916666669</v>
       </c>
       <c r="B23">
-        <v>11253</v>
+        <v>11268</v>
       </c>
       <c r="C23">
         <v>1749</v>
@@ -1541,13 +1796,27 @@
         <v>43925.448611111111</v>
       </c>
       <c r="B24">
-        <v>11541</v>
+        <v>11595</v>
       </c>
       <c r="C24">
         <v>2022</v>
       </c>
       <c r="D24">
         <v>168</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>43926.40625</v>
+      </c>
+      <c r="B25">
+        <v>11766</v>
+      </c>
+      <c r="C25">
+        <v>2998</v>
+      </c>
+      <c r="D25">
+        <v>204</v>
       </c>
     </row>
   </sheetData>
@@ -2055,10 +2324,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{584CF58A-B6AB-4B55-A232-0ECA8145474E}">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:D17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16:B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2283,7 +2552,7 @@
         <v>43917.324305555558</v>
       </c>
       <c r="B16">
-        <v>29566</v>
+        <v>31530</v>
       </c>
       <c r="C16">
         <v>4955</v>
@@ -2292,8 +2561,131 @@
         <v>1698</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>43918.418055555558</v>
+      </c>
+      <c r="B17">
+        <v>37330</v>
+      </c>
+      <c r="C17">
+        <v>5707</v>
+      </c>
+      <c r="D17">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>43919.418055555558</v>
+      </c>
+      <c r="B18">
+        <v>43997</v>
+      </c>
+      <c r="C18">
+        <v>5724</v>
+      </c>
+      <c r="D18">
+        <v>2317</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>43920.367361111108</v>
+      </c>
+      <c r="B19">
+        <v>48564</v>
+      </c>
+      <c r="C19">
+        <v>7226</v>
+      </c>
+      <c r="D19">
+        <v>2611</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>43921.167361111111</v>
+      </c>
+      <c r="B20">
+        <v>54990</v>
+      </c>
+      <c r="C20">
+        <v>7964</v>
+      </c>
+      <c r="D20">
+        <v>3030</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>43922.416666666664</v>
+      </c>
+      <c r="B21">
+        <v>64611</v>
+      </c>
+      <c r="C21">
+        <v>9513</v>
+      </c>
+      <c r="D21">
+        <v>3532</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>43923.112500000003</v>
+      </c>
+      <c r="B22">
+        <v>71497</v>
+      </c>
+      <c r="C22">
+        <v>11053</v>
+      </c>
+      <c r="D22">
+        <v>4043</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>43924.272916666669</v>
+      </c>
+      <c r="B23">
+        <v>75641</v>
+      </c>
+      <c r="C23">
+        <v>12548</v>
+      </c>
+      <c r="D23">
+        <v>5398</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>43925.448611111111</v>
+      </c>
+      <c r="B24">
+        <v>82878</v>
+      </c>
+      <c r="C24">
+        <v>14135</v>
+      </c>
+      <c r="D24">
+        <v>6520</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>43926.40625</v>
+      </c>
+      <c r="B25">
+        <v>90848</v>
+      </c>
+      <c r="C25">
+        <v>15572</v>
+      </c>
+      <c r="D25">
+        <v>7574</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2302,6 +2694,500 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D994EF58-FAD4-40E8-BBBD-4E150C904350}">
+  <dimension ref="A1:J25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16:C24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" customWidth="1"/>
+    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>43903.408333333333</v>
+      </c>
+      <c r="B2">
+        <v>2876</v>
+      </c>
+      <c r="D2">
+        <v>12</v>
+      </c>
+      <c r="E2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>43904.395138888889</v>
+      </c>
+      <c r="B3">
+        <v>3661</v>
+      </c>
+      <c r="D3">
+        <v>12</v>
+      </c>
+      <c r="E3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>43905.2</v>
+      </c>
+      <c r="B4">
+        <v>4499</v>
+      </c>
+      <c r="D4">
+        <v>12</v>
+      </c>
+      <c r="E4">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>43906.337500000001</v>
+      </c>
+      <c r="B5">
+        <v>5423</v>
+      </c>
+      <c r="D5">
+        <v>12</v>
+      </c>
+      <c r="E5">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>43907.37222222222</v>
+      </c>
+      <c r="B6">
+        <v>6655</v>
+      </c>
+      <c r="D6">
+        <v>12</v>
+      </c>
+      <c r="E6">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>43908.298611111109</v>
+      </c>
+      <c r="B7">
+        <v>7730</v>
+      </c>
+      <c r="D7">
+        <v>12</v>
+      </c>
+      <c r="E7">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>43909.195138888892</v>
+      </c>
+      <c r="B8">
+        <v>9134</v>
+      </c>
+      <c r="D8">
+        <v>12</v>
+      </c>
+      <c r="E8">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>43910.340277777781</v>
+      </c>
+      <c r="B9">
+        <v>11010</v>
+      </c>
+      <c r="D9">
+        <v>12</v>
+      </c>
+      <c r="E9">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>43911.32708333333</v>
+      </c>
+      <c r="B10">
+        <v>12612</v>
+      </c>
+      <c r="D10">
+        <v>1587</v>
+      </c>
+      <c r="E10">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>43912.161111111112</v>
+      </c>
+      <c r="B11">
+        <v>14485</v>
+      </c>
+      <c r="D11">
+        <v>1587</v>
+      </c>
+      <c r="E11">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>43913.329861111109</v>
+      </c>
+      <c r="B12">
+        <v>16243</v>
+      </c>
+      <c r="D12">
+        <v>2201</v>
+      </c>
+      <c r="E12">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>43914.166666666664</v>
+      </c>
+      <c r="B13">
+        <v>20123</v>
+      </c>
+      <c r="D13">
+        <v>2207</v>
+      </c>
+      <c r="E13">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>43915.1875</v>
+      </c>
+      <c r="B14">
+        <v>22633</v>
+      </c>
+      <c r="D14">
+        <v>3288</v>
+      </c>
+      <c r="E14">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>43916.411111111112</v>
+      </c>
+      <c r="B15">
+        <v>25600</v>
+      </c>
+      <c r="D15">
+        <v>3907</v>
+      </c>
+      <c r="E15">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>43917.324305555558</v>
+      </c>
+      <c r="B16">
+        <v>29566</v>
+      </c>
+      <c r="C16">
+        <f>B16+J16</f>
+        <v>31530</v>
+      </c>
+      <c r="D16">
+        <v>4955</v>
+      </c>
+      <c r="E16">
+        <v>1698</v>
+      </c>
+      <c r="I16">
+        <v>1964</v>
+      </c>
+      <c r="J16">
+        <f>SUM($I$16:I16)</f>
+        <v>1964</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>43918.418055555558</v>
+      </c>
+      <c r="B17">
+        <v>33402</v>
+      </c>
+      <c r="C17">
+        <f t="shared" ref="C17:C25" si="0">B17+J17</f>
+        <v>37330</v>
+      </c>
+      <c r="D17">
+        <v>5707</v>
+      </c>
+      <c r="E17">
+        <v>1997</v>
+      </c>
+      <c r="I17">
+        <v>1964</v>
+      </c>
+      <c r="J17">
+        <f>SUM($I$16:I17)</f>
+        <v>3928</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>43919.418055555558</v>
+      </c>
+      <c r="B18">
+        <v>38105</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>43997</v>
+      </c>
+      <c r="D18">
+        <v>5724</v>
+      </c>
+      <c r="E18">
+        <v>2317</v>
+      </c>
+      <c r="I18">
+        <v>1964</v>
+      </c>
+      <c r="J18">
+        <f>SUM($I$16:I18)</f>
+        <v>5892</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>43920.367361111108</v>
+      </c>
+      <c r="B19">
+        <v>40708</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="0"/>
+        <v>48564</v>
+      </c>
+      <c r="D19">
+        <v>7226</v>
+      </c>
+      <c r="E19">
+        <v>2611</v>
+      </c>
+      <c r="I19">
+        <v>1964</v>
+      </c>
+      <c r="J19">
+        <f>SUM($I$16:I19)</f>
+        <v>7856</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>43921.167361111111</v>
+      </c>
+      <c r="B20">
+        <v>45170</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="0"/>
+        <v>54990</v>
+      </c>
+      <c r="D20">
+        <v>7964</v>
+      </c>
+      <c r="E20">
+        <v>3030</v>
+      </c>
+      <c r="I20">
+        <v>1964</v>
+      </c>
+      <c r="J20">
+        <f>SUM($I$16:I20)</f>
+        <v>9820</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>43922.416666666664</v>
+      </c>
+      <c r="B21">
+        <v>52827</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="0"/>
+        <v>64611</v>
+      </c>
+      <c r="D21">
+        <v>9513</v>
+      </c>
+      <c r="E21">
+        <v>3532</v>
+      </c>
+      <c r="I21">
+        <v>1964</v>
+      </c>
+      <c r="J21">
+        <f>SUM($I$16:I21)</f>
+        <v>11784</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>43923.112500000003</v>
+      </c>
+      <c r="B22">
+        <v>57749</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="0"/>
+        <v>71497</v>
+      </c>
+      <c r="D22">
+        <v>11053</v>
+      </c>
+      <c r="E22">
+        <v>4043</v>
+      </c>
+      <c r="I22">
+        <v>1964</v>
+      </c>
+      <c r="J22">
+        <f>SUM($I$16:I22)</f>
+        <v>13748</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>43924.272916666669</v>
+      </c>
+      <c r="B23">
+        <v>59929</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="0"/>
+        <v>75641</v>
+      </c>
+      <c r="D23">
+        <v>12548</v>
+      </c>
+      <c r="E23">
+        <v>5398</v>
+      </c>
+      <c r="I23">
+        <v>1964</v>
+      </c>
+      <c r="J23">
+        <f>SUM($I$16:I23)</f>
+        <v>15712</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>43925.448611111111</v>
+      </c>
+      <c r="B24">
+        <v>65202</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="0"/>
+        <v>82878</v>
+      </c>
+      <c r="D24">
+        <v>14135</v>
+      </c>
+      <c r="E24">
+        <v>6520</v>
+      </c>
+      <c r="I24">
+        <v>1964</v>
+      </c>
+      <c r="J24">
+        <f>SUM($I$16:I24)</f>
+        <v>17676</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>43926.40625</v>
+      </c>
+      <c r="B25">
+        <f>90848</f>
+        <v>90848</v>
+      </c>
+      <c r="C25">
+        <f>B25-C24</f>
+        <v>7970</v>
+      </c>
+      <c r="D25">
+        <v>15572</v>
+      </c>
+      <c r="E25">
+        <v>7574</v>
+      </c>
+      <c r="G25">
+        <f>(B25-B24)-6000</f>
+        <v>19646</v>
+      </c>
+      <c r="H25">
+        <f>G25/10</f>
+        <v>1964.6</v>
+      </c>
+      <c r="I25">
+        <v>1964</v>
+      </c>
+      <c r="J25">
+        <f>SUM($I$16:I25)</f>
+        <v>19640</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="J17:J18 J19:J24" formulaRange="1"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADCED248-DC47-4D72-B4A8-11B0E4326564}">
   <dimension ref="A1:D17"/>
   <sheetViews>
@@ -2550,7 +3436,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7DAB03D-2093-43D6-930A-C5C263DB0B65}">
   <dimension ref="A1:D17"/>
   <sheetViews>
@@ -2799,7 +3685,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C93D820-3EC4-4C78-B8BB-92CDAF853513}">
   <dimension ref="A1:D16"/>
   <sheetViews>
@@ -3042,238 +3928,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E279C389-C415-4B73-9113-FDA48BBDF828}">
-  <dimension ref="A1:D16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>43903.408333333333</v>
-      </c>
-      <c r="B2">
-        <v>7979</v>
-      </c>
-      <c r="C2">
-        <v>510</v>
-      </c>
-      <c r="D2">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>43904.395138888889</v>
-      </c>
-      <c r="B3">
-        <v>8086</v>
-      </c>
-      <c r="C3">
-        <v>714</v>
-      </c>
-      <c r="D3">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>43905.2</v>
-      </c>
-      <c r="B4">
-        <v>8162</v>
-      </c>
-      <c r="C4">
-        <v>834</v>
-      </c>
-      <c r="D4">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>43906.337500000001</v>
-      </c>
-      <c r="B5">
-        <v>8236</v>
-      </c>
-      <c r="C5">
-        <v>1137</v>
-      </c>
-      <c r="D5">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>43907.37222222222</v>
-      </c>
-      <c r="B6">
-        <v>8320</v>
-      </c>
-      <c r="C6">
-        <v>1137</v>
-      </c>
-      <c r="D6">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>43908.298611111109</v>
-      </c>
-      <c r="B7">
-        <v>8413</v>
-      </c>
-      <c r="C7">
-        <v>1540</v>
-      </c>
-      <c r="D7">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>43909.195138888892</v>
-      </c>
-      <c r="B8">
-        <v>8565</v>
-      </c>
-      <c r="C8">
-        <v>1947</v>
-      </c>
-      <c r="D8">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>43910.340277777781</v>
-      </c>
-      <c r="B9">
-        <v>8652</v>
-      </c>
-      <c r="C9">
-        <v>2233</v>
-      </c>
-      <c r="D9">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>43911.32708333333</v>
-      </c>
-      <c r="B10">
-        <v>8799</v>
-      </c>
-      <c r="C10">
-        <v>2233</v>
-      </c>
-      <c r="D10">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>43912.161111111112</v>
-      </c>
-      <c r="B11">
-        <v>8897</v>
-      </c>
-      <c r="C11">
-        <v>2909</v>
-      </c>
-      <c r="D11">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>43913.329861111109</v>
-      </c>
-      <c r="B12">
-        <v>8961</v>
-      </c>
-      <c r="C12">
-        <v>3166</v>
-      </c>
-      <c r="D12">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>43914.166666666664</v>
-      </c>
-      <c r="B13">
-        <v>9037</v>
-      </c>
-      <c r="C13">
-        <v>3507</v>
-      </c>
-      <c r="D13">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>43915.1875</v>
-      </c>
-      <c r="B14">
-        <v>9037</v>
-      </c>
-      <c r="C14">
-        <v>3507</v>
-      </c>
-      <c r="D14">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>43916.411111111112</v>
-      </c>
-      <c r="B15">
-        <v>9241</v>
-      </c>
-      <c r="C15">
-        <v>4144</v>
-      </c>
-      <c r="D15">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-</worksheet>
 </file>
--- a/covid-manual-excel.xlsx
+++ b/covid-manual-excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspaces\covid-19-data-analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AE8DE67-436F-4256-9905-74C5EEE0ABA5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFF4A877-4491-407A-BEE6-CE7D31F8B251}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="18960" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="18960" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="1" r:id="rId1"/>
@@ -582,10 +582,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -943,6 +943,20 @@
       </c>
       <c r="D25">
         <v>1319</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>43927.370138888888</v>
+      </c>
+      <c r="B26">
+        <v>95950</v>
+      </c>
+      <c r="C26">
+        <v>26469</v>
+      </c>
+      <c r="D26">
+        <v>1452</v>
       </c>
     </row>
   </sheetData>
@@ -1456,10 +1470,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B8DAF25-F5B0-47E4-BAFA-42517715F0C0}">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:A25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1782,7 +1796,7 @@
         <v>43924.272916666669</v>
       </c>
       <c r="B23">
-        <v>11268</v>
+        <v>11297</v>
       </c>
       <c r="C23">
         <v>1749</v>
@@ -1796,7 +1810,7 @@
         <v>43925.448611111111</v>
       </c>
       <c r="B24">
-        <v>11595</v>
+        <v>11638</v>
       </c>
       <c r="C24">
         <v>2022</v>
@@ -1810,12 +1824,26 @@
         <v>43926.40625</v>
       </c>
       <c r="B25">
-        <v>11766</v>
+        <v>11867</v>
       </c>
       <c r="C25">
         <v>2998</v>
       </c>
       <c r="D25">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>43927.370138888888</v>
+      </c>
+      <c r="B26">
+        <v>11997</v>
+      </c>
+      <c r="C26">
+        <v>2998</v>
+      </c>
+      <c r="D26">
         <v>204</v>
       </c>
     </row>
@@ -2326,7 +2354,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{584CF58A-B6AB-4B55-A232-0ECA8145474E}">
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B16" sqref="B16:B24"/>
     </sheetView>
   </sheetViews>
@@ -2952,7 +2980,7 @@
         <v>33402</v>
       </c>
       <c r="C17">
-        <f t="shared" ref="C17:C25" si="0">B17+J17</f>
+        <f t="shared" ref="C17:C24" si="0">B17+J17</f>
         <v>37330</v>
       </c>
       <c r="D17">

--- a/covid-manual-excel.xlsx
+++ b/covid-manual-excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspaces\covid-19-data-analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFF4A877-4491-407A-BEE6-CE7D31F8B251}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C9FE94B-3590-485A-9DB4-D7AD53144DA6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="18960" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -582,10 +582,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -957,6 +957,20 @@
       </c>
       <c r="D26">
         <v>1452</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>43928.375</v>
+      </c>
+      <c r="B27">
+        <v>98945</v>
+      </c>
+      <c r="C27">
+        <v>36081</v>
+      </c>
+      <c r="D27">
+        <v>1578</v>
       </c>
     </row>
   </sheetData>
@@ -1470,10 +1484,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B8DAF25-F5B0-47E4-BAFA-42517715F0C0}">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1782,7 +1796,7 @@
         <v>43923.112500000003</v>
       </c>
       <c r="B22">
-        <v>10914</v>
+        <v>10968</v>
       </c>
       <c r="C22">
         <v>1436</v>
@@ -1796,7 +1810,7 @@
         <v>43924.272916666669</v>
       </c>
       <c r="B23">
-        <v>11297</v>
+        <v>11338</v>
       </c>
       <c r="C23">
         <v>1749</v>
@@ -1810,7 +1824,7 @@
         <v>43925.448611111111</v>
       </c>
       <c r="B24">
-        <v>11638</v>
+        <v>11708</v>
       </c>
       <c r="C24">
         <v>2022</v>
@@ -1824,7 +1838,7 @@
         <v>43926.40625</v>
       </c>
       <c r="B25">
-        <v>11867</v>
+        <v>11957</v>
       </c>
       <c r="C25">
         <v>2998</v>
@@ -1838,13 +1852,27 @@
         <v>43927.370138888888</v>
       </c>
       <c r="B26">
-        <v>11997</v>
+        <v>12118</v>
       </c>
       <c r="C26">
         <v>2998</v>
       </c>
       <c r="D26">
         <v>204</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>43928.375</v>
+      </c>
+      <c r="B27">
+        <v>12327</v>
+      </c>
+      <c r="C27">
+        <v>3463</v>
+      </c>
+      <c r="D27">
+        <v>220</v>
       </c>
     </row>
   </sheetData>

--- a/covid-manual-excel.xlsx
+++ b/covid-manual-excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspaces\covid-19-data-analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C9FE94B-3590-485A-9DB4-D7AD53144DA6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44FFBD96-2742-46DF-A691-07607507F20A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="18960" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -582,10 +582,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -971,6 +971,20 @@
       </c>
       <c r="D27">
         <v>1578</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>43929.344444444447</v>
+      </c>
+      <c r="B28">
+        <v>103036</v>
+      </c>
+      <c r="C28">
+        <v>38287</v>
+      </c>
+      <c r="D28">
+        <v>1814</v>
       </c>
     </row>
   </sheetData>
@@ -1484,10 +1498,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B8DAF25-F5B0-47E4-BAFA-42517715F0C0}">
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1824,7 +1838,7 @@
         <v>43925.448611111111</v>
       </c>
       <c r="B24">
-        <v>11708</v>
+        <v>11739</v>
       </c>
       <c r="C24">
         <v>2022</v>
@@ -1838,7 +1852,7 @@
         <v>43926.40625</v>
       </c>
       <c r="B25">
-        <v>11957</v>
+        <v>12013</v>
       </c>
       <c r="C25">
         <v>2998</v>
@@ -1852,7 +1866,7 @@
         <v>43927.370138888888</v>
       </c>
       <c r="B26">
-        <v>12118</v>
+        <v>12179</v>
       </c>
       <c r="C26">
         <v>2998</v>
@@ -1866,13 +1880,27 @@
         <v>43928.375</v>
       </c>
       <c r="B27">
-        <v>12327</v>
+        <v>12415</v>
       </c>
       <c r="C27">
         <v>3463</v>
       </c>
       <c r="D27">
         <v>220</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>43929.344444444447</v>
+      </c>
+      <c r="B28">
+        <v>12653</v>
+      </c>
+      <c r="C28">
+        <v>4046</v>
+      </c>
+      <c r="D28">
+        <v>243</v>
       </c>
     </row>
   </sheetData>

--- a/covid-manual-excel.xlsx
+++ b/covid-manual-excel.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspaces\covid-19-data-analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44FFBD96-2742-46DF-A691-07607507F20A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40FB92BB-46FD-40AD-8372-3B20C2349EA2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="18960" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -582,10 +582,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -985,6 +985,20 @@
       </c>
       <c r="D28">
         <v>1814</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>43930.14166666667</v>
+      </c>
+      <c r="B29">
+        <v>108193</v>
+      </c>
+      <c r="C29">
+        <v>43656</v>
+      </c>
+      <c r="D29">
+        <v>2070</v>
       </c>
     </row>
   </sheetData>
@@ -1498,10 +1512,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B8DAF25-F5B0-47E4-BAFA-42517715F0C0}">
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1852,7 +1866,7 @@
         <v>43926.40625</v>
       </c>
       <c r="B25">
-        <v>12013</v>
+        <v>12046</v>
       </c>
       <c r="C25">
         <v>2998</v>
@@ -1866,7 +1880,7 @@
         <v>43927.370138888888</v>
       </c>
       <c r="B26">
-        <v>12179</v>
+        <v>12227</v>
       </c>
       <c r="C26">
         <v>2998</v>
@@ -1880,7 +1894,7 @@
         <v>43928.375</v>
       </c>
       <c r="B27">
-        <v>12415</v>
+        <v>12468</v>
       </c>
       <c r="C27">
         <v>3463</v>
@@ -1894,13 +1908,27 @@
         <v>43929.344444444447</v>
       </c>
       <c r="B28">
-        <v>12653</v>
+        <v>12748</v>
       </c>
       <c r="C28">
         <v>4046</v>
       </c>
       <c r="D28">
         <v>243</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>43930.14166666667</v>
+      </c>
+      <c r="B29">
+        <v>12942</v>
+      </c>
+      <c r="C29">
+        <v>4512</v>
+      </c>
+      <c r="D29">
+        <v>273</v>
       </c>
     </row>
   </sheetData>

--- a/covid-manual-excel.xlsx
+++ b/covid-manual-excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspaces\covid-19-data-analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40FB92BB-46FD-40AD-8372-3B20C2349EA2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81525CEB-FC15-4CD1-A504-133463B30741}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="18960" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -582,10 +582,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -999,6 +999,20 @@
       </c>
       <c r="D29">
         <v>2070</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>43931.00277777778</v>
+      </c>
+      <c r="B30">
+        <v>112638</v>
+      </c>
+      <c r="C30">
+        <v>52407</v>
+      </c>
+      <c r="D30">
+        <v>2312</v>
       </c>
     </row>
   </sheetData>
@@ -1512,10 +1526,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B8DAF25-F5B0-47E4-BAFA-42517715F0C0}">
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1894,7 +1908,7 @@
         <v>43928.375</v>
       </c>
       <c r="B27">
-        <v>12468</v>
+        <v>12494</v>
       </c>
       <c r="C27">
         <v>3463</v>
@@ -1908,7 +1922,7 @@
         <v>43929.344444444447</v>
       </c>
       <c r="B28">
-        <v>12748</v>
+        <v>12812</v>
       </c>
       <c r="C28">
         <v>4046</v>
@@ -1922,13 +1936,27 @@
         <v>43930.14166666667</v>
       </c>
       <c r="B29">
-        <v>12942</v>
+        <v>13025</v>
       </c>
       <c r="C29">
         <v>4512</v>
       </c>
       <c r="D29">
         <v>273</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>43931.00277777778</v>
+      </c>
+      <c r="B30">
+        <v>13248</v>
+      </c>
+      <c r="C30">
+        <v>5240</v>
+      </c>
+      <c r="D30">
+        <v>295</v>
       </c>
     </row>
   </sheetData>

--- a/covid-manual-excel.xlsx
+++ b/covid-manual-excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspaces\covid-19-data-analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81525CEB-FC15-4CD1-A504-133463B30741}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3832E69-A760-4DB1-92BA-BA16B6E10B3A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="18960" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -582,10 +582,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1013,6 +1013,20 @@
       </c>
       <c r="D30">
         <v>2312</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>43932.246527777781</v>
+      </c>
+      <c r="B31">
+        <v>117790</v>
+      </c>
+      <c r="C31">
+        <v>55980</v>
+      </c>
+      <c r="D31">
+        <v>2537</v>
       </c>
     </row>
   </sheetData>
@@ -1526,10 +1540,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B8DAF25-F5B0-47E4-BAFA-42517715F0C0}">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1922,7 +1936,7 @@
         <v>43929.344444444447</v>
       </c>
       <c r="B28">
-        <v>12812</v>
+        <v>12842</v>
       </c>
       <c r="C28">
         <v>4046</v>
@@ -1936,7 +1950,7 @@
         <v>43930.14166666667</v>
       </c>
       <c r="B29">
-        <v>13025</v>
+        <v>13076</v>
       </c>
       <c r="C29">
         <v>4512</v>
@@ -1950,13 +1964,27 @@
         <v>43931.00277777778</v>
       </c>
       <c r="B30">
-        <v>13248</v>
+        <v>13313</v>
       </c>
       <c r="C30">
         <v>5240</v>
       </c>
       <c r="D30">
         <v>295</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>43932.246527777781</v>
+      </c>
+      <c r="B31">
+        <v>13560</v>
+      </c>
+      <c r="C31">
+        <v>6064</v>
+      </c>
+      <c r="D31">
+        <v>319</v>
       </c>
     </row>
   </sheetData>

--- a/covid-manual-excel.xlsx
+++ b/covid-manual-excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspaces\covid-19-data-analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3832E69-A760-4DB1-92BA-BA16B6E10B3A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13B911AF-95B9-47CB-9336-9A515B5B8746}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="18960" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -582,10 +582,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1027,6 +1027,20 @@
       </c>
       <c r="D31">
         <v>2537</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>43933.350694444445</v>
+      </c>
+      <c r="B32">
+        <v>121324</v>
+      </c>
+      <c r="C32">
+        <v>58190</v>
+      </c>
+      <c r="D32">
+        <v>2689</v>
       </c>
     </row>
   </sheetData>
@@ -1540,10 +1554,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B8DAF25-F5B0-47E4-BAFA-42517715F0C0}">
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1964,7 +1978,7 @@
         <v>43931.00277777778</v>
       </c>
       <c r="B30">
-        <v>13313</v>
+        <v>13339</v>
       </c>
       <c r="C30">
         <v>5240</v>
@@ -1978,13 +1992,27 @@
         <v>43932.246527777781</v>
       </c>
       <c r="B31">
-        <v>13560</v>
+        <v>13604</v>
       </c>
       <c r="C31">
         <v>6064</v>
       </c>
       <c r="D31">
         <v>319</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>43933.350694444445</v>
+      </c>
+      <c r="B32">
+        <v>13806</v>
+      </c>
+      <c r="C32">
+        <v>6604</v>
+      </c>
+      <c r="D32">
+        <v>337</v>
       </c>
     </row>
   </sheetData>

--- a/covid-manual-excel.xlsx
+++ b/covid-manual-excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspaces\covid-19-data-analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13B911AF-95B9-47CB-9336-9A515B5B8746}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{250B94D3-4958-4450-8DBF-43B79BF47D27}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="18960" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -582,10 +582,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1041,6 +1041,20 @@
       </c>
       <c r="D32">
         <v>2689</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>43934.474999999999</v>
+      </c>
+      <c r="B33">
+        <v>124242</v>
+      </c>
+      <c r="C33">
+        <v>60260</v>
+      </c>
+      <c r="D33">
+        <v>2834</v>
       </c>
     </row>
   </sheetData>
@@ -1554,10 +1568,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B8DAF25-F5B0-47E4-BAFA-42517715F0C0}">
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1978,7 +1992,7 @@
         <v>43931.00277777778</v>
       </c>
       <c r="B30">
-        <v>13339</v>
+        <v>13350</v>
       </c>
       <c r="C30">
         <v>5240</v>
@@ -1992,7 +2006,7 @@
         <v>43932.246527777781</v>
       </c>
       <c r="B31">
-        <v>13604</v>
+        <v>13652</v>
       </c>
       <c r="C31">
         <v>6064</v>
@@ -2006,13 +2020,27 @@
         <v>43933.350694444445</v>
       </c>
       <c r="B32">
-        <v>13806</v>
+        <v>13869</v>
       </c>
       <c r="C32">
         <v>6604</v>
       </c>
       <c r="D32">
         <v>337</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>43934.474999999999</v>
+      </c>
+      <c r="B33">
+        <v>13959</v>
+      </c>
+      <c r="C33">
+        <v>7343</v>
+      </c>
+      <c r="D33">
+        <v>368</v>
       </c>
     </row>
   </sheetData>

--- a/covid-manual-excel.xlsx
+++ b/covid-manual-excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspaces\covid-19-data-analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{250B94D3-4958-4450-8DBF-43B79BF47D27}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00C3A30C-AE1B-4E00-A4CF-03951690FFE8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="18960" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -582,10 +582,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1055,6 +1055,20 @@
       </c>
       <c r="D33">
         <v>2834</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>43935.628472222219</v>
+      </c>
+      <c r="B34">
+        <v>126615</v>
+      </c>
+      <c r="C34">
+        <v>62925</v>
+      </c>
+      <c r="D34">
+        <v>2993</v>
       </c>
     </row>
   </sheetData>
@@ -1568,10 +1582,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B8DAF25-F5B0-47E4-BAFA-42517715F0C0}">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2020,7 +2034,7 @@
         <v>43933.350694444445</v>
       </c>
       <c r="B32">
-        <v>13869</v>
+        <v>13898</v>
       </c>
       <c r="C32">
         <v>6604</v>
@@ -2034,13 +2048,27 @@
         <v>43934.474999999999</v>
       </c>
       <c r="B33">
-        <v>13959</v>
+        <v>14006</v>
       </c>
       <c r="C33">
         <v>7343</v>
       </c>
       <c r="D33">
         <v>368</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>43935.628472222219</v>
+      </c>
+      <c r="B34">
+        <v>14085</v>
+      </c>
+      <c r="C34">
+        <v>7633</v>
+      </c>
+      <c r="D34">
+        <v>384</v>
       </c>
     </row>
   </sheetData>

--- a/covid-manual-excel.xlsx
+++ b/covid-manual-excel.xlsx
@@ -8,23 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspaces\covid-19-data-analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00C3A30C-AE1B-4E00-A4CF-03951690FFE8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{670A5113-BEF2-4E00-9798-891BECC841D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="18960" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="1" r:id="rId1"/>
     <sheet name="Austria" sheetId="8" r:id="rId2"/>
-    <sheet name="Italy" sheetId="6" r:id="rId3"/>
-    <sheet name="Spain" sheetId="3" r:id="rId4"/>
-    <sheet name="France" sheetId="2" r:id="rId5"/>
-    <sheet name="France-calc" sheetId="13" r:id="rId6"/>
-    <sheet name="United Kingdom" sheetId="4" r:id="rId7"/>
-    <sheet name="US" sheetId="7" r:id="rId8"/>
-    <sheet name="Switzerland" sheetId="9" r:id="rId9"/>
-    <sheet name="Korea, South" sheetId="11" r:id="rId10"/>
-    <sheet name="Iran" sheetId="12" r:id="rId11"/>
-    <sheet name="DataSource" sheetId="10" r:id="rId12"/>
+    <sheet name="Austria-calc" sheetId="14" r:id="rId3"/>
+    <sheet name="Italy" sheetId="6" r:id="rId4"/>
+    <sheet name="Spain" sheetId="3" r:id="rId5"/>
+    <sheet name="France" sheetId="2" r:id="rId6"/>
+    <sheet name="France-calc" sheetId="13" r:id="rId7"/>
+    <sheet name="United Kingdom" sheetId="4" r:id="rId8"/>
+    <sheet name="US" sheetId="7" r:id="rId9"/>
+    <sheet name="Switzerland" sheetId="9" r:id="rId10"/>
+    <sheet name="Korea, South" sheetId="11" r:id="rId11"/>
+    <sheet name="Iran" sheetId="12" r:id="rId12"/>
+    <sheet name="DataSource" sheetId="10" r:id="rId13"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -129,6 +130,88 @@
     <author>cs</author>
   </authors>
   <commentList>
+    <comment ref="B12" authorId="0" shapeId="0" xr:uid="{B984B280-7A58-40B2-B218-6CC5DBFC754F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>cs:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+3.244</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B13" authorId="0" shapeId="0" xr:uid="{0D6C360D-1656-4271-B497-DF58AEB71117}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>cs:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+3924</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B16" authorId="0" shapeId="0" xr:uid="{5AAF2C92-1AD5-4569-9BC7-84B27DD9535A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>cs:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+offiziell 6398</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>cs</author>
+  </authors>
+  <commentList>
     <comment ref="D8" authorId="0" shapeId="0" xr:uid="{3F8890DB-AB6A-4F26-A8BE-E8F5B0B5AC09}">
       <text>
         <r>
@@ -157,7 +240,7 @@
 </comments>
 </file>
 
-<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>cs</author>
@@ -216,7 +299,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="7">
   <si>
     <t>confirmed</t>
   </si>
@@ -582,10 +665,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1071,6 +1154,20 @@
         <v>2993</v>
       </c>
     </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>43936.576388888891</v>
+      </c>
+      <c r="B35">
+        <v>128474</v>
+      </c>
+      <c r="C35">
+        <v>67056</v>
+      </c>
+      <c r="D35">
+        <v>3217</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1078,6 +1175,251 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C93D820-3EC4-4C78-B8BB-92CDAF853513}">
+  <dimension ref="A1:D16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:A18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>43903.408333333333</v>
+      </c>
+      <c r="B2">
+        <v>854</v>
+      </c>
+      <c r="C2">
+        <v>4</v>
+      </c>
+      <c r="D2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>43904.395138888889</v>
+      </c>
+      <c r="B3">
+        <v>1121</v>
+      </c>
+      <c r="C3">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>43905.2</v>
+      </c>
+      <c r="B4">
+        <v>1355</v>
+      </c>
+      <c r="C4">
+        <v>4</v>
+      </c>
+      <c r="D4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>43906.337500000001</v>
+      </c>
+      <c r="B5">
+        <v>2200</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>43907.37222222222</v>
+      </c>
+      <c r="B6">
+        <v>2330</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>43908.298611111109</v>
+      </c>
+      <c r="B7">
+        <v>2700</v>
+      </c>
+      <c r="C7">
+        <v>4</v>
+      </c>
+      <c r="D7">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>43909.195138888892</v>
+      </c>
+      <c r="B8">
+        <v>3067</v>
+      </c>
+      <c r="C8">
+        <v>15</v>
+      </c>
+      <c r="D8">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>43910.340277777781</v>
+      </c>
+      <c r="B9">
+        <v>4164</v>
+      </c>
+      <c r="C9">
+        <v>15</v>
+      </c>
+      <c r="D9">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>43911.32708333333</v>
+      </c>
+      <c r="B10">
+        <v>5544</v>
+      </c>
+      <c r="C10">
+        <v>15</v>
+      </c>
+      <c r="D10">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>43912.161111111112</v>
+      </c>
+      <c r="B11">
+        <v>6652</v>
+      </c>
+      <c r="C11">
+        <v>131</v>
+      </c>
+      <c r="D11">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>43913.329861111109</v>
+      </c>
+      <c r="B12">
+        <v>7474</v>
+      </c>
+      <c r="C12">
+        <v>131</v>
+      </c>
+      <c r="D12">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>43914.166666666664</v>
+      </c>
+      <c r="B13">
+        <v>8795</v>
+      </c>
+      <c r="C13">
+        <v>131</v>
+      </c>
+      <c r="D13">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>43915.1875</v>
+      </c>
+      <c r="B14">
+        <v>9877</v>
+      </c>
+      <c r="C14">
+        <v>131</v>
+      </c>
+      <c r="D14">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>43916.411111111112</v>
+      </c>
+      <c r="B15">
+        <v>10897</v>
+      </c>
+      <c r="C15">
+        <v>131</v>
+      </c>
+      <c r="D15">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>43917.324305555558</v>
+      </c>
+      <c r="B16">
+        <v>11811</v>
+      </c>
+      <c r="C16">
+        <v>131</v>
+      </c>
+      <c r="D16">
+        <v>192</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E279C389-C415-4B73-9113-FDA48BBDF828}">
   <dimension ref="A1:D16"/>
   <sheetViews>
@@ -1311,7 +1653,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8DB2288-E66E-44BC-933C-9471E73C5145}">
   <dimension ref="A1:D16"/>
   <sheetViews>
@@ -1545,7 +1887,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D25A5ABB-3E14-4835-899E-9FE8918CC2DA}">
   <dimension ref="A2:A4"/>
   <sheetViews>
@@ -1582,10 +1924,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B8DAF25-F5B0-47E4-BAFA-42517715F0C0}">
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+      <selection activeCell="B25" sqref="B25:B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1936,7 +2278,7 @@
         <v>43926.40625</v>
       </c>
       <c r="B25">
-        <v>12046</v>
+        <v>12223</v>
       </c>
       <c r="C25">
         <v>2998</v>
@@ -1950,7 +2292,7 @@
         <v>43927.370138888888</v>
       </c>
       <c r="B26">
-        <v>12227</v>
+        <v>12384</v>
       </c>
       <c r="C26">
         <v>2998</v>
@@ -1964,7 +2306,7 @@
         <v>43928.375</v>
       </c>
       <c r="B27">
-        <v>12494</v>
+        <v>12654</v>
       </c>
       <c r="C27">
         <v>3463</v>
@@ -1978,7 +2320,7 @@
         <v>43929.344444444447</v>
       </c>
       <c r="B28">
-        <v>12842</v>
+        <v>12962</v>
       </c>
       <c r="C28">
         <v>4046</v>
@@ -1992,7 +2334,7 @@
         <v>43930.14166666667</v>
       </c>
       <c r="B29">
-        <v>13076</v>
+        <v>13190</v>
       </c>
       <c r="C29">
         <v>4512</v>
@@ -2006,7 +2348,7 @@
         <v>43931.00277777778</v>
       </c>
       <c r="B30">
-        <v>13350</v>
+        <v>13452</v>
       </c>
       <c r="C30">
         <v>5240</v>
@@ -2020,7 +2362,7 @@
         <v>43932.246527777781</v>
       </c>
       <c r="B31">
-        <v>13652</v>
+        <v>13785</v>
       </c>
       <c r="C31">
         <v>6064</v>
@@ -2034,7 +2376,7 @@
         <v>43933.350694444445</v>
       </c>
       <c r="B32">
-        <v>13898</v>
+        <v>13973</v>
       </c>
       <c r="C32">
         <v>6604</v>
@@ -2048,7 +2390,7 @@
         <v>43934.474999999999</v>
       </c>
       <c r="B33">
-        <v>14006</v>
+        <v>14079</v>
       </c>
       <c r="C33">
         <v>7343</v>
@@ -2062,13 +2404,27 @@
         <v>43935.628472222219</v>
       </c>
       <c r="B34">
-        <v>14085</v>
+        <v>14166</v>
       </c>
       <c r="C34">
         <v>7633</v>
       </c>
       <c r="D34">
         <v>384</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>43936.576388888891</v>
+      </c>
+      <c r="B35">
+        <v>14290</v>
+      </c>
+      <c r="C35">
+        <v>8098</v>
+      </c>
+      <c r="D35">
+        <v>393</v>
       </c>
     </row>
   </sheetData>
@@ -2079,6 +2435,522 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C361FD1-37DF-4CF9-A8B7-B834A1753F46}">
+  <dimension ref="A1:G35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G25" sqref="G25:G35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>43903.408333333333</v>
+      </c>
+      <c r="C2">
+        <v>4</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>43904.395138888889</v>
+      </c>
+      <c r="C3">
+        <v>6</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>43905.2</v>
+      </c>
+      <c r="C4">
+        <v>6</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>43906.337500000001</v>
+      </c>
+      <c r="C5">
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>43907.37222222222</v>
+      </c>
+      <c r="C6">
+        <v>8</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>43908.298611111109</v>
+      </c>
+      <c r="C7">
+        <v>9</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>43909.195138888892</v>
+      </c>
+      <c r="C8">
+        <v>9</v>
+      </c>
+      <c r="D8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>43910.340277777781</v>
+      </c>
+      <c r="C9">
+        <v>9</v>
+      </c>
+      <c r="D9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>43911.32708333333</v>
+      </c>
+      <c r="C10">
+        <v>9</v>
+      </c>
+      <c r="D10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>43912.161111111112</v>
+      </c>
+      <c r="C11">
+        <v>9</v>
+      </c>
+      <c r="D11">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>43913.329861111109</v>
+      </c>
+      <c r="C12">
+        <v>9</v>
+      </c>
+      <c r="D12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>43914.166666666664</v>
+      </c>
+      <c r="C13">
+        <v>9</v>
+      </c>
+      <c r="D13">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>43915.1875</v>
+      </c>
+      <c r="C14">
+        <v>9</v>
+      </c>
+      <c r="D14">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>43916.411111111112</v>
+      </c>
+      <c r="C15">
+        <v>9</v>
+      </c>
+      <c r="D15">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>43917.324305555558</v>
+      </c>
+      <c r="C16">
+        <v>112</v>
+      </c>
+      <c r="D16">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>43918.418055555558</v>
+      </c>
+      <c r="C17">
+        <v>225</v>
+      </c>
+      <c r="D17">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>43919.418055555558</v>
+      </c>
+      <c r="C18">
+        <v>225</v>
+      </c>
+      <c r="D18">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>43920.367361111108</v>
+      </c>
+      <c r="C19">
+        <v>479</v>
+      </c>
+      <c r="D19">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>43921.167361111111</v>
+      </c>
+      <c r="C20">
+        <v>636</v>
+      </c>
+      <c r="D20">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>43922.416666666664</v>
+      </c>
+      <c r="C21">
+        <v>1095</v>
+      </c>
+      <c r="D21">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>43923.112500000003</v>
+      </c>
+      <c r="C22">
+        <v>1436</v>
+      </c>
+      <c r="D22">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>43924.272916666669</v>
+      </c>
+      <c r="C23">
+        <v>1749</v>
+      </c>
+      <c r="D23">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>43925.448611111111</v>
+      </c>
+      <c r="C24">
+        <v>2022</v>
+      </c>
+      <c r="D24">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>43926.40625</v>
+      </c>
+      <c r="B25">
+        <f t="shared" ref="B25:B33" si="0">B26-E25</f>
+        <v>12223</v>
+      </c>
+      <c r="C25">
+        <v>2998</v>
+      </c>
+      <c r="D25">
+        <v>204</v>
+      </c>
+      <c r="E25">
+        <v>161</v>
+      </c>
+      <c r="G25">
+        <v>12223</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>43927.370138888888</v>
+      </c>
+      <c r="B26">
+        <f t="shared" si="0"/>
+        <v>12384</v>
+      </c>
+      <c r="C26">
+        <v>2998</v>
+      </c>
+      <c r="D26">
+        <v>204</v>
+      </c>
+      <c r="E26">
+        <v>270</v>
+      </c>
+      <c r="G26">
+        <v>12384</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>43928.375</v>
+      </c>
+      <c r="B27">
+        <f t="shared" si="0"/>
+        <v>12654</v>
+      </c>
+      <c r="C27">
+        <v>3463</v>
+      </c>
+      <c r="D27">
+        <v>220</v>
+      </c>
+      <c r="E27">
+        <v>308</v>
+      </c>
+      <c r="G27">
+        <v>12654</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>43929.344444444447</v>
+      </c>
+      <c r="B28">
+        <f t="shared" si="0"/>
+        <v>12962</v>
+      </c>
+      <c r="C28">
+        <v>4046</v>
+      </c>
+      <c r="D28">
+        <v>243</v>
+      </c>
+      <c r="E28">
+        <v>228</v>
+      </c>
+      <c r="G28">
+        <v>12962</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>43930.14166666667</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="0"/>
+        <v>13190</v>
+      </c>
+      <c r="C29">
+        <v>4512</v>
+      </c>
+      <c r="D29">
+        <v>273</v>
+      </c>
+      <c r="E29">
+        <v>262</v>
+      </c>
+      <c r="G29">
+        <v>13190</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>43931.00277777778</v>
+      </c>
+      <c r="B30">
+        <f t="shared" si="0"/>
+        <v>13452</v>
+      </c>
+      <c r="C30">
+        <v>5240</v>
+      </c>
+      <c r="D30">
+        <v>295</v>
+      </c>
+      <c r="E30">
+        <v>333</v>
+      </c>
+      <c r="G30">
+        <v>13452</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>43932.246527777781</v>
+      </c>
+      <c r="B31">
+        <f t="shared" si="0"/>
+        <v>13785</v>
+      </c>
+      <c r="C31">
+        <v>6064</v>
+      </c>
+      <c r="D31">
+        <v>319</v>
+      </c>
+      <c r="E31">
+        <v>188</v>
+      </c>
+      <c r="G31">
+        <v>13785</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>43933.350694444445</v>
+      </c>
+      <c r="B32">
+        <f t="shared" si="0"/>
+        <v>13973</v>
+      </c>
+      <c r="C32">
+        <v>6604</v>
+      </c>
+      <c r="D32">
+        <v>337</v>
+      </c>
+      <c r="E32">
+        <v>106</v>
+      </c>
+      <c r="G32">
+        <v>13973</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>43934.474999999999</v>
+      </c>
+      <c r="B33">
+        <f t="shared" si="0"/>
+        <v>14079</v>
+      </c>
+      <c r="C33">
+        <v>7343</v>
+      </c>
+      <c r="D33">
+        <v>368</v>
+      </c>
+      <c r="E33">
+        <v>87</v>
+      </c>
+      <c r="G33">
+        <v>14079</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>43935.628472222219</v>
+      </c>
+      <c r="B34">
+        <f>B35-E34</f>
+        <v>14166</v>
+      </c>
+      <c r="C34">
+        <v>7633</v>
+      </c>
+      <c r="D34">
+        <v>384</v>
+      </c>
+      <c r="E34">
+        <v>124</v>
+      </c>
+      <c r="G34">
+        <v>14166</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>43936.576388888891</v>
+      </c>
+      <c r="B35">
+        <v>14290</v>
+      </c>
+      <c r="C35">
+        <v>8098</v>
+      </c>
+      <c r="D35">
+        <v>393</v>
+      </c>
+      <c r="G35">
+        <v>14290</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E75EBFD-15CF-4FAD-9CA9-0C1E4CDC9AF7}">
   <dimension ref="A1:D17"/>
   <sheetViews>
@@ -2326,7 +3198,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{526A6C31-C389-4FCA-ABC1-1A7A35286209}">
   <dimension ref="A1:D17"/>
   <sheetViews>
@@ -2574,7 +3446,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{584CF58A-B6AB-4B55-A232-0ECA8145474E}">
   <dimension ref="A1:D25"/>
   <sheetViews>
@@ -2945,7 +3817,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D994EF58-FAD4-40E8-BBBD-4E150C904350}">
   <dimension ref="A1:J25"/>
   <sheetViews>
@@ -3439,7 +4311,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADCED248-DC47-4D72-B4A8-11B0E4326564}">
   <dimension ref="A1:D17"/>
   <sheetViews>
@@ -3688,7 +4560,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7DAB03D-2093-43D6-930A-C5C263DB0B65}">
   <dimension ref="A1:D17"/>
   <sheetViews>
@@ -3935,249 +4807,4 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C93D820-3EC4-4C78-B8BB-92CDAF853513}">
-  <dimension ref="A1:D16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:A18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>43903.408333333333</v>
-      </c>
-      <c r="B2">
-        <v>854</v>
-      </c>
-      <c r="C2">
-        <v>4</v>
-      </c>
-      <c r="D2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>43904.395138888889</v>
-      </c>
-      <c r="B3">
-        <v>1121</v>
-      </c>
-      <c r="C3">
-        <v>4</v>
-      </c>
-      <c r="D3">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>43905.2</v>
-      </c>
-      <c r="B4">
-        <v>1355</v>
-      </c>
-      <c r="C4">
-        <v>4</v>
-      </c>
-      <c r="D4">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>43906.337500000001</v>
-      </c>
-      <c r="B5">
-        <v>2200</v>
-      </c>
-      <c r="C5">
-        <v>4</v>
-      </c>
-      <c r="D5">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>43907.37222222222</v>
-      </c>
-      <c r="B6">
-        <v>2330</v>
-      </c>
-      <c r="C6">
-        <v>4</v>
-      </c>
-      <c r="D6">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>43908.298611111109</v>
-      </c>
-      <c r="B7">
-        <v>2700</v>
-      </c>
-      <c r="C7">
-        <v>4</v>
-      </c>
-      <c r="D7">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>43909.195138888892</v>
-      </c>
-      <c r="B8">
-        <v>3067</v>
-      </c>
-      <c r="C8">
-        <v>15</v>
-      </c>
-      <c r="D8">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>43910.340277777781</v>
-      </c>
-      <c r="B9">
-        <v>4164</v>
-      </c>
-      <c r="C9">
-        <v>15</v>
-      </c>
-      <c r="D9">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>43911.32708333333</v>
-      </c>
-      <c r="B10">
-        <v>5544</v>
-      </c>
-      <c r="C10">
-        <v>15</v>
-      </c>
-      <c r="D10">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>43912.161111111112</v>
-      </c>
-      <c r="B11">
-        <v>6652</v>
-      </c>
-      <c r="C11">
-        <v>131</v>
-      </c>
-      <c r="D11">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>43913.329861111109</v>
-      </c>
-      <c r="B12">
-        <v>7474</v>
-      </c>
-      <c r="C12">
-        <v>131</v>
-      </c>
-      <c r="D12">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>43914.166666666664</v>
-      </c>
-      <c r="B13">
-        <v>8795</v>
-      </c>
-      <c r="C13">
-        <v>131</v>
-      </c>
-      <c r="D13">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>43915.1875</v>
-      </c>
-      <c r="B14">
-        <v>9877</v>
-      </c>
-      <c r="C14">
-        <v>131</v>
-      </c>
-      <c r="D14">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>43916.411111111112</v>
-      </c>
-      <c r="B15">
-        <v>10897</v>
-      </c>
-      <c r="C15">
-        <v>131</v>
-      </c>
-      <c r="D15">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>43917.324305555558</v>
-      </c>
-      <c r="B16">
-        <v>11811</v>
-      </c>
-      <c r="C16">
-        <v>131</v>
-      </c>
-      <c r="D16">
-        <v>192</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-</worksheet>
 </file>
--- a/covid-manual-excel.xlsx
+++ b/covid-manual-excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspaces\covid-19-data-analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{670A5113-BEF2-4E00-9798-891BECC841D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE3AC842-924F-45F2-BC46-5D7BBCFC1FF3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="18960" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -665,10 +665,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1166,6 +1166,20 @@
       </c>
       <c r="D35">
         <v>3217</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>43937.34097222222</v>
+      </c>
+      <c r="B36">
+        <v>131411</v>
+      </c>
+      <c r="C36">
+        <v>71995</v>
+      </c>
+      <c r="D36">
+        <v>3556</v>
       </c>
     </row>
   </sheetData>
@@ -1924,10 +1938,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B8DAF25-F5B0-47E4-BAFA-42517715F0C0}">
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25:B35"/>
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2278,7 +2292,7 @@
         <v>43926.40625</v>
       </c>
       <c r="B25">
-        <v>12223</v>
+        <v>12218</v>
       </c>
       <c r="C25">
         <v>2998</v>
@@ -2292,7 +2306,7 @@
         <v>43927.370138888888</v>
       </c>
       <c r="B26">
-        <v>12384</v>
+        <v>12379</v>
       </c>
       <c r="C26">
         <v>2998</v>
@@ -2306,7 +2320,7 @@
         <v>43928.375</v>
       </c>
       <c r="B27">
-        <v>12654</v>
+        <v>12649</v>
       </c>
       <c r="C27">
         <v>3463</v>
@@ -2320,7 +2334,7 @@
         <v>43929.344444444447</v>
       </c>
       <c r="B28">
-        <v>12962</v>
+        <v>12957</v>
       </c>
       <c r="C28">
         <v>4046</v>
@@ -2334,7 +2348,7 @@
         <v>43930.14166666667</v>
       </c>
       <c r="B29">
-        <v>13190</v>
+        <v>13184</v>
       </c>
       <c r="C29">
         <v>4512</v>
@@ -2348,7 +2362,7 @@
         <v>43931.00277777778</v>
       </c>
       <c r="B30">
-        <v>13452</v>
+        <v>13444</v>
       </c>
       <c r="C30">
         <v>5240</v>
@@ -2362,7 +2376,7 @@
         <v>43932.246527777781</v>
       </c>
       <c r="B31">
-        <v>13785</v>
+        <v>13779</v>
       </c>
       <c r="C31">
         <v>6064</v>
@@ -2376,7 +2390,7 @@
         <v>43933.350694444445</v>
       </c>
       <c r="B32">
-        <v>13973</v>
+        <v>13966</v>
       </c>
       <c r="C32">
         <v>6604</v>
@@ -2390,7 +2404,7 @@
         <v>43934.474999999999</v>
       </c>
       <c r="B33">
-        <v>14079</v>
+        <v>14072</v>
       </c>
       <c r="C33">
         <v>7343</v>
@@ -2404,7 +2418,7 @@
         <v>43935.628472222219</v>
       </c>
       <c r="B34">
-        <v>14166</v>
+        <v>14163</v>
       </c>
       <c r="C34">
         <v>7633</v>
@@ -2418,13 +2432,27 @@
         <v>43936.576388888891</v>
       </c>
       <c r="B35">
-        <v>14290</v>
+        <v>14298</v>
       </c>
       <c r="C35">
         <v>8098</v>
       </c>
       <c r="D35">
         <v>393</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>43937.34097222222</v>
+      </c>
+      <c r="B36">
+        <v>14370</v>
+      </c>
+      <c r="C36">
+        <v>8986</v>
+      </c>
+      <c r="D36">
+        <v>410</v>
       </c>
     </row>
   </sheetData>
@@ -2436,10 +2464,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C361FD1-37DF-4CF9-A8B7-B834A1753F46}">
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G25" sqref="G25:G35"/>
+      <selection activeCell="G25" sqref="G25:G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2722,7 +2750,7 @@
       </c>
       <c r="B25">
         <f t="shared" ref="B25:B33" si="0">B26-E25</f>
-        <v>12223</v>
+        <v>12218</v>
       </c>
       <c r="C25">
         <v>2998</v>
@@ -2734,7 +2762,7 @@
         <v>161</v>
       </c>
       <c r="G25">
-        <v>12223</v>
+        <v>12218</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -2743,7 +2771,7 @@
       </c>
       <c r="B26">
         <f t="shared" si="0"/>
-        <v>12384</v>
+        <v>12379</v>
       </c>
       <c r="C26">
         <v>2998</v>
@@ -2755,7 +2783,7 @@
         <v>270</v>
       </c>
       <c r="G26">
-        <v>12384</v>
+        <v>12379</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -2764,7 +2792,7 @@
       </c>
       <c r="B27">
         <f t="shared" si="0"/>
-        <v>12654</v>
+        <v>12649</v>
       </c>
       <c r="C27">
         <v>3463</v>
@@ -2776,7 +2804,7 @@
         <v>308</v>
       </c>
       <c r="G27">
-        <v>12654</v>
+        <v>12649</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -2785,7 +2813,7 @@
       </c>
       <c r="B28">
         <f t="shared" si="0"/>
-        <v>12962</v>
+        <v>12957</v>
       </c>
       <c r="C28">
         <v>4046</v>
@@ -2794,10 +2822,10 @@
         <v>243</v>
       </c>
       <c r="E28">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G28">
-        <v>12962</v>
+        <v>12957</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -2806,7 +2834,7 @@
       </c>
       <c r="B29">
         <f t="shared" si="0"/>
-        <v>13190</v>
+        <v>13184</v>
       </c>
       <c r="C29">
         <v>4512</v>
@@ -2815,10 +2843,10 @@
         <v>273</v>
       </c>
       <c r="E29">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G29">
-        <v>13190</v>
+        <v>13184</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -2827,7 +2855,7 @@
       </c>
       <c r="B30">
         <f t="shared" si="0"/>
-        <v>13452</v>
+        <v>13444</v>
       </c>
       <c r="C30">
         <v>5240</v>
@@ -2836,10 +2864,10 @@
         <v>295</v>
       </c>
       <c r="E30">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="G30">
-        <v>13452</v>
+        <v>13444</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -2848,7 +2876,7 @@
       </c>
       <c r="B31">
         <f t="shared" si="0"/>
-        <v>13785</v>
+        <v>13779</v>
       </c>
       <c r="C31">
         <v>6064</v>
@@ -2857,10 +2885,10 @@
         <v>319</v>
       </c>
       <c r="E31">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G31">
-        <v>13785</v>
+        <v>13779</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -2869,7 +2897,7 @@
       </c>
       <c r="B32">
         <f t="shared" si="0"/>
-        <v>13973</v>
+        <v>13966</v>
       </c>
       <c r="C32">
         <v>6604</v>
@@ -2881,7 +2909,7 @@
         <v>106</v>
       </c>
       <c r="G32">
-        <v>13973</v>
+        <v>13966</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -2890,7 +2918,7 @@
       </c>
       <c r="B33">
         <f t="shared" si="0"/>
-        <v>14079</v>
+        <v>14072</v>
       </c>
       <c r="C33">
         <v>7343</v>
@@ -2899,10 +2927,10 @@
         <v>368</v>
       </c>
       <c r="E33">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G33">
-        <v>14079</v>
+        <v>14072</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -2911,7 +2939,7 @@
       </c>
       <c r="B34">
         <f>B35-E34</f>
-        <v>14166</v>
+        <v>14163</v>
       </c>
       <c r="C34">
         <v>7633</v>
@@ -2920,10 +2948,10 @@
         <v>384</v>
       </c>
       <c r="E34">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="G34">
-        <v>14166</v>
+        <v>14163</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -2931,7 +2959,8 @@
         <v>43936.576388888891</v>
       </c>
       <c r="B35">
-        <v>14290</v>
+        <f>B36-E35</f>
+        <v>14298</v>
       </c>
       <c r="C35">
         <v>8098</v>
@@ -2939,8 +2968,22 @@
       <c r="D35">
         <v>393</v>
       </c>
+      <c r="E35">
+        <v>72</v>
+      </c>
       <c r="G35">
-        <v>14290</v>
+        <v>14298</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>43937.34097222222</v>
+      </c>
+      <c r="B36">
+        <v>14370</v>
+      </c>
+      <c r="G36">
+        <v>14370</v>
       </c>
     </row>
   </sheetData>

--- a/covid-manual-excel.xlsx
+++ b/covid-manual-excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspaces\covid-19-data-analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE3AC842-924F-45F2-BC46-5D7BBCFC1FF3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07BF5481-14B8-4978-A538-6F4B6ABB3DF7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="18960" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="18960" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Austria-calc" sheetId="14" r:id="rId3"/>
     <sheet name="Italy" sheetId="6" r:id="rId4"/>
     <sheet name="Spain" sheetId="3" r:id="rId5"/>
-    <sheet name="France" sheetId="2" r:id="rId6"/>
+    <sheet name="France-pre-20200417" sheetId="2" r:id="rId6"/>
     <sheet name="France-calc" sheetId="13" r:id="rId7"/>
     <sheet name="United Kingdom" sheetId="4" r:id="rId8"/>
     <sheet name="US" sheetId="7" r:id="rId9"/>
@@ -665,10 +665,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1180,6 +1180,20 @@
       </c>
       <c r="D36">
         <v>3556</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>43938.404861111114</v>
+      </c>
+      <c r="B37">
+        <v>134404</v>
+      </c>
+      <c r="C37">
+        <v>76881</v>
+      </c>
+      <c r="D37">
+        <v>3837</v>
       </c>
     </row>
   </sheetData>
@@ -1938,10 +1952,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B8DAF25-F5B0-47E4-BAFA-42517715F0C0}">
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2292,7 +2306,7 @@
         <v>43926.40625</v>
       </c>
       <c r="B25">
-        <v>12218</v>
+        <v>12195</v>
       </c>
       <c r="C25">
         <v>2998</v>
@@ -2306,7 +2320,7 @@
         <v>43927.370138888888</v>
       </c>
       <c r="B26">
-        <v>12379</v>
+        <v>12356</v>
       </c>
       <c r="C26">
         <v>2998</v>
@@ -2320,7 +2334,7 @@
         <v>43928.375</v>
       </c>
       <c r="B27">
-        <v>12649</v>
+        <v>12626</v>
       </c>
       <c r="C27">
         <v>3463</v>
@@ -2334,7 +2348,7 @@
         <v>43929.344444444447</v>
       </c>
       <c r="B28">
-        <v>12957</v>
+        <v>12934</v>
       </c>
       <c r="C28">
         <v>4046</v>
@@ -2348,7 +2362,7 @@
         <v>43930.14166666667</v>
       </c>
       <c r="B29">
-        <v>13184</v>
+        <v>13161</v>
       </c>
       <c r="C29">
         <v>4512</v>
@@ -2362,7 +2376,7 @@
         <v>43931.00277777778</v>
       </c>
       <c r="B30">
-        <v>13444</v>
+        <v>13421</v>
       </c>
       <c r="C30">
         <v>5240</v>
@@ -2376,7 +2390,7 @@
         <v>43932.246527777781</v>
       </c>
       <c r="B31">
-        <v>13779</v>
+        <v>13756</v>
       </c>
       <c r="C31">
         <v>6064</v>
@@ -2390,7 +2404,7 @@
         <v>43933.350694444445</v>
       </c>
       <c r="B32">
-        <v>13966</v>
+        <v>13943</v>
       </c>
       <c r="C32">
         <v>6604</v>
@@ -2404,7 +2418,7 @@
         <v>43934.474999999999</v>
       </c>
       <c r="B33">
-        <v>14072</v>
+        <v>14049</v>
       </c>
       <c r="C33">
         <v>7343</v>
@@ -2418,7 +2432,7 @@
         <v>43935.628472222219</v>
       </c>
       <c r="B34">
-        <v>14163</v>
+        <v>14140</v>
       </c>
       <c r="C34">
         <v>7633</v>
@@ -2432,7 +2446,7 @@
         <v>43936.576388888891</v>
       </c>
       <c r="B35">
-        <v>14298</v>
+        <v>14280</v>
       </c>
       <c r="C35">
         <v>8098</v>
@@ -2453,6 +2467,20 @@
       </c>
       <c r="D36">
         <v>410</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>43938.404861111114</v>
+      </c>
+      <c r="B37">
+        <v>14499</v>
+      </c>
+      <c r="C37">
+        <v>9704</v>
+      </c>
+      <c r="D37">
+        <v>431</v>
       </c>
     </row>
   </sheetData>
@@ -2464,10 +2492,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C361FD1-37DF-4CF9-A8B7-B834A1753F46}">
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G25" sqref="G25:G36"/>
+      <selection activeCell="G25" sqref="G25:G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2750,7 +2778,7 @@
       </c>
       <c r="B25">
         <f t="shared" ref="B25:B33" si="0">B26-E25</f>
-        <v>12218</v>
+        <v>12195</v>
       </c>
       <c r="C25">
         <v>2998</v>
@@ -2762,7 +2790,7 @@
         <v>161</v>
       </c>
       <c r="G25">
-        <v>12218</v>
+        <v>12195</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -2771,7 +2799,7 @@
       </c>
       <c r="B26">
         <f t="shared" si="0"/>
-        <v>12379</v>
+        <v>12356</v>
       </c>
       <c r="C26">
         <v>2998</v>
@@ -2783,7 +2811,7 @@
         <v>270</v>
       </c>
       <c r="G26">
-        <v>12379</v>
+        <v>12356</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -2792,7 +2820,7 @@
       </c>
       <c r="B27">
         <f t="shared" si="0"/>
-        <v>12649</v>
+        <v>12626</v>
       </c>
       <c r="C27">
         <v>3463</v>
@@ -2804,7 +2832,7 @@
         <v>308</v>
       </c>
       <c r="G27">
-        <v>12649</v>
+        <v>12626</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -2813,7 +2841,7 @@
       </c>
       <c r="B28">
         <f t="shared" si="0"/>
-        <v>12957</v>
+        <v>12934</v>
       </c>
       <c r="C28">
         <v>4046</v>
@@ -2825,7 +2853,7 @@
         <v>227</v>
       </c>
       <c r="G28">
-        <v>12957</v>
+        <v>12934</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -2834,7 +2862,7 @@
       </c>
       <c r="B29">
         <f t="shared" si="0"/>
-        <v>13184</v>
+        <v>13161</v>
       </c>
       <c r="C29">
         <v>4512</v>
@@ -2846,7 +2874,7 @@
         <v>260</v>
       </c>
       <c r="G29">
-        <v>13184</v>
+        <v>13161</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -2855,7 +2883,7 @@
       </c>
       <c r="B30">
         <f t="shared" si="0"/>
-        <v>13444</v>
+        <v>13421</v>
       </c>
       <c r="C30">
         <v>5240</v>
@@ -2867,7 +2895,7 @@
         <v>335</v>
       </c>
       <c r="G30">
-        <v>13444</v>
+        <v>13421</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -2876,7 +2904,7 @@
       </c>
       <c r="B31">
         <f t="shared" si="0"/>
-        <v>13779</v>
+        <v>13756</v>
       </c>
       <c r="C31">
         <v>6064</v>
@@ -2888,7 +2916,7 @@
         <v>187</v>
       </c>
       <c r="G31">
-        <v>13779</v>
+        <v>13756</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -2897,7 +2925,7 @@
       </c>
       <c r="B32">
         <f t="shared" si="0"/>
-        <v>13966</v>
+        <v>13943</v>
       </c>
       <c r="C32">
         <v>6604</v>
@@ -2909,7 +2937,7 @@
         <v>106</v>
       </c>
       <c r="G32">
-        <v>13966</v>
+        <v>13943</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -2918,7 +2946,7 @@
       </c>
       <c r="B33">
         <f t="shared" si="0"/>
-        <v>14072</v>
+        <v>14049</v>
       </c>
       <c r="C33">
         <v>7343</v>
@@ -2930,7 +2958,7 @@
         <v>91</v>
       </c>
       <c r="G33">
-        <v>14072</v>
+        <v>14049</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -2939,7 +2967,7 @@
       </c>
       <c r="B34">
         <f>B35-E34</f>
-        <v>14163</v>
+        <v>14140</v>
       </c>
       <c r="C34">
         <v>7633</v>
@@ -2948,10 +2976,10 @@
         <v>384</v>
       </c>
       <c r="E34">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="G34">
-        <v>14163</v>
+        <v>14140</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -2960,7 +2988,7 @@
       </c>
       <c r="B35">
         <f>B36-E35</f>
-        <v>14298</v>
+        <v>14280</v>
       </c>
       <c r="C35">
         <v>8098</v>
@@ -2969,10 +2997,10 @@
         <v>393</v>
       </c>
       <c r="E35">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="G35">
-        <v>14298</v>
+        <v>14280</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -2982,8 +3010,22 @@
       <c r="B36">
         <v>14370</v>
       </c>
+      <c r="E36">
+        <v>87</v>
+      </c>
       <c r="G36">
         <v>14370</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>43938.404861111114</v>
+      </c>
+      <c r="B37">
+        <v>14499</v>
+      </c>
+      <c r="G37">
+        <v>14499</v>
       </c>
     </row>
   </sheetData>
@@ -3493,8 +3535,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{584CF58A-B6AB-4B55-A232-0ECA8145474E}">
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16:B24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/covid-manual-excel.xlsx
+++ b/covid-manual-excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspaces\covid-19-data-analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07BF5481-14B8-4978-A538-6F4B6ABB3DF7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DB7A15D-3485-439F-AB3C-F71BB653C4CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="18960" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="18960" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="1" r:id="rId1"/>
@@ -665,10 +665,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:D39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1194,6 +1194,34 @@
       </c>
       <c r="D37">
         <v>3837</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>43939</v>
+      </c>
+      <c r="B38">
+        <v>137882</v>
+      </c>
+      <c r="C38">
+        <v>83114</v>
+      </c>
+      <c r="D38">
+        <v>4104</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>43940.520138888889</v>
+      </c>
+      <c r="B39">
+        <v>140448</v>
+      </c>
+      <c r="C39">
+        <v>85400</v>
+      </c>
+      <c r="D39">
+        <v>4303</v>
       </c>
     </row>
   </sheetData>
@@ -1952,10 +1980,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B8DAF25-F5B0-47E4-BAFA-42517715F0C0}">
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2306,7 +2334,7 @@
         <v>43926.40625</v>
       </c>
       <c r="B25">
-        <v>12195</v>
+        <v>12254</v>
       </c>
       <c r="C25">
         <v>2998</v>
@@ -2320,7 +2348,7 @@
         <v>43927.370138888888</v>
       </c>
       <c r="B26">
-        <v>12356</v>
+        <v>12415</v>
       </c>
       <c r="C26">
         <v>2998</v>
@@ -2334,7 +2362,7 @@
         <v>43928.375</v>
       </c>
       <c r="B27">
-        <v>12626</v>
+        <v>12685</v>
       </c>
       <c r="C27">
         <v>3463</v>
@@ -2348,7 +2376,7 @@
         <v>43929.344444444447</v>
       </c>
       <c r="B28">
-        <v>12934</v>
+        <v>12993</v>
       </c>
       <c r="C28">
         <v>4046</v>
@@ -2362,7 +2390,7 @@
         <v>43930.14166666667</v>
       </c>
       <c r="B29">
-        <v>13161</v>
+        <v>13220</v>
       </c>
       <c r="C29">
         <v>4512</v>
@@ -2376,7 +2404,7 @@
         <v>43931.00277777778</v>
       </c>
       <c r="B30">
-        <v>13421</v>
+        <v>13480</v>
       </c>
       <c r="C30">
         <v>5240</v>
@@ -2390,7 +2418,7 @@
         <v>43932.246527777781</v>
       </c>
       <c r="B31">
-        <v>13756</v>
+        <v>13815</v>
       </c>
       <c r="C31">
         <v>6064</v>
@@ -2404,7 +2432,7 @@
         <v>43933.350694444445</v>
       </c>
       <c r="B32">
-        <v>13943</v>
+        <v>14002</v>
       </c>
       <c r="C32">
         <v>6604</v>
@@ -2418,7 +2446,7 @@
         <v>43934.474999999999</v>
       </c>
       <c r="B33">
-        <v>14049</v>
+        <v>14108</v>
       </c>
       <c r="C33">
         <v>7343</v>
@@ -2432,7 +2460,7 @@
         <v>43935.628472222219</v>
       </c>
       <c r="B34">
-        <v>14140</v>
+        <v>14199</v>
       </c>
       <c r="C34">
         <v>7633</v>
@@ -2446,7 +2474,7 @@
         <v>43936.576388888891</v>
       </c>
       <c r="B35">
-        <v>14280</v>
+        <v>14344</v>
       </c>
       <c r="C35">
         <v>8098</v>
@@ -2460,7 +2488,7 @@
         <v>43937.34097222222</v>
       </c>
       <c r="B36">
-        <v>14370</v>
+        <v>14437</v>
       </c>
       <c r="C36">
         <v>8986</v>
@@ -2474,13 +2502,41 @@
         <v>43938.404861111114</v>
       </c>
       <c r="B37">
-        <v>14499</v>
+        <v>14557</v>
       </c>
       <c r="C37">
         <v>9704</v>
       </c>
       <c r="D37">
         <v>431</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>43939</v>
+      </c>
+      <c r="B38">
+        <v>14631</v>
+      </c>
+      <c r="C38">
+        <v>10214</v>
+      </c>
+      <c r="D38">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>43940.520138888889</v>
+      </c>
+      <c r="B39">
+        <v>14681</v>
+      </c>
+      <c r="C39">
+        <v>10501</v>
+      </c>
+      <c r="D39">
+        <v>452</v>
       </c>
     </row>
   </sheetData>
@@ -2492,10 +2548,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C361FD1-37DF-4CF9-A8B7-B834A1753F46}">
-  <dimension ref="A1:G37"/>
+  <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G25" sqref="G25:G37"/>
+      <selection activeCell="H25" sqref="H25:H39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2684,7 +2740,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>43918.418055555558</v>
       </c>
@@ -2695,7 +2751,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>43919.418055555558</v>
       </c>
@@ -2706,7 +2762,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>43920.367361111108</v>
       </c>
@@ -2717,7 +2773,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>43921.167361111111</v>
       </c>
@@ -2728,7 +2784,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>43922.416666666664</v>
       </c>
@@ -2739,7 +2795,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>43923.112500000003</v>
       </c>
@@ -2750,7 +2806,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>43924.272916666669</v>
       </c>
@@ -2761,7 +2817,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>43925.448611111111</v>
       </c>
@@ -2772,13 +2828,13 @@
         <v>168</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>43926.40625</v>
       </c>
       <c r="B25">
         <f t="shared" ref="B25:B33" si="0">B26-E25</f>
-        <v>12195</v>
+        <v>12254</v>
       </c>
       <c r="C25">
         <v>2998</v>
@@ -2789,17 +2845,17 @@
       <c r="E25">
         <v>161</v>
       </c>
-      <c r="G25">
-        <v>12195</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H25">
+        <v>12254</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>43927.370138888888</v>
       </c>
       <c r="B26">
         <f t="shared" si="0"/>
-        <v>12356</v>
+        <v>12415</v>
       </c>
       <c r="C26">
         <v>2998</v>
@@ -2810,17 +2866,17 @@
       <c r="E26">
         <v>270</v>
       </c>
-      <c r="G26">
-        <v>12356</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H26">
+        <v>12415</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>43928.375</v>
       </c>
       <c r="B27">
         <f t="shared" si="0"/>
-        <v>12626</v>
+        <v>12685</v>
       </c>
       <c r="C27">
         <v>3463</v>
@@ -2831,17 +2887,17 @@
       <c r="E27">
         <v>308</v>
       </c>
-      <c r="G27">
-        <v>12626</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H27">
+        <v>12685</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>43929.344444444447</v>
       </c>
       <c r="B28">
         <f t="shared" si="0"/>
-        <v>12934</v>
+        <v>12993</v>
       </c>
       <c r="C28">
         <v>4046</v>
@@ -2852,17 +2908,17 @@
       <c r="E28">
         <v>227</v>
       </c>
-      <c r="G28">
-        <v>12934</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H28">
+        <v>12993</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>43930.14166666667</v>
       </c>
       <c r="B29">
         <f t="shared" si="0"/>
-        <v>13161</v>
+        <v>13220</v>
       </c>
       <c r="C29">
         <v>4512</v>
@@ -2873,17 +2929,17 @@
       <c r="E29">
         <v>260</v>
       </c>
-      <c r="G29">
-        <v>13161</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H29">
+        <v>13220</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>43931.00277777778</v>
       </c>
       <c r="B30">
         <f t="shared" si="0"/>
-        <v>13421</v>
+        <v>13480</v>
       </c>
       <c r="C30">
         <v>5240</v>
@@ -2894,17 +2950,17 @@
       <c r="E30">
         <v>335</v>
       </c>
-      <c r="G30">
-        <v>13421</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H30">
+        <v>13480</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>43932.246527777781</v>
       </c>
       <c r="B31">
         <f t="shared" si="0"/>
-        <v>13756</v>
+        <v>13815</v>
       </c>
       <c r="C31">
         <v>6064</v>
@@ -2915,17 +2971,17 @@
       <c r="E31">
         <v>187</v>
       </c>
-      <c r="G31">
-        <v>13756</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H31">
+        <v>13815</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>43933.350694444445</v>
       </c>
       <c r="B32">
         <f t="shared" si="0"/>
-        <v>13943</v>
+        <v>14002</v>
       </c>
       <c r="C32">
         <v>6604</v>
@@ -2936,17 +2992,17 @@
       <c r="E32">
         <v>106</v>
       </c>
-      <c r="G32">
-        <v>13943</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H32">
+        <v>14002</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>43934.474999999999</v>
       </c>
       <c r="B33">
-        <f t="shared" si="0"/>
-        <v>14049</v>
+        <f>B34-E33</f>
+        <v>14108</v>
       </c>
       <c r="C33">
         <v>7343</v>
@@ -2957,17 +3013,17 @@
       <c r="E33">
         <v>91</v>
       </c>
-      <c r="G33">
-        <v>14049</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H33">
+        <v>14108</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>43935.628472222219</v>
       </c>
       <c r="B34">
         <f>B35-E34</f>
-        <v>14140</v>
+        <v>14199</v>
       </c>
       <c r="C34">
         <v>7633</v>
@@ -2976,19 +3032,19 @@
         <v>384</v>
       </c>
       <c r="E34">
-        <v>140</v>
-      </c>
-      <c r="G34">
-        <v>14140</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+      <c r="H34">
+        <v>14199</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>43936.576388888891</v>
       </c>
       <c r="B35">
         <f>B36-E35</f>
-        <v>14280</v>
+        <v>14344</v>
       </c>
       <c r="C35">
         <v>8098</v>
@@ -2997,35 +3053,66 @@
         <v>393</v>
       </c>
       <c r="E35">
-        <v>90</v>
-      </c>
-      <c r="G35">
-        <v>14280</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+      <c r="H35">
+        <v>14344</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>43937.34097222222</v>
       </c>
       <c r="B36">
-        <v>14370</v>
+        <f>B37-E36</f>
+        <v>14437</v>
       </c>
       <c r="E36">
-        <v>87</v>
-      </c>
-      <c r="G36">
-        <v>14370</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+      <c r="H36">
+        <v>14437</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>43938.404861111114</v>
       </c>
       <c r="B37">
-        <v>14499</v>
-      </c>
-      <c r="G37">
-        <v>14499</v>
+        <f>B38-E37</f>
+        <v>14557</v>
+      </c>
+      <c r="E37">
+        <v>74</v>
+      </c>
+      <c r="H37">
+        <v>14557</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>43939</v>
+      </c>
+      <c r="B38">
+        <f>B39-E38</f>
+        <v>14631</v>
+      </c>
+      <c r="E38">
+        <v>50</v>
+      </c>
+      <c r="H38">
+        <v>14631</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>43940.520138888889</v>
+      </c>
+      <c r="B39">
+        <v>14681</v>
+      </c>
+      <c r="H39">
+        <v>14681</v>
       </c>
     </row>
   </sheetData>
@@ -3535,8 +3622,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{584CF58A-B6AB-4B55-A232-0ECA8145474E}">
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/covid-manual-excel.xlsx
+++ b/covid-manual-excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspaces\covid-19-data-analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DB7A15D-3485-439F-AB3C-F71BB653C4CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA97AA3D-B172-4C6A-B5B2-4CFB32499CE9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="18960" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -665,10 +665,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D39"/>
+  <dimension ref="A1:D40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1222,6 +1222,20 @@
       </c>
       <c r="D39">
         <v>4303</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>43941.467361111114</v>
+      </c>
+      <c r="B40">
+        <v>142422</v>
+      </c>
+      <c r="C40">
+        <v>88000</v>
+      </c>
+      <c r="D40">
+        <v>4418</v>
       </c>
     </row>
   </sheetData>
@@ -1980,10 +1994,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B8DAF25-F5B0-47E4-BAFA-42517715F0C0}">
-  <dimension ref="A1:D39"/>
+  <dimension ref="A1:D40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2334,7 +2348,7 @@
         <v>43926.40625</v>
       </c>
       <c r="B25">
-        <v>12254</v>
+        <v>12267</v>
       </c>
       <c r="C25">
         <v>2998</v>
@@ -2348,7 +2362,7 @@
         <v>43927.370138888888</v>
       </c>
       <c r="B26">
-        <v>12415</v>
+        <v>12428</v>
       </c>
       <c r="C26">
         <v>2998</v>
@@ -2362,7 +2376,7 @@
         <v>43928.375</v>
       </c>
       <c r="B27">
-        <v>12685</v>
+        <v>12698</v>
       </c>
       <c r="C27">
         <v>3463</v>
@@ -2376,7 +2390,7 @@
         <v>43929.344444444447</v>
       </c>
       <c r="B28">
-        <v>12993</v>
+        <v>13006</v>
       </c>
       <c r="C28">
         <v>4046</v>
@@ -2390,7 +2404,7 @@
         <v>43930.14166666667</v>
       </c>
       <c r="B29">
-        <v>13220</v>
+        <v>13233</v>
       </c>
       <c r="C29">
         <v>4512</v>
@@ -2404,7 +2418,7 @@
         <v>43931.00277777778</v>
       </c>
       <c r="B30">
-        <v>13480</v>
+        <v>13493</v>
       </c>
       <c r="C30">
         <v>5240</v>
@@ -2418,7 +2432,7 @@
         <v>43932.246527777781</v>
       </c>
       <c r="B31">
-        <v>13815</v>
+        <v>13828</v>
       </c>
       <c r="C31">
         <v>6064</v>
@@ -2432,7 +2446,7 @@
         <v>43933.350694444445</v>
       </c>
       <c r="B32">
-        <v>14002</v>
+        <v>14015</v>
       </c>
       <c r="C32">
         <v>6604</v>
@@ -2446,7 +2460,7 @@
         <v>43934.474999999999</v>
       </c>
       <c r="B33">
-        <v>14108</v>
+        <v>14121</v>
       </c>
       <c r="C33">
         <v>7343</v>
@@ -2460,7 +2474,7 @@
         <v>43935.628472222219</v>
       </c>
       <c r="B34">
-        <v>14199</v>
+        <v>14212</v>
       </c>
       <c r="C34">
         <v>7633</v>
@@ -2474,7 +2488,7 @@
         <v>43936.576388888891</v>
       </c>
       <c r="B35">
-        <v>14344</v>
+        <v>14357</v>
       </c>
       <c r="C35">
         <v>8098</v>
@@ -2488,7 +2502,7 @@
         <v>43937.34097222222</v>
       </c>
       <c r="B36">
-        <v>14437</v>
+        <v>14450</v>
       </c>
       <c r="C36">
         <v>8986</v>
@@ -2502,7 +2516,7 @@
         <v>43938.404861111114</v>
       </c>
       <c r="B37">
-        <v>14557</v>
+        <v>14571</v>
       </c>
       <c r="C37">
         <v>9704</v>
@@ -2516,7 +2530,7 @@
         <v>43939</v>
       </c>
       <c r="B38">
-        <v>14631</v>
+        <v>14645</v>
       </c>
       <c r="C38">
         <v>10214</v>
@@ -2530,13 +2544,27 @@
         <v>43940.520138888889</v>
       </c>
       <c r="B39">
-        <v>14681</v>
+        <v>14696</v>
       </c>
       <c r="C39">
         <v>10501</v>
       </c>
       <c r="D39">
         <v>452</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>43941.467361111114</v>
+      </c>
+      <c r="B40">
+        <v>14731</v>
+      </c>
+      <c r="C40">
+        <v>10631</v>
+      </c>
+      <c r="D40">
+        <v>470</v>
       </c>
     </row>
   </sheetData>
@@ -2548,10 +2576,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C361FD1-37DF-4CF9-A8B7-B834A1753F46}">
-  <dimension ref="A1:H39"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H25" sqref="H25:H39"/>
+      <selection activeCell="G25" sqref="G25:G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2740,7 +2768,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>43918.418055555558</v>
       </c>
@@ -2751,7 +2779,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>43919.418055555558</v>
       </c>
@@ -2762,7 +2790,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>43920.367361111108</v>
       </c>
@@ -2773,7 +2801,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>43921.167361111111</v>
       </c>
@@ -2784,7 +2812,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>43922.416666666664</v>
       </c>
@@ -2795,7 +2823,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>43923.112500000003</v>
       </c>
@@ -2806,7 +2834,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>43924.272916666669</v>
       </c>
@@ -2817,7 +2845,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>43925.448611111111</v>
       </c>
@@ -2828,13 +2856,13 @@
         <v>168</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>43926.40625</v>
       </c>
       <c r="B25">
-        <f t="shared" ref="B25:B33" si="0">B26-E25</f>
-        <v>12254</v>
+        <f t="shared" ref="B25:B32" si="0">B26-E25</f>
+        <v>12267</v>
       </c>
       <c r="C25">
         <v>2998</v>
@@ -2845,17 +2873,17 @@
       <c r="E25">
         <v>161</v>
       </c>
-      <c r="H25">
-        <v>12254</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G25">
+        <v>12267</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>43927.370138888888</v>
       </c>
       <c r="B26">
         <f t="shared" si="0"/>
-        <v>12415</v>
+        <v>12428</v>
       </c>
       <c r="C26">
         <v>2998</v>
@@ -2866,17 +2894,17 @@
       <c r="E26">
         <v>270</v>
       </c>
-      <c r="H26">
-        <v>12415</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G26">
+        <v>12428</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>43928.375</v>
       </c>
       <c r="B27">
         <f t="shared" si="0"/>
-        <v>12685</v>
+        <v>12698</v>
       </c>
       <c r="C27">
         <v>3463</v>
@@ -2887,17 +2915,17 @@
       <c r="E27">
         <v>308</v>
       </c>
-      <c r="H27">
-        <v>12685</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G27">
+        <v>12698</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>43929.344444444447</v>
       </c>
       <c r="B28">
         <f t="shared" si="0"/>
-        <v>12993</v>
+        <v>13006</v>
       </c>
       <c r="C28">
         <v>4046</v>
@@ -2908,17 +2936,17 @@
       <c r="E28">
         <v>227</v>
       </c>
-      <c r="H28">
-        <v>12993</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G28">
+        <v>13006</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>43930.14166666667</v>
       </c>
       <c r="B29">
         <f t="shared" si="0"/>
-        <v>13220</v>
+        <v>13233</v>
       </c>
       <c r="C29">
         <v>4512</v>
@@ -2929,17 +2957,17 @@
       <c r="E29">
         <v>260</v>
       </c>
-      <c r="H29">
-        <v>13220</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G29">
+        <v>13233</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>43931.00277777778</v>
       </c>
       <c r="B30">
         <f t="shared" si="0"/>
-        <v>13480</v>
+        <v>13493</v>
       </c>
       <c r="C30">
         <v>5240</v>
@@ -2950,17 +2978,17 @@
       <c r="E30">
         <v>335</v>
       </c>
-      <c r="H30">
-        <v>13480</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G30">
+        <v>13493</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>43932.246527777781</v>
       </c>
       <c r="B31">
         <f t="shared" si="0"/>
-        <v>13815</v>
+        <v>13828</v>
       </c>
       <c r="C31">
         <v>6064</v>
@@ -2971,17 +2999,17 @@
       <c r="E31">
         <v>187</v>
       </c>
-      <c r="H31">
-        <v>13815</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G31">
+        <v>13828</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>43933.350694444445</v>
       </c>
       <c r="B32">
         <f t="shared" si="0"/>
-        <v>14002</v>
+        <v>14015</v>
       </c>
       <c r="C32">
         <v>6604</v>
@@ -2992,17 +3020,17 @@
       <c r="E32">
         <v>106</v>
       </c>
-      <c r="H32">
-        <v>14002</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G32">
+        <v>14015</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>43934.474999999999</v>
       </c>
       <c r="B33">
-        <f>B34-E33</f>
-        <v>14108</v>
+        <f t="shared" ref="B33:B39" si="1">B34-E33</f>
+        <v>14121</v>
       </c>
       <c r="C33">
         <v>7343</v>
@@ -3013,17 +3041,17 @@
       <c r="E33">
         <v>91</v>
       </c>
-      <c r="H33">
-        <v>14108</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G33">
+        <v>14121</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>43935.628472222219</v>
       </c>
       <c r="B34">
-        <f>B35-E34</f>
-        <v>14199</v>
+        <f t="shared" si="1"/>
+        <v>14212</v>
       </c>
       <c r="C34">
         <v>7633</v>
@@ -3034,17 +3062,17 @@
       <c r="E34">
         <v>145</v>
       </c>
-      <c r="H34">
-        <v>14199</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G34">
+        <v>14212</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>43936.576388888891</v>
       </c>
       <c r="B35">
-        <f>B36-E35</f>
-        <v>14344</v>
+        <f t="shared" si="1"/>
+        <v>14357</v>
       </c>
       <c r="C35">
         <v>8098</v>
@@ -3055,64 +3083,79 @@
       <c r="E35">
         <v>93</v>
       </c>
-      <c r="H35">
-        <v>14344</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G35">
+        <v>14357</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>43937.34097222222</v>
       </c>
       <c r="B36">
-        <f>B37-E36</f>
-        <v>14437</v>
+        <f t="shared" si="1"/>
+        <v>14450</v>
       </c>
       <c r="E36">
-        <v>120</v>
-      </c>
-      <c r="H36">
-        <v>14437</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+      <c r="G36">
+        <v>14450</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>43938.404861111114</v>
       </c>
       <c r="B37">
-        <f>B38-E37</f>
-        <v>14557</v>
+        <f t="shared" si="1"/>
+        <v>14571</v>
       </c>
       <c r="E37">
         <v>74</v>
       </c>
-      <c r="H37">
-        <v>14557</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G37">
+        <v>14571</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>43939</v>
       </c>
       <c r="B38">
-        <f>B39-E38</f>
-        <v>14631</v>
+        <f t="shared" si="1"/>
+        <v>14645</v>
       </c>
       <c r="E38">
-        <v>50</v>
-      </c>
-      <c r="H38">
-        <v>14631</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+      <c r="G38">
+        <v>14645</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>43940.520138888889</v>
       </c>
       <c r="B39">
-        <v>14681</v>
-      </c>
-      <c r="H39">
-        <v>14681</v>
+        <f t="shared" si="1"/>
+        <v>14696</v>
+      </c>
+      <c r="E39">
+        <v>35</v>
+      </c>
+      <c r="G39">
+        <v>14696</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>43941.467361111114</v>
+      </c>
+      <c r="B40">
+        <v>14731</v>
+      </c>
+      <c r="G40">
+        <v>14731</v>
       </c>
     </row>
   </sheetData>

--- a/covid-manual-excel.xlsx
+++ b/covid-manual-excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspaces\covid-19-data-analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA97AA3D-B172-4C6A-B5B2-4CFB32499CE9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36F256D6-24D2-469F-95C6-8F914838FEA9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="18960" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -665,10 +665,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D40"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1236,6 +1236,20 @@
       </c>
       <c r="D40">
         <v>4418</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>43942.553472222222</v>
+      </c>
+      <c r="B41">
+        <v>143150</v>
+      </c>
+      <c r="C41">
+        <v>91500</v>
+      </c>
+      <c r="D41">
+        <v>4515</v>
       </c>
     </row>
   </sheetData>
@@ -1994,10 +2008,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B8DAF25-F5B0-47E4-BAFA-42517715F0C0}">
-  <dimension ref="A1:D40"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2348,7 +2362,7 @@
         <v>43926.40625</v>
       </c>
       <c r="B25">
-        <v>12267</v>
+        <v>12262</v>
       </c>
       <c r="C25">
         <v>2998</v>
@@ -2362,7 +2376,7 @@
         <v>43927.370138888888</v>
       </c>
       <c r="B26">
-        <v>12428</v>
+        <v>12427</v>
       </c>
       <c r="C26">
         <v>2998</v>
@@ -2376,7 +2390,7 @@
         <v>43928.375</v>
       </c>
       <c r="B27">
-        <v>12698</v>
+        <v>12697</v>
       </c>
       <c r="C27">
         <v>3463</v>
@@ -2390,7 +2404,7 @@
         <v>43929.344444444447</v>
       </c>
       <c r="B28">
-        <v>13006</v>
+        <v>13007</v>
       </c>
       <c r="C28">
         <v>4046</v>
@@ -2404,7 +2418,7 @@
         <v>43930.14166666667</v>
       </c>
       <c r="B29">
-        <v>13233</v>
+        <v>13243</v>
       </c>
       <c r="C29">
         <v>4512</v>
@@ -2418,7 +2432,7 @@
         <v>43931.00277777778</v>
       </c>
       <c r="B30">
-        <v>13493</v>
+        <v>13505</v>
       </c>
       <c r="C30">
         <v>5240</v>
@@ -2432,7 +2446,7 @@
         <v>43932.246527777781</v>
       </c>
       <c r="B31">
-        <v>13828</v>
+        <v>13861</v>
       </c>
       <c r="C31">
         <v>6064</v>
@@ -2446,7 +2460,7 @@
         <v>43933.350694444445</v>
       </c>
       <c r="B32">
-        <v>14015</v>
+        <v>14029</v>
       </c>
       <c r="C32">
         <v>6604</v>
@@ -2460,7 +2474,7 @@
         <v>43934.474999999999</v>
       </c>
       <c r="B33">
-        <v>14121</v>
+        <v>14136</v>
       </c>
       <c r="C33">
         <v>7343</v>
@@ -2474,7 +2488,7 @@
         <v>43935.628472222219</v>
       </c>
       <c r="B34">
-        <v>14212</v>
+        <v>14227</v>
       </c>
       <c r="C34">
         <v>7633</v>
@@ -2488,7 +2502,7 @@
         <v>43936.576388888891</v>
       </c>
       <c r="B35">
-        <v>14357</v>
+        <v>14374</v>
       </c>
       <c r="C35">
         <v>8098</v>
@@ -2502,7 +2516,7 @@
         <v>43937.34097222222</v>
       </c>
       <c r="B36">
-        <v>14450</v>
+        <v>14473</v>
       </c>
       <c r="C36">
         <v>8986</v>
@@ -2516,7 +2530,7 @@
         <v>43938.404861111114</v>
       </c>
       <c r="B37">
-        <v>14571</v>
+        <v>14592</v>
       </c>
       <c r="C37">
         <v>9704</v>
@@ -2530,7 +2544,7 @@
         <v>43939</v>
       </c>
       <c r="B38">
-        <v>14645</v>
+        <v>14670</v>
       </c>
       <c r="C38">
         <v>10214</v>
@@ -2544,7 +2558,7 @@
         <v>43940.520138888889</v>
       </c>
       <c r="B39">
-        <v>14696</v>
+        <v>14725</v>
       </c>
       <c r="C39">
         <v>10501</v>
@@ -2558,13 +2572,27 @@
         <v>43941.467361111114</v>
       </c>
       <c r="B40">
-        <v>14731</v>
+        <v>14762</v>
       </c>
       <c r="C40">
         <v>10631</v>
       </c>
       <c r="D40">
         <v>470</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>43942.553472222222</v>
+      </c>
+      <c r="B41">
+        <v>14806</v>
+      </c>
+      <c r="C41">
+        <v>10971</v>
+      </c>
+      <c r="D41">
+        <v>491</v>
       </c>
     </row>
   </sheetData>
@@ -2576,10 +2604,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C361FD1-37DF-4CF9-A8B7-B834A1753F46}">
-  <dimension ref="A1:G40"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G25" sqref="G25:G40"/>
+      <selection activeCell="G25" sqref="G25:G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2862,7 +2890,7 @@
       </c>
       <c r="B25">
         <f t="shared" ref="B25:B32" si="0">B26-E25</f>
-        <v>12267</v>
+        <v>12262</v>
       </c>
       <c r="C25">
         <v>2998</v>
@@ -2871,10 +2899,10 @@
         <v>204</v>
       </c>
       <c r="E25">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="G25">
-        <v>12267</v>
+        <v>12262</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -2883,7 +2911,7 @@
       </c>
       <c r="B26">
         <f t="shared" si="0"/>
-        <v>12428</v>
+        <v>12427</v>
       </c>
       <c r="C26">
         <v>2998</v>
@@ -2895,7 +2923,7 @@
         <v>270</v>
       </c>
       <c r="G26">
-        <v>12428</v>
+        <v>12427</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -2904,7 +2932,7 @@
       </c>
       <c r="B27">
         <f t="shared" si="0"/>
-        <v>12698</v>
+        <v>12697</v>
       </c>
       <c r="C27">
         <v>3463</v>
@@ -2913,10 +2941,10 @@
         <v>220</v>
       </c>
       <c r="E27">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="G27">
-        <v>12698</v>
+        <v>12697</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -2925,7 +2953,7 @@
       </c>
       <c r="B28">
         <f t="shared" si="0"/>
-        <v>13006</v>
+        <v>13007</v>
       </c>
       <c r="C28">
         <v>4046</v>
@@ -2934,10 +2962,10 @@
         <v>243</v>
       </c>
       <c r="E28">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="G28">
-        <v>13006</v>
+        <v>13007</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -2946,7 +2974,7 @@
       </c>
       <c r="B29">
         <f t="shared" si="0"/>
-        <v>13233</v>
+        <v>13243</v>
       </c>
       <c r="C29">
         <v>4512</v>
@@ -2955,10 +2983,10 @@
         <v>273</v>
       </c>
       <c r="E29">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="G29">
-        <v>13233</v>
+        <v>13243</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -2967,7 +2995,7 @@
       </c>
       <c r="B30">
         <f t="shared" si="0"/>
-        <v>13493</v>
+        <v>13505</v>
       </c>
       <c r="C30">
         <v>5240</v>
@@ -2976,10 +3004,10 @@
         <v>295</v>
       </c>
       <c r="E30">
-        <v>335</v>
+        <v>356</v>
       </c>
       <c r="G30">
-        <v>13493</v>
+        <v>13505</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -2988,7 +3016,7 @@
       </c>
       <c r="B31">
         <f t="shared" si="0"/>
-        <v>13828</v>
+        <v>13861</v>
       </c>
       <c r="C31">
         <v>6064</v>
@@ -2997,10 +3025,10 @@
         <v>319</v>
       </c>
       <c r="E31">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="G31">
-        <v>13828</v>
+        <v>13861</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -3009,7 +3037,7 @@
       </c>
       <c r="B32">
         <f t="shared" si="0"/>
-        <v>14015</v>
+        <v>14029</v>
       </c>
       <c r="C32">
         <v>6604</v>
@@ -3018,10 +3046,10 @@
         <v>337</v>
       </c>
       <c r="E32">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G32">
-        <v>14015</v>
+        <v>14029</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -3029,8 +3057,8 @@
         <v>43934.474999999999</v>
       </c>
       <c r="B33">
-        <f t="shared" ref="B33:B39" si="1">B34-E33</f>
-        <v>14121</v>
+        <f t="shared" ref="B33:B40" si="1">B34-E33</f>
+        <v>14136</v>
       </c>
       <c r="C33">
         <v>7343</v>
@@ -3042,7 +3070,7 @@
         <v>91</v>
       </c>
       <c r="G33">
-        <v>14121</v>
+        <v>14136</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -3051,7 +3079,7 @@
       </c>
       <c r="B34">
         <f t="shared" si="1"/>
-        <v>14212</v>
+        <v>14227</v>
       </c>
       <c r="C34">
         <v>7633</v>
@@ -3060,10 +3088,10 @@
         <v>384</v>
       </c>
       <c r="E34">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="G34">
-        <v>14212</v>
+        <v>14227</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -3072,7 +3100,7 @@
       </c>
       <c r="B35">
         <f t="shared" si="1"/>
-        <v>14357</v>
+        <v>14374</v>
       </c>
       <c r="C35">
         <v>8098</v>
@@ -3081,10 +3109,10 @@
         <v>393</v>
       </c>
       <c r="E35">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="G35">
-        <v>14357</v>
+        <v>14374</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -3093,13 +3121,13 @@
       </c>
       <c r="B36">
         <f t="shared" si="1"/>
-        <v>14450</v>
+        <v>14473</v>
       </c>
       <c r="E36">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G36">
-        <v>14450</v>
+        <v>14473</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -3108,13 +3136,13 @@
       </c>
       <c r="B37">
         <f t="shared" si="1"/>
-        <v>14571</v>
+        <v>14592</v>
       </c>
       <c r="E37">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G37">
-        <v>14571</v>
+        <v>14592</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -3123,13 +3151,13 @@
       </c>
       <c r="B38">
         <f t="shared" si="1"/>
-        <v>14645</v>
+        <v>14670</v>
       </c>
       <c r="E38">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="G38">
-        <v>14645</v>
+        <v>14670</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -3138,13 +3166,13 @@
       </c>
       <c r="B39">
         <f t="shared" si="1"/>
-        <v>14696</v>
+        <v>14725</v>
       </c>
       <c r="E39">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G39">
-        <v>14696</v>
+        <v>14725</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -3152,10 +3180,25 @@
         <v>43941.467361111114</v>
       </c>
       <c r="B40">
-        <v>14731</v>
+        <f t="shared" si="1"/>
+        <v>14762</v>
+      </c>
+      <c r="E40">
+        <v>44</v>
       </c>
       <c r="G40">
-        <v>14731</v>
+        <v>14762</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>43942.553472222222</v>
+      </c>
+      <c r="B41">
+        <v>14806</v>
+      </c>
+      <c r="G41">
+        <v>14806</v>
       </c>
     </row>
   </sheetData>

--- a/covid-manual-excel.xlsx
+++ b/covid-manual-excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspaces\covid-19-data-analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36F256D6-24D2-469F-95C6-8F914838FEA9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C91E74F3-F728-4E1A-9BEA-FBCA2B763AF2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="18960" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -665,10 +665,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D41"/>
+  <dimension ref="A1:D44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1250,6 +1250,48 @@
       </c>
       <c r="D41">
         <v>4515</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>43943</v>
+      </c>
+      <c r="B42">
+        <v>144759</v>
+      </c>
+      <c r="C42">
+        <v>95200</v>
+      </c>
+      <c r="D42">
+        <v>4738</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>43944</v>
+      </c>
+      <c r="B43">
+        <v>147508</v>
+      </c>
+      <c r="C43">
+        <v>99400</v>
+      </c>
+      <c r="D43">
+        <v>5018</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>43945.734027777777</v>
+      </c>
+      <c r="B44">
+        <v>150012</v>
+      </c>
+      <c r="C44">
+        <v>103300</v>
+      </c>
+      <c r="D44">
+        <v>5269</v>
       </c>
     </row>
   </sheetData>
@@ -2008,10 +2050,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B8DAF25-F5B0-47E4-BAFA-42517715F0C0}">
-  <dimension ref="A1:D41"/>
+  <dimension ref="A1:D44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2362,7 +2404,7 @@
         <v>43926.40625</v>
       </c>
       <c r="B25">
-        <v>12262</v>
+        <v>12320</v>
       </c>
       <c r="C25">
         <v>2998</v>
@@ -2376,7 +2418,7 @@
         <v>43927.370138888888</v>
       </c>
       <c r="B26">
-        <v>12427</v>
+        <v>12485</v>
       </c>
       <c r="C26">
         <v>2998</v>
@@ -2390,7 +2432,7 @@
         <v>43928.375</v>
       </c>
       <c r="B27">
-        <v>12697</v>
+        <v>12755</v>
       </c>
       <c r="C27">
         <v>3463</v>
@@ -2404,7 +2446,7 @@
         <v>43929.344444444447</v>
       </c>
       <c r="B28">
-        <v>13007</v>
+        <v>13065</v>
       </c>
       <c r="C28">
         <v>4046</v>
@@ -2418,7 +2460,7 @@
         <v>43930.14166666667</v>
       </c>
       <c r="B29">
-        <v>13243</v>
+        <v>13301</v>
       </c>
       <c r="C29">
         <v>4512</v>
@@ -2432,7 +2474,7 @@
         <v>43931.00277777778</v>
       </c>
       <c r="B30">
-        <v>13505</v>
+        <v>13563</v>
       </c>
       <c r="C30">
         <v>5240</v>
@@ -2446,7 +2488,7 @@
         <v>43932.246527777781</v>
       </c>
       <c r="B31">
-        <v>13861</v>
+        <v>13919</v>
       </c>
       <c r="C31">
         <v>6064</v>
@@ -2460,7 +2502,7 @@
         <v>43933.350694444445</v>
       </c>
       <c r="B32">
-        <v>14029</v>
+        <v>14087</v>
       </c>
       <c r="C32">
         <v>6604</v>
@@ -2474,7 +2516,7 @@
         <v>43934.474999999999</v>
       </c>
       <c r="B33">
-        <v>14136</v>
+        <v>14194</v>
       </c>
       <c r="C33">
         <v>7343</v>
@@ -2488,7 +2530,7 @@
         <v>43935.628472222219</v>
       </c>
       <c r="B34">
-        <v>14227</v>
+        <v>14285</v>
       </c>
       <c r="C34">
         <v>7633</v>
@@ -2502,7 +2544,7 @@
         <v>43936.576388888891</v>
       </c>
       <c r="B35">
-        <v>14374</v>
+        <v>14432</v>
       </c>
       <c r="C35">
         <v>8098</v>
@@ -2516,7 +2558,7 @@
         <v>43937.34097222222</v>
       </c>
       <c r="B36">
-        <v>14473</v>
+        <v>14531</v>
       </c>
       <c r="C36">
         <v>8986</v>
@@ -2530,7 +2572,7 @@
         <v>43938.404861111114</v>
       </c>
       <c r="B37">
-        <v>14592</v>
+        <v>14650</v>
       </c>
       <c r="C37">
         <v>9704</v>
@@ -2544,7 +2586,7 @@
         <v>43939</v>
       </c>
       <c r="B38">
-        <v>14670</v>
+        <v>14728</v>
       </c>
       <c r="C38">
         <v>10214</v>
@@ -2558,7 +2600,7 @@
         <v>43940.520138888889</v>
       </c>
       <c r="B39">
-        <v>14725</v>
+        <v>14784</v>
       </c>
       <c r="C39">
         <v>10501</v>
@@ -2572,7 +2614,7 @@
         <v>43941.467361111114</v>
       </c>
       <c r="B40">
-        <v>14762</v>
+        <v>14824</v>
       </c>
       <c r="C40">
         <v>10631</v>
@@ -2586,13 +2628,55 @@
         <v>43942.553472222222</v>
       </c>
       <c r="B41">
-        <v>14806</v>
+        <v>14880</v>
       </c>
       <c r="C41">
         <v>10971</v>
       </c>
       <c r="D41">
         <v>491</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>43943</v>
+      </c>
+      <c r="B42">
+        <v>14942</v>
+      </c>
+      <c r="C42">
+        <v>11328</v>
+      </c>
+      <c r="D42">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>43944</v>
+      </c>
+      <c r="B43">
+        <v>15005</v>
+      </c>
+      <c r="C43">
+        <v>11694</v>
+      </c>
+      <c r="D43">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>43945.734027777777</v>
+      </c>
+      <c r="B44">
+        <v>15051</v>
+      </c>
+      <c r="C44">
+        <v>11872</v>
+      </c>
+      <c r="D44">
+        <v>530</v>
       </c>
     </row>
   </sheetData>
@@ -2604,10 +2688,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C361FD1-37DF-4CF9-A8B7-B834A1753F46}">
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G25" sqref="G25:G41"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25:G44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2890,7 +2974,7 @@
       </c>
       <c r="B25">
         <f t="shared" ref="B25:B32" si="0">B26-E25</f>
-        <v>12262</v>
+        <v>12320</v>
       </c>
       <c r="C25">
         <v>2998</v>
@@ -2902,7 +2986,7 @@
         <v>165</v>
       </c>
       <c r="G25">
-        <v>12262</v>
+        <v>12320</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -2911,7 +2995,7 @@
       </c>
       <c r="B26">
         <f t="shared" si="0"/>
-        <v>12427</v>
+        <v>12485</v>
       </c>
       <c r="C26">
         <v>2998</v>
@@ -2923,7 +3007,7 @@
         <v>270</v>
       </c>
       <c r="G26">
-        <v>12427</v>
+        <v>12485</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -2932,7 +3016,7 @@
       </c>
       <c r="B27">
         <f t="shared" si="0"/>
-        <v>12697</v>
+        <v>12755</v>
       </c>
       <c r="C27">
         <v>3463</v>
@@ -2944,7 +3028,7 @@
         <v>310</v>
       </c>
       <c r="G27">
-        <v>12697</v>
+        <v>12755</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -2953,7 +3037,7 @@
       </c>
       <c r="B28">
         <f t="shared" si="0"/>
-        <v>13007</v>
+        <v>13065</v>
       </c>
       <c r="C28">
         <v>4046</v>
@@ -2965,7 +3049,7 @@
         <v>236</v>
       </c>
       <c r="G28">
-        <v>13007</v>
+        <v>13065</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -2974,7 +3058,7 @@
       </c>
       <c r="B29">
         <f t="shared" si="0"/>
-        <v>13243</v>
+        <v>13301</v>
       </c>
       <c r="C29">
         <v>4512</v>
@@ -2986,7 +3070,7 @@
         <v>262</v>
       </c>
       <c r="G29">
-        <v>13243</v>
+        <v>13301</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -2995,7 +3079,7 @@
       </c>
       <c r="B30">
         <f t="shared" si="0"/>
-        <v>13505</v>
+        <v>13563</v>
       </c>
       <c r="C30">
         <v>5240</v>
@@ -3007,7 +3091,7 @@
         <v>356</v>
       </c>
       <c r="G30">
-        <v>13505</v>
+        <v>13563</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -3016,7 +3100,7 @@
       </c>
       <c r="B31">
         <f t="shared" si="0"/>
-        <v>13861</v>
+        <v>13919</v>
       </c>
       <c r="C31">
         <v>6064</v>
@@ -3028,7 +3112,7 @@
         <v>168</v>
       </c>
       <c r="G31">
-        <v>13861</v>
+        <v>13919</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -3037,7 +3121,7 @@
       </c>
       <c r="B32">
         <f t="shared" si="0"/>
-        <v>14029</v>
+        <v>14087</v>
       </c>
       <c r="C32">
         <v>6604</v>
@@ -3049,7 +3133,7 @@
         <v>107</v>
       </c>
       <c r="G32">
-        <v>14029</v>
+        <v>14087</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -3057,8 +3141,8 @@
         <v>43934.474999999999</v>
       </c>
       <c r="B33">
-        <f t="shared" ref="B33:B40" si="1">B34-E33</f>
-        <v>14136</v>
+        <f t="shared" ref="B33:B42" si="1">B34-E33</f>
+        <v>14194</v>
       </c>
       <c r="C33">
         <v>7343</v>
@@ -3070,7 +3154,7 @@
         <v>91</v>
       </c>
       <c r="G33">
-        <v>14136</v>
+        <v>14194</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -3079,7 +3163,7 @@
       </c>
       <c r="B34">
         <f t="shared" si="1"/>
-        <v>14227</v>
+        <v>14285</v>
       </c>
       <c r="C34">
         <v>7633</v>
@@ -3091,7 +3175,7 @@
         <v>147</v>
       </c>
       <c r="G34">
-        <v>14227</v>
+        <v>14285</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -3100,7 +3184,7 @@
       </c>
       <c r="B35">
         <f t="shared" si="1"/>
-        <v>14374</v>
+        <v>14432</v>
       </c>
       <c r="C35">
         <v>8098</v>
@@ -3112,7 +3196,7 @@
         <v>99</v>
       </c>
       <c r="G35">
-        <v>14374</v>
+        <v>14432</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -3121,13 +3205,13 @@
       </c>
       <c r="B36">
         <f t="shared" si="1"/>
-        <v>14473</v>
+        <v>14531</v>
       </c>
       <c r="E36">
         <v>119</v>
       </c>
       <c r="G36">
-        <v>14473</v>
+        <v>14531</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -3136,13 +3220,13 @@
       </c>
       <c r="B37">
         <f t="shared" si="1"/>
-        <v>14592</v>
+        <v>14650</v>
       </c>
       <c r="E37">
         <v>78</v>
       </c>
       <c r="G37">
-        <v>14592</v>
+        <v>14650</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -3151,13 +3235,13 @@
       </c>
       <c r="B38">
         <f t="shared" si="1"/>
-        <v>14670</v>
+        <v>14728</v>
       </c>
       <c r="E38">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G38">
-        <v>14670</v>
+        <v>14728</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -3166,13 +3250,13 @@
       </c>
       <c r="B39">
         <f t="shared" si="1"/>
-        <v>14725</v>
+        <v>14784</v>
       </c>
       <c r="E39">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G39">
-        <v>14725</v>
+        <v>14784</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -3181,13 +3265,13 @@
       </c>
       <c r="B40">
         <f t="shared" si="1"/>
-        <v>14762</v>
+        <v>14824</v>
       </c>
       <c r="E40">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="G40">
-        <v>14762</v>
+        <v>14824</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -3195,10 +3279,55 @@
         <v>43942.553472222222</v>
       </c>
       <c r="B41">
-        <v>14806</v>
+        <f t="shared" si="1"/>
+        <v>14880</v>
+      </c>
+      <c r="E41">
+        <v>62</v>
       </c>
       <c r="G41">
-        <v>14806</v>
+        <v>14880</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>43943</v>
+      </c>
+      <c r="B42">
+        <f t="shared" si="1"/>
+        <v>14942</v>
+      </c>
+      <c r="E42">
+        <v>63</v>
+      </c>
+      <c r="G42">
+        <v>14942</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>43944</v>
+      </c>
+      <c r="B43">
+        <f t="shared" ref="B43" si="2">B44-E43</f>
+        <v>15005</v>
+      </c>
+      <c r="E43">
+        <v>46</v>
+      </c>
+      <c r="G43">
+        <v>15005</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>43945.734027777777</v>
+      </c>
+      <c r="B44">
+        <v>15051</v>
+      </c>
+      <c r="G44">
+        <v>15051</v>
       </c>
     </row>
   </sheetData>

--- a/covid-manual-excel.xlsx
+++ b/covid-manual-excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspaces\covid-19-data-analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C91E74F3-F728-4E1A-9BEA-FBCA2B763AF2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8EDE857-A5E4-43F8-AFBA-CBE0349C5A70}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="18960" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2050,10 +2050,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B8DAF25-F5B0-47E4-BAFA-42517715F0C0}">
-  <dimension ref="A1:D44"/>
+  <dimension ref="A1:D47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2404,7 +2404,7 @@
         <v>43926.40625</v>
       </c>
       <c r="B25">
-        <v>12320</v>
+        <v>12312</v>
       </c>
       <c r="C25">
         <v>2998</v>
@@ -2418,7 +2418,7 @@
         <v>43927.370138888888</v>
       </c>
       <c r="B26">
-        <v>12485</v>
+        <v>12477</v>
       </c>
       <c r="C26">
         <v>2998</v>
@@ -2432,7 +2432,7 @@
         <v>43928.375</v>
       </c>
       <c r="B27">
-        <v>12755</v>
+        <v>12747</v>
       </c>
       <c r="C27">
         <v>3463</v>
@@ -2446,7 +2446,7 @@
         <v>43929.344444444447</v>
       </c>
       <c r="B28">
-        <v>13065</v>
+        <v>13057</v>
       </c>
       <c r="C28">
         <v>4046</v>
@@ -2460,7 +2460,7 @@
         <v>43930.14166666667</v>
       </c>
       <c r="B29">
-        <v>13301</v>
+        <v>13293</v>
       </c>
       <c r="C29">
         <v>4512</v>
@@ -2474,7 +2474,7 @@
         <v>43931.00277777778</v>
       </c>
       <c r="B30">
-        <v>13563</v>
+        <v>13555</v>
       </c>
       <c r="C30">
         <v>5240</v>
@@ -2488,7 +2488,7 @@
         <v>43932.246527777781</v>
       </c>
       <c r="B31">
-        <v>13919</v>
+        <v>13911</v>
       </c>
       <c r="C31">
         <v>6064</v>
@@ -2502,7 +2502,7 @@
         <v>43933.350694444445</v>
       </c>
       <c r="B32">
-        <v>14087</v>
+        <v>14079</v>
       </c>
       <c r="C32">
         <v>6604</v>
@@ -2516,7 +2516,7 @@
         <v>43934.474999999999</v>
       </c>
       <c r="B33">
-        <v>14194</v>
+        <v>14185</v>
       </c>
       <c r="C33">
         <v>7343</v>
@@ -2530,7 +2530,7 @@
         <v>43935.628472222219</v>
       </c>
       <c r="B34">
-        <v>14285</v>
+        <v>14276</v>
       </c>
       <c r="C34">
         <v>7633</v>
@@ -2544,7 +2544,7 @@
         <v>43936.576388888891</v>
       </c>
       <c r="B35">
-        <v>14432</v>
+        <v>14424</v>
       </c>
       <c r="C35">
         <v>8098</v>
@@ -2558,7 +2558,7 @@
         <v>43937.34097222222</v>
       </c>
       <c r="B36">
-        <v>14531</v>
+        <v>14526</v>
       </c>
       <c r="C36">
         <v>8986</v>
@@ -2572,7 +2572,7 @@
         <v>43938.404861111114</v>
       </c>
       <c r="B37">
-        <v>14650</v>
+        <v>14649</v>
       </c>
       <c r="C37">
         <v>9704</v>
@@ -2586,7 +2586,7 @@
         <v>43939</v>
       </c>
       <c r="B38">
-        <v>14728</v>
+        <v>14727</v>
       </c>
       <c r="C38">
         <v>10214</v>
@@ -2614,7 +2614,7 @@
         <v>43941.467361111114</v>
       </c>
       <c r="B40">
-        <v>14824</v>
+        <v>14825</v>
       </c>
       <c r="C40">
         <v>10631</v>
@@ -2628,7 +2628,7 @@
         <v>43942.553472222222</v>
       </c>
       <c r="B41">
-        <v>14880</v>
+        <v>14883</v>
       </c>
       <c r="C41">
         <v>10971</v>
@@ -2642,7 +2642,7 @@
         <v>43943</v>
       </c>
       <c r="B42">
-        <v>14942</v>
+        <v>14949</v>
       </c>
       <c r="C42">
         <v>11328</v>
@@ -2656,7 +2656,7 @@
         <v>43944</v>
       </c>
       <c r="B43">
-        <v>15005</v>
+        <v>15016</v>
       </c>
       <c r="C43">
         <v>11694</v>
@@ -2670,13 +2670,55 @@
         <v>43945.734027777777</v>
       </c>
       <c r="B44">
-        <v>15051</v>
+        <v>15069</v>
       </c>
       <c r="C44">
         <v>11872</v>
       </c>
       <c r="D44">
         <v>530</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>43946</v>
+      </c>
+      <c r="B45">
+        <v>15150</v>
+      </c>
+      <c r="C45">
+        <v>12103</v>
+      </c>
+      <c r="D45">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>43947</v>
+      </c>
+      <c r="B46">
+        <v>15209</v>
+      </c>
+      <c r="C46">
+        <v>12282</v>
+      </c>
+      <c r="D46">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>43948.700694444444</v>
+      </c>
+      <c r="B47">
+        <v>15241</v>
+      </c>
+      <c r="C47">
+        <v>12362</v>
+      </c>
+      <c r="D47">
+        <v>549</v>
       </c>
     </row>
   </sheetData>
@@ -2688,10 +2730,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C361FD1-37DF-4CF9-A8B7-B834A1753F46}">
-  <dimension ref="A1:G44"/>
+  <dimension ref="A1:H47"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25:G44"/>
+      <selection activeCell="H25" sqref="H25:H47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2880,7 +2922,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>43918.418055555558</v>
       </c>
@@ -2891,7 +2933,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>43919.418055555558</v>
       </c>
@@ -2902,7 +2944,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>43920.367361111108</v>
       </c>
@@ -2913,7 +2955,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>43921.167361111111</v>
       </c>
@@ -2924,7 +2966,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>43922.416666666664</v>
       </c>
@@ -2935,7 +2977,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>43923.112500000003</v>
       </c>
@@ -2946,7 +2988,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>43924.272916666669</v>
       </c>
@@ -2957,7 +2999,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>43925.448611111111</v>
       </c>
@@ -2968,13 +3010,13 @@
         <v>168</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>43926.40625</v>
       </c>
       <c r="B25">
         <f t="shared" ref="B25:B32" si="0">B26-E25</f>
-        <v>12320</v>
+        <v>12312</v>
       </c>
       <c r="C25">
         <v>2998</v>
@@ -2985,17 +3027,17 @@
       <c r="E25">
         <v>165</v>
       </c>
-      <c r="G25">
-        <v>12320</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H25">
+        <v>12312</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>43927.370138888888</v>
       </c>
       <c r="B26">
         <f t="shared" si="0"/>
-        <v>12485</v>
+        <v>12477</v>
       </c>
       <c r="C26">
         <v>2998</v>
@@ -3006,17 +3048,17 @@
       <c r="E26">
         <v>270</v>
       </c>
-      <c r="G26">
-        <v>12485</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H26">
+        <v>12477</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>43928.375</v>
       </c>
       <c r="B27">
         <f t="shared" si="0"/>
-        <v>12755</v>
+        <v>12747</v>
       </c>
       <c r="C27">
         <v>3463</v>
@@ -3027,17 +3069,17 @@
       <c r="E27">
         <v>310</v>
       </c>
-      <c r="G27">
-        <v>12755</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H27">
+        <v>12747</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>43929.344444444447</v>
       </c>
       <c r="B28">
         <f t="shared" si="0"/>
-        <v>13065</v>
+        <v>13057</v>
       </c>
       <c r="C28">
         <v>4046</v>
@@ -3048,17 +3090,17 @@
       <c r="E28">
         <v>236</v>
       </c>
-      <c r="G28">
-        <v>13065</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H28">
+        <v>13057</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>43930.14166666667</v>
       </c>
       <c r="B29">
         <f t="shared" si="0"/>
-        <v>13301</v>
+        <v>13293</v>
       </c>
       <c r="C29">
         <v>4512</v>
@@ -3069,17 +3111,17 @@
       <c r="E29">
         <v>262</v>
       </c>
-      <c r="G29">
-        <v>13301</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H29">
+        <v>13293</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>43931.00277777778</v>
       </c>
       <c r="B30">
         <f t="shared" si="0"/>
-        <v>13563</v>
+        <v>13555</v>
       </c>
       <c r="C30">
         <v>5240</v>
@@ -3090,17 +3132,17 @@
       <c r="E30">
         <v>356</v>
       </c>
-      <c r="G30">
-        <v>13563</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H30">
+        <v>13555</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>43932.246527777781</v>
       </c>
       <c r="B31">
         <f t="shared" si="0"/>
-        <v>13919</v>
+        <v>13911</v>
       </c>
       <c r="C31">
         <v>6064</v>
@@ -3111,17 +3153,17 @@
       <c r="E31">
         <v>168</v>
       </c>
-      <c r="G31">
-        <v>13919</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H31">
+        <v>13911</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>43933.350694444445</v>
       </c>
       <c r="B32">
         <f t="shared" si="0"/>
-        <v>14087</v>
+        <v>14079</v>
       </c>
       <c r="C32">
         <v>6604</v>
@@ -3130,19 +3172,19 @@
         <v>337</v>
       </c>
       <c r="E32">
-        <v>107</v>
-      </c>
-      <c r="G32">
-        <v>14087</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+      <c r="H32">
+        <v>14079</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>43934.474999999999</v>
       </c>
       <c r="B33">
         <f t="shared" ref="B33:B42" si="1">B34-E33</f>
-        <v>14194</v>
+        <v>14185</v>
       </c>
       <c r="C33">
         <v>7343</v>
@@ -3153,17 +3195,17 @@
       <c r="E33">
         <v>91</v>
       </c>
-      <c r="G33">
-        <v>14194</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H33">
+        <v>14185</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>43935.628472222219</v>
       </c>
       <c r="B34">
         <f t="shared" si="1"/>
-        <v>14285</v>
+        <v>14276</v>
       </c>
       <c r="C34">
         <v>7633</v>
@@ -3172,19 +3214,19 @@
         <v>384</v>
       </c>
       <c r="E34">
-        <v>147</v>
-      </c>
-      <c r="G34">
-        <v>14285</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+      <c r="H34">
+        <v>14276</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>43936.576388888891</v>
       </c>
       <c r="B35">
         <f t="shared" si="1"/>
-        <v>14432</v>
+        <v>14424</v>
       </c>
       <c r="C35">
         <v>8098</v>
@@ -3193,58 +3235,58 @@
         <v>393</v>
       </c>
       <c r="E35">
-        <v>99</v>
-      </c>
-      <c r="G35">
-        <v>14432</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+      <c r="H35">
+        <v>14424</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>43937.34097222222</v>
       </c>
       <c r="B36">
         <f t="shared" si="1"/>
-        <v>14531</v>
+        <v>14526</v>
       </c>
       <c r="E36">
-        <v>119</v>
-      </c>
-      <c r="G36">
-        <v>14531</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+      <c r="H36">
+        <v>14526</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>43938.404861111114</v>
       </c>
       <c r="B37">
         <f t="shared" si="1"/>
-        <v>14650</v>
+        <v>14649</v>
       </c>
       <c r="E37">
         <v>78</v>
       </c>
-      <c r="G37">
-        <v>14650</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H37">
+        <v>14649</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>43939</v>
       </c>
       <c r="B38">
         <f t="shared" si="1"/>
-        <v>14728</v>
+        <v>14727</v>
       </c>
       <c r="E38">
-        <v>56</v>
-      </c>
-      <c r="G38">
-        <v>14728</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+      <c r="H38">
+        <v>14727</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>43940.520138888889</v>
       </c>
@@ -3253,81 +3295,126 @@
         <v>14784</v>
       </c>
       <c r="E39">
-        <v>40</v>
-      </c>
-      <c r="G39">
+        <v>41</v>
+      </c>
+      <c r="H39">
         <v>14784</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>43941.467361111114</v>
       </c>
       <c r="B40">
         <f t="shared" si="1"/>
-        <v>14824</v>
+        <v>14825</v>
       </c>
       <c r="E40">
-        <v>56</v>
-      </c>
-      <c r="G40">
-        <v>14824</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+      <c r="H40">
+        <v>14825</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>43942.553472222222</v>
       </c>
       <c r="B41">
         <f t="shared" si="1"/>
-        <v>14880</v>
+        <v>14883</v>
       </c>
       <c r="E41">
-        <v>62</v>
-      </c>
-      <c r="G41">
-        <v>14880</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+      <c r="H41">
+        <v>14883</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>43943</v>
       </c>
       <c r="B42">
-        <f t="shared" si="1"/>
-        <v>14942</v>
+        <f t="shared" ref="B42:B45" si="2">B43-E42</f>
+        <v>14949</v>
       </c>
       <c r="E42">
-        <v>63</v>
-      </c>
-      <c r="G42">
-        <v>14942</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+      <c r="H42">
+        <v>14949</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>43944</v>
       </c>
       <c r="B43">
-        <f t="shared" ref="B43" si="2">B44-E43</f>
-        <v>15005</v>
+        <f t="shared" si="2"/>
+        <v>15016</v>
       </c>
       <c r="E43">
-        <v>46</v>
-      </c>
-      <c r="G43">
-        <v>15005</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+      <c r="H43">
+        <v>15016</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>43945.734027777777</v>
       </c>
       <c r="B44">
-        <v>15051</v>
-      </c>
-      <c r="G44">
-        <v>15051</v>
+        <f t="shared" si="2"/>
+        <v>15069</v>
+      </c>
+      <c r="E44">
+        <v>81</v>
+      </c>
+      <c r="H44">
+        <v>15069</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>43946</v>
+      </c>
+      <c r="B45">
+        <f t="shared" si="2"/>
+        <v>15150</v>
+      </c>
+      <c r="E45">
+        <v>59</v>
+      </c>
+      <c r="H45">
+        <v>15150</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>43947</v>
+      </c>
+      <c r="B46">
+        <f t="shared" ref="B46" si="3">B47-E46</f>
+        <v>15209</v>
+      </c>
+      <c r="E46">
+        <v>32</v>
+      </c>
+      <c r="H46">
+        <v>15209</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>43948.700694444444</v>
+      </c>
+      <c r="B47">
+        <v>15241</v>
+      </c>
+      <c r="H47">
+        <v>15241</v>
       </c>
     </row>
   </sheetData>

--- a/covid-manual-excel.xlsx
+++ b/covid-manual-excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspaces\covid-19-data-analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8EDE857-A5E4-43F8-AFBA-CBE0349C5A70}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6E3A952-DCF5-4776-AA49-D330F4CF31D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="18960" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -665,10 +665,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D44"/>
+  <dimension ref="A1:D49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A48" sqref="A48:A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1292,6 +1292,76 @@
       </c>
       <c r="D44">
         <v>5269</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>43946</v>
+      </c>
+      <c r="B45">
+        <v>152366</v>
+      </c>
+      <c r="C45">
+        <v>106800</v>
+      </c>
+      <c r="D45">
+        <v>5460</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>43947</v>
+      </c>
+      <c r="B46">
+        <v>154606</v>
+      </c>
+      <c r="C46">
+        <v>109800</v>
+      </c>
+      <c r="D46">
+        <v>5667</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>43948.700694444444</v>
+      </c>
+      <c r="B47">
+        <v>155499</v>
+      </c>
+      <c r="C47">
+        <v>112300</v>
+      </c>
+      <c r="D47">
+        <v>5736</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>43949</v>
+      </c>
+      <c r="B48">
+        <v>156234</v>
+      </c>
+      <c r="C48">
+        <v>114500</v>
+      </c>
+      <c r="D48">
+        <v>5842</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>43950.65347222222</v>
+      </c>
+      <c r="B49">
+        <v>157552</v>
+      </c>
+      <c r="C49">
+        <v>117400</v>
+      </c>
+      <c r="D49">
+        <v>6054</v>
       </c>
     </row>
   </sheetData>
@@ -2050,10 +2120,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B8DAF25-F5B0-47E4-BAFA-42517715F0C0}">
-  <dimension ref="A1:D47"/>
+  <dimension ref="A1:D49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+      <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2404,7 +2474,7 @@
         <v>43926.40625</v>
       </c>
       <c r="B25">
-        <v>12312</v>
+        <v>12300</v>
       </c>
       <c r="C25">
         <v>2998</v>
@@ -2418,7 +2488,7 @@
         <v>43927.370138888888</v>
       </c>
       <c r="B26">
-        <v>12477</v>
+        <v>12465</v>
       </c>
       <c r="C26">
         <v>2998</v>
@@ -2432,7 +2502,7 @@
         <v>43928.375</v>
       </c>
       <c r="B27">
-        <v>12747</v>
+        <v>12736</v>
       </c>
       <c r="C27">
         <v>3463</v>
@@ -2446,7 +2516,7 @@
         <v>43929.344444444447</v>
       </c>
       <c r="B28">
-        <v>13057</v>
+        <v>13059</v>
       </c>
       <c r="C28">
         <v>4046</v>
@@ -2460,7 +2530,7 @@
         <v>43930.14166666667</v>
       </c>
       <c r="B29">
-        <v>13293</v>
+        <v>13299</v>
       </c>
       <c r="C29">
         <v>4512</v>
@@ -2474,7 +2544,7 @@
         <v>43931.00277777778</v>
       </c>
       <c r="B30">
-        <v>13555</v>
+        <v>13565</v>
       </c>
       <c r="C30">
         <v>5240</v>
@@ -2488,7 +2558,7 @@
         <v>43932.246527777781</v>
       </c>
       <c r="B31">
-        <v>13911</v>
+        <v>13922</v>
       </c>
       <c r="C31">
         <v>6064</v>
@@ -2502,7 +2572,7 @@
         <v>43933.350694444445</v>
       </c>
       <c r="B32">
-        <v>14079</v>
+        <v>14093</v>
       </c>
       <c r="C32">
         <v>6604</v>
@@ -2516,7 +2586,7 @@
         <v>43934.474999999999</v>
       </c>
       <c r="B33">
-        <v>14185</v>
+        <v>14199</v>
       </c>
       <c r="C33">
         <v>7343</v>
@@ -2530,7 +2600,7 @@
         <v>43935.628472222219</v>
       </c>
       <c r="B34">
-        <v>14276</v>
+        <v>14290</v>
       </c>
       <c r="C34">
         <v>7633</v>
@@ -2544,7 +2614,7 @@
         <v>43936.576388888891</v>
       </c>
       <c r="B35">
-        <v>14424</v>
+        <v>14436</v>
       </c>
       <c r="C35">
         <v>8098</v>
@@ -2558,7 +2628,7 @@
         <v>43937.34097222222</v>
       </c>
       <c r="B36">
-        <v>14526</v>
+        <v>14539</v>
       </c>
       <c r="C36">
         <v>8986</v>
@@ -2572,7 +2642,7 @@
         <v>43938.404861111114</v>
       </c>
       <c r="B37">
-        <v>14649</v>
+        <v>14663</v>
       </c>
       <c r="C37">
         <v>9704</v>
@@ -2586,7 +2656,7 @@
         <v>43939</v>
       </c>
       <c r="B38">
-        <v>14727</v>
+        <v>14742</v>
       </c>
       <c r="C38">
         <v>10214</v>
@@ -2600,7 +2670,7 @@
         <v>43940.520138888889</v>
       </c>
       <c r="B39">
-        <v>14784</v>
+        <v>14800</v>
       </c>
       <c r="C39">
         <v>10501</v>
@@ -2614,7 +2684,7 @@
         <v>43941.467361111114</v>
       </c>
       <c r="B40">
-        <v>14825</v>
+        <v>14840</v>
       </c>
       <c r="C40">
         <v>10631</v>
@@ -2628,7 +2698,7 @@
         <v>43942.553472222222</v>
       </c>
       <c r="B41">
-        <v>14883</v>
+        <v>14899</v>
       </c>
       <c r="C41">
         <v>10971</v>
@@ -2642,7 +2712,7 @@
         <v>43943</v>
       </c>
       <c r="B42">
-        <v>14949</v>
+        <v>14966</v>
       </c>
       <c r="C42">
         <v>11328</v>
@@ -2656,7 +2726,7 @@
         <v>43944</v>
       </c>
       <c r="B43">
-        <v>15016</v>
+        <v>15035</v>
       </c>
       <c r="C43">
         <v>11694</v>
@@ -2670,7 +2740,7 @@
         <v>43945.734027777777</v>
       </c>
       <c r="B44">
-        <v>15069</v>
+        <v>15089</v>
       </c>
       <c r="C44">
         <v>11872</v>
@@ -2684,7 +2754,7 @@
         <v>43946</v>
       </c>
       <c r="B45">
-        <v>15150</v>
+        <v>15169</v>
       </c>
       <c r="C45">
         <v>12103</v>
@@ -2698,7 +2768,7 @@
         <v>43947</v>
       </c>
       <c r="B46">
-        <v>15209</v>
+        <v>15226</v>
       </c>
       <c r="C46">
         <v>12282</v>
@@ -2712,13 +2782,41 @@
         <v>43948.700694444444</v>
       </c>
       <c r="B47">
-        <v>15241</v>
+        <v>15259</v>
       </c>
       <c r="C47">
         <v>12362</v>
       </c>
       <c r="D47">
         <v>549</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>43949</v>
+      </c>
+      <c r="B48">
+        <v>15305</v>
+      </c>
+      <c r="C48">
+        <v>12580</v>
+      </c>
+      <c r="D48">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>43950.65347222222</v>
+      </c>
+      <c r="B49">
+        <v>15352</v>
+      </c>
+      <c r="C49">
+        <v>12779</v>
+      </c>
+      <c r="D49">
+        <v>580</v>
       </c>
     </row>
   </sheetData>
@@ -2730,10 +2828,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C361FD1-37DF-4CF9-A8B7-B834A1753F46}">
-  <dimension ref="A1:H47"/>
+  <dimension ref="A1:G49"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25:H47"/>
+      <selection activeCell="G25" sqref="G25:G49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2922,7 +3020,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>43918.418055555558</v>
       </c>
@@ -2933,7 +3031,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>43919.418055555558</v>
       </c>
@@ -2944,7 +3042,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>43920.367361111108</v>
       </c>
@@ -2955,7 +3053,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>43921.167361111111</v>
       </c>
@@ -2966,7 +3064,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>43922.416666666664</v>
       </c>
@@ -2977,7 +3075,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>43923.112500000003</v>
       </c>
@@ -2988,7 +3086,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>43924.272916666669</v>
       </c>
@@ -2999,7 +3097,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>43925.448611111111</v>
       </c>
@@ -3010,13 +3108,13 @@
         <v>168</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>43926.40625</v>
       </c>
       <c r="B25">
         <f t="shared" ref="B25:B32" si="0">B26-E25</f>
-        <v>12312</v>
+        <v>12300</v>
       </c>
       <c r="C25">
         <v>2998</v>
@@ -3027,17 +3125,17 @@
       <c r="E25">
         <v>165</v>
       </c>
-      <c r="H25">
-        <v>12312</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G25">
+        <v>12300</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>43927.370138888888</v>
       </c>
       <c r="B26">
         <f t="shared" si="0"/>
-        <v>12477</v>
+        <v>12465</v>
       </c>
       <c r="C26">
         <v>2998</v>
@@ -3046,19 +3144,19 @@
         <v>204</v>
       </c>
       <c r="E26">
-        <v>270</v>
-      </c>
-      <c r="H26">
-        <v>12477</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+      <c r="G26">
+        <v>12465</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>43928.375</v>
       </c>
       <c r="B27">
         <f t="shared" si="0"/>
-        <v>12747</v>
+        <v>12736</v>
       </c>
       <c r="C27">
         <v>3463</v>
@@ -3067,19 +3165,19 @@
         <v>220</v>
       </c>
       <c r="E27">
-        <v>310</v>
-      </c>
-      <c r="H27">
-        <v>12747</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+        <v>323</v>
+      </c>
+      <c r="G27">
+        <v>12736</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>43929.344444444447</v>
       </c>
       <c r="B28">
         <f t="shared" si="0"/>
-        <v>13057</v>
+        <v>13059</v>
       </c>
       <c r="C28">
         <v>4046</v>
@@ -3088,19 +3186,19 @@
         <v>243</v>
       </c>
       <c r="E28">
-        <v>236</v>
-      </c>
-      <c r="H28">
-        <v>13057</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+      <c r="G28">
+        <v>13059</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>43930.14166666667</v>
       </c>
       <c r="B29">
         <f t="shared" si="0"/>
-        <v>13293</v>
+        <v>13299</v>
       </c>
       <c r="C29">
         <v>4512</v>
@@ -3109,19 +3207,19 @@
         <v>273</v>
       </c>
       <c r="E29">
-        <v>262</v>
-      </c>
-      <c r="H29">
-        <v>13293</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+        <v>266</v>
+      </c>
+      <c r="G29">
+        <v>13299</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>43931.00277777778</v>
       </c>
       <c r="B30">
         <f t="shared" si="0"/>
-        <v>13555</v>
+        <v>13565</v>
       </c>
       <c r="C30">
         <v>5240</v>
@@ -3130,19 +3228,19 @@
         <v>295</v>
       </c>
       <c r="E30">
-        <v>356</v>
-      </c>
-      <c r="H30">
-        <v>13555</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+        <v>357</v>
+      </c>
+      <c r="G30">
+        <v>13565</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>43932.246527777781</v>
       </c>
       <c r="B31">
         <f t="shared" si="0"/>
-        <v>13911</v>
+        <v>13922</v>
       </c>
       <c r="C31">
         <v>6064</v>
@@ -3151,19 +3249,19 @@
         <v>319</v>
       </c>
       <c r="E31">
-        <v>168</v>
-      </c>
-      <c r="H31">
-        <v>13911</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+        <v>171</v>
+      </c>
+      <c r="G31">
+        <v>13922</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>43933.350694444445</v>
       </c>
       <c r="B32">
         <f t="shared" si="0"/>
-        <v>14079</v>
+        <v>14093</v>
       </c>
       <c r="C32">
         <v>6604</v>
@@ -3174,17 +3272,17 @@
       <c r="E32">
         <v>106</v>
       </c>
-      <c r="H32">
-        <v>14079</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G32">
+        <v>14093</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>43934.474999999999</v>
       </c>
       <c r="B33">
-        <f t="shared" ref="B33:B42" si="1">B34-E33</f>
-        <v>14185</v>
+        <f t="shared" ref="B33:B41" si="1">B34-E33</f>
+        <v>14199</v>
       </c>
       <c r="C33">
         <v>7343</v>
@@ -3195,17 +3293,17 @@
       <c r="E33">
         <v>91</v>
       </c>
-      <c r="H33">
-        <v>14185</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G33">
+        <v>14199</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>43935.628472222219</v>
       </c>
       <c r="B34">
         <f t="shared" si="1"/>
-        <v>14276</v>
+        <v>14290</v>
       </c>
       <c r="C34">
         <v>7633</v>
@@ -3214,19 +3312,19 @@
         <v>384</v>
       </c>
       <c r="E34">
-        <v>148</v>
-      </c>
-      <c r="H34">
-        <v>14276</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+      <c r="G34">
+        <v>14290</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>43936.576388888891</v>
       </c>
       <c r="B35">
         <f t="shared" si="1"/>
-        <v>14424</v>
+        <v>14436</v>
       </c>
       <c r="C35">
         <v>8098</v>
@@ -3235,186 +3333,216 @@
         <v>393</v>
       </c>
       <c r="E35">
-        <v>102</v>
-      </c>
-      <c r="H35">
-        <v>14424</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+      <c r="G35">
+        <v>14436</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>43937.34097222222</v>
       </c>
       <c r="B36">
         <f t="shared" si="1"/>
-        <v>14526</v>
+        <v>14539</v>
       </c>
       <c r="E36">
-        <v>123</v>
-      </c>
-      <c r="H36">
-        <v>14526</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+      <c r="G36">
+        <v>14539</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>43938.404861111114</v>
       </c>
       <c r="B37">
         <f t="shared" si="1"/>
-        <v>14649</v>
+        <v>14663</v>
       </c>
       <c r="E37">
-        <v>78</v>
-      </c>
-      <c r="H37">
-        <v>14649</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+      <c r="G37">
+        <v>14663</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>43939</v>
       </c>
       <c r="B38">
         <f t="shared" si="1"/>
-        <v>14727</v>
+        <v>14742</v>
       </c>
       <c r="E38">
-        <v>57</v>
-      </c>
-      <c r="H38">
-        <v>14727</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+      <c r="G38">
+        <v>14742</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>43940.520138888889</v>
       </c>
       <c r="B39">
         <f t="shared" si="1"/>
-        <v>14784</v>
+        <v>14800</v>
       </c>
       <c r="E39">
-        <v>41</v>
-      </c>
-      <c r="H39">
-        <v>14784</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+      <c r="G39">
+        <v>14800</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>43941.467361111114</v>
       </c>
       <c r="B40">
         <f t="shared" si="1"/>
-        <v>14825</v>
+        <v>14840</v>
       </c>
       <c r="E40">
-        <v>58</v>
-      </c>
-      <c r="H40">
-        <v>14825</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+      <c r="G40">
+        <v>14840</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>43942.553472222222</v>
       </c>
       <c r="B41">
         <f t="shared" si="1"/>
-        <v>14883</v>
+        <v>14899</v>
       </c>
       <c r="E41">
-        <v>66</v>
-      </c>
-      <c r="H41">
-        <v>14883</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+      <c r="G41">
+        <v>14899</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>43943</v>
       </c>
       <c r="B42">
-        <f t="shared" ref="B42:B45" si="2">B43-E42</f>
-        <v>14949</v>
+        <f t="shared" ref="B42:B48" si="2">B43-E42</f>
+        <v>14966</v>
       </c>
       <c r="E42">
-        <v>67</v>
-      </c>
-      <c r="H42">
-        <v>14949</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="G42">
+        <v>14966</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>43944</v>
       </c>
       <c r="B43">
         <f t="shared" si="2"/>
-        <v>15016</v>
+        <v>15035</v>
       </c>
       <c r="E43">
-        <v>53</v>
-      </c>
-      <c r="H43">
-        <v>15016</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+      <c r="G43">
+        <v>15035</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>43945.734027777777</v>
       </c>
       <c r="B44">
         <f t="shared" si="2"/>
-        <v>15069</v>
+        <v>15089</v>
       </c>
       <c r="E44">
-        <v>81</v>
-      </c>
-      <c r="H44">
-        <v>15069</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+      <c r="G44">
+        <v>15089</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43946</v>
       </c>
       <c r="B45">
         <f t="shared" si="2"/>
-        <v>15150</v>
+        <v>15169</v>
       </c>
       <c r="E45">
-        <v>59</v>
-      </c>
-      <c r="H45">
-        <v>15150</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+      <c r="G45">
+        <v>15169</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>43947</v>
       </c>
       <c r="B46">
         <f t="shared" ref="B46" si="3">B47-E46</f>
-        <v>15209</v>
+        <v>15226</v>
       </c>
       <c r="E46">
-        <v>32</v>
-      </c>
-      <c r="H46">
-        <v>15209</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+      <c r="G46">
+        <v>15226</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>43948.700694444444</v>
       </c>
       <c r="B47">
-        <v>15241</v>
-      </c>
-      <c r="H47">
-        <v>15241</v>
+        <f t="shared" si="2"/>
+        <v>15259</v>
+      </c>
+      <c r="E47">
+        <v>46</v>
+      </c>
+      <c r="G47">
+        <v>15259</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>43949</v>
+      </c>
+      <c r="B48">
+        <f t="shared" si="2"/>
+        <v>15305</v>
+      </c>
+      <c r="E48">
+        <v>47</v>
+      </c>
+      <c r="G48">
+        <v>15305</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>43950.65347222222</v>
+      </c>
+      <c r="B49">
+        <v>15352</v>
+      </c>
+      <c r="G49">
+        <v>15352</v>
       </c>
     </row>
   </sheetData>

--- a/covid-manual-excel.xlsx
+++ b/covid-manual-excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspaces\covid-19-data-analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6E3A952-DCF5-4776-AA49-D330F4CF31D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFDEE6C4-4E29-4C82-9E65-F22C75BBB277}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="18960" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -665,10 +665,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D49"/>
+  <dimension ref="A1:D50"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48:A49"/>
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1362,6 +1362,20 @@
       </c>
       <c r="D49">
         <v>6054</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>43951.574305555558</v>
+      </c>
+      <c r="B50">
+        <v>159026</v>
+      </c>
+      <c r="C50">
+        <v>120400</v>
+      </c>
+      <c r="D50">
+        <v>6256</v>
       </c>
     </row>
   </sheetData>
@@ -2120,10 +2134,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B8DAF25-F5B0-47E4-BAFA-42517715F0C0}">
-  <dimension ref="A1:D49"/>
+  <dimension ref="A1:D50"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D48" sqref="D48"/>
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2474,7 +2488,7 @@
         <v>43926.40625</v>
       </c>
       <c r="B25">
-        <v>12300</v>
+        <v>12308</v>
       </c>
       <c r="C25">
         <v>2998</v>
@@ -2488,7 +2502,7 @@
         <v>43927.370138888888</v>
       </c>
       <c r="B26">
-        <v>12465</v>
+        <v>12473</v>
       </c>
       <c r="C26">
         <v>2998</v>
@@ -2502,7 +2516,7 @@
         <v>43928.375</v>
       </c>
       <c r="B27">
-        <v>12736</v>
+        <v>12744</v>
       </c>
       <c r="C27">
         <v>3463</v>
@@ -2516,7 +2530,7 @@
         <v>43929.344444444447</v>
       </c>
       <c r="B28">
-        <v>13059</v>
+        <v>13067</v>
       </c>
       <c r="C28">
         <v>4046</v>
@@ -2530,7 +2544,7 @@
         <v>43930.14166666667</v>
       </c>
       <c r="B29">
-        <v>13299</v>
+        <v>13307</v>
       </c>
       <c r="C29">
         <v>4512</v>
@@ -2544,7 +2558,7 @@
         <v>43931.00277777778</v>
       </c>
       <c r="B30">
-        <v>13565</v>
+        <v>13573</v>
       </c>
       <c r="C30">
         <v>5240</v>
@@ -2558,7 +2572,7 @@
         <v>43932.246527777781</v>
       </c>
       <c r="B31">
-        <v>13922</v>
+        <v>13930</v>
       </c>
       <c r="C31">
         <v>6064</v>
@@ -2572,7 +2586,7 @@
         <v>43933.350694444445</v>
       </c>
       <c r="B32">
-        <v>14093</v>
+        <v>14101</v>
       </c>
       <c r="C32">
         <v>6604</v>
@@ -2586,7 +2600,7 @@
         <v>43934.474999999999</v>
       </c>
       <c r="B33">
-        <v>14199</v>
+        <v>14207</v>
       </c>
       <c r="C33">
         <v>7343</v>
@@ -2600,7 +2614,7 @@
         <v>43935.628472222219</v>
       </c>
       <c r="B34">
-        <v>14290</v>
+        <v>14298</v>
       </c>
       <c r="C34">
         <v>7633</v>
@@ -2614,7 +2628,7 @@
         <v>43936.576388888891</v>
       </c>
       <c r="B35">
-        <v>14436</v>
+        <v>14444</v>
       </c>
       <c r="C35">
         <v>8098</v>
@@ -2628,7 +2642,7 @@
         <v>43937.34097222222</v>
       </c>
       <c r="B36">
-        <v>14539</v>
+        <v>14547</v>
       </c>
       <c r="C36">
         <v>8986</v>
@@ -2642,7 +2656,7 @@
         <v>43938.404861111114</v>
       </c>
       <c r="B37">
-        <v>14663</v>
+        <v>14671</v>
       </c>
       <c r="C37">
         <v>9704</v>
@@ -2656,7 +2670,7 @@
         <v>43939</v>
       </c>
       <c r="B38">
-        <v>14742</v>
+        <v>14750</v>
       </c>
       <c r="C38">
         <v>10214</v>
@@ -2670,7 +2684,7 @@
         <v>43940.520138888889</v>
       </c>
       <c r="B39">
-        <v>14800</v>
+        <v>14808</v>
       </c>
       <c r="C39">
         <v>10501</v>
@@ -2684,7 +2698,7 @@
         <v>43941.467361111114</v>
       </c>
       <c r="B40">
-        <v>14840</v>
+        <v>14848</v>
       </c>
       <c r="C40">
         <v>10631</v>
@@ -2698,7 +2712,7 @@
         <v>43942.553472222222</v>
       </c>
       <c r="B41">
-        <v>14899</v>
+        <v>14907</v>
       </c>
       <c r="C41">
         <v>10971</v>
@@ -2712,7 +2726,7 @@
         <v>43943</v>
       </c>
       <c r="B42">
-        <v>14966</v>
+        <v>14974</v>
       </c>
       <c r="C42">
         <v>11328</v>
@@ -2726,7 +2740,7 @@
         <v>43944</v>
       </c>
       <c r="B43">
-        <v>15035</v>
+        <v>15043</v>
       </c>
       <c r="C43">
         <v>11694</v>
@@ -2740,7 +2754,7 @@
         <v>43945.734027777777</v>
       </c>
       <c r="B44">
-        <v>15089</v>
+        <v>15097</v>
       </c>
       <c r="C44">
         <v>11872</v>
@@ -2754,7 +2768,7 @@
         <v>43946</v>
       </c>
       <c r="B45">
-        <v>15169</v>
+        <v>15177</v>
       </c>
       <c r="C45">
         <v>12103</v>
@@ -2768,7 +2782,7 @@
         <v>43947</v>
       </c>
       <c r="B46">
-        <v>15226</v>
+        <v>15234</v>
       </c>
       <c r="C46">
         <v>12282</v>
@@ -2782,7 +2796,7 @@
         <v>43948.700694444444</v>
       </c>
       <c r="B47">
-        <v>15259</v>
+        <v>15267</v>
       </c>
       <c r="C47">
         <v>12362</v>
@@ -2796,7 +2810,7 @@
         <v>43949</v>
       </c>
       <c r="B48">
-        <v>15305</v>
+        <v>15314</v>
       </c>
       <c r="C48">
         <v>12580</v>
@@ -2810,13 +2824,27 @@
         <v>43950.65347222222</v>
       </c>
       <c r="B49">
-        <v>15352</v>
+        <v>15365</v>
       </c>
       <c r="C49">
         <v>12779</v>
       </c>
       <c r="D49">
         <v>580</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>43951.574305555558</v>
+      </c>
+      <c r="B50">
+        <v>15401</v>
+      </c>
+      <c r="C50">
+        <v>12907</v>
+      </c>
+      <c r="D50">
+        <v>584</v>
       </c>
     </row>
   </sheetData>
@@ -2828,10 +2856,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C361FD1-37DF-4CF9-A8B7-B834A1753F46}">
-  <dimension ref="A1:G49"/>
+  <dimension ref="A1:G50"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25:G49"/>
+      <selection activeCell="G25" sqref="G25:G50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3114,7 +3142,7 @@
       </c>
       <c r="B25">
         <f t="shared" ref="B25:B32" si="0">B26-E25</f>
-        <v>12300</v>
+        <v>12308</v>
       </c>
       <c r="C25">
         <v>2998</v>
@@ -3126,7 +3154,7 @@
         <v>165</v>
       </c>
       <c r="G25">
-        <v>12300</v>
+        <v>12308</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -3135,7 +3163,7 @@
       </c>
       <c r="B26">
         <f t="shared" si="0"/>
-        <v>12465</v>
+        <v>12473</v>
       </c>
       <c r="C26">
         <v>2998</v>
@@ -3147,7 +3175,7 @@
         <v>271</v>
       </c>
       <c r="G26">
-        <v>12465</v>
+        <v>12473</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -3156,7 +3184,7 @@
       </c>
       <c r="B27">
         <f t="shared" si="0"/>
-        <v>12736</v>
+        <v>12744</v>
       </c>
       <c r="C27">
         <v>3463</v>
@@ -3168,7 +3196,7 @@
         <v>323</v>
       </c>
       <c r="G27">
-        <v>12736</v>
+        <v>12744</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -3177,7 +3205,7 @@
       </c>
       <c r="B28">
         <f t="shared" si="0"/>
-        <v>13059</v>
+        <v>13067</v>
       </c>
       <c r="C28">
         <v>4046</v>
@@ -3189,7 +3217,7 @@
         <v>240</v>
       </c>
       <c r="G28">
-        <v>13059</v>
+        <v>13067</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -3198,7 +3226,7 @@
       </c>
       <c r="B29">
         <f t="shared" si="0"/>
-        <v>13299</v>
+        <v>13307</v>
       </c>
       <c r="C29">
         <v>4512</v>
@@ -3210,7 +3238,7 @@
         <v>266</v>
       </c>
       <c r="G29">
-        <v>13299</v>
+        <v>13307</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -3219,7 +3247,7 @@
       </c>
       <c r="B30">
         <f t="shared" si="0"/>
-        <v>13565</v>
+        <v>13573</v>
       </c>
       <c r="C30">
         <v>5240</v>
@@ -3231,7 +3259,7 @@
         <v>357</v>
       </c>
       <c r="G30">
-        <v>13565</v>
+        <v>13573</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -3240,7 +3268,7 @@
       </c>
       <c r="B31">
         <f t="shared" si="0"/>
-        <v>13922</v>
+        <v>13930</v>
       </c>
       <c r="C31">
         <v>6064</v>
@@ -3252,7 +3280,7 @@
         <v>171</v>
       </c>
       <c r="G31">
-        <v>13922</v>
+        <v>13930</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -3261,7 +3289,7 @@
       </c>
       <c r="B32">
         <f t="shared" si="0"/>
-        <v>14093</v>
+        <v>14101</v>
       </c>
       <c r="C32">
         <v>6604</v>
@@ -3273,7 +3301,7 @@
         <v>106</v>
       </c>
       <c r="G32">
-        <v>14093</v>
+        <v>14101</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -3282,7 +3310,7 @@
       </c>
       <c r="B33">
         <f t="shared" ref="B33:B41" si="1">B34-E33</f>
-        <v>14199</v>
+        <v>14207</v>
       </c>
       <c r="C33">
         <v>7343</v>
@@ -3294,7 +3322,7 @@
         <v>91</v>
       </c>
       <c r="G33">
-        <v>14199</v>
+        <v>14207</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -3303,7 +3331,7 @@
       </c>
       <c r="B34">
         <f t="shared" si="1"/>
-        <v>14290</v>
+        <v>14298</v>
       </c>
       <c r="C34">
         <v>7633</v>
@@ -3315,7 +3343,7 @@
         <v>146</v>
       </c>
       <c r="G34">
-        <v>14290</v>
+        <v>14298</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -3324,7 +3352,7 @@
       </c>
       <c r="B35">
         <f t="shared" si="1"/>
-        <v>14436</v>
+        <v>14444</v>
       </c>
       <c r="C35">
         <v>8098</v>
@@ -3336,7 +3364,7 @@
         <v>103</v>
       </c>
       <c r="G35">
-        <v>14436</v>
+        <v>14444</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -3345,13 +3373,13 @@
       </c>
       <c r="B36">
         <f t="shared" si="1"/>
-        <v>14539</v>
+        <v>14547</v>
       </c>
       <c r="E36">
         <v>124</v>
       </c>
       <c r="G36">
-        <v>14539</v>
+        <v>14547</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -3360,13 +3388,13 @@
       </c>
       <c r="B37">
         <f t="shared" si="1"/>
-        <v>14663</v>
+        <v>14671</v>
       </c>
       <c r="E37">
         <v>79</v>
       </c>
       <c r="G37">
-        <v>14663</v>
+        <v>14671</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -3375,13 +3403,13 @@
       </c>
       <c r="B38">
         <f t="shared" si="1"/>
-        <v>14742</v>
+        <v>14750</v>
       </c>
       <c r="E38">
         <v>58</v>
       </c>
       <c r="G38">
-        <v>14742</v>
+        <v>14750</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -3390,13 +3418,13 @@
       </c>
       <c r="B39">
         <f t="shared" si="1"/>
-        <v>14800</v>
+        <v>14808</v>
       </c>
       <c r="E39">
         <v>40</v>
       </c>
       <c r="G39">
-        <v>14800</v>
+        <v>14808</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -3405,13 +3433,13 @@
       </c>
       <c r="B40">
         <f t="shared" si="1"/>
-        <v>14840</v>
+        <v>14848</v>
       </c>
       <c r="E40">
         <v>59</v>
       </c>
       <c r="G40">
-        <v>14840</v>
+        <v>14848</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -3420,13 +3448,13 @@
       </c>
       <c r="B41">
         <f t="shared" si="1"/>
-        <v>14899</v>
+        <v>14907</v>
       </c>
       <c r="E41">
         <v>67</v>
       </c>
       <c r="G41">
-        <v>14899</v>
+        <v>14907</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -3435,13 +3463,13 @@
       </c>
       <c r="B42">
         <f t="shared" ref="B42:B48" si="2">B43-E42</f>
-        <v>14966</v>
+        <v>14974</v>
       </c>
       <c r="E42">
         <v>69</v>
       </c>
       <c r="G42">
-        <v>14966</v>
+        <v>14974</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -3450,13 +3478,13 @@
       </c>
       <c r="B43">
         <f t="shared" si="2"/>
-        <v>15035</v>
+        <v>15043</v>
       </c>
       <c r="E43">
         <v>54</v>
       </c>
       <c r="G43">
-        <v>15035</v>
+        <v>15043</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -3465,13 +3493,13 @@
       </c>
       <c r="B44">
         <f t="shared" si="2"/>
-        <v>15089</v>
+        <v>15097</v>
       </c>
       <c r="E44">
         <v>80</v>
       </c>
       <c r="G44">
-        <v>15089</v>
+        <v>15097</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -3480,13 +3508,13 @@
       </c>
       <c r="B45">
         <f t="shared" si="2"/>
-        <v>15169</v>
+        <v>15177</v>
       </c>
       <c r="E45">
         <v>57</v>
       </c>
       <c r="G45">
-        <v>15169</v>
+        <v>15177</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -3494,14 +3522,14 @@
         <v>43947</v>
       </c>
       <c r="B46">
-        <f t="shared" ref="B46" si="3">B47-E46</f>
-        <v>15226</v>
+        <f t="shared" ref="B46:B49" si="3">B47-E46</f>
+        <v>15234</v>
       </c>
       <c r="E46">
         <v>33</v>
       </c>
       <c r="G46">
-        <v>15226</v>
+        <v>15234</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -3509,14 +3537,14 @@
         <v>43948.700694444444</v>
       </c>
       <c r="B47">
-        <f t="shared" si="2"/>
-        <v>15259</v>
+        <f t="shared" si="3"/>
+        <v>15267</v>
       </c>
       <c r="E47">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G47">
-        <v>15259</v>
+        <v>15267</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
@@ -3524,14 +3552,14 @@
         <v>43949</v>
       </c>
       <c r="B48">
-        <f t="shared" si="2"/>
-        <v>15305</v>
+        <f t="shared" si="3"/>
+        <v>15314</v>
       </c>
       <c r="E48">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G48">
-        <v>15305</v>
+        <v>15314</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -3539,10 +3567,25 @@
         <v>43950.65347222222</v>
       </c>
       <c r="B49">
-        <v>15352</v>
+        <f t="shared" si="3"/>
+        <v>15365</v>
+      </c>
+      <c r="E49">
+        <v>36</v>
       </c>
       <c r="G49">
-        <v>15352</v>
+        <v>15365</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>43951.574305555558</v>
+      </c>
+      <c r="B50">
+        <v>15401</v>
+      </c>
+      <c r="G50">
+        <v>15401</v>
       </c>
     </row>
   </sheetData>

--- a/covid-manual-excel.xlsx
+++ b/covid-manual-excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspaces\covid-19-data-analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFDEE6C4-4E29-4C82-9E65-F22C75BBB277}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DBA8FEF-17C6-4EAA-B9A1-916474121536}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="18960" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -329,7 +329,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -358,13 +358,25 @@
       <name val="Segoe UI"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -376,17 +388,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
+    <cellStyle name="Schlecht" xfId="2" builtinId="27"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -665,10 +680,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D50"/>
+  <dimension ref="A1:D51"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51"/>
+      <selection activeCell="B51" sqref="B51:D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1376,6 +1391,20 @@
       </c>
       <c r="D50">
         <v>6256</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>43952.430555555555</v>
+      </c>
+      <c r="B51" s="3">
+        <v>160481</v>
+      </c>
+      <c r="C51" s="3">
+        <v>123500</v>
+      </c>
+      <c r="D51" s="3">
+        <v>6400</v>
       </c>
     </row>
   </sheetData>
@@ -2134,10 +2163,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B8DAF25-F5B0-47E4-BAFA-42517715F0C0}">
-  <dimension ref="A1:D50"/>
+  <dimension ref="A1:D51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+      <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2488,7 +2517,7 @@
         <v>43926.40625</v>
       </c>
       <c r="B25">
-        <v>12308</v>
+        <v>12299</v>
       </c>
       <c r="C25">
         <v>2998</v>
@@ -2502,7 +2531,7 @@
         <v>43927.370138888888</v>
       </c>
       <c r="B26">
-        <v>12473</v>
+        <v>12464</v>
       </c>
       <c r="C26">
         <v>2998</v>
@@ -2516,7 +2545,7 @@
         <v>43928.375</v>
       </c>
       <c r="B27">
-        <v>12744</v>
+        <v>12735</v>
       </c>
       <c r="C27">
         <v>3463</v>
@@ -2530,7 +2559,7 @@
         <v>43929.344444444447</v>
       </c>
       <c r="B28">
-        <v>13067</v>
+        <v>13058</v>
       </c>
       <c r="C28">
         <v>4046</v>
@@ -2544,7 +2573,7 @@
         <v>43930.14166666667</v>
       </c>
       <c r="B29">
-        <v>13307</v>
+        <v>13298</v>
       </c>
       <c r="C29">
         <v>4512</v>
@@ -2558,7 +2587,7 @@
         <v>43931.00277777778</v>
       </c>
       <c r="B30">
-        <v>13573</v>
+        <v>13564</v>
       </c>
       <c r="C30">
         <v>5240</v>
@@ -2572,7 +2601,7 @@
         <v>43932.246527777781</v>
       </c>
       <c r="B31">
-        <v>13930</v>
+        <v>13921</v>
       </c>
       <c r="C31">
         <v>6064</v>
@@ -2586,7 +2615,7 @@
         <v>43933.350694444445</v>
       </c>
       <c r="B32">
-        <v>14101</v>
+        <v>14092</v>
       </c>
       <c r="C32">
         <v>6604</v>
@@ -2600,7 +2629,7 @@
         <v>43934.474999999999</v>
       </c>
       <c r="B33">
-        <v>14207</v>
+        <v>14198</v>
       </c>
       <c r="C33">
         <v>7343</v>
@@ -2614,7 +2643,7 @@
         <v>43935.628472222219</v>
       </c>
       <c r="B34">
-        <v>14298</v>
+        <v>14289</v>
       </c>
       <c r="C34">
         <v>7633</v>
@@ -2628,7 +2657,7 @@
         <v>43936.576388888891</v>
       </c>
       <c r="B35">
-        <v>14444</v>
+        <v>14435</v>
       </c>
       <c r="C35">
         <v>8098</v>
@@ -2642,7 +2671,7 @@
         <v>43937.34097222222</v>
       </c>
       <c r="B36">
-        <v>14547</v>
+        <v>14538</v>
       </c>
       <c r="C36">
         <v>8986</v>
@@ -2656,7 +2685,7 @@
         <v>43938.404861111114</v>
       </c>
       <c r="B37">
-        <v>14671</v>
+        <v>14662</v>
       </c>
       <c r="C37">
         <v>9704</v>
@@ -2670,7 +2699,7 @@
         <v>43939</v>
       </c>
       <c r="B38">
-        <v>14750</v>
+        <v>14741</v>
       </c>
       <c r="C38">
         <v>10214</v>
@@ -2684,7 +2713,7 @@
         <v>43940.520138888889</v>
       </c>
       <c r="B39">
-        <v>14808</v>
+        <v>14799</v>
       </c>
       <c r="C39">
         <v>10501</v>
@@ -2698,7 +2727,7 @@
         <v>43941.467361111114</v>
       </c>
       <c r="B40">
-        <v>14848</v>
+        <v>14839</v>
       </c>
       <c r="C40">
         <v>10631</v>
@@ -2712,7 +2741,7 @@
         <v>43942.553472222222</v>
       </c>
       <c r="B41">
-        <v>14907</v>
+        <v>14899</v>
       </c>
       <c r="C41">
         <v>10971</v>
@@ -2726,7 +2755,7 @@
         <v>43943</v>
       </c>
       <c r="B42">
-        <v>14974</v>
+        <v>14967</v>
       </c>
       <c r="C42">
         <v>11328</v>
@@ -2740,7 +2769,7 @@
         <v>43944</v>
       </c>
       <c r="B43">
-        <v>15043</v>
+        <v>15037</v>
       </c>
       <c r="C43">
         <v>11694</v>
@@ -2754,7 +2783,7 @@
         <v>43945.734027777777</v>
       </c>
       <c r="B44">
-        <v>15097</v>
+        <v>15093</v>
       </c>
       <c r="C44">
         <v>11872</v>
@@ -2768,7 +2797,7 @@
         <v>43946</v>
       </c>
       <c r="B45">
-        <v>15177</v>
+        <v>15173</v>
       </c>
       <c r="C45">
         <v>12103</v>
@@ -2782,7 +2811,7 @@
         <v>43947</v>
       </c>
       <c r="B46">
-        <v>15234</v>
+        <v>15235</v>
       </c>
       <c r="C46">
         <v>12282</v>
@@ -2796,7 +2825,7 @@
         <v>43948.700694444444</v>
       </c>
       <c r="B47">
-        <v>15267</v>
+        <v>15266</v>
       </c>
       <c r="C47">
         <v>12362</v>
@@ -2810,7 +2839,7 @@
         <v>43949</v>
       </c>
       <c r="B48">
-        <v>15314</v>
+        <v>15316</v>
       </c>
       <c r="C48">
         <v>12580</v>
@@ -2824,7 +2853,7 @@
         <v>43950.65347222222</v>
       </c>
       <c r="B49">
-        <v>15365</v>
+        <v>15369</v>
       </c>
       <c r="C49">
         <v>12779</v>
@@ -2838,13 +2867,27 @@
         <v>43951.574305555558</v>
       </c>
       <c r="B50">
-        <v>15401</v>
+        <v>15409</v>
       </c>
       <c r="C50">
         <v>12907</v>
       </c>
       <c r="D50">
         <v>584</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>43952.430555555555</v>
+      </c>
+      <c r="B51">
+        <v>15461</v>
+      </c>
+      <c r="C51">
+        <v>13110</v>
+      </c>
+      <c r="D51">
+        <v>589</v>
       </c>
     </row>
   </sheetData>
@@ -2856,10 +2899,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C361FD1-37DF-4CF9-A8B7-B834A1753F46}">
-  <dimension ref="A1:G50"/>
+  <dimension ref="A1:G51"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25:G50"/>
+      <selection activeCell="G25" sqref="G25:G51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3142,7 +3185,7 @@
       </c>
       <c r="B25">
         <f t="shared" ref="B25:B32" si="0">B26-E25</f>
-        <v>12308</v>
+        <v>12299</v>
       </c>
       <c r="C25">
         <v>2998</v>
@@ -3154,7 +3197,7 @@
         <v>165</v>
       </c>
       <c r="G25">
-        <v>12308</v>
+        <v>12299</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -3163,7 +3206,7 @@
       </c>
       <c r="B26">
         <f t="shared" si="0"/>
-        <v>12473</v>
+        <v>12464</v>
       </c>
       <c r="C26">
         <v>2998</v>
@@ -3175,7 +3218,7 @@
         <v>271</v>
       </c>
       <c r="G26">
-        <v>12473</v>
+        <v>12464</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -3184,7 +3227,7 @@
       </c>
       <c r="B27">
         <f t="shared" si="0"/>
-        <v>12744</v>
+        <v>12735</v>
       </c>
       <c r="C27">
         <v>3463</v>
@@ -3196,7 +3239,7 @@
         <v>323</v>
       </c>
       <c r="G27">
-        <v>12744</v>
+        <v>12735</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -3205,7 +3248,7 @@
       </c>
       <c r="B28">
         <f t="shared" si="0"/>
-        <v>13067</v>
+        <v>13058</v>
       </c>
       <c r="C28">
         <v>4046</v>
@@ -3217,7 +3260,7 @@
         <v>240</v>
       </c>
       <c r="G28">
-        <v>13067</v>
+        <v>13058</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -3226,7 +3269,7 @@
       </c>
       <c r="B29">
         <f t="shared" si="0"/>
-        <v>13307</v>
+        <v>13298</v>
       </c>
       <c r="C29">
         <v>4512</v>
@@ -3238,7 +3281,7 @@
         <v>266</v>
       </c>
       <c r="G29">
-        <v>13307</v>
+        <v>13298</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -3247,7 +3290,7 @@
       </c>
       <c r="B30">
         <f t="shared" si="0"/>
-        <v>13573</v>
+        <v>13564</v>
       </c>
       <c r="C30">
         <v>5240</v>
@@ -3259,7 +3302,7 @@
         <v>357</v>
       </c>
       <c r="G30">
-        <v>13573</v>
+        <v>13564</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -3268,7 +3311,7 @@
       </c>
       <c r="B31">
         <f t="shared" si="0"/>
-        <v>13930</v>
+        <v>13921</v>
       </c>
       <c r="C31">
         <v>6064</v>
@@ -3280,7 +3323,7 @@
         <v>171</v>
       </c>
       <c r="G31">
-        <v>13930</v>
+        <v>13921</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -3289,7 +3332,7 @@
       </c>
       <c r="B32">
         <f t="shared" si="0"/>
-        <v>14101</v>
+        <v>14092</v>
       </c>
       <c r="C32">
         <v>6604</v>
@@ -3301,7 +3344,7 @@
         <v>106</v>
       </c>
       <c r="G32">
-        <v>14101</v>
+        <v>14092</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -3310,7 +3353,7 @@
       </c>
       <c r="B33">
         <f t="shared" ref="B33:B41" si="1">B34-E33</f>
-        <v>14207</v>
+        <v>14198</v>
       </c>
       <c r="C33">
         <v>7343</v>
@@ -3322,7 +3365,7 @@
         <v>91</v>
       </c>
       <c r="G33">
-        <v>14207</v>
+        <v>14198</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -3331,7 +3374,7 @@
       </c>
       <c r="B34">
         <f t="shared" si="1"/>
-        <v>14298</v>
+        <v>14289</v>
       </c>
       <c r="C34">
         <v>7633</v>
@@ -3343,7 +3386,7 @@
         <v>146</v>
       </c>
       <c r="G34">
-        <v>14298</v>
+        <v>14289</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -3352,7 +3395,7 @@
       </c>
       <c r="B35">
         <f t="shared" si="1"/>
-        <v>14444</v>
+        <v>14435</v>
       </c>
       <c r="C35">
         <v>8098</v>
@@ -3364,7 +3407,7 @@
         <v>103</v>
       </c>
       <c r="G35">
-        <v>14444</v>
+        <v>14435</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -3373,13 +3416,13 @@
       </c>
       <c r="B36">
         <f t="shared" si="1"/>
-        <v>14547</v>
+        <v>14538</v>
       </c>
       <c r="E36">
         <v>124</v>
       </c>
       <c r="G36">
-        <v>14547</v>
+        <v>14538</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -3388,13 +3431,13 @@
       </c>
       <c r="B37">
         <f t="shared" si="1"/>
-        <v>14671</v>
+        <v>14662</v>
       </c>
       <c r="E37">
         <v>79</v>
       </c>
       <c r="G37">
-        <v>14671</v>
+        <v>14662</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -3403,13 +3446,13 @@
       </c>
       <c r="B38">
         <f t="shared" si="1"/>
-        <v>14750</v>
+        <v>14741</v>
       </c>
       <c r="E38">
         <v>58</v>
       </c>
       <c r="G38">
-        <v>14750</v>
+        <v>14741</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -3418,13 +3461,13 @@
       </c>
       <c r="B39">
         <f t="shared" si="1"/>
-        <v>14808</v>
+        <v>14799</v>
       </c>
       <c r="E39">
         <v>40</v>
       </c>
       <c r="G39">
-        <v>14808</v>
+        <v>14799</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -3433,13 +3476,13 @@
       </c>
       <c r="B40">
         <f t="shared" si="1"/>
-        <v>14848</v>
+        <v>14839</v>
       </c>
       <c r="E40">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G40">
-        <v>14848</v>
+        <v>14839</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -3448,13 +3491,13 @@
       </c>
       <c r="B41">
         <f t="shared" si="1"/>
-        <v>14907</v>
+        <v>14899</v>
       </c>
       <c r="E41">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G41">
-        <v>14907</v>
+        <v>14899</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -3462,14 +3505,14 @@
         <v>43943</v>
       </c>
       <c r="B42">
-        <f t="shared" ref="B42:B48" si="2">B43-E42</f>
-        <v>14974</v>
+        <f t="shared" ref="B42:B45" si="2">B43-E42</f>
+        <v>14967</v>
       </c>
       <c r="E42">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G42">
-        <v>14974</v>
+        <v>14967</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -3478,13 +3521,13 @@
       </c>
       <c r="B43">
         <f t="shared" si="2"/>
-        <v>15043</v>
+        <v>15037</v>
       </c>
       <c r="E43">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G43">
-        <v>15043</v>
+        <v>15037</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -3493,13 +3536,13 @@
       </c>
       <c r="B44">
         <f t="shared" si="2"/>
-        <v>15097</v>
+        <v>15093</v>
       </c>
       <c r="E44">
         <v>80</v>
       </c>
       <c r="G44">
-        <v>15097</v>
+        <v>15093</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -3508,13 +3551,13 @@
       </c>
       <c r="B45">
         <f t="shared" si="2"/>
-        <v>15177</v>
+        <v>15173</v>
       </c>
       <c r="E45">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="G45">
-        <v>15177</v>
+        <v>15173</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -3522,14 +3565,14 @@
         <v>43947</v>
       </c>
       <c r="B46">
-        <f t="shared" ref="B46:B49" si="3">B47-E46</f>
-        <v>15234</v>
+        <f t="shared" ref="B46:B50" si="3">B47-E46</f>
+        <v>15235</v>
       </c>
       <c r="E46">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G46">
-        <v>15234</v>
+        <v>15235</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -3538,13 +3581,13 @@
       </c>
       <c r="B47">
         <f t="shared" si="3"/>
-        <v>15267</v>
+        <v>15266</v>
       </c>
       <c r="E47">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="G47">
-        <v>15267</v>
+        <v>15266</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
@@ -3553,13 +3596,13 @@
       </c>
       <c r="B48">
         <f t="shared" si="3"/>
-        <v>15314</v>
+        <v>15316</v>
       </c>
       <c r="E48">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G48">
-        <v>15314</v>
+        <v>15316</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -3568,13 +3611,13 @@
       </c>
       <c r="B49">
         <f t="shared" si="3"/>
-        <v>15365</v>
+        <v>15369</v>
       </c>
       <c r="E49">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G49">
-        <v>15365</v>
+        <v>15369</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
@@ -3582,10 +3625,25 @@
         <v>43951.574305555558</v>
       </c>
       <c r="B50">
-        <v>15401</v>
+        <f t="shared" si="3"/>
+        <v>15409</v>
+      </c>
+      <c r="E50">
+        <v>52</v>
       </c>
       <c r="G50">
-        <v>15401</v>
+        <v>15409</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>43952.430555555555</v>
+      </c>
+      <c r="B51">
+        <v>15461</v>
+      </c>
+      <c r="G51">
+        <v>15461</v>
       </c>
     </row>
   </sheetData>

--- a/covid-manual-excel.xlsx
+++ b/covid-manual-excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspaces\covid-19-data-analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DBA8FEF-17C6-4EAA-B9A1-916474121536}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74C4C430-36C2-4B30-BC89-9A7AE15811DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="18960" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -329,7 +329,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -365,6 +365,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -393,11 +399,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="2"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -680,10 +688,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D51"/>
+  <dimension ref="A1:E52"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51:D51"/>
+      <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1365,7 +1373,7 @@
         <v>5842</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>43950.65347222222</v>
       </c>
@@ -1379,33 +1387,50 @@
         <v>6054</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="1">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="3">
         <v>43951.574305555558</v>
       </c>
-      <c r="B50">
+      <c r="B50" s="4">
         <v>159026</v>
       </c>
-      <c r="C50">
+      <c r="C50" s="4">
         <v>120400</v>
       </c>
-      <c r="D50">
+      <c r="D50" s="4">
         <v>6256</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="1">
+      <c r="E50" s="4"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="3">
         <v>43952.430555555555</v>
       </c>
-      <c r="B51" s="3">
+      <c r="B51" s="5">
         <v>160481</v>
       </c>
-      <c r="C51" s="3">
+      <c r="C51" s="5">
         <v>123500</v>
       </c>
-      <c r="D51" s="3">
-        <v>6400</v>
-      </c>
+      <c r="D51" s="5">
+        <v>6401</v>
+      </c>
+      <c r="E51" s="4"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="3">
+        <v>43952.801388888889</v>
+      </c>
+      <c r="B52" s="4">
+        <v>161996</v>
+      </c>
+      <c r="C52" s="4">
+        <v>126900</v>
+      </c>
+      <c r="D52" s="4">
+        <v>6603</v>
+      </c>
+      <c r="E52" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2163,10 +2188,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B8DAF25-F5B0-47E4-BAFA-42517715F0C0}">
-  <dimension ref="A1:D51"/>
+  <dimension ref="A1:D52"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D52" sqref="D52"/>
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2517,7 +2542,7 @@
         <v>43926.40625</v>
       </c>
       <c r="B25">
-        <v>12299</v>
+        <v>12325</v>
       </c>
       <c r="C25">
         <v>2998</v>
@@ -2531,7 +2556,7 @@
         <v>43927.370138888888</v>
       </c>
       <c r="B26">
-        <v>12464</v>
+        <v>12490</v>
       </c>
       <c r="C26">
         <v>2998</v>
@@ -2545,7 +2570,7 @@
         <v>43928.375</v>
       </c>
       <c r="B27">
-        <v>12735</v>
+        <v>12761</v>
       </c>
       <c r="C27">
         <v>3463</v>
@@ -2559,7 +2584,7 @@
         <v>43929.344444444447</v>
       </c>
       <c r="B28">
-        <v>13058</v>
+        <v>13084</v>
       </c>
       <c r="C28">
         <v>4046</v>
@@ -2573,7 +2598,7 @@
         <v>43930.14166666667</v>
       </c>
       <c r="B29">
-        <v>13298</v>
+        <v>13324</v>
       </c>
       <c r="C29">
         <v>4512</v>
@@ -2587,7 +2612,7 @@
         <v>43931.00277777778</v>
       </c>
       <c r="B30">
-        <v>13564</v>
+        <v>13590</v>
       </c>
       <c r="C30">
         <v>5240</v>
@@ -2601,7 +2626,7 @@
         <v>43932.246527777781</v>
       </c>
       <c r="B31">
-        <v>13921</v>
+        <v>13947</v>
       </c>
       <c r="C31">
         <v>6064</v>
@@ -2615,7 +2640,7 @@
         <v>43933.350694444445</v>
       </c>
       <c r="B32">
-        <v>14092</v>
+        <v>14118</v>
       </c>
       <c r="C32">
         <v>6604</v>
@@ -2629,7 +2654,7 @@
         <v>43934.474999999999</v>
       </c>
       <c r="B33">
-        <v>14198</v>
+        <v>14224</v>
       </c>
       <c r="C33">
         <v>7343</v>
@@ -2643,7 +2668,7 @@
         <v>43935.628472222219</v>
       </c>
       <c r="B34">
-        <v>14289</v>
+        <v>14315</v>
       </c>
       <c r="C34">
         <v>7633</v>
@@ -2657,7 +2682,7 @@
         <v>43936.576388888891</v>
       </c>
       <c r="B35">
-        <v>14435</v>
+        <v>14461</v>
       </c>
       <c r="C35">
         <v>8098</v>
@@ -2671,7 +2696,7 @@
         <v>43937.34097222222</v>
       </c>
       <c r="B36">
-        <v>14538</v>
+        <v>14564</v>
       </c>
       <c r="C36">
         <v>8986</v>
@@ -2685,7 +2710,7 @@
         <v>43938.404861111114</v>
       </c>
       <c r="B37">
-        <v>14662</v>
+        <v>14688</v>
       </c>
       <c r="C37">
         <v>9704</v>
@@ -2699,7 +2724,7 @@
         <v>43939</v>
       </c>
       <c r="B38">
-        <v>14741</v>
+        <v>14767</v>
       </c>
       <c r="C38">
         <v>10214</v>
@@ -2713,7 +2738,7 @@
         <v>43940.520138888889</v>
       </c>
       <c r="B39">
-        <v>14799</v>
+        <v>14825</v>
       </c>
       <c r="C39">
         <v>10501</v>
@@ -2727,7 +2752,7 @@
         <v>43941.467361111114</v>
       </c>
       <c r="B40">
-        <v>14839</v>
+        <v>14865</v>
       </c>
       <c r="C40">
         <v>10631</v>
@@ -2741,7 +2766,7 @@
         <v>43942.553472222222</v>
       </c>
       <c r="B41">
-        <v>14899</v>
+        <v>14925</v>
       </c>
       <c r="C41">
         <v>10971</v>
@@ -2755,7 +2780,7 @@
         <v>43943</v>
       </c>
       <c r="B42">
-        <v>14967</v>
+        <v>14993</v>
       </c>
       <c r="C42">
         <v>11328</v>
@@ -2769,7 +2794,7 @@
         <v>43944</v>
       </c>
       <c r="B43">
-        <v>15037</v>
+        <v>15063</v>
       </c>
       <c r="C43">
         <v>11694</v>
@@ -2783,7 +2808,7 @@
         <v>43945.734027777777</v>
       </c>
       <c r="B44">
-        <v>15093</v>
+        <v>15119</v>
       </c>
       <c r="C44">
         <v>11872</v>
@@ -2797,7 +2822,7 @@
         <v>43946</v>
       </c>
       <c r="B45">
-        <v>15173</v>
+        <v>15200</v>
       </c>
       <c r="C45">
         <v>12103</v>
@@ -2811,7 +2836,7 @@
         <v>43947</v>
       </c>
       <c r="B46">
-        <v>15235</v>
+        <v>15262</v>
       </c>
       <c r="C46">
         <v>12282</v>
@@ -2825,7 +2850,7 @@
         <v>43948.700694444444</v>
       </c>
       <c r="B47">
-        <v>15266</v>
+        <v>15293</v>
       </c>
       <c r="C47">
         <v>12362</v>
@@ -2839,7 +2864,7 @@
         <v>43949</v>
       </c>
       <c r="B48">
-        <v>15316</v>
+        <v>15342</v>
       </c>
       <c r="C48">
         <v>12580</v>
@@ -2853,7 +2878,7 @@
         <v>43950.65347222222</v>
       </c>
       <c r="B49">
-        <v>15369</v>
+        <v>15397</v>
       </c>
       <c r="C49">
         <v>12779</v>
@@ -2867,7 +2892,7 @@
         <v>43951.574305555558</v>
       </c>
       <c r="B50">
-        <v>15409</v>
+        <v>15440</v>
       </c>
       <c r="C50">
         <v>12907</v>
@@ -2881,13 +2906,27 @@
         <v>43952.430555555555</v>
       </c>
       <c r="B51">
-        <v>15461</v>
+        <v>15493</v>
       </c>
       <c r="C51">
         <v>13110</v>
       </c>
       <c r="D51">
         <v>589</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>43952.801388888889</v>
+      </c>
+      <c r="B52">
+        <v>15513</v>
+      </c>
+      <c r="C52">
+        <v>13180</v>
+      </c>
+      <c r="D52">
+        <v>596</v>
       </c>
     </row>
   </sheetData>
@@ -2899,10 +2938,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C361FD1-37DF-4CF9-A8B7-B834A1753F46}">
-  <dimension ref="A1:G51"/>
+  <dimension ref="A1:H52"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25:G51"/>
+      <selection activeCell="H25" sqref="H25:H52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3091,7 +3130,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>43918.418055555558</v>
       </c>
@@ -3102,7 +3141,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>43919.418055555558</v>
       </c>
@@ -3113,7 +3152,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>43920.367361111108</v>
       </c>
@@ -3124,7 +3163,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>43921.167361111111</v>
       </c>
@@ -3135,7 +3174,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>43922.416666666664</v>
       </c>
@@ -3146,7 +3185,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>43923.112500000003</v>
       </c>
@@ -3157,7 +3196,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>43924.272916666669</v>
       </c>
@@ -3168,7 +3207,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>43925.448611111111</v>
       </c>
@@ -3179,13 +3218,13 @@
         <v>168</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>43926.40625</v>
       </c>
       <c r="B25">
         <f t="shared" ref="B25:B32" si="0">B26-E25</f>
-        <v>12299</v>
+        <v>12325</v>
       </c>
       <c r="C25">
         <v>2998</v>
@@ -3199,14 +3238,17 @@
       <c r="G25">
         <v>12299</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H25">
+        <v>12325</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>43927.370138888888</v>
       </c>
       <c r="B26">
         <f t="shared" si="0"/>
-        <v>12464</v>
+        <v>12490</v>
       </c>
       <c r="C26">
         <v>2998</v>
@@ -3220,14 +3262,17 @@
       <c r="G26">
         <v>12464</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H26">
+        <v>12490</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>43928.375</v>
       </c>
       <c r="B27">
         <f t="shared" si="0"/>
-        <v>12735</v>
+        <v>12761</v>
       </c>
       <c r="C27">
         <v>3463</v>
@@ -3241,14 +3286,17 @@
       <c r="G27">
         <v>12735</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H27">
+        <v>12761</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>43929.344444444447</v>
       </c>
       <c r="B28">
         <f t="shared" si="0"/>
-        <v>13058</v>
+        <v>13084</v>
       </c>
       <c r="C28">
         <v>4046</v>
@@ -3262,14 +3310,17 @@
       <c r="G28">
         <v>13058</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H28">
+        <v>13084</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>43930.14166666667</v>
       </c>
       <c r="B29">
         <f t="shared" si="0"/>
-        <v>13298</v>
+        <v>13324</v>
       </c>
       <c r="C29">
         <v>4512</v>
@@ -3283,14 +3334,17 @@
       <c r="G29">
         <v>13298</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H29">
+        <v>13324</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>43931.00277777778</v>
       </c>
       <c r="B30">
         <f t="shared" si="0"/>
-        <v>13564</v>
+        <v>13590</v>
       </c>
       <c r="C30">
         <v>5240</v>
@@ -3304,14 +3358,17 @@
       <c r="G30">
         <v>13564</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H30">
+        <v>13590</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>43932.246527777781</v>
       </c>
       <c r="B31">
         <f t="shared" si="0"/>
-        <v>13921</v>
+        <v>13947</v>
       </c>
       <c r="C31">
         <v>6064</v>
@@ -3325,14 +3382,17 @@
       <c r="G31">
         <v>13921</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H31">
+        <v>13947</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>43933.350694444445</v>
       </c>
       <c r="B32">
         <f t="shared" si="0"/>
-        <v>14092</v>
+        <v>14118</v>
       </c>
       <c r="C32">
         <v>6604</v>
@@ -3346,14 +3406,17 @@
       <c r="G32">
         <v>14092</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H32">
+        <v>14118</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>43934.474999999999</v>
       </c>
       <c r="B33">
         <f t="shared" ref="B33:B41" si="1">B34-E33</f>
-        <v>14198</v>
+        <v>14224</v>
       </c>
       <c r="C33">
         <v>7343</v>
@@ -3367,14 +3430,17 @@
       <c r="G33">
         <v>14198</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H33">
+        <v>14224</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>43935.628472222219</v>
       </c>
       <c r="B34">
         <f t="shared" si="1"/>
-        <v>14289</v>
+        <v>14315</v>
       </c>
       <c r="C34">
         <v>7633</v>
@@ -3388,14 +3454,17 @@
       <c r="G34">
         <v>14289</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H34">
+        <v>14315</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>43936.576388888891</v>
       </c>
       <c r="B35">
         <f t="shared" si="1"/>
-        <v>14435</v>
+        <v>14461</v>
       </c>
       <c r="C35">
         <v>8098</v>
@@ -3409,14 +3478,17 @@
       <c r="G35">
         <v>14435</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H35">
+        <v>14461</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>43937.34097222222</v>
       </c>
       <c r="B36">
         <f t="shared" si="1"/>
-        <v>14538</v>
+        <v>14564</v>
       </c>
       <c r="E36">
         <v>124</v>
@@ -3424,14 +3496,17 @@
       <c r="G36">
         <v>14538</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H36">
+        <v>14564</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>43938.404861111114</v>
       </c>
       <c r="B37">
         <f t="shared" si="1"/>
-        <v>14662</v>
+        <v>14688</v>
       </c>
       <c r="E37">
         <v>79</v>
@@ -3439,14 +3514,17 @@
       <c r="G37">
         <v>14662</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H37">
+        <v>14688</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>43939</v>
       </c>
       <c r="B38">
         <f t="shared" si="1"/>
-        <v>14741</v>
+        <v>14767</v>
       </c>
       <c r="E38">
         <v>58</v>
@@ -3454,14 +3532,17 @@
       <c r="G38">
         <v>14741</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H38">
+        <v>14767</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>43940.520138888889</v>
       </c>
       <c r="B39">
         <f t="shared" si="1"/>
-        <v>14799</v>
+        <v>14825</v>
       </c>
       <c r="E39">
         <v>40</v>
@@ -3469,14 +3550,17 @@
       <c r="G39">
         <v>14799</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H39">
+        <v>14825</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>43941.467361111114</v>
       </c>
       <c r="B40">
         <f t="shared" si="1"/>
-        <v>14839</v>
+        <v>14865</v>
       </c>
       <c r="E40">
         <v>60</v>
@@ -3484,14 +3568,17 @@
       <c r="G40">
         <v>14839</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H40">
+        <v>14865</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>43942.553472222222</v>
       </c>
       <c r="B41">
         <f t="shared" si="1"/>
-        <v>14899</v>
+        <v>14925</v>
       </c>
       <c r="E41">
         <v>68</v>
@@ -3499,14 +3586,17 @@
       <c r="G41">
         <v>14899</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H41">
+        <v>14925</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>43943</v>
       </c>
       <c r="B42">
         <f t="shared" ref="B42:B45" si="2">B43-E42</f>
-        <v>14967</v>
+        <v>14993</v>
       </c>
       <c r="E42">
         <v>70</v>
@@ -3514,14 +3604,17 @@
       <c r="G42">
         <v>14967</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H42">
+        <v>14993</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>43944</v>
       </c>
       <c r="B43">
         <f t="shared" si="2"/>
-        <v>15037</v>
+        <v>15063</v>
       </c>
       <c r="E43">
         <v>56</v>
@@ -3529,29 +3622,35 @@
       <c r="G43">
         <v>15037</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H43">
+        <v>15063</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>43945.734027777777</v>
       </c>
       <c r="B44">
         <f t="shared" si="2"/>
-        <v>15093</v>
+        <v>15119</v>
       </c>
       <c r="E44">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G44">
         <v>15093</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H44">
+        <v>15119</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43946</v>
       </c>
       <c r="B45">
         <f t="shared" si="2"/>
-        <v>15173</v>
+        <v>15200</v>
       </c>
       <c r="E45">
         <v>62</v>
@@ -3559,14 +3658,17 @@
       <c r="G45">
         <v>15173</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H45">
+        <v>15200</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>43947</v>
       </c>
       <c r="B46">
-        <f t="shared" ref="B46:B50" si="3">B47-E46</f>
-        <v>15235</v>
+        <f t="shared" ref="B46:B51" si="3">B47-E46</f>
+        <v>15262</v>
       </c>
       <c r="E46">
         <v>31</v>
@@ -3574,76 +3676,109 @@
       <c r="G46">
         <v>15235</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H46">
+        <v>15262</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>43948.700694444444</v>
       </c>
       <c r="B47">
         <f t="shared" si="3"/>
-        <v>15266</v>
+        <v>15293</v>
       </c>
       <c r="E47">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G47">
         <v>15266</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H47">
+        <v>15293</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>43949</v>
       </c>
       <c r="B48">
         <f t="shared" si="3"/>
-        <v>15316</v>
+        <v>15342</v>
       </c>
       <c r="E48">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G48">
         <v>15316</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H48">
+        <v>15342</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>43950.65347222222</v>
       </c>
       <c r="B49">
         <f t="shared" si="3"/>
-        <v>15369</v>
+        <v>15397</v>
       </c>
       <c r="E49">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G49">
         <v>15369</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H49">
+        <v>15397</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>43951.574305555558</v>
       </c>
       <c r="B50">
         <f t="shared" si="3"/>
-        <v>15409</v>
+        <v>15440</v>
       </c>
       <c r="E50">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G50">
         <v>15409</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H50">
+        <v>15440</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>43952.430555555555</v>
       </c>
       <c r="B51">
-        <v>15461</v>
+        <f t="shared" si="3"/>
+        <v>15493</v>
+      </c>
+      <c r="E51">
+        <v>20</v>
       </c>
       <c r="G51">
         <v>15461</v>
+      </c>
+      <c r="H51">
+        <v>15493</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>43952.801388888889</v>
+      </c>
+      <c r="B52">
+        <v>15513</v>
+      </c>
+      <c r="H52">
+        <v>15513</v>
       </c>
     </row>
   </sheetData>

--- a/covid-manual-excel.xlsx
+++ b/covid-manual-excel.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspaces\covid-19-data-analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74C4C430-36C2-4B30-BC89-9A7AE15811DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4B7B2B9-8D5F-4C41-B40C-77114A6CD109}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="18960" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -688,10 +688,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E52"/>
+  <dimension ref="A1:E54"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D52" sqref="D52"/>
+      <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1419,7 +1419,7 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
-        <v>43952.801388888889</v>
+        <v>43953.801388888889</v>
       </c>
       <c r="B52" s="4">
         <v>161996</v>
@@ -1431,6 +1431,34 @@
         <v>6603</v>
       </c>
       <c r="E52" s="4"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>43954</v>
+      </c>
+      <c r="B53" s="4">
+        <v>162770</v>
+      </c>
+      <c r="C53" s="4">
+        <v>129000</v>
+      </c>
+      <c r="D53" s="4">
+        <v>6660</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>43955.617361111108</v>
+      </c>
+      <c r="B54" s="4">
+        <v>163515</v>
+      </c>
+      <c r="C54" s="4">
+        <v>130600</v>
+      </c>
+      <c r="D54" s="4">
+        <v>6729</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2188,10 +2216,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B8DAF25-F5B0-47E4-BAFA-42517715F0C0}">
-  <dimension ref="A1:D52"/>
+  <dimension ref="A1:D54"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51"/>
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2542,7 +2570,7 @@
         <v>43926.40625</v>
       </c>
       <c r="B25">
-        <v>12325</v>
+        <v>12306</v>
       </c>
       <c r="C25">
         <v>2998</v>
@@ -2556,7 +2584,7 @@
         <v>43927.370138888888</v>
       </c>
       <c r="B26">
-        <v>12490</v>
+        <v>12471</v>
       </c>
       <c r="C26">
         <v>2998</v>
@@ -2570,7 +2598,7 @@
         <v>43928.375</v>
       </c>
       <c r="B27">
-        <v>12761</v>
+        <v>12742</v>
       </c>
       <c r="C27">
         <v>3463</v>
@@ -2584,7 +2612,7 @@
         <v>43929.344444444447</v>
       </c>
       <c r="B28">
-        <v>13084</v>
+        <v>13065</v>
       </c>
       <c r="C28">
         <v>4046</v>
@@ -2598,7 +2626,7 @@
         <v>43930.14166666667</v>
       </c>
       <c r="B29">
-        <v>13324</v>
+        <v>13305</v>
       </c>
       <c r="C29">
         <v>4512</v>
@@ -2612,7 +2640,7 @@
         <v>43931.00277777778</v>
       </c>
       <c r="B30">
-        <v>13590</v>
+        <v>13571</v>
       </c>
       <c r="C30">
         <v>5240</v>
@@ -2626,7 +2654,7 @@
         <v>43932.246527777781</v>
       </c>
       <c r="B31">
-        <v>13947</v>
+        <v>13928</v>
       </c>
       <c r="C31">
         <v>6064</v>
@@ -2640,7 +2668,7 @@
         <v>43933.350694444445</v>
       </c>
       <c r="B32">
-        <v>14118</v>
+        <v>14099</v>
       </c>
       <c r="C32">
         <v>6604</v>
@@ -2654,7 +2682,7 @@
         <v>43934.474999999999</v>
       </c>
       <c r="B33">
-        <v>14224</v>
+        <v>14205</v>
       </c>
       <c r="C33">
         <v>7343</v>
@@ -2668,7 +2696,7 @@
         <v>43935.628472222219</v>
       </c>
       <c r="B34">
-        <v>14315</v>
+        <v>14296</v>
       </c>
       <c r="C34">
         <v>7633</v>
@@ -2682,7 +2710,7 @@
         <v>43936.576388888891</v>
       </c>
       <c r="B35">
-        <v>14461</v>
+        <v>14442</v>
       </c>
       <c r="C35">
         <v>8098</v>
@@ -2696,7 +2724,7 @@
         <v>43937.34097222222</v>
       </c>
       <c r="B36">
-        <v>14564</v>
+        <v>14545</v>
       </c>
       <c r="C36">
         <v>8986</v>
@@ -2710,7 +2738,7 @@
         <v>43938.404861111114</v>
       </c>
       <c r="B37">
-        <v>14688</v>
+        <v>14669</v>
       </c>
       <c r="C37">
         <v>9704</v>
@@ -2724,7 +2752,7 @@
         <v>43939</v>
       </c>
       <c r="B38">
-        <v>14767</v>
+        <v>14748</v>
       </c>
       <c r="C38">
         <v>10214</v>
@@ -2738,7 +2766,7 @@
         <v>43940.520138888889</v>
       </c>
       <c r="B39">
-        <v>14825</v>
+        <v>14806</v>
       </c>
       <c r="C39">
         <v>10501</v>
@@ -2752,7 +2780,7 @@
         <v>43941.467361111114</v>
       </c>
       <c r="B40">
-        <v>14865</v>
+        <v>14846</v>
       </c>
       <c r="C40">
         <v>10631</v>
@@ -2766,7 +2794,7 @@
         <v>43942.553472222222</v>
       </c>
       <c r="B41">
-        <v>14925</v>
+        <v>14906</v>
       </c>
       <c r="C41">
         <v>10971</v>
@@ -2780,7 +2808,7 @@
         <v>43943</v>
       </c>
       <c r="B42">
-        <v>14993</v>
+        <v>14974</v>
       </c>
       <c r="C42">
         <v>11328</v>
@@ -2794,7 +2822,7 @@
         <v>43944</v>
       </c>
       <c r="B43">
-        <v>15063</v>
+        <v>15044</v>
       </c>
       <c r="C43">
         <v>11694</v>
@@ -2808,7 +2836,7 @@
         <v>43945.734027777777</v>
       </c>
       <c r="B44">
-        <v>15119</v>
+        <v>15100</v>
       </c>
       <c r="C44">
         <v>11872</v>
@@ -2822,7 +2850,7 @@
         <v>43946</v>
       </c>
       <c r="B45">
-        <v>15200</v>
+        <v>15181</v>
       </c>
       <c r="C45">
         <v>12103</v>
@@ -2836,7 +2864,7 @@
         <v>43947</v>
       </c>
       <c r="B46">
-        <v>15262</v>
+        <v>15243</v>
       </c>
       <c r="C46">
         <v>12282</v>
@@ -2850,7 +2878,7 @@
         <v>43948.700694444444</v>
       </c>
       <c r="B47">
-        <v>15293</v>
+        <v>15274</v>
       </c>
       <c r="C47">
         <v>12362</v>
@@ -2864,7 +2892,7 @@
         <v>43949</v>
       </c>
       <c r="B48">
-        <v>15342</v>
+        <v>15324</v>
       </c>
       <c r="C48">
         <v>12580</v>
@@ -2878,7 +2906,7 @@
         <v>43950.65347222222</v>
       </c>
       <c r="B49">
-        <v>15397</v>
+        <v>15381</v>
       </c>
       <c r="C49">
         <v>12779</v>
@@ -2892,7 +2920,7 @@
         <v>43951.574305555558</v>
       </c>
       <c r="B50">
-        <v>15440</v>
+        <v>15423</v>
       </c>
       <c r="C50">
         <v>12907</v>
@@ -2906,7 +2934,7 @@
         <v>43952.430555555555</v>
       </c>
       <c r="B51">
-        <v>15493</v>
+        <v>15478</v>
       </c>
       <c r="C51">
         <v>13110</v>
@@ -2917,16 +2945,44 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>43952.801388888889</v>
+        <v>43953.801388888889</v>
       </c>
       <c r="B52">
-        <v>15513</v>
+        <v>15507</v>
       </c>
       <c r="C52">
         <v>13180</v>
       </c>
       <c r="D52">
         <v>596</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>43954</v>
+      </c>
+      <c r="B53">
+        <v>15538</v>
+      </c>
+      <c r="C53">
+        <v>13228</v>
+      </c>
+      <c r="D53">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>43955.617361111108</v>
+      </c>
+      <c r="B54">
+        <v>15548</v>
+      </c>
+      <c r="C54">
+        <v>13316</v>
+      </c>
+      <c r="D54">
+        <v>600</v>
       </c>
     </row>
   </sheetData>
@@ -2938,10 +2994,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C361FD1-37DF-4CF9-A8B7-B834A1753F46}">
-  <dimension ref="A1:H52"/>
+  <dimension ref="A1:I55"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25:H52"/>
+      <selection activeCell="I25" sqref="I25:I54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3130,7 +3186,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>43918.418055555558</v>
       </c>
@@ -3141,7 +3197,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>43919.418055555558</v>
       </c>
@@ -3152,7 +3208,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>43920.367361111108</v>
       </c>
@@ -3163,7 +3219,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>43921.167361111111</v>
       </c>
@@ -3174,7 +3230,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>43922.416666666664</v>
       </c>
@@ -3185,7 +3241,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>43923.112500000003</v>
       </c>
@@ -3196,7 +3252,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>43924.272916666669</v>
       </c>
@@ -3207,7 +3263,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>43925.448611111111</v>
       </c>
@@ -3218,13 +3274,13 @@
         <v>168</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>43926.40625</v>
       </c>
       <c r="B25">
         <f t="shared" ref="B25:B32" si="0">B26-E25</f>
-        <v>12325</v>
+        <v>12306</v>
       </c>
       <c r="C25">
         <v>2998</v>
@@ -3241,14 +3297,17 @@
       <c r="H25">
         <v>12325</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I25">
+        <v>12306</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>43927.370138888888</v>
       </c>
       <c r="B26">
         <f t="shared" si="0"/>
-        <v>12490</v>
+        <v>12471</v>
       </c>
       <c r="C26">
         <v>2998</v>
@@ -3265,14 +3324,17 @@
       <c r="H26">
         <v>12490</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I26">
+        <v>12471</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>43928.375</v>
       </c>
       <c r="B27">
         <f t="shared" si="0"/>
-        <v>12761</v>
+        <v>12742</v>
       </c>
       <c r="C27">
         <v>3463</v>
@@ -3289,14 +3351,17 @@
       <c r="H27">
         <v>12761</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I27">
+        <v>12742</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>43929.344444444447</v>
       </c>
       <c r="B28">
         <f t="shared" si="0"/>
-        <v>13084</v>
+        <v>13065</v>
       </c>
       <c r="C28">
         <v>4046</v>
@@ -3313,14 +3378,17 @@
       <c r="H28">
         <v>13084</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I28">
+        <v>13065</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>43930.14166666667</v>
       </c>
       <c r="B29">
         <f t="shared" si="0"/>
-        <v>13324</v>
+        <v>13305</v>
       </c>
       <c r="C29">
         <v>4512</v>
@@ -3337,14 +3405,17 @@
       <c r="H29">
         <v>13324</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I29">
+        <v>13305</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>43931.00277777778</v>
       </c>
       <c r="B30">
         <f t="shared" si="0"/>
-        <v>13590</v>
+        <v>13571</v>
       </c>
       <c r="C30">
         <v>5240</v>
@@ -3361,14 +3432,17 @@
       <c r="H30">
         <v>13590</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I30">
+        <v>13571</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>43932.246527777781</v>
       </c>
       <c r="B31">
         <f t="shared" si="0"/>
-        <v>13947</v>
+        <v>13928</v>
       </c>
       <c r="C31">
         <v>6064</v>
@@ -3385,14 +3459,17 @@
       <c r="H31">
         <v>13947</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I31">
+        <v>13928</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>43933.350694444445</v>
       </c>
       <c r="B32">
         <f t="shared" si="0"/>
-        <v>14118</v>
+        <v>14099</v>
       </c>
       <c r="C32">
         <v>6604</v>
@@ -3409,14 +3486,17 @@
       <c r="H32">
         <v>14118</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I32">
+        <v>14099</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>43934.474999999999</v>
       </c>
       <c r="B33">
         <f t="shared" ref="B33:B41" si="1">B34-E33</f>
-        <v>14224</v>
+        <v>14205</v>
       </c>
       <c r="C33">
         <v>7343</v>
@@ -3433,14 +3513,17 @@
       <c r="H33">
         <v>14224</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I33">
+        <v>14205</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>43935.628472222219</v>
       </c>
       <c r="B34">
         <f t="shared" si="1"/>
-        <v>14315</v>
+        <v>14296</v>
       </c>
       <c r="C34">
         <v>7633</v>
@@ -3457,14 +3540,17 @@
       <c r="H34">
         <v>14315</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I34">
+        <v>14296</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>43936.576388888891</v>
       </c>
       <c r="B35">
         <f t="shared" si="1"/>
-        <v>14461</v>
+        <v>14442</v>
       </c>
       <c r="C35">
         <v>8098</v>
@@ -3481,14 +3567,17 @@
       <c r="H35">
         <v>14461</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I35">
+        <v>14442</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>43937.34097222222</v>
       </c>
       <c r="B36">
         <f t="shared" si="1"/>
-        <v>14564</v>
+        <v>14545</v>
       </c>
       <c r="E36">
         <v>124</v>
@@ -3499,14 +3588,17 @@
       <c r="H36">
         <v>14564</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I36">
+        <v>14545</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>43938.404861111114</v>
       </c>
       <c r="B37">
         <f t="shared" si="1"/>
-        <v>14688</v>
+        <v>14669</v>
       </c>
       <c r="E37">
         <v>79</v>
@@ -3517,14 +3609,17 @@
       <c r="H37">
         <v>14688</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I37">
+        <v>14669</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>43939</v>
       </c>
       <c r="B38">
         <f t="shared" si="1"/>
-        <v>14767</v>
+        <v>14748</v>
       </c>
       <c r="E38">
         <v>58</v>
@@ -3535,14 +3630,17 @@
       <c r="H38">
         <v>14767</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I38">
+        <v>14748</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>43940.520138888889</v>
       </c>
       <c r="B39">
         <f t="shared" si="1"/>
-        <v>14825</v>
+        <v>14806</v>
       </c>
       <c r="E39">
         <v>40</v>
@@ -3553,14 +3651,17 @@
       <c r="H39">
         <v>14825</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I39">
+        <v>14806</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>43941.467361111114</v>
       </c>
       <c r="B40">
         <f t="shared" si="1"/>
-        <v>14865</v>
+        <v>14846</v>
       </c>
       <c r="E40">
         <v>60</v>
@@ -3571,14 +3672,17 @@
       <c r="H40">
         <v>14865</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I40">
+        <v>14846</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>43942.553472222222</v>
       </c>
       <c r="B41">
         <f t="shared" si="1"/>
-        <v>14925</v>
+        <v>14906</v>
       </c>
       <c r="E41">
         <v>68</v>
@@ -3589,14 +3693,17 @@
       <c r="H41">
         <v>14925</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I41">
+        <v>14906</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>43943</v>
       </c>
       <c r="B42">
         <f t="shared" ref="B42:B45" si="2">B43-E42</f>
-        <v>14993</v>
+        <v>14974</v>
       </c>
       <c r="E42">
         <v>70</v>
@@ -3607,14 +3714,17 @@
       <c r="H42">
         <v>14993</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I42">
+        <v>14974</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>43944</v>
       </c>
       <c r="B43">
         <f t="shared" si="2"/>
-        <v>15063</v>
+        <v>15044</v>
       </c>
       <c r="E43">
         <v>56</v>
@@ -3625,14 +3735,17 @@
       <c r="H43">
         <v>15063</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I43">
+        <v>15044</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>43945.734027777777</v>
       </c>
       <c r="B44">
         <f t="shared" si="2"/>
-        <v>15119</v>
+        <v>15100</v>
       </c>
       <c r="E44">
         <v>81</v>
@@ -3643,14 +3756,17 @@
       <c r="H44">
         <v>15119</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I44">
+        <v>15100</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43946</v>
       </c>
       <c r="B45">
         <f t="shared" si="2"/>
-        <v>15200</v>
+        <v>15181</v>
       </c>
       <c r="E45">
         <v>62</v>
@@ -3661,14 +3777,17 @@
       <c r="H45">
         <v>15200</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I45">
+        <v>15181</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>43947</v>
       </c>
       <c r="B46">
-        <f t="shared" ref="B46:B51" si="3">B47-E46</f>
-        <v>15262</v>
+        <f t="shared" ref="B46:B53" si="3">B47-E46</f>
+        <v>15243</v>
       </c>
       <c r="E46">
         <v>31</v>
@@ -3679,17 +3798,20 @@
       <c r="H46">
         <v>15262</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I46">
+        <v>15243</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>43948.700694444444</v>
       </c>
       <c r="B47">
         <f t="shared" si="3"/>
-        <v>15293</v>
+        <v>15274</v>
       </c>
       <c r="E47">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G47">
         <v>15266</v>
@@ -3697,17 +3819,20 @@
       <c r="H47">
         <v>15293</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I47">
+        <v>15274</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>43949</v>
       </c>
       <c r="B48">
         <f t="shared" si="3"/>
-        <v>15342</v>
+        <v>15324</v>
       </c>
       <c r="E48">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G48">
         <v>15316</v>
@@ -3715,17 +3840,20 @@
       <c r="H48">
         <v>15342</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I48">
+        <v>15324</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>43950.65347222222</v>
       </c>
       <c r="B49">
         <f t="shared" si="3"/>
-        <v>15397</v>
+        <v>15381</v>
       </c>
       <c r="E49">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G49">
         <v>15369</v>
@@ -3733,17 +3861,20 @@
       <c r="H49">
         <v>15397</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I49">
+        <v>15381</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>43951.574305555558</v>
       </c>
       <c r="B50">
         <f t="shared" si="3"/>
-        <v>15440</v>
+        <v>15423</v>
       </c>
       <c r="E50">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G50">
         <v>15409</v>
@@ -3751,17 +3882,20 @@
       <c r="H50">
         <v>15440</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I50">
+        <v>15423</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>43952.430555555555</v>
       </c>
       <c r="B51">
         <f t="shared" si="3"/>
-        <v>15493</v>
+        <v>15478</v>
       </c>
       <c r="E51">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="G51">
         <v>15461</v>
@@ -3769,17 +3903,56 @@
       <c r="H51">
         <v>15493</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I51">
+        <v>15478</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>43952.801388888889</v>
+        <v>43953.801388888889</v>
       </c>
       <c r="B52">
-        <v>15513</v>
+        <f t="shared" si="3"/>
+        <v>15507</v>
+      </c>
+      <c r="E52">
+        <v>31</v>
       </c>
       <c r="H52">
         <v>15513</v>
       </c>
+      <c r="I52">
+        <v>15507</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>43954</v>
+      </c>
+      <c r="B53">
+        <f t="shared" si="3"/>
+        <v>15538</v>
+      </c>
+      <c r="E53">
+        <v>10</v>
+      </c>
+      <c r="I53">
+        <v>15538</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>43955.617361111108</v>
+      </c>
+      <c r="B54">
+        <v>15548</v>
+      </c>
+      <c r="I54">
+        <v>15548</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/covid-manual-excel.xlsx
+++ b/covid-manual-excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspaces\covid-19-data-analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4B7B2B9-8D5F-4C41-B40C-77114A6CD109}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E2AF64F-EE72-4CD0-A1D5-A3A373612F51}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="18960" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="18960" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="1" r:id="rId1"/>
@@ -688,10 +688,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E54"/>
+  <dimension ref="A1:E55"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C52" sqref="C52"/>
+      <selection activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1458,6 +1458,20 @@
       </c>
       <c r="D54" s="4">
         <v>6729</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>43956.67291666667</v>
+      </c>
+      <c r="B55" s="4">
+        <v>164091</v>
+      </c>
+      <c r="C55" s="4">
+        <v>132700</v>
+      </c>
+      <c r="D55" s="4">
+        <v>6803</v>
       </c>
     </row>
   </sheetData>
@@ -2216,10 +2230,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B8DAF25-F5B0-47E4-BAFA-42517715F0C0}">
-  <dimension ref="A1:D54"/>
+  <dimension ref="A1:D55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D53" sqref="D53"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2570,7 +2584,7 @@
         <v>43926.40625</v>
       </c>
       <c r="B25">
-        <v>12306</v>
+        <v>12099</v>
       </c>
       <c r="C25">
         <v>2998</v>
@@ -2584,7 +2598,7 @@
         <v>43927.370138888888</v>
       </c>
       <c r="B26">
-        <v>12471</v>
+        <v>12270</v>
       </c>
       <c r="C26">
         <v>2998</v>
@@ -2598,7 +2612,7 @@
         <v>43928.375</v>
       </c>
       <c r="B27">
-        <v>12742</v>
+        <v>12541</v>
       </c>
       <c r="C27">
         <v>3463</v>
@@ -2612,7 +2626,7 @@
         <v>43929.344444444447</v>
       </c>
       <c r="B28">
-        <v>13065</v>
+        <v>12849</v>
       </c>
       <c r="C28">
         <v>4046</v>
@@ -2626,7 +2640,7 @@
         <v>43930.14166666667</v>
       </c>
       <c r="B29">
-        <v>13305</v>
+        <v>13116</v>
       </c>
       <c r="C29">
         <v>4512</v>
@@ -2640,7 +2654,7 @@
         <v>43931.00277777778</v>
       </c>
       <c r="B30">
-        <v>13571</v>
+        <v>13410</v>
       </c>
       <c r="C30">
         <v>5240</v>
@@ -2654,7 +2668,7 @@
         <v>43932.246527777781</v>
       </c>
       <c r="B31">
-        <v>13928</v>
+        <v>13783</v>
       </c>
       <c r="C31">
         <v>6064</v>
@@ -2668,7 +2682,7 @@
         <v>43933.350694444445</v>
       </c>
       <c r="B32">
-        <v>14099</v>
+        <v>13994</v>
       </c>
       <c r="C32">
         <v>6604</v>
@@ -2682,7 +2696,7 @@
         <v>43934.474999999999</v>
       </c>
       <c r="B33">
-        <v>14205</v>
+        <v>14104</v>
       </c>
       <c r="C33">
         <v>7343</v>
@@ -2696,7 +2710,7 @@
         <v>43935.628472222219</v>
       </c>
       <c r="B34">
-        <v>14296</v>
+        <v>14193</v>
       </c>
       <c r="C34">
         <v>7633</v>
@@ -2710,7 +2724,7 @@
         <v>43936.576388888891</v>
       </c>
       <c r="B35">
-        <v>14442</v>
+        <v>14341</v>
       </c>
       <c r="C35">
         <v>8098</v>
@@ -2724,7 +2738,7 @@
         <v>43937.34097222222</v>
       </c>
       <c r="B36">
-        <v>14545</v>
+        <v>14461</v>
       </c>
       <c r="C36">
         <v>8986</v>
@@ -2738,7 +2752,7 @@
         <v>43938.404861111114</v>
       </c>
       <c r="B37">
-        <v>14669</v>
+        <v>14590</v>
       </c>
       <c r="C37">
         <v>9704</v>
@@ -2752,7 +2766,7 @@
         <v>43939</v>
       </c>
       <c r="B38">
-        <v>14748</v>
+        <v>14683</v>
       </c>
       <c r="C38">
         <v>10214</v>
@@ -2766,7 +2780,7 @@
         <v>43940.520138888889</v>
       </c>
       <c r="B39">
-        <v>14806</v>
+        <v>14745</v>
       </c>
       <c r="C39">
         <v>10501</v>
@@ -2780,7 +2794,7 @@
         <v>43941.467361111114</v>
       </c>
       <c r="B40">
-        <v>14846</v>
+        <v>14793</v>
       </c>
       <c r="C40">
         <v>10631</v>
@@ -2794,7 +2808,7 @@
         <v>43942.553472222222</v>
       </c>
       <c r="B41">
-        <v>14906</v>
+        <v>14858</v>
       </c>
       <c r="C41">
         <v>10971</v>
@@ -2808,7 +2822,7 @@
         <v>43943</v>
       </c>
       <c r="B42">
-        <v>14974</v>
+        <v>14929</v>
       </c>
       <c r="C42">
         <v>11328</v>
@@ -2822,7 +2836,7 @@
         <v>43944</v>
       </c>
       <c r="B43">
-        <v>15044</v>
+        <v>15011</v>
       </c>
       <c r="C43">
         <v>11694</v>
@@ -2836,7 +2850,7 @@
         <v>43945.734027777777</v>
       </c>
       <c r="B44">
-        <v>15100</v>
+        <v>15073</v>
       </c>
       <c r="C44">
         <v>11872</v>
@@ -2850,7 +2864,7 @@
         <v>43946</v>
       </c>
       <c r="B45">
-        <v>15181</v>
+        <v>15155</v>
       </c>
       <c r="C45">
         <v>12103</v>
@@ -2864,7 +2878,7 @@
         <v>43947</v>
       </c>
       <c r="B46">
-        <v>15243</v>
+        <v>15216</v>
       </c>
       <c r="C46">
         <v>12282</v>
@@ -2878,7 +2892,7 @@
         <v>43948.700694444444</v>
       </c>
       <c r="B47">
-        <v>15274</v>
+        <v>15257</v>
       </c>
       <c r="C47">
         <v>12362</v>
@@ -2892,7 +2906,7 @@
         <v>43949</v>
       </c>
       <c r="B48">
-        <v>15324</v>
+        <v>15320</v>
       </c>
       <c r="C48">
         <v>12580</v>
@@ -2906,7 +2920,7 @@
         <v>43950.65347222222</v>
       </c>
       <c r="B49">
-        <v>15381</v>
+        <v>15372</v>
       </c>
       <c r="C49">
         <v>12779</v>
@@ -2920,7 +2934,7 @@
         <v>43951.574305555558</v>
       </c>
       <c r="B50">
-        <v>15423</v>
+        <v>15420</v>
       </c>
       <c r="C50">
         <v>12907</v>
@@ -2934,7 +2948,7 @@
         <v>43952.430555555555</v>
       </c>
       <c r="B51">
-        <v>15478</v>
+        <v>15482</v>
       </c>
       <c r="C51">
         <v>13110</v>
@@ -2948,7 +2962,7 @@
         <v>43953.801388888889</v>
       </c>
       <c r="B52">
-        <v>15507</v>
+        <v>15512</v>
       </c>
       <c r="C52">
         <v>13180</v>
@@ -2962,7 +2976,7 @@
         <v>43954</v>
       </c>
       <c r="B53">
-        <v>15538</v>
+        <v>15543</v>
       </c>
       <c r="C53">
         <v>13228</v>
@@ -2976,13 +2990,27 @@
         <v>43955.617361111108</v>
       </c>
       <c r="B54">
-        <v>15548</v>
+        <v>15559</v>
       </c>
       <c r="C54">
         <v>13316</v>
       </c>
       <c r="D54">
         <v>600</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>43956.67291666667</v>
+      </c>
+      <c r="B55">
+        <v>15582</v>
+      </c>
+      <c r="C55">
+        <v>13462</v>
+      </c>
+      <c r="D55">
+        <v>606</v>
       </c>
     </row>
   </sheetData>
@@ -2996,8 +3024,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C361FD1-37DF-4CF9-A8B7-B834A1753F46}">
   <dimension ref="A1:I55"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25:I54"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H55" sqref="H55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3280,7 +3308,7 @@
       </c>
       <c r="B25">
         <f t="shared" ref="B25:B32" si="0">B26-E25</f>
-        <v>12306</v>
+        <v>12099</v>
       </c>
       <c r="C25">
         <v>2998</v>
@@ -3289,16 +3317,17 @@
         <v>204</v>
       </c>
       <c r="E25">
+        <v>171</v>
+      </c>
+      <c r="G25">
+        <v>12306</v>
+      </c>
+      <c r="H25">
+        <f t="shared" ref="H25:H51" si="1">G26-G25</f>
         <v>165</v>
       </c>
-      <c r="G25">
-        <v>12299</v>
-      </c>
-      <c r="H25">
-        <v>12325</v>
-      </c>
       <c r="I25">
-        <v>12306</v>
+        <v>12099</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -3307,7 +3336,7 @@
       </c>
       <c r="B26">
         <f t="shared" si="0"/>
-        <v>12471</v>
+        <v>12270</v>
       </c>
       <c r="C26">
         <v>2998</v>
@@ -3319,13 +3348,14 @@
         <v>271</v>
       </c>
       <c r="G26">
-        <v>12464</v>
+        <v>12471</v>
       </c>
       <c r="H26">
-        <v>12490</v>
+        <f t="shared" si="1"/>
+        <v>271</v>
       </c>
       <c r="I26">
-        <v>12471</v>
+        <v>12270</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -3334,7 +3364,7 @@
       </c>
       <c r="B27">
         <f t="shared" si="0"/>
-        <v>12742</v>
+        <v>12541</v>
       </c>
       <c r="C27">
         <v>3463</v>
@@ -3343,16 +3373,17 @@
         <v>220</v>
       </c>
       <c r="E27">
+        <v>308</v>
+      </c>
+      <c r="G27">
+        <v>12742</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="1"/>
         <v>323</v>
       </c>
-      <c r="G27">
-        <v>12735</v>
-      </c>
-      <c r="H27">
-        <v>12761</v>
-      </c>
       <c r="I27">
-        <v>12742</v>
+        <v>12541</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -3361,7 +3392,7 @@
       </c>
       <c r="B28">
         <f t="shared" si="0"/>
-        <v>13065</v>
+        <v>12849</v>
       </c>
       <c r="C28">
         <v>4046</v>
@@ -3370,16 +3401,17 @@
         <v>243</v>
       </c>
       <c r="E28">
+        <v>267</v>
+      </c>
+      <c r="G28">
+        <v>13065</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="1"/>
         <v>240</v>
       </c>
-      <c r="G28">
-        <v>13058</v>
-      </c>
-      <c r="H28">
-        <v>13084</v>
-      </c>
       <c r="I28">
-        <v>13065</v>
+        <v>12849</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
@@ -3388,7 +3420,7 @@
       </c>
       <c r="B29">
         <f t="shared" si="0"/>
-        <v>13305</v>
+        <v>13116</v>
       </c>
       <c r="C29">
         <v>4512</v>
@@ -3397,16 +3429,17 @@
         <v>273</v>
       </c>
       <c r="E29">
+        <v>294</v>
+      </c>
+      <c r="G29">
+        <v>13305</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="1"/>
         <v>266</v>
       </c>
-      <c r="G29">
-        <v>13298</v>
-      </c>
-      <c r="H29">
-        <v>13324</v>
-      </c>
       <c r="I29">
-        <v>13305</v>
+        <v>13116</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
@@ -3415,7 +3448,7 @@
       </c>
       <c r="B30">
         <f t="shared" si="0"/>
-        <v>13571</v>
+        <v>13410</v>
       </c>
       <c r="C30">
         <v>5240</v>
@@ -3424,16 +3457,17 @@
         <v>295</v>
       </c>
       <c r="E30">
+        <v>373</v>
+      </c>
+      <c r="G30">
+        <v>13571</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="1"/>
         <v>357</v>
       </c>
-      <c r="G30">
-        <v>13564</v>
-      </c>
-      <c r="H30">
-        <v>13590</v>
-      </c>
       <c r="I30">
-        <v>13571</v>
+        <v>13410</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
@@ -3442,7 +3476,7 @@
       </c>
       <c r="B31">
         <f t="shared" si="0"/>
-        <v>13928</v>
+        <v>13783</v>
       </c>
       <c r="C31">
         <v>6064</v>
@@ -3451,16 +3485,17 @@
         <v>319</v>
       </c>
       <c r="E31">
+        <v>211</v>
+      </c>
+      <c r="G31">
+        <v>13928</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="1"/>
         <v>171</v>
       </c>
-      <c r="G31">
-        <v>13921</v>
-      </c>
-      <c r="H31">
-        <v>13947</v>
-      </c>
       <c r="I31">
-        <v>13928</v>
+        <v>13783</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
@@ -3469,7 +3504,7 @@
       </c>
       <c r="B32">
         <f t="shared" si="0"/>
-        <v>14099</v>
+        <v>13994</v>
       </c>
       <c r="C32">
         <v>6604</v>
@@ -3478,16 +3513,17 @@
         <v>337</v>
       </c>
       <c r="E32">
+        <v>110</v>
+      </c>
+      <c r="G32">
+        <v>14099</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="1"/>
         <v>106</v>
       </c>
-      <c r="G32">
-        <v>14092</v>
-      </c>
-      <c r="H32">
-        <v>14118</v>
-      </c>
       <c r="I32">
-        <v>14099</v>
+        <v>13994</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
@@ -3495,8 +3531,8 @@
         <v>43934.474999999999</v>
       </c>
       <c r="B33">
-        <f t="shared" ref="B33:B41" si="1">B34-E33</f>
-        <v>14205</v>
+        <f t="shared" ref="B33:B41" si="2">B34-E33</f>
+        <v>14104</v>
       </c>
       <c r="C33">
         <v>7343</v>
@@ -3505,16 +3541,17 @@
         <v>368</v>
       </c>
       <c r="E33">
+        <v>89</v>
+      </c>
+      <c r="G33">
+        <v>14205</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="1"/>
         <v>91</v>
       </c>
-      <c r="G33">
-        <v>14198</v>
-      </c>
-      <c r="H33">
-        <v>14224</v>
-      </c>
       <c r="I33">
-        <v>14205</v>
+        <v>14104</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
@@ -3522,8 +3559,8 @@
         <v>43935.628472222219</v>
       </c>
       <c r="B34">
-        <f t="shared" si="1"/>
-        <v>14296</v>
+        <f t="shared" si="2"/>
+        <v>14193</v>
       </c>
       <c r="C34">
         <v>7633</v>
@@ -3532,16 +3569,17 @@
         <v>384</v>
       </c>
       <c r="E34">
+        <v>148</v>
+      </c>
+      <c r="G34">
+        <v>14296</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="1"/>
         <v>146</v>
       </c>
-      <c r="G34">
-        <v>14289</v>
-      </c>
-      <c r="H34">
-        <v>14315</v>
-      </c>
       <c r="I34">
-        <v>14296</v>
+        <v>14193</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
@@ -3549,8 +3587,8 @@
         <v>43936.576388888891</v>
       </c>
       <c r="B35">
-        <f t="shared" si="1"/>
-        <v>14442</v>
+        <f t="shared" si="2"/>
+        <v>14341</v>
       </c>
       <c r="C35">
         <v>8098</v>
@@ -3559,16 +3597,17 @@
         <v>393</v>
       </c>
       <c r="E35">
+        <v>120</v>
+      </c>
+      <c r="G35">
+        <v>14442</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="1"/>
         <v>103</v>
       </c>
-      <c r="G35">
-        <v>14435</v>
-      </c>
-      <c r="H35">
-        <v>14461</v>
-      </c>
       <c r="I35">
-        <v>14442</v>
+        <v>14341</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
@@ -3576,20 +3615,21 @@
         <v>43937.34097222222</v>
       </c>
       <c r="B36">
+        <f t="shared" si="2"/>
+        <v>14461</v>
+      </c>
+      <c r="E36">
+        <v>129</v>
+      </c>
+      <c r="G36">
+        <v>14545</v>
+      </c>
+      <c r="H36">
         <f t="shared" si="1"/>
-        <v>14545</v>
-      </c>
-      <c r="E36">
         <v>124</v>
       </c>
-      <c r="G36">
-        <v>14538</v>
-      </c>
-      <c r="H36">
-        <v>14564</v>
-      </c>
       <c r="I36">
-        <v>14545</v>
+        <v>14461</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
@@ -3597,20 +3637,21 @@
         <v>43938.404861111114</v>
       </c>
       <c r="B37">
+        <f t="shared" si="2"/>
+        <v>14590</v>
+      </c>
+      <c r="E37">
+        <v>93</v>
+      </c>
+      <c r="G37">
+        <v>14669</v>
+      </c>
+      <c r="H37">
         <f t="shared" si="1"/>
-        <v>14669</v>
-      </c>
-      <c r="E37">
         <v>79</v>
       </c>
-      <c r="G37">
-        <v>14662</v>
-      </c>
-      <c r="H37">
-        <v>14688</v>
-      </c>
       <c r="I37">
-        <v>14669</v>
+        <v>14590</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
@@ -3618,20 +3659,21 @@
         <v>43939</v>
       </c>
       <c r="B38">
+        <f t="shared" si="2"/>
+        <v>14683</v>
+      </c>
+      <c r="E38">
+        <v>62</v>
+      </c>
+      <c r="G38">
+        <v>14748</v>
+      </c>
+      <c r="H38">
         <f t="shared" si="1"/>
-        <v>14748</v>
-      </c>
-      <c r="E38">
         <v>58</v>
       </c>
-      <c r="G38">
-        <v>14741</v>
-      </c>
-      <c r="H38">
-        <v>14767</v>
-      </c>
       <c r="I38">
-        <v>14748</v>
+        <v>14683</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
@@ -3639,20 +3681,21 @@
         <v>43940.520138888889</v>
       </c>
       <c r="B39">
+        <f t="shared" si="2"/>
+        <v>14745</v>
+      </c>
+      <c r="E39">
+        <v>48</v>
+      </c>
+      <c r="G39">
+        <v>14806</v>
+      </c>
+      <c r="H39">
         <f t="shared" si="1"/>
-        <v>14806</v>
-      </c>
-      <c r="E39">
         <v>40</v>
       </c>
-      <c r="G39">
-        <v>14799</v>
-      </c>
-      <c r="H39">
-        <v>14825</v>
-      </c>
       <c r="I39">
-        <v>14806</v>
+        <v>14745</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
@@ -3660,20 +3703,21 @@
         <v>43941.467361111114</v>
       </c>
       <c r="B40">
+        <f t="shared" si="2"/>
+        <v>14793</v>
+      </c>
+      <c r="E40">
+        <v>65</v>
+      </c>
+      <c r="G40">
+        <v>14846</v>
+      </c>
+      <c r="H40">
         <f t="shared" si="1"/>
-        <v>14846</v>
-      </c>
-      <c r="E40">
         <v>60</v>
       </c>
-      <c r="G40">
-        <v>14839</v>
-      </c>
-      <c r="H40">
-        <v>14865</v>
-      </c>
       <c r="I40">
-        <v>14846</v>
+        <v>14793</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
@@ -3681,20 +3725,21 @@
         <v>43942.553472222222</v>
       </c>
       <c r="B41">
+        <f t="shared" si="2"/>
+        <v>14858</v>
+      </c>
+      <c r="E41">
+        <v>71</v>
+      </c>
+      <c r="G41">
+        <v>14906</v>
+      </c>
+      <c r="H41">
         <f t="shared" si="1"/>
-        <v>14906</v>
-      </c>
-      <c r="E41">
         <v>68</v>
       </c>
-      <c r="G41">
-        <v>14899</v>
-      </c>
-      <c r="H41">
-        <v>14925</v>
-      </c>
       <c r="I41">
-        <v>14906</v>
+        <v>14858</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
@@ -3702,20 +3747,21 @@
         <v>43943</v>
       </c>
       <c r="B42">
-        <f t="shared" ref="B42:B45" si="2">B43-E42</f>
+        <f t="shared" ref="B42:B45" si="3">B43-E42</f>
+        <v>14929</v>
+      </c>
+      <c r="E42">
+        <v>82</v>
+      </c>
+      <c r="G42">
         <v>14974</v>
       </c>
-      <c r="E42">
+      <c r="H42">
+        <f t="shared" si="1"/>
         <v>70</v>
       </c>
-      <c r="G42">
-        <v>14967</v>
-      </c>
-      <c r="H42">
-        <v>14993</v>
-      </c>
       <c r="I42">
-        <v>14974</v>
+        <v>14929</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
@@ -3723,20 +3769,21 @@
         <v>43944</v>
       </c>
       <c r="B43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
+        <v>15011</v>
+      </c>
+      <c r="E43">
+        <v>62</v>
+      </c>
+      <c r="G43">
         <v>15044</v>
       </c>
-      <c r="E43">
+      <c r="H43">
+        <f t="shared" si="1"/>
         <v>56</v>
       </c>
-      <c r="G43">
-        <v>15037</v>
-      </c>
-      <c r="H43">
-        <v>15063</v>
-      </c>
       <c r="I43">
-        <v>15044</v>
+        <v>15011</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
@@ -3744,20 +3791,21 @@
         <v>43945.734027777777</v>
       </c>
       <c r="B44">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
+        <v>15073</v>
+      </c>
+      <c r="E44">
+        <v>82</v>
+      </c>
+      <c r="G44">
         <v>15100</v>
       </c>
-      <c r="E44">
+      <c r="H44">
+        <f t="shared" si="1"/>
         <v>81</v>
       </c>
-      <c r="G44">
-        <v>15093</v>
-      </c>
-      <c r="H44">
-        <v>15119</v>
-      </c>
       <c r="I44">
-        <v>15100</v>
+        <v>15073</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
@@ -3765,20 +3813,21 @@
         <v>43946</v>
       </c>
       <c r="B45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
+        <v>15155</v>
+      </c>
+      <c r="E45">
+        <v>61</v>
+      </c>
+      <c r="G45">
         <v>15181</v>
       </c>
-      <c r="E45">
+      <c r="H45">
+        <f t="shared" si="1"/>
         <v>62</v>
       </c>
-      <c r="G45">
-        <v>15173</v>
-      </c>
-      <c r="H45">
-        <v>15200</v>
-      </c>
       <c r="I45">
-        <v>15181</v>
+        <v>15155</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
@@ -3786,20 +3835,21 @@
         <v>43947</v>
       </c>
       <c r="B46">
-        <f t="shared" ref="B46:B53" si="3">B47-E46</f>
+        <f t="shared" ref="B46:B54" si="4">B47-E46</f>
+        <v>15216</v>
+      </c>
+      <c r="E46">
+        <v>41</v>
+      </c>
+      <c r="G46">
         <v>15243</v>
       </c>
-      <c r="E46">
+      <c r="H46">
+        <f t="shared" si="1"/>
         <v>31</v>
       </c>
-      <c r="G46">
-        <v>15235</v>
-      </c>
-      <c r="H46">
-        <v>15262</v>
-      </c>
       <c r="I46">
-        <v>15243</v>
+        <v>15216</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
@@ -3807,20 +3857,21 @@
         <v>43948.700694444444</v>
       </c>
       <c r="B47">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
+        <v>15257</v>
+      </c>
+      <c r="E47">
+        <v>63</v>
+      </c>
+      <c r="G47">
         <v>15274</v>
       </c>
-      <c r="E47">
+      <c r="H47">
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="G47">
-        <v>15266</v>
-      </c>
-      <c r="H47">
-        <v>15293</v>
-      </c>
       <c r="I47">
-        <v>15274</v>
+        <v>15257</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
@@ -3828,20 +3879,21 @@
         <v>43949</v>
       </c>
       <c r="B48">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
+        <v>15320</v>
+      </c>
+      <c r="E48">
+        <v>52</v>
+      </c>
+      <c r="G48">
         <v>15324</v>
       </c>
-      <c r="E48">
+      <c r="H48">
+        <f t="shared" si="1"/>
         <v>57</v>
       </c>
-      <c r="G48">
-        <v>15316</v>
-      </c>
-      <c r="H48">
-        <v>15342</v>
-      </c>
       <c r="I48">
-        <v>15324</v>
+        <v>15320</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
@@ -3849,20 +3901,21 @@
         <v>43950.65347222222</v>
       </c>
       <c r="B49">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
+        <v>15372</v>
+      </c>
+      <c r="E49">
+        <v>48</v>
+      </c>
+      <c r="G49">
         <v>15381</v>
       </c>
-      <c r="E49">
+      <c r="H49">
+        <f t="shared" si="1"/>
         <v>42</v>
       </c>
-      <c r="G49">
-        <v>15369</v>
-      </c>
-      <c r="H49">
-        <v>15397</v>
-      </c>
       <c r="I49">
-        <v>15381</v>
+        <v>15372</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
@@ -3870,20 +3923,21 @@
         <v>43951.574305555558</v>
       </c>
       <c r="B50">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
+        <v>15420</v>
+      </c>
+      <c r="E50">
+        <v>62</v>
+      </c>
+      <c r="G50">
         <v>15423</v>
       </c>
-      <c r="E50">
+      <c r="H50">
+        <f t="shared" si="1"/>
         <v>55</v>
       </c>
-      <c r="G50">
-        <v>15409</v>
-      </c>
-      <c r="H50">
-        <v>15440</v>
-      </c>
       <c r="I50">
-        <v>15423</v>
+        <v>15420</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
@@ -3891,20 +3945,21 @@
         <v>43952.430555555555</v>
       </c>
       <c r="B51">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
+        <v>15482</v>
+      </c>
+      <c r="E51">
+        <v>30</v>
+      </c>
+      <c r="G51">
         <v>15478</v>
       </c>
-      <c r="E51">
+      <c r="H51">
+        <f t="shared" si="1"/>
         <v>29</v>
       </c>
-      <c r="G51">
-        <v>15461</v>
-      </c>
-      <c r="H51">
-        <v>15493</v>
-      </c>
       <c r="I51">
-        <v>15478</v>
+        <v>15482</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
@@ -3912,17 +3967,21 @@
         <v>43953.801388888889</v>
       </c>
       <c r="B52">
-        <f t="shared" si="3"/>
-        <v>15507</v>
+        <f t="shared" si="4"/>
+        <v>15512</v>
       </c>
       <c r="E52">
         <v>31</v>
       </c>
+      <c r="G52">
+        <v>15507</v>
+      </c>
       <c r="H52">
-        <v>15513</v>
+        <f>G53-G52</f>
+        <v>31</v>
       </c>
       <c r="I52">
-        <v>15507</v>
+        <v>15512</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
@@ -3930,14 +3989,21 @@
         <v>43954</v>
       </c>
       <c r="B53">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
+        <v>15543</v>
+      </c>
+      <c r="E53">
+        <v>16</v>
+      </c>
+      <c r="G53">
         <v>15538</v>
       </c>
-      <c r="E53">
+      <c r="H53">
+        <f>G54-G53</f>
         <v>10</v>
       </c>
       <c r="I53">
-        <v>15538</v>
+        <v>15543</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
@@ -3945,14 +4011,33 @@
         <v>43955.617361111108</v>
       </c>
       <c r="B54">
+        <f t="shared" si="4"/>
+        <v>15559</v>
+      </c>
+      <c r="E54">
+        <v>23</v>
+      </c>
+      <c r="G54">
         <v>15548</v>
       </c>
       <c r="I54">
-        <v>15548</v>
+        <v>15559</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" s="1"/>
+      <c r="A55" s="1">
+        <v>43956.67291666667</v>
+      </c>
+      <c r="B55">
+        <v>15582</v>
+      </c>
+      <c r="H55">
+        <f>I55-G54</f>
+        <v>34</v>
+      </c>
+      <c r="I55">
+        <v>15582</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/covid-manual-excel.xlsx
+++ b/covid-manual-excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspaces\covid-19-data-analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E2AF64F-EE72-4CD0-A1D5-A3A373612F51}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39DEAEAC-06F0-42FE-9ABC-4A1FEF182776}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="18960" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="18960" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="1" r:id="rId1"/>
@@ -688,10 +688,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E55"/>
+  <dimension ref="A1:E57"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C56" sqref="C56"/>
+      <selection activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1472,6 +1472,34 @@
       </c>
       <c r="D55" s="4">
         <v>6803</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>43957</v>
+      </c>
+      <c r="B56" s="4">
+        <v>164858</v>
+      </c>
+      <c r="C56" s="4">
+        <v>135278</v>
+      </c>
+      <c r="D56" s="4">
+        <v>6944</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>43958.469444444447</v>
+      </c>
+      <c r="B57" s="4">
+        <v>166011</v>
+      </c>
+      <c r="C57" s="4">
+        <v>137696</v>
+      </c>
+      <c r="D57" s="4">
+        <v>7105</v>
       </c>
     </row>
   </sheetData>
@@ -2230,10 +2258,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B8DAF25-F5B0-47E4-BAFA-42517715F0C0}">
-  <dimension ref="A1:D55"/>
+  <dimension ref="A1:D57"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D55" sqref="D55"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2584,7 +2612,7 @@
         <v>43926.40625</v>
       </c>
       <c r="B25">
-        <v>12099</v>
+        <v>12078</v>
       </c>
       <c r="C25">
         <v>2998</v>
@@ -2598,7 +2626,7 @@
         <v>43927.370138888888</v>
       </c>
       <c r="B26">
-        <v>12270</v>
+        <v>12249</v>
       </c>
       <c r="C26">
         <v>2998</v>
@@ -2612,7 +2640,7 @@
         <v>43928.375</v>
       </c>
       <c r="B27">
-        <v>12541</v>
+        <v>12520</v>
       </c>
       <c r="C27">
         <v>3463</v>
@@ -2626,7 +2654,7 @@
         <v>43929.344444444447</v>
       </c>
       <c r="B28">
-        <v>12849</v>
+        <v>12828</v>
       </c>
       <c r="C28">
         <v>4046</v>
@@ -2640,7 +2668,7 @@
         <v>43930.14166666667</v>
       </c>
       <c r="B29">
-        <v>13116</v>
+        <v>13095</v>
       </c>
       <c r="C29">
         <v>4512</v>
@@ -2654,7 +2682,7 @@
         <v>43931.00277777778</v>
       </c>
       <c r="B30">
-        <v>13410</v>
+        <v>13389</v>
       </c>
       <c r="C30">
         <v>5240</v>
@@ -2668,7 +2696,7 @@
         <v>43932.246527777781</v>
       </c>
       <c r="B31">
-        <v>13783</v>
+        <v>13762</v>
       </c>
       <c r="C31">
         <v>6064</v>
@@ -2682,7 +2710,7 @@
         <v>43933.350694444445</v>
       </c>
       <c r="B32">
-        <v>13994</v>
+        <v>13973</v>
       </c>
       <c r="C32">
         <v>6604</v>
@@ -2696,7 +2724,7 @@
         <v>43934.474999999999</v>
       </c>
       <c r="B33">
-        <v>14104</v>
+        <v>14083</v>
       </c>
       <c r="C33">
         <v>7343</v>
@@ -2710,7 +2738,7 @@
         <v>43935.628472222219</v>
       </c>
       <c r="B34">
-        <v>14193</v>
+        <v>14172</v>
       </c>
       <c r="C34">
         <v>7633</v>
@@ -2724,7 +2752,7 @@
         <v>43936.576388888891</v>
       </c>
       <c r="B35">
-        <v>14341</v>
+        <v>14320</v>
       </c>
       <c r="C35">
         <v>8098</v>
@@ -2738,7 +2766,7 @@
         <v>43937.34097222222</v>
       </c>
       <c r="B36">
-        <v>14461</v>
+        <v>14440</v>
       </c>
       <c r="C36">
         <v>8986</v>
@@ -2752,7 +2780,7 @@
         <v>43938.404861111114</v>
       </c>
       <c r="B37">
-        <v>14590</v>
+        <v>14569</v>
       </c>
       <c r="C37">
         <v>9704</v>
@@ -2766,7 +2794,7 @@
         <v>43939</v>
       </c>
       <c r="B38">
-        <v>14683</v>
+        <v>14662</v>
       </c>
       <c r="C38">
         <v>10214</v>
@@ -2780,7 +2808,7 @@
         <v>43940.520138888889</v>
       </c>
       <c r="B39">
-        <v>14745</v>
+        <v>14724</v>
       </c>
       <c r="C39">
         <v>10501</v>
@@ -2794,7 +2822,7 @@
         <v>43941.467361111114</v>
       </c>
       <c r="B40">
-        <v>14793</v>
+        <v>14772</v>
       </c>
       <c r="C40">
         <v>10631</v>
@@ -2808,7 +2836,7 @@
         <v>43942.553472222222</v>
       </c>
       <c r="B41">
-        <v>14858</v>
+        <v>14837</v>
       </c>
       <c r="C41">
         <v>10971</v>
@@ -2822,7 +2850,7 @@
         <v>43943</v>
       </c>
       <c r="B42">
-        <v>14929</v>
+        <v>14908</v>
       </c>
       <c r="C42">
         <v>11328</v>
@@ -2836,7 +2864,7 @@
         <v>43944</v>
       </c>
       <c r="B43">
-        <v>15011</v>
+        <v>14990</v>
       </c>
       <c r="C43">
         <v>11694</v>
@@ -2850,7 +2878,7 @@
         <v>43945.734027777777</v>
       </c>
       <c r="B44">
-        <v>15073</v>
+        <v>15052</v>
       </c>
       <c r="C44">
         <v>11872</v>
@@ -2864,7 +2892,7 @@
         <v>43946</v>
       </c>
       <c r="B45">
-        <v>15155</v>
+        <v>15134</v>
       </c>
       <c r="C45">
         <v>12103</v>
@@ -2878,7 +2906,7 @@
         <v>43947</v>
       </c>
       <c r="B46">
-        <v>15216</v>
+        <v>15195</v>
       </c>
       <c r="C46">
         <v>12282</v>
@@ -2892,7 +2920,7 @@
         <v>43948.700694444444</v>
       </c>
       <c r="B47">
-        <v>15257</v>
+        <v>15236</v>
       </c>
       <c r="C47">
         <v>12362</v>
@@ -2906,7 +2934,7 @@
         <v>43949</v>
       </c>
       <c r="B48">
-        <v>15320</v>
+        <v>15299</v>
       </c>
       <c r="C48">
         <v>12580</v>
@@ -2920,7 +2948,7 @@
         <v>43950.65347222222</v>
       </c>
       <c r="B49">
-        <v>15372</v>
+        <v>15351</v>
       </c>
       <c r="C49">
         <v>12779</v>
@@ -2934,7 +2962,7 @@
         <v>43951.574305555558</v>
       </c>
       <c r="B50">
-        <v>15420</v>
+        <v>15399</v>
       </c>
       <c r="C50">
         <v>12907</v>
@@ -2948,7 +2976,7 @@
         <v>43952.430555555555</v>
       </c>
       <c r="B51">
-        <v>15482</v>
+        <v>15461</v>
       </c>
       <c r="C51">
         <v>13110</v>
@@ -2962,7 +2990,7 @@
         <v>43953.801388888889</v>
       </c>
       <c r="B52">
-        <v>15512</v>
+        <v>15492</v>
       </c>
       <c r="C52">
         <v>13180</v>
@@ -2976,7 +3004,7 @@
         <v>43954</v>
       </c>
       <c r="B53">
-        <v>15543</v>
+        <v>15523</v>
       </c>
       <c r="C53">
         <v>13228</v>
@@ -2990,7 +3018,7 @@
         <v>43955.617361111108</v>
       </c>
       <c r="B54">
-        <v>15559</v>
+        <v>15539</v>
       </c>
       <c r="C54">
         <v>13316</v>
@@ -3004,13 +3032,41 @@
         <v>43956.67291666667</v>
       </c>
       <c r="B55">
-        <v>15582</v>
+        <v>15567</v>
       </c>
       <c r="C55">
         <v>13462</v>
       </c>
       <c r="D55">
         <v>606</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>43957</v>
+      </c>
+      <c r="B56">
+        <v>15612</v>
+      </c>
+      <c r="C56">
+        <v>13550</v>
+      </c>
+      <c r="D56">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>43958.469444444447</v>
+      </c>
+      <c r="B57">
+        <v>15658</v>
+      </c>
+      <c r="C57">
+        <v>13639</v>
+      </c>
+      <c r="D57">
+        <v>608</v>
       </c>
     </row>
   </sheetData>
@@ -3022,10 +3078,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C361FD1-37DF-4CF9-A8B7-B834A1753F46}">
-  <dimension ref="A1:I55"/>
+  <dimension ref="A1:J57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H55" sqref="H55"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25:J57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3214,7 +3270,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>43918.418055555558</v>
       </c>
@@ -3225,7 +3281,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>43919.418055555558</v>
       </c>
@@ -3236,7 +3292,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>43920.367361111108</v>
       </c>
@@ -3247,7 +3303,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>43921.167361111111</v>
       </c>
@@ -3258,7 +3314,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>43922.416666666664</v>
       </c>
@@ -3269,7 +3325,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>43923.112500000003</v>
       </c>
@@ -3280,7 +3336,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>43924.272916666669</v>
       </c>
@@ -3291,7 +3347,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>43925.448611111111</v>
       </c>
@@ -3302,13 +3358,13 @@
         <v>168</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>43926.40625</v>
       </c>
       <c r="B25">
         <f t="shared" ref="B25:B32" si="0">B26-E25</f>
-        <v>12099</v>
+        <v>12078</v>
       </c>
       <c r="C25">
         <v>2998</v>
@@ -3329,14 +3385,17 @@
       <c r="I25">
         <v>12099</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J25">
+        <v>12078</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>43927.370138888888</v>
       </c>
       <c r="B26">
         <f t="shared" si="0"/>
-        <v>12270</v>
+        <v>12249</v>
       </c>
       <c r="C26">
         <v>2998</v>
@@ -3357,14 +3416,17 @@
       <c r="I26">
         <v>12270</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J26">
+        <v>12249</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>43928.375</v>
       </c>
       <c r="B27">
         <f t="shared" si="0"/>
-        <v>12541</v>
+        <v>12520</v>
       </c>
       <c r="C27">
         <v>3463</v>
@@ -3385,14 +3447,17 @@
       <c r="I27">
         <v>12541</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J27">
+        <v>12520</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>43929.344444444447</v>
       </c>
       <c r="B28">
         <f t="shared" si="0"/>
-        <v>12849</v>
+        <v>12828</v>
       </c>
       <c r="C28">
         <v>4046</v>
@@ -3413,14 +3478,17 @@
       <c r="I28">
         <v>12849</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J28">
+        <v>12828</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>43930.14166666667</v>
       </c>
       <c r="B29">
         <f t="shared" si="0"/>
-        <v>13116</v>
+        <v>13095</v>
       </c>
       <c r="C29">
         <v>4512</v>
@@ -3441,14 +3509,17 @@
       <c r="I29">
         <v>13116</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J29">
+        <v>13095</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>43931.00277777778</v>
       </c>
       <c r="B30">
         <f t="shared" si="0"/>
-        <v>13410</v>
+        <v>13389</v>
       </c>
       <c r="C30">
         <v>5240</v>
@@ -3469,14 +3540,17 @@
       <c r="I30">
         <v>13410</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J30">
+        <v>13389</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>43932.246527777781</v>
       </c>
       <c r="B31">
         <f t="shared" si="0"/>
-        <v>13783</v>
+        <v>13762</v>
       </c>
       <c r="C31">
         <v>6064</v>
@@ -3497,14 +3571,17 @@
       <c r="I31">
         <v>13783</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J31">
+        <v>13762</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>43933.350694444445</v>
       </c>
       <c r="B32">
         <f t="shared" si="0"/>
-        <v>13994</v>
+        <v>13973</v>
       </c>
       <c r="C32">
         <v>6604</v>
@@ -3525,14 +3602,17 @@
       <c r="I32">
         <v>13994</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J32">
+        <v>13973</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>43934.474999999999</v>
       </c>
       <c r="B33">
         <f t="shared" ref="B33:B41" si="2">B34-E33</f>
-        <v>14104</v>
+        <v>14083</v>
       </c>
       <c r="C33">
         <v>7343</v>
@@ -3553,14 +3633,17 @@
       <c r="I33">
         <v>14104</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J33">
+        <v>14083</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>43935.628472222219</v>
       </c>
       <c r="B34">
         <f t="shared" si="2"/>
-        <v>14193</v>
+        <v>14172</v>
       </c>
       <c r="C34">
         <v>7633</v>
@@ -3581,14 +3664,17 @@
       <c r="I34">
         <v>14193</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J34">
+        <v>14172</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>43936.576388888891</v>
       </c>
       <c r="B35">
         <f t="shared" si="2"/>
-        <v>14341</v>
+        <v>14320</v>
       </c>
       <c r="C35">
         <v>8098</v>
@@ -3609,14 +3695,17 @@
       <c r="I35">
         <v>14341</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J35">
+        <v>14320</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>43937.34097222222</v>
       </c>
       <c r="B36">
         <f t="shared" si="2"/>
-        <v>14461</v>
+        <v>14440</v>
       </c>
       <c r="E36">
         <v>129</v>
@@ -3631,14 +3720,17 @@
       <c r="I36">
         <v>14461</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J36">
+        <v>14440</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>43938.404861111114</v>
       </c>
       <c r="B37">
         <f t="shared" si="2"/>
-        <v>14590</v>
+        <v>14569</v>
       </c>
       <c r="E37">
         <v>93</v>
@@ -3653,14 +3745,17 @@
       <c r="I37">
         <v>14590</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J37">
+        <v>14569</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>43939</v>
       </c>
       <c r="B38">
         <f t="shared" si="2"/>
-        <v>14683</v>
+        <v>14662</v>
       </c>
       <c r="E38">
         <v>62</v>
@@ -3675,14 +3770,17 @@
       <c r="I38">
         <v>14683</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J38">
+        <v>14662</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>43940.520138888889</v>
       </c>
       <c r="B39">
         <f t="shared" si="2"/>
-        <v>14745</v>
+        <v>14724</v>
       </c>
       <c r="E39">
         <v>48</v>
@@ -3697,14 +3795,17 @@
       <c r="I39">
         <v>14745</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J39">
+        <v>14724</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>43941.467361111114</v>
       </c>
       <c r="B40">
         <f t="shared" si="2"/>
-        <v>14793</v>
+        <v>14772</v>
       </c>
       <c r="E40">
         <v>65</v>
@@ -3719,14 +3820,17 @@
       <c r="I40">
         <v>14793</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J40">
+        <v>14772</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>43942.553472222222</v>
       </c>
       <c r="B41">
         <f t="shared" si="2"/>
-        <v>14858</v>
+        <v>14837</v>
       </c>
       <c r="E41">
         <v>71</v>
@@ -3741,14 +3845,17 @@
       <c r="I41">
         <v>14858</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J41">
+        <v>14837</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>43943</v>
       </c>
       <c r="B42">
         <f t="shared" ref="B42:B45" si="3">B43-E42</f>
-        <v>14929</v>
+        <v>14908</v>
       </c>
       <c r="E42">
         <v>82</v>
@@ -3763,14 +3870,17 @@
       <c r="I42">
         <v>14929</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J42">
+        <v>14908</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>43944</v>
       </c>
       <c r="B43">
         <f t="shared" si="3"/>
-        <v>15011</v>
+        <v>14990</v>
       </c>
       <c r="E43">
         <v>62</v>
@@ -3785,14 +3895,17 @@
       <c r="I43">
         <v>15011</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J43">
+        <v>14990</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>43945.734027777777</v>
       </c>
       <c r="B44">
         <f t="shared" si="3"/>
-        <v>15073</v>
+        <v>15052</v>
       </c>
       <c r="E44">
         <v>82</v>
@@ -3807,14 +3920,17 @@
       <c r="I44">
         <v>15073</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J44">
+        <v>15052</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43946</v>
       </c>
       <c r="B45">
         <f t="shared" si="3"/>
-        <v>15155</v>
+        <v>15134</v>
       </c>
       <c r="E45">
         <v>61</v>
@@ -3829,14 +3945,17 @@
       <c r="I45">
         <v>15155</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J45">
+        <v>15134</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>43947</v>
       </c>
       <c r="B46">
-        <f t="shared" ref="B46:B54" si="4">B47-E46</f>
-        <v>15216</v>
+        <f t="shared" ref="B46:B56" si="4">B47-E46</f>
+        <v>15195</v>
       </c>
       <c r="E46">
         <v>41</v>
@@ -3851,14 +3970,17 @@
       <c r="I46">
         <v>15216</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J46">
+        <v>15195</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>43948.700694444444</v>
       </c>
       <c r="B47">
         <f t="shared" si="4"/>
-        <v>15257</v>
+        <v>15236</v>
       </c>
       <c r="E47">
         <v>63</v>
@@ -3873,14 +3995,17 @@
       <c r="I47">
         <v>15257</v>
       </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J47">
+        <v>15236</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>43949</v>
       </c>
       <c r="B48">
         <f t="shared" si="4"/>
-        <v>15320</v>
+        <v>15299</v>
       </c>
       <c r="E48">
         <v>52</v>
@@ -3895,14 +4020,17 @@
       <c r="I48">
         <v>15320</v>
       </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J48">
+        <v>15299</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>43950.65347222222</v>
       </c>
       <c r="B49">
         <f t="shared" si="4"/>
-        <v>15372</v>
+        <v>15351</v>
       </c>
       <c r="E49">
         <v>48</v>
@@ -3917,14 +4045,17 @@
       <c r="I49">
         <v>15372</v>
       </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J49">
+        <v>15351</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>43951.574305555558</v>
       </c>
       <c r="B50">
         <f t="shared" si="4"/>
-        <v>15420</v>
+        <v>15399</v>
       </c>
       <c r="E50">
         <v>62</v>
@@ -3939,17 +4070,20 @@
       <c r="I50">
         <v>15420</v>
       </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J50">
+        <v>15399</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>43952.430555555555</v>
       </c>
       <c r="B51">
         <f t="shared" si="4"/>
-        <v>15482</v>
+        <v>15461</v>
       </c>
       <c r="E51">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G51">
         <v>15478</v>
@@ -3961,14 +4095,17 @@
       <c r="I51">
         <v>15482</v>
       </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J51">
+        <v>15461</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>43953.801388888889</v>
       </c>
       <c r="B52">
         <f t="shared" si="4"/>
-        <v>15512</v>
+        <v>15492</v>
       </c>
       <c r="E52">
         <v>31</v>
@@ -3983,14 +4120,17 @@
       <c r="I52">
         <v>15512</v>
       </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J52">
+        <v>15492</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>43954</v>
       </c>
       <c r="B53">
         <f t="shared" si="4"/>
-        <v>15543</v>
+        <v>15523</v>
       </c>
       <c r="E53">
         <v>16</v>
@@ -4005,17 +4145,20 @@
       <c r="I53">
         <v>15543</v>
       </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J53">
+        <v>15523</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>43955.617361111108</v>
       </c>
       <c r="B54">
         <f t="shared" si="4"/>
-        <v>15559</v>
+        <v>15539</v>
       </c>
       <c r="E54">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="G54">
         <v>15548</v>
@@ -4023,13 +4166,20 @@
       <c r="I54">
         <v>15559</v>
       </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J54">
+        <v>15539</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>43956.67291666667</v>
       </c>
       <c r="B55">
-        <v>15582</v>
+        <f t="shared" si="4"/>
+        <v>15567</v>
+      </c>
+      <c r="E55">
+        <v>45</v>
       </c>
       <c r="H55">
         <f>I55-G54</f>
@@ -4037,6 +4187,35 @@
       </c>
       <c r="I55">
         <v>15582</v>
+      </c>
+      <c r="J55">
+        <v>15567</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>43957</v>
+      </c>
+      <c r="B56">
+        <f t="shared" si="4"/>
+        <v>15612</v>
+      </c>
+      <c r="E56">
+        <v>46</v>
+      </c>
+      <c r="J56">
+        <v>15612</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>43958.469444444447</v>
+      </c>
+      <c r="B57">
+        <v>15658</v>
+      </c>
+      <c r="J57">
+        <v>15658</v>
       </c>
     </row>
   </sheetData>

--- a/covid-manual-excel.xlsx
+++ b/covid-manual-excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspaces\covid-19-data-analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39DEAEAC-06F0-42FE-9ABC-4A1FEF182776}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB7632DC-E195-4D60-9A11-1183F8EBE845}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="18960" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -688,10 +688,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E57"/>
+  <dimension ref="A1:E58"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C57" sqref="C57"/>
+      <selection activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1500,6 +1500,20 @@
       </c>
       <c r="D57" s="4">
         <v>7105</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>43959.447916666664</v>
+      </c>
+      <c r="B58" s="4">
+        <v>167085</v>
+      </c>
+      <c r="C58" s="4">
+        <v>140004</v>
+      </c>
+      <c r="D58" s="4">
+        <v>7209</v>
       </c>
     </row>
   </sheetData>
@@ -2258,10 +2272,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B8DAF25-F5B0-47E4-BAFA-42517715F0C0}">
-  <dimension ref="A1:D57"/>
+  <dimension ref="A1:D58"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D56" sqref="D56"/>
+      <selection activeCell="D58" sqref="D58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2612,7 +2626,7 @@
         <v>43926.40625</v>
       </c>
       <c r="B25">
-        <v>12078</v>
+        <v>12079</v>
       </c>
       <c r="C25">
         <v>2998</v>
@@ -2626,7 +2640,7 @@
         <v>43927.370138888888</v>
       </c>
       <c r="B26">
-        <v>12249</v>
+        <v>12250</v>
       </c>
       <c r="C26">
         <v>2998</v>
@@ -2640,7 +2654,7 @@
         <v>43928.375</v>
       </c>
       <c r="B27">
-        <v>12520</v>
+        <v>12521</v>
       </c>
       <c r="C27">
         <v>3463</v>
@@ -2654,7 +2668,7 @@
         <v>43929.344444444447</v>
       </c>
       <c r="B28">
-        <v>12828</v>
+        <v>12829</v>
       </c>
       <c r="C28">
         <v>4046</v>
@@ -2668,7 +2682,7 @@
         <v>43930.14166666667</v>
       </c>
       <c r="B29">
-        <v>13095</v>
+        <v>13096</v>
       </c>
       <c r="C29">
         <v>4512</v>
@@ -2682,7 +2696,7 @@
         <v>43931.00277777778</v>
       </c>
       <c r="B30">
-        <v>13389</v>
+        <v>13390</v>
       </c>
       <c r="C30">
         <v>5240</v>
@@ -2696,7 +2710,7 @@
         <v>43932.246527777781</v>
       </c>
       <c r="B31">
-        <v>13762</v>
+        <v>13763</v>
       </c>
       <c r="C31">
         <v>6064</v>
@@ -2710,7 +2724,7 @@
         <v>43933.350694444445</v>
       </c>
       <c r="B32">
-        <v>13973</v>
+        <v>13974</v>
       </c>
       <c r="C32">
         <v>6604</v>
@@ -2724,7 +2738,7 @@
         <v>43934.474999999999</v>
       </c>
       <c r="B33">
-        <v>14083</v>
+        <v>14084</v>
       </c>
       <c r="C33">
         <v>7343</v>
@@ -2738,7 +2752,7 @@
         <v>43935.628472222219</v>
       </c>
       <c r="B34">
-        <v>14172</v>
+        <v>14173</v>
       </c>
       <c r="C34">
         <v>7633</v>
@@ -2752,7 +2766,7 @@
         <v>43936.576388888891</v>
       </c>
       <c r="B35">
-        <v>14320</v>
+        <v>14321</v>
       </c>
       <c r="C35">
         <v>8098</v>
@@ -2766,7 +2780,7 @@
         <v>43937.34097222222</v>
       </c>
       <c r="B36">
-        <v>14440</v>
+        <v>14441</v>
       </c>
       <c r="C36">
         <v>8986</v>
@@ -2780,7 +2794,7 @@
         <v>43938.404861111114</v>
       </c>
       <c r="B37">
-        <v>14569</v>
+        <v>14570</v>
       </c>
       <c r="C37">
         <v>9704</v>
@@ -2794,7 +2808,7 @@
         <v>43939</v>
       </c>
       <c r="B38">
-        <v>14662</v>
+        <v>14663</v>
       </c>
       <c r="C38">
         <v>10214</v>
@@ -2808,7 +2822,7 @@
         <v>43940.520138888889</v>
       </c>
       <c r="B39">
-        <v>14724</v>
+        <v>14725</v>
       </c>
       <c r="C39">
         <v>10501</v>
@@ -2822,7 +2836,7 @@
         <v>43941.467361111114</v>
       </c>
       <c r="B40">
-        <v>14772</v>
+        <v>14773</v>
       </c>
       <c r="C40">
         <v>10631</v>
@@ -2836,7 +2850,7 @@
         <v>43942.553472222222</v>
       </c>
       <c r="B41">
-        <v>14837</v>
+        <v>14838</v>
       </c>
       <c r="C41">
         <v>10971</v>
@@ -2850,7 +2864,7 @@
         <v>43943</v>
       </c>
       <c r="B42">
-        <v>14908</v>
+        <v>14909</v>
       </c>
       <c r="C42">
         <v>11328</v>
@@ -2864,7 +2878,7 @@
         <v>43944</v>
       </c>
       <c r="B43">
-        <v>14990</v>
+        <v>14991</v>
       </c>
       <c r="C43">
         <v>11694</v>
@@ -2878,7 +2892,7 @@
         <v>43945.734027777777</v>
       </c>
       <c r="B44">
-        <v>15052</v>
+        <v>15053</v>
       </c>
       <c r="C44">
         <v>11872</v>
@@ -2892,7 +2906,7 @@
         <v>43946</v>
       </c>
       <c r="B45">
-        <v>15134</v>
+        <v>15135</v>
       </c>
       <c r="C45">
         <v>12103</v>
@@ -2906,7 +2920,7 @@
         <v>43947</v>
       </c>
       <c r="B46">
-        <v>15195</v>
+        <v>15193</v>
       </c>
       <c r="C46">
         <v>12282</v>
@@ -2934,7 +2948,7 @@
         <v>43949</v>
       </c>
       <c r="B48">
-        <v>15299</v>
+        <v>15295</v>
       </c>
       <c r="C48">
         <v>12580</v>
@@ -2948,7 +2962,7 @@
         <v>43950.65347222222</v>
       </c>
       <c r="B49">
-        <v>15351</v>
+        <v>15348</v>
       </c>
       <c r="C49">
         <v>12779</v>
@@ -2976,7 +2990,7 @@
         <v>43952.430555555555</v>
       </c>
       <c r="B51">
-        <v>15461</v>
+        <v>15465</v>
       </c>
       <c r="C51">
         <v>13110</v>
@@ -2990,7 +3004,7 @@
         <v>43953.801388888889</v>
       </c>
       <c r="B52">
-        <v>15492</v>
+        <v>15495</v>
       </c>
       <c r="C52">
         <v>13180</v>
@@ -3004,7 +3018,7 @@
         <v>43954</v>
       </c>
       <c r="B53">
-        <v>15523</v>
+        <v>15526</v>
       </c>
       <c r="C53">
         <v>13228</v>
@@ -3018,7 +3032,7 @@
         <v>43955.617361111108</v>
       </c>
       <c r="B54">
-        <v>15539</v>
+        <v>15541</v>
       </c>
       <c r="C54">
         <v>13316</v>
@@ -3032,7 +3046,7 @@
         <v>43956.67291666667</v>
       </c>
       <c r="B55">
-        <v>15567</v>
+        <v>15565</v>
       </c>
       <c r="C55">
         <v>13462</v>
@@ -3060,13 +3074,27 @@
         <v>43958.469444444447</v>
       </c>
       <c r="B57">
-        <v>15658</v>
+        <v>15665</v>
       </c>
       <c r="C57">
         <v>13639</v>
       </c>
       <c r="D57">
         <v>608</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>43959.447916666664</v>
+      </c>
+      <c r="B58">
+        <v>15686</v>
+      </c>
+      <c r="C58">
+        <v>13698</v>
+      </c>
+      <c r="D58">
+        <v>609</v>
       </c>
     </row>
   </sheetData>
@@ -3078,10 +3106,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C361FD1-37DF-4CF9-A8B7-B834A1753F46}">
-  <dimension ref="A1:J57"/>
+  <dimension ref="A1:K58"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25:J57"/>
+      <selection activeCell="K25" sqref="K25:K58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3270,7 +3298,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>43918.418055555558</v>
       </c>
@@ -3281,7 +3309,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>43919.418055555558</v>
       </c>
@@ -3292,7 +3320,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>43920.367361111108</v>
       </c>
@@ -3303,7 +3331,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>43921.167361111111</v>
       </c>
@@ -3314,7 +3342,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>43922.416666666664</v>
       </c>
@@ -3325,7 +3353,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>43923.112500000003</v>
       </c>
@@ -3336,7 +3364,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>43924.272916666669</v>
       </c>
@@ -3347,7 +3375,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>43925.448611111111</v>
       </c>
@@ -3358,13 +3386,13 @@
         <v>168</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>43926.40625</v>
       </c>
       <c r="B25">
         <f t="shared" ref="B25:B32" si="0">B26-E25</f>
-        <v>12078</v>
+        <v>12079</v>
       </c>
       <c r="C25">
         <v>2998</v>
@@ -3388,14 +3416,17 @@
       <c r="J25">
         <v>12078</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K25">
+        <v>12079</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>43927.370138888888</v>
       </c>
       <c r="B26">
         <f t="shared" si="0"/>
-        <v>12249</v>
+        <v>12250</v>
       </c>
       <c r="C26">
         <v>2998</v>
@@ -3419,14 +3450,17 @@
       <c r="J26">
         <v>12249</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K26">
+        <v>12250</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>43928.375</v>
       </c>
       <c r="B27">
         <f t="shared" si="0"/>
-        <v>12520</v>
+        <v>12521</v>
       </c>
       <c r="C27">
         <v>3463</v>
@@ -3450,14 +3484,17 @@
       <c r="J27">
         <v>12520</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K27">
+        <v>12521</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>43929.344444444447</v>
       </c>
       <c r="B28">
         <f t="shared" si="0"/>
-        <v>12828</v>
+        <v>12829</v>
       </c>
       <c r="C28">
         <v>4046</v>
@@ -3481,14 +3518,17 @@
       <c r="J28">
         <v>12828</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K28">
+        <v>12829</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>43930.14166666667</v>
       </c>
       <c r="B29">
         <f t="shared" si="0"/>
-        <v>13095</v>
+        <v>13096</v>
       </c>
       <c r="C29">
         <v>4512</v>
@@ -3512,14 +3552,17 @@
       <c r="J29">
         <v>13095</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K29">
+        <v>13096</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>43931.00277777778</v>
       </c>
       <c r="B30">
         <f t="shared" si="0"/>
-        <v>13389</v>
+        <v>13390</v>
       </c>
       <c r="C30">
         <v>5240</v>
@@ -3543,14 +3586,17 @@
       <c r="J30">
         <v>13389</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K30">
+        <v>13390</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>43932.246527777781</v>
       </c>
       <c r="B31">
         <f t="shared" si="0"/>
-        <v>13762</v>
+        <v>13763</v>
       </c>
       <c r="C31">
         <v>6064</v>
@@ -3574,14 +3620,17 @@
       <c r="J31">
         <v>13762</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K31">
+        <v>13763</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>43933.350694444445</v>
       </c>
       <c r="B32">
         <f t="shared" si="0"/>
-        <v>13973</v>
+        <v>13974</v>
       </c>
       <c r="C32">
         <v>6604</v>
@@ -3605,14 +3654,17 @@
       <c r="J32">
         <v>13973</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K32">
+        <v>13974</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>43934.474999999999</v>
       </c>
       <c r="B33">
         <f t="shared" ref="B33:B41" si="2">B34-E33</f>
-        <v>14083</v>
+        <v>14084</v>
       </c>
       <c r="C33">
         <v>7343</v>
@@ -3636,14 +3688,17 @@
       <c r="J33">
         <v>14083</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K33">
+        <v>14084</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>43935.628472222219</v>
       </c>
       <c r="B34">
         <f t="shared" si="2"/>
-        <v>14172</v>
+        <v>14173</v>
       </c>
       <c r="C34">
         <v>7633</v>
@@ -3667,14 +3722,17 @@
       <c r="J34">
         <v>14172</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K34">
+        <v>14173</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>43936.576388888891</v>
       </c>
       <c r="B35">
         <f t="shared" si="2"/>
-        <v>14320</v>
+        <v>14321</v>
       </c>
       <c r="C35">
         <v>8098</v>
@@ -3698,14 +3756,17 @@
       <c r="J35">
         <v>14320</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K35">
+        <v>14321</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>43937.34097222222</v>
       </c>
       <c r="B36">
         <f t="shared" si="2"/>
-        <v>14440</v>
+        <v>14441</v>
       </c>
       <c r="E36">
         <v>129</v>
@@ -3723,14 +3784,17 @@
       <c r="J36">
         <v>14440</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K36">
+        <v>14441</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>43938.404861111114</v>
       </c>
       <c r="B37">
         <f t="shared" si="2"/>
-        <v>14569</v>
+        <v>14570</v>
       </c>
       <c r="E37">
         <v>93</v>
@@ -3748,14 +3812,17 @@
       <c r="J37">
         <v>14569</v>
       </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K37">
+        <v>14570</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>43939</v>
       </c>
       <c r="B38">
         <f t="shared" si="2"/>
-        <v>14662</v>
+        <v>14663</v>
       </c>
       <c r="E38">
         <v>62</v>
@@ -3773,14 +3840,17 @@
       <c r="J38">
         <v>14662</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K38">
+        <v>14663</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>43940.520138888889</v>
       </c>
       <c r="B39">
         <f t="shared" si="2"/>
-        <v>14724</v>
+        <v>14725</v>
       </c>
       <c r="E39">
         <v>48</v>
@@ -3798,14 +3868,17 @@
       <c r="J39">
         <v>14724</v>
       </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K39">
+        <v>14725</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>43941.467361111114</v>
       </c>
       <c r="B40">
         <f t="shared" si="2"/>
-        <v>14772</v>
+        <v>14773</v>
       </c>
       <c r="E40">
         <v>65</v>
@@ -3823,14 +3896,17 @@
       <c r="J40">
         <v>14772</v>
       </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K40">
+        <v>14773</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>43942.553472222222</v>
       </c>
       <c r="B41">
         <f t="shared" si="2"/>
-        <v>14837</v>
+        <v>14838</v>
       </c>
       <c r="E41">
         <v>71</v>
@@ -3848,14 +3924,17 @@
       <c r="J41">
         <v>14837</v>
       </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K41">
+        <v>14838</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>43943</v>
       </c>
       <c r="B42">
         <f t="shared" ref="B42:B45" si="3">B43-E42</f>
-        <v>14908</v>
+        <v>14909</v>
       </c>
       <c r="E42">
         <v>82</v>
@@ -3873,14 +3952,17 @@
       <c r="J42">
         <v>14908</v>
       </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K42">
+        <v>14909</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>43944</v>
       </c>
       <c r="B43">
         <f t="shared" si="3"/>
-        <v>14990</v>
+        <v>14991</v>
       </c>
       <c r="E43">
         <v>62</v>
@@ -3898,14 +3980,17 @@
       <c r="J43">
         <v>14990</v>
       </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K43">
+        <v>14991</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>43945.734027777777</v>
       </c>
       <c r="B44">
         <f t="shared" si="3"/>
-        <v>15052</v>
+        <v>15053</v>
       </c>
       <c r="E44">
         <v>82</v>
@@ -3923,17 +4008,20 @@
       <c r="J44">
         <v>15052</v>
       </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K44">
+        <v>15053</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43946</v>
       </c>
       <c r="B45">
         <f t="shared" si="3"/>
-        <v>15134</v>
+        <v>15135</v>
       </c>
       <c r="E45">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G45">
         <v>15181</v>
@@ -3948,17 +4036,20 @@
       <c r="J45">
         <v>15134</v>
       </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K45">
+        <v>15135</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>43947</v>
       </c>
       <c r="B46">
-        <f t="shared" ref="B46:B56" si="4">B47-E46</f>
-        <v>15195</v>
+        <f t="shared" ref="B46:B57" si="4">B47-E46</f>
+        <v>15193</v>
       </c>
       <c r="E46">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G46">
         <v>15243</v>
@@ -3973,8 +4064,11 @@
       <c r="J46">
         <v>15195</v>
       </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K46">
+        <v>15193</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>43948.700694444444</v>
       </c>
@@ -3983,7 +4077,7 @@
         <v>15236</v>
       </c>
       <c r="E47">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="G47">
         <v>15274</v>
@@ -3998,17 +4092,20 @@
       <c r="J47">
         <v>15236</v>
       </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K47">
+        <v>15236</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>43949</v>
       </c>
       <c r="B48">
         <f t="shared" si="4"/>
-        <v>15299</v>
+        <v>15295</v>
       </c>
       <c r="E48">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G48">
         <v>15324</v>
@@ -4023,17 +4120,20 @@
       <c r="J48">
         <v>15299</v>
       </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K48">
+        <v>15295</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>43950.65347222222</v>
       </c>
       <c r="B49">
         <f t="shared" si="4"/>
-        <v>15351</v>
+        <v>15348</v>
       </c>
       <c r="E49">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G49">
         <v>15381</v>
@@ -4048,8 +4148,11 @@
       <c r="J49">
         <v>15351</v>
       </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K49">
+        <v>15348</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>43951.574305555558</v>
       </c>
@@ -4058,7 +4161,7 @@
         <v>15399</v>
       </c>
       <c r="E50">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="G50">
         <v>15423</v>
@@ -4073,17 +4176,20 @@
       <c r="J50">
         <v>15399</v>
       </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K50">
+        <v>15399</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>43952.430555555555</v>
       </c>
       <c r="B51">
         <f t="shared" si="4"/>
-        <v>15461</v>
+        <v>15465</v>
       </c>
       <c r="E51">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G51">
         <v>15478</v>
@@ -4098,14 +4204,17 @@
       <c r="J51">
         <v>15461</v>
       </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K51">
+        <v>15465</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>43953.801388888889</v>
       </c>
       <c r="B52">
         <f t="shared" si="4"/>
-        <v>15492</v>
+        <v>15495</v>
       </c>
       <c r="E52">
         <v>31</v>
@@ -4123,17 +4232,20 @@
       <c r="J52">
         <v>15492</v>
       </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K52">
+        <v>15495</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>43954</v>
       </c>
       <c r="B53">
         <f t="shared" si="4"/>
-        <v>15523</v>
+        <v>15526</v>
       </c>
       <c r="E53">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G53">
         <v>15538</v>
@@ -4148,17 +4260,20 @@
       <c r="J53">
         <v>15523</v>
       </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K53">
+        <v>15526</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>43955.617361111108</v>
       </c>
       <c r="B54">
         <f t="shared" si="4"/>
-        <v>15539</v>
+        <v>15541</v>
       </c>
       <c r="E54">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="G54">
         <v>15548</v>
@@ -4169,17 +4284,20 @@
       <c r="J54">
         <v>15539</v>
       </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K54">
+        <v>15541</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>43956.67291666667</v>
       </c>
       <c r="B55">
         <f t="shared" si="4"/>
-        <v>15567</v>
+        <v>15565</v>
       </c>
       <c r="E55">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H55">
         <f>I55-G54</f>
@@ -4191,8 +4309,11 @@
       <c r="J55">
         <v>15567</v>
       </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K55">
+        <v>15565</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>43957</v>
       </c>
@@ -4201,21 +4322,42 @@
         <v>15612</v>
       </c>
       <c r="E56">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="J56">
         <v>15612</v>
       </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K56">
+        <v>15612</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>43958.469444444447</v>
       </c>
       <c r="B57">
-        <v>15658</v>
+        <f t="shared" si="4"/>
+        <v>15665</v>
+      </c>
+      <c r="E57">
+        <v>21</v>
       </c>
       <c r="J57">
         <v>15658</v>
+      </c>
+      <c r="K57">
+        <v>15665</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>43959.447916666664</v>
+      </c>
+      <c r="B58">
+        <v>15686</v>
+      </c>
+      <c r="K58">
+        <v>15686</v>
       </c>
     </row>
   </sheetData>

--- a/covid-manual-excel.xlsx
+++ b/covid-manual-excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspaces\covid-19-data-analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB7632DC-E195-4D60-9A11-1183F8EBE845}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CBD8F28-DEA8-4F8E-8002-F83A2F08751E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="18960" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -688,10 +688,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E58"/>
+  <dimension ref="A1:E59"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C59" sqref="C59"/>
+      <selection activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1514,6 +1514,20 @@
       </c>
       <c r="D58" s="4">
         <v>7209</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>43960.340277777781</v>
+      </c>
+      <c r="B59" s="4">
+        <v>168363</v>
+      </c>
+      <c r="C59" s="4">
+        <v>141936</v>
+      </c>
+      <c r="D59" s="4">
+        <v>7351</v>
       </c>
     </row>
   </sheetData>
@@ -2272,10 +2286,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B8DAF25-F5B0-47E4-BAFA-42517715F0C0}">
-  <dimension ref="A1:D58"/>
+  <dimension ref="A1:D59"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D58" sqref="D58"/>
+      <selection activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2626,7 +2640,7 @@
         <v>43926.40625</v>
       </c>
       <c r="B25">
-        <v>12079</v>
+        <v>12071</v>
       </c>
       <c r="C25">
         <v>2998</v>
@@ -2640,7 +2654,7 @@
         <v>43927.370138888888</v>
       </c>
       <c r="B26">
-        <v>12250</v>
+        <v>12242</v>
       </c>
       <c r="C26">
         <v>2998</v>
@@ -2654,7 +2668,7 @@
         <v>43928.375</v>
       </c>
       <c r="B27">
-        <v>12521</v>
+        <v>12513</v>
       </c>
       <c r="C27">
         <v>3463</v>
@@ -2668,7 +2682,7 @@
         <v>43929.344444444447</v>
       </c>
       <c r="B28">
-        <v>12829</v>
+        <v>12821</v>
       </c>
       <c r="C28">
         <v>4046</v>
@@ -2682,7 +2696,7 @@
         <v>43930.14166666667</v>
       </c>
       <c r="B29">
-        <v>13096</v>
+        <v>13088</v>
       </c>
       <c r="C29">
         <v>4512</v>
@@ -2696,7 +2710,7 @@
         <v>43931.00277777778</v>
       </c>
       <c r="B30">
-        <v>13390</v>
+        <v>13382</v>
       </c>
       <c r="C30">
         <v>5240</v>
@@ -2710,7 +2724,7 @@
         <v>43932.246527777781</v>
       </c>
       <c r="B31">
-        <v>13763</v>
+        <v>13755</v>
       </c>
       <c r="C31">
         <v>6064</v>
@@ -2724,7 +2738,7 @@
         <v>43933.350694444445</v>
       </c>
       <c r="B32">
-        <v>13974</v>
+        <v>13966</v>
       </c>
       <c r="C32">
         <v>6604</v>
@@ -2738,7 +2752,7 @@
         <v>43934.474999999999</v>
       </c>
       <c r="B33">
-        <v>14084</v>
+        <v>14076</v>
       </c>
       <c r="C33">
         <v>7343</v>
@@ -2752,7 +2766,7 @@
         <v>43935.628472222219</v>
       </c>
       <c r="B34">
-        <v>14173</v>
+        <v>14165</v>
       </c>
       <c r="C34">
         <v>7633</v>
@@ -2766,7 +2780,7 @@
         <v>43936.576388888891</v>
       </c>
       <c r="B35">
-        <v>14321</v>
+        <v>14313</v>
       </c>
       <c r="C35">
         <v>8098</v>
@@ -2780,7 +2794,7 @@
         <v>43937.34097222222</v>
       </c>
       <c r="B36">
-        <v>14441</v>
+        <v>14433</v>
       </c>
       <c r="C36">
         <v>8986</v>
@@ -2794,7 +2808,7 @@
         <v>43938.404861111114</v>
       </c>
       <c r="B37">
-        <v>14570</v>
+        <v>14562</v>
       </c>
       <c r="C37">
         <v>9704</v>
@@ -2808,7 +2822,7 @@
         <v>43939</v>
       </c>
       <c r="B38">
-        <v>14663</v>
+        <v>14655</v>
       </c>
       <c r="C38">
         <v>10214</v>
@@ -2822,7 +2836,7 @@
         <v>43940.520138888889</v>
       </c>
       <c r="B39">
-        <v>14725</v>
+        <v>14717</v>
       </c>
       <c r="C39">
         <v>10501</v>
@@ -2836,7 +2850,7 @@
         <v>43941.467361111114</v>
       </c>
       <c r="B40">
-        <v>14773</v>
+        <v>14765</v>
       </c>
       <c r="C40">
         <v>10631</v>
@@ -2850,7 +2864,7 @@
         <v>43942.553472222222</v>
       </c>
       <c r="B41">
-        <v>14838</v>
+        <v>14830</v>
       </c>
       <c r="C41">
         <v>10971</v>
@@ -2864,7 +2878,7 @@
         <v>43943</v>
       </c>
       <c r="B42">
-        <v>14909</v>
+        <v>14901</v>
       </c>
       <c r="C42">
         <v>11328</v>
@@ -2878,7 +2892,7 @@
         <v>43944</v>
       </c>
       <c r="B43">
-        <v>14991</v>
+        <v>14983</v>
       </c>
       <c r="C43">
         <v>11694</v>
@@ -2892,7 +2906,7 @@
         <v>43945.734027777777</v>
       </c>
       <c r="B44">
-        <v>15053</v>
+        <v>15045</v>
       </c>
       <c r="C44">
         <v>11872</v>
@@ -2906,7 +2920,7 @@
         <v>43946</v>
       </c>
       <c r="B45">
-        <v>15135</v>
+        <v>15127</v>
       </c>
       <c r="C45">
         <v>12103</v>
@@ -2920,7 +2934,7 @@
         <v>43947</v>
       </c>
       <c r="B46">
-        <v>15193</v>
+        <v>15185</v>
       </c>
       <c r="C46">
         <v>12282</v>
@@ -2934,7 +2948,7 @@
         <v>43948.700694444444</v>
       </c>
       <c r="B47">
-        <v>15236</v>
+        <v>15228</v>
       </c>
       <c r="C47">
         <v>12362</v>
@@ -2948,7 +2962,7 @@
         <v>43949</v>
       </c>
       <c r="B48">
-        <v>15295</v>
+        <v>15287</v>
       </c>
       <c r="C48">
         <v>12580</v>
@@ -2962,7 +2976,7 @@
         <v>43950.65347222222</v>
       </c>
       <c r="B49">
-        <v>15348</v>
+        <v>15340</v>
       </c>
       <c r="C49">
         <v>12779</v>
@@ -2976,7 +2990,7 @@
         <v>43951.574305555558</v>
       </c>
       <c r="B50">
-        <v>15399</v>
+        <v>15391</v>
       </c>
       <c r="C50">
         <v>12907</v>
@@ -2990,7 +3004,7 @@
         <v>43952.430555555555</v>
       </c>
       <c r="B51">
-        <v>15465</v>
+        <v>15457</v>
       </c>
       <c r="C51">
         <v>13110</v>
@@ -3004,7 +3018,7 @@
         <v>43953.801388888889</v>
       </c>
       <c r="B52">
-        <v>15495</v>
+        <v>15487</v>
       </c>
       <c r="C52">
         <v>13180</v>
@@ -3018,7 +3032,7 @@
         <v>43954</v>
       </c>
       <c r="B53">
-        <v>15526</v>
+        <v>15518</v>
       </c>
       <c r="C53">
         <v>13228</v>
@@ -3032,7 +3046,7 @@
         <v>43955.617361111108</v>
       </c>
       <c r="B54">
-        <v>15541</v>
+        <v>15533</v>
       </c>
       <c r="C54">
         <v>13316</v>
@@ -3046,7 +3060,7 @@
         <v>43956.67291666667</v>
       </c>
       <c r="B55">
-        <v>15565</v>
+        <v>15557</v>
       </c>
       <c r="C55">
         <v>13462</v>
@@ -3060,7 +3074,7 @@
         <v>43957</v>
       </c>
       <c r="B56">
-        <v>15612</v>
+        <v>15603</v>
       </c>
       <c r="C56">
         <v>13550</v>
@@ -3074,7 +3088,7 @@
         <v>43958.469444444447</v>
       </c>
       <c r="B57">
-        <v>15665</v>
+        <v>15656</v>
       </c>
       <c r="C57">
         <v>13639</v>
@@ -3088,13 +3102,27 @@
         <v>43959.447916666664</v>
       </c>
       <c r="B58">
-        <v>15686</v>
+        <v>15688</v>
       </c>
       <c r="C58">
         <v>13698</v>
       </c>
       <c r="D58">
         <v>609</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>43960.340277777781</v>
+      </c>
+      <c r="B59">
+        <v>15735</v>
+      </c>
+      <c r="C59">
+        <v>13836</v>
+      </c>
+      <c r="D59">
+        <v>614</v>
       </c>
     </row>
   </sheetData>
@@ -3106,10 +3134,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C361FD1-37DF-4CF9-A8B7-B834A1753F46}">
-  <dimension ref="A1:K58"/>
+  <dimension ref="A1:L59"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25:K58"/>
+      <selection activeCell="L25" sqref="L25:L59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3298,7 +3326,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>43918.418055555558</v>
       </c>
@@ -3309,7 +3337,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>43919.418055555558</v>
       </c>
@@ -3320,7 +3348,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>43920.367361111108</v>
       </c>
@@ -3331,7 +3359,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>43921.167361111111</v>
       </c>
@@ -3342,7 +3370,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>43922.416666666664</v>
       </c>
@@ -3353,7 +3381,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>43923.112500000003</v>
       </c>
@@ -3364,7 +3392,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>43924.272916666669</v>
       </c>
@@ -3375,7 +3403,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>43925.448611111111</v>
       </c>
@@ -3386,13 +3414,13 @@
         <v>168</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>43926.40625</v>
       </c>
       <c r="B25">
         <f t="shared" ref="B25:B32" si="0">B26-E25</f>
-        <v>12079</v>
+        <v>12071</v>
       </c>
       <c r="C25">
         <v>2998</v>
@@ -3419,14 +3447,17 @@
       <c r="K25">
         <v>12079</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L25">
+        <v>12071</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>43927.370138888888</v>
       </c>
       <c r="B26">
         <f t="shared" si="0"/>
-        <v>12250</v>
+        <v>12242</v>
       </c>
       <c r="C26">
         <v>2998</v>
@@ -3453,14 +3484,17 @@
       <c r="K26">
         <v>12250</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L26">
+        <v>12242</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>43928.375</v>
       </c>
       <c r="B27">
         <f t="shared" si="0"/>
-        <v>12521</v>
+        <v>12513</v>
       </c>
       <c r="C27">
         <v>3463</v>
@@ -3487,14 +3521,17 @@
       <c r="K27">
         <v>12521</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L27">
+        <v>12513</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>43929.344444444447</v>
       </c>
       <c r="B28">
         <f t="shared" si="0"/>
-        <v>12829</v>
+        <v>12821</v>
       </c>
       <c r="C28">
         <v>4046</v>
@@ -3521,14 +3558,17 @@
       <c r="K28">
         <v>12829</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L28">
+        <v>12821</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>43930.14166666667</v>
       </c>
       <c r="B29">
         <f t="shared" si="0"/>
-        <v>13096</v>
+        <v>13088</v>
       </c>
       <c r="C29">
         <v>4512</v>
@@ -3555,14 +3595,17 @@
       <c r="K29">
         <v>13096</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L29">
+        <v>13088</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>43931.00277777778</v>
       </c>
       <c r="B30">
         <f t="shared" si="0"/>
-        <v>13390</v>
+        <v>13382</v>
       </c>
       <c r="C30">
         <v>5240</v>
@@ -3589,14 +3632,17 @@
       <c r="K30">
         <v>13390</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L30">
+        <v>13382</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>43932.246527777781</v>
       </c>
       <c r="B31">
         <f t="shared" si="0"/>
-        <v>13763</v>
+        <v>13755</v>
       </c>
       <c r="C31">
         <v>6064</v>
@@ -3623,14 +3669,17 @@
       <c r="K31">
         <v>13763</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L31">
+        <v>13755</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>43933.350694444445</v>
       </c>
       <c r="B32">
         <f t="shared" si="0"/>
-        <v>13974</v>
+        <v>13966</v>
       </c>
       <c r="C32">
         <v>6604</v>
@@ -3657,14 +3706,17 @@
       <c r="K32">
         <v>13974</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L32">
+        <v>13966</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>43934.474999999999</v>
       </c>
       <c r="B33">
         <f t="shared" ref="B33:B41" si="2">B34-E33</f>
-        <v>14084</v>
+        <v>14076</v>
       </c>
       <c r="C33">
         <v>7343</v>
@@ -3691,14 +3743,17 @@
       <c r="K33">
         <v>14084</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L33">
+        <v>14076</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>43935.628472222219</v>
       </c>
       <c r="B34">
         <f t="shared" si="2"/>
-        <v>14173</v>
+        <v>14165</v>
       </c>
       <c r="C34">
         <v>7633</v>
@@ -3725,14 +3780,17 @@
       <c r="K34">
         <v>14173</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L34">
+        <v>14165</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>43936.576388888891</v>
       </c>
       <c r="B35">
         <f t="shared" si="2"/>
-        <v>14321</v>
+        <v>14313</v>
       </c>
       <c r="C35">
         <v>8098</v>
@@ -3759,14 +3817,17 @@
       <c r="K35">
         <v>14321</v>
       </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L35">
+        <v>14313</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>43937.34097222222</v>
       </c>
       <c r="B36">
         <f t="shared" si="2"/>
-        <v>14441</v>
+        <v>14433</v>
       </c>
       <c r="E36">
         <v>129</v>
@@ -3787,14 +3848,17 @@
       <c r="K36">
         <v>14441</v>
       </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L36">
+        <v>14433</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>43938.404861111114</v>
       </c>
       <c r="B37">
         <f t="shared" si="2"/>
-        <v>14570</v>
+        <v>14562</v>
       </c>
       <c r="E37">
         <v>93</v>
@@ -3815,14 +3879,17 @@
       <c r="K37">
         <v>14570</v>
       </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L37">
+        <v>14562</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>43939</v>
       </c>
       <c r="B38">
         <f t="shared" si="2"/>
-        <v>14663</v>
+        <v>14655</v>
       </c>
       <c r="E38">
         <v>62</v>
@@ -3843,14 +3910,17 @@
       <c r="K38">
         <v>14663</v>
       </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L38">
+        <v>14655</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>43940.520138888889</v>
       </c>
       <c r="B39">
         <f t="shared" si="2"/>
-        <v>14725</v>
+        <v>14717</v>
       </c>
       <c r="E39">
         <v>48</v>
@@ -3871,14 +3941,17 @@
       <c r="K39">
         <v>14725</v>
       </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L39">
+        <v>14717</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>43941.467361111114</v>
       </c>
       <c r="B40">
         <f t="shared" si="2"/>
-        <v>14773</v>
+        <v>14765</v>
       </c>
       <c r="E40">
         <v>65</v>
@@ -3899,14 +3972,17 @@
       <c r="K40">
         <v>14773</v>
       </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L40">
+        <v>14765</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>43942.553472222222</v>
       </c>
       <c r="B41">
         <f t="shared" si="2"/>
-        <v>14838</v>
+        <v>14830</v>
       </c>
       <c r="E41">
         <v>71</v>
@@ -3927,14 +4003,17 @@
       <c r="K41">
         <v>14838</v>
       </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L41">
+        <v>14830</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>43943</v>
       </c>
       <c r="B42">
         <f t="shared" ref="B42:B45" si="3">B43-E42</f>
-        <v>14909</v>
+        <v>14901</v>
       </c>
       <c r="E42">
         <v>82</v>
@@ -3955,14 +4034,17 @@
       <c r="K42">
         <v>14909</v>
       </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L42">
+        <v>14901</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>43944</v>
       </c>
       <c r="B43">
         <f t="shared" si="3"/>
-        <v>14991</v>
+        <v>14983</v>
       </c>
       <c r="E43">
         <v>62</v>
@@ -3983,14 +4065,17 @@
       <c r="K43">
         <v>14991</v>
       </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L43">
+        <v>14983</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>43945.734027777777</v>
       </c>
       <c r="B44">
         <f t="shared" si="3"/>
-        <v>15053</v>
+        <v>15045</v>
       </c>
       <c r="E44">
         <v>82</v>
@@ -4011,14 +4096,17 @@
       <c r="K44">
         <v>15053</v>
       </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L44">
+        <v>15045</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43946</v>
       </c>
       <c r="B45">
         <f t="shared" si="3"/>
-        <v>15135</v>
+        <v>15127</v>
       </c>
       <c r="E45">
         <v>58</v>
@@ -4039,14 +4127,17 @@
       <c r="K45">
         <v>15135</v>
       </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L45">
+        <v>15127</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>43947</v>
       </c>
       <c r="B46">
-        <f t="shared" ref="B46:B57" si="4">B47-E46</f>
-        <v>15193</v>
+        <f t="shared" ref="B46:B58" si="4">B47-E46</f>
+        <v>15185</v>
       </c>
       <c r="E46">
         <v>43</v>
@@ -4067,14 +4158,17 @@
       <c r="K46">
         <v>15193</v>
       </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L46">
+        <v>15185</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>43948.700694444444</v>
       </c>
       <c r="B47">
         <f t="shared" si="4"/>
-        <v>15236</v>
+        <v>15228</v>
       </c>
       <c r="E47">
         <v>59</v>
@@ -4095,14 +4189,17 @@
       <c r="K47">
         <v>15236</v>
       </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L47">
+        <v>15228</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>43949</v>
       </c>
       <c r="B48">
         <f t="shared" si="4"/>
-        <v>15295</v>
+        <v>15287</v>
       </c>
       <c r="E48">
         <v>53</v>
@@ -4123,14 +4220,17 @@
       <c r="K48">
         <v>15295</v>
       </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L48">
+        <v>15287</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>43950.65347222222</v>
       </c>
       <c r="B49">
         <f t="shared" si="4"/>
-        <v>15348</v>
+        <v>15340</v>
       </c>
       <c r="E49">
         <v>51</v>
@@ -4151,14 +4251,17 @@
       <c r="K49">
         <v>15348</v>
       </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L49">
+        <v>15340</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>43951.574305555558</v>
       </c>
       <c r="B50">
         <f t="shared" si="4"/>
-        <v>15399</v>
+        <v>15391</v>
       </c>
       <c r="E50">
         <v>66</v>
@@ -4179,14 +4282,17 @@
       <c r="K50">
         <v>15399</v>
       </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L50">
+        <v>15391</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>43952.430555555555</v>
       </c>
       <c r="B51">
         <f t="shared" si="4"/>
-        <v>15465</v>
+        <v>15457</v>
       </c>
       <c r="E51">
         <v>30</v>
@@ -4207,14 +4313,17 @@
       <c r="K51">
         <v>15465</v>
       </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L51">
+        <v>15457</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>43953.801388888889</v>
       </c>
       <c r="B52">
         <f t="shared" si="4"/>
-        <v>15495</v>
+        <v>15487</v>
       </c>
       <c r="E52">
         <v>31</v>
@@ -4235,14 +4344,17 @@
       <c r="K52">
         <v>15495</v>
       </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L52">
+        <v>15487</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>43954</v>
       </c>
       <c r="B53">
         <f t="shared" si="4"/>
-        <v>15526</v>
+        <v>15518</v>
       </c>
       <c r="E53">
         <v>15</v>
@@ -4263,14 +4375,17 @@
       <c r="K53">
         <v>15526</v>
       </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L53">
+        <v>15518</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>43955.617361111108</v>
       </c>
       <c r="B54">
         <f t="shared" si="4"/>
-        <v>15541</v>
+        <v>15533</v>
       </c>
       <c r="E54">
         <v>24</v>
@@ -4287,17 +4402,20 @@
       <c r="K54">
         <v>15541</v>
       </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L54">
+        <v>15533</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>43956.67291666667</v>
       </c>
       <c r="B55">
         <f t="shared" si="4"/>
-        <v>15565</v>
+        <v>15557</v>
       </c>
       <c r="E55">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H55">
         <f>I55-G54</f>
@@ -4312,14 +4430,17 @@
       <c r="K55">
         <v>15565</v>
       </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L55">
+        <v>15557</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>43957</v>
       </c>
       <c r="B56">
         <f t="shared" si="4"/>
-        <v>15612</v>
+        <v>15603</v>
       </c>
       <c r="E56">
         <v>53</v>
@@ -4330,17 +4451,20 @@
       <c r="K56">
         <v>15612</v>
       </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L56">
+        <v>15603</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>43958.469444444447</v>
       </c>
       <c r="B57">
         <f t="shared" si="4"/>
-        <v>15665</v>
+        <v>15656</v>
       </c>
       <c r="E57">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="J57">
         <v>15658</v>
@@ -4348,16 +4472,37 @@
       <c r="K57">
         <v>15665</v>
       </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L57">
+        <v>15656</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>43959.447916666664</v>
       </c>
       <c r="B58">
-        <v>15686</v>
+        <f t="shared" si="4"/>
+        <v>15688</v>
+      </c>
+      <c r="E58">
+        <v>47</v>
       </c>
       <c r="K58">
         <v>15686</v>
+      </c>
+      <c r="L58">
+        <v>15688</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>43960.340277777781</v>
+      </c>
+      <c r="B59">
+        <v>15735</v>
+      </c>
+      <c r="L59">
+        <v>15735</v>
       </c>
     </row>
   </sheetData>

--- a/covid-manual-excel.xlsx
+++ b/covid-manual-excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspaces\covid-19-data-analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CBD8F28-DEA8-4F8E-8002-F83A2F08751E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A635054-8681-42A0-B035-E9A00B0354E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="18960" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -688,10 +688,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E59"/>
+  <dimension ref="A1:E60"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D59" sqref="D59"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D60" sqref="D60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1528,6 +1528,20 @@
       </c>
       <c r="D59" s="4">
         <v>7351</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>43961.277083333334</v>
+      </c>
+      <c r="B60" s="4">
+        <v>169416</v>
+      </c>
+      <c r="C60" s="4">
+        <v>143370</v>
+      </c>
+      <c r="D60" s="4">
+        <v>7435</v>
       </c>
     </row>
   </sheetData>
@@ -2286,10 +2300,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B8DAF25-F5B0-47E4-BAFA-42517715F0C0}">
-  <dimension ref="A1:D59"/>
+  <dimension ref="A1:D60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D59" sqref="D59"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C61" sqref="C61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2640,7 +2654,7 @@
         <v>43926.40625</v>
       </c>
       <c r="B25">
-        <v>12071</v>
+        <v>12072</v>
       </c>
       <c r="C25">
         <v>2998</v>
@@ -2654,7 +2668,7 @@
         <v>43927.370138888888</v>
       </c>
       <c r="B26">
-        <v>12242</v>
+        <v>12243</v>
       </c>
       <c r="C26">
         <v>2998</v>
@@ -2668,7 +2682,7 @@
         <v>43928.375</v>
       </c>
       <c r="B27">
-        <v>12513</v>
+        <v>12514</v>
       </c>
       <c r="C27">
         <v>3463</v>
@@ -2682,7 +2696,7 @@
         <v>43929.344444444447</v>
       </c>
       <c r="B28">
-        <v>12821</v>
+        <v>12822</v>
       </c>
       <c r="C28">
         <v>4046</v>
@@ -2696,7 +2710,7 @@
         <v>43930.14166666667</v>
       </c>
       <c r="B29">
-        <v>13088</v>
+        <v>13089</v>
       </c>
       <c r="C29">
         <v>4512</v>
@@ -2710,7 +2724,7 @@
         <v>43931.00277777778</v>
       </c>
       <c r="B30">
-        <v>13382</v>
+        <v>13383</v>
       </c>
       <c r="C30">
         <v>5240</v>
@@ -2724,7 +2738,7 @@
         <v>43932.246527777781</v>
       </c>
       <c r="B31">
-        <v>13755</v>
+        <v>13756</v>
       </c>
       <c r="C31">
         <v>6064</v>
@@ -2738,7 +2752,7 @@
         <v>43933.350694444445</v>
       </c>
       <c r="B32">
-        <v>13966</v>
+        <v>13967</v>
       </c>
       <c r="C32">
         <v>6604</v>
@@ -2752,7 +2766,7 @@
         <v>43934.474999999999</v>
       </c>
       <c r="B33">
-        <v>14076</v>
+        <v>14077</v>
       </c>
       <c r="C33">
         <v>7343</v>
@@ -2766,7 +2780,7 @@
         <v>43935.628472222219</v>
       </c>
       <c r="B34">
-        <v>14165</v>
+        <v>14166</v>
       </c>
       <c r="C34">
         <v>7633</v>
@@ -2780,7 +2794,7 @@
         <v>43936.576388888891</v>
       </c>
       <c r="B35">
-        <v>14313</v>
+        <v>14314</v>
       </c>
       <c r="C35">
         <v>8098</v>
@@ -2794,7 +2808,7 @@
         <v>43937.34097222222</v>
       </c>
       <c r="B36">
-        <v>14433</v>
+        <v>14434</v>
       </c>
       <c r="C36">
         <v>8986</v>
@@ -2808,7 +2822,7 @@
         <v>43938.404861111114</v>
       </c>
       <c r="B37">
-        <v>14562</v>
+        <v>14563</v>
       </c>
       <c r="C37">
         <v>9704</v>
@@ -2822,7 +2836,7 @@
         <v>43939</v>
       </c>
       <c r="B38">
-        <v>14655</v>
+        <v>14656</v>
       </c>
       <c r="C38">
         <v>10214</v>
@@ -2836,7 +2850,7 @@
         <v>43940.520138888889</v>
       </c>
       <c r="B39">
-        <v>14717</v>
+        <v>14718</v>
       </c>
       <c r="C39">
         <v>10501</v>
@@ -2850,7 +2864,7 @@
         <v>43941.467361111114</v>
       </c>
       <c r="B40">
-        <v>14765</v>
+        <v>14766</v>
       </c>
       <c r="C40">
         <v>10631</v>
@@ -2864,7 +2878,7 @@
         <v>43942.553472222222</v>
       </c>
       <c r="B41">
-        <v>14830</v>
+        <v>14831</v>
       </c>
       <c r="C41">
         <v>10971</v>
@@ -2878,7 +2892,7 @@
         <v>43943</v>
       </c>
       <c r="B42">
-        <v>14901</v>
+        <v>14902</v>
       </c>
       <c r="C42">
         <v>11328</v>
@@ -2892,7 +2906,7 @@
         <v>43944</v>
       </c>
       <c r="B43">
-        <v>14983</v>
+        <v>14984</v>
       </c>
       <c r="C43">
         <v>11694</v>
@@ -2906,7 +2920,7 @@
         <v>43945.734027777777</v>
       </c>
       <c r="B44">
-        <v>15045</v>
+        <v>15046</v>
       </c>
       <c r="C44">
         <v>11872</v>
@@ -2920,7 +2934,7 @@
         <v>43946</v>
       </c>
       <c r="B45">
-        <v>15127</v>
+        <v>15128</v>
       </c>
       <c r="C45">
         <v>12103</v>
@@ -2934,7 +2948,7 @@
         <v>43947</v>
       </c>
       <c r="B46">
-        <v>15185</v>
+        <v>15186</v>
       </c>
       <c r="C46">
         <v>12282</v>
@@ -2948,7 +2962,7 @@
         <v>43948.700694444444</v>
       </c>
       <c r="B47">
-        <v>15228</v>
+        <v>15229</v>
       </c>
       <c r="C47">
         <v>12362</v>
@@ -2962,7 +2976,7 @@
         <v>43949</v>
       </c>
       <c r="B48">
-        <v>15287</v>
+        <v>15288</v>
       </c>
       <c r="C48">
         <v>12580</v>
@@ -2976,7 +2990,7 @@
         <v>43950.65347222222</v>
       </c>
       <c r="B49">
-        <v>15340</v>
+        <v>15341</v>
       </c>
       <c r="C49">
         <v>12779</v>
@@ -2990,7 +3004,7 @@
         <v>43951.574305555558</v>
       </c>
       <c r="B50">
-        <v>15391</v>
+        <v>15392</v>
       </c>
       <c r="C50">
         <v>12907</v>
@@ -3004,7 +3018,7 @@
         <v>43952.430555555555</v>
       </c>
       <c r="B51">
-        <v>15457</v>
+        <v>15458</v>
       </c>
       <c r="C51">
         <v>13110</v>
@@ -3018,7 +3032,7 @@
         <v>43953.801388888889</v>
       </c>
       <c r="B52">
-        <v>15487</v>
+        <v>15488</v>
       </c>
       <c r="C52">
         <v>13180</v>
@@ -3032,7 +3046,7 @@
         <v>43954</v>
       </c>
       <c r="B53">
-        <v>15518</v>
+        <v>15519</v>
       </c>
       <c r="C53">
         <v>13228</v>
@@ -3046,7 +3060,7 @@
         <v>43955.617361111108</v>
       </c>
       <c r="B54">
-        <v>15533</v>
+        <v>15534</v>
       </c>
       <c r="C54">
         <v>13316</v>
@@ -3060,7 +3074,7 @@
         <v>43956.67291666667</v>
       </c>
       <c r="B55">
-        <v>15557</v>
+        <v>15558</v>
       </c>
       <c r="C55">
         <v>13462</v>
@@ -3074,7 +3088,7 @@
         <v>43957</v>
       </c>
       <c r="B56">
-        <v>15603</v>
+        <v>15605</v>
       </c>
       <c r="C56">
         <v>13550</v>
@@ -3088,7 +3102,7 @@
         <v>43958.469444444447</v>
       </c>
       <c r="B57">
-        <v>15656</v>
+        <v>15658</v>
       </c>
       <c r="C57">
         <v>13639</v>
@@ -3102,7 +3116,7 @@
         <v>43959.447916666664</v>
       </c>
       <c r="B58">
-        <v>15688</v>
+        <v>15690</v>
       </c>
       <c r="C58">
         <v>13698</v>
@@ -3116,13 +3130,27 @@
         <v>43960.340277777781</v>
       </c>
       <c r="B59">
-        <v>15735</v>
+        <v>15740</v>
       </c>
       <c r="C59">
         <v>13836</v>
       </c>
       <c r="D59">
         <v>614</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>43961.277083333334</v>
+      </c>
+      <c r="B60">
+        <v>15776</v>
+      </c>
+      <c r="C60">
+        <v>13928</v>
+      </c>
+      <c r="D60">
+        <v>615</v>
       </c>
     </row>
   </sheetData>
@@ -3134,10 +3162,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C361FD1-37DF-4CF9-A8B7-B834A1753F46}">
-  <dimension ref="A1:L59"/>
+  <dimension ref="A1:M60"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="L25" sqref="L25:L59"/>
+      <selection activeCell="M25" sqref="M25:M60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3326,7 +3354,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>43918.418055555558</v>
       </c>
@@ -3337,7 +3365,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>43919.418055555558</v>
       </c>
@@ -3348,7 +3376,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>43920.367361111108</v>
       </c>
@@ -3359,7 +3387,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>43921.167361111111</v>
       </c>
@@ -3370,7 +3398,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>43922.416666666664</v>
       </c>
@@ -3381,7 +3409,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>43923.112500000003</v>
       </c>
@@ -3392,7 +3420,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>43924.272916666669</v>
       </c>
@@ -3403,7 +3431,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>43925.448611111111</v>
       </c>
@@ -3414,13 +3442,13 @@
         <v>168</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>43926.40625</v>
       </c>
       <c r="B25">
         <f t="shared" ref="B25:B32" si="0">B26-E25</f>
-        <v>12071</v>
+        <v>12072</v>
       </c>
       <c r="C25">
         <v>2998</v>
@@ -3450,14 +3478,17 @@
       <c r="L25">
         <v>12071</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M25">
+        <v>12072</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>43927.370138888888</v>
       </c>
       <c r="B26">
         <f t="shared" si="0"/>
-        <v>12242</v>
+        <v>12243</v>
       </c>
       <c r="C26">
         <v>2998</v>
@@ -3487,14 +3518,17 @@
       <c r="L26">
         <v>12242</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M26">
+        <v>12243</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>43928.375</v>
       </c>
       <c r="B27">
         <f t="shared" si="0"/>
-        <v>12513</v>
+        <v>12514</v>
       </c>
       <c r="C27">
         <v>3463</v>
@@ -3524,14 +3558,17 @@
       <c r="L27">
         <v>12513</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M27">
+        <v>12514</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>43929.344444444447</v>
       </c>
       <c r="B28">
         <f t="shared" si="0"/>
-        <v>12821</v>
+        <v>12822</v>
       </c>
       <c r="C28">
         <v>4046</v>
@@ -3561,14 +3598,17 @@
       <c r="L28">
         <v>12821</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M28">
+        <v>12822</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>43930.14166666667</v>
       </c>
       <c r="B29">
         <f t="shared" si="0"/>
-        <v>13088</v>
+        <v>13089</v>
       </c>
       <c r="C29">
         <v>4512</v>
@@ -3598,14 +3638,17 @@
       <c r="L29">
         <v>13088</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M29">
+        <v>13089</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>43931.00277777778</v>
       </c>
       <c r="B30">
         <f t="shared" si="0"/>
-        <v>13382</v>
+        <v>13383</v>
       </c>
       <c r="C30">
         <v>5240</v>
@@ -3635,14 +3678,17 @@
       <c r="L30">
         <v>13382</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M30">
+        <v>13383</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>43932.246527777781</v>
       </c>
       <c r="B31">
         <f t="shared" si="0"/>
-        <v>13755</v>
+        <v>13756</v>
       </c>
       <c r="C31">
         <v>6064</v>
@@ -3672,14 +3718,17 @@
       <c r="L31">
         <v>13755</v>
       </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M31">
+        <v>13756</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>43933.350694444445</v>
       </c>
       <c r="B32">
         <f t="shared" si="0"/>
-        <v>13966</v>
+        <v>13967</v>
       </c>
       <c r="C32">
         <v>6604</v>
@@ -3709,14 +3758,17 @@
       <c r="L32">
         <v>13966</v>
       </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M32">
+        <v>13967</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>43934.474999999999</v>
       </c>
       <c r="B33">
         <f t="shared" ref="B33:B41" si="2">B34-E33</f>
-        <v>14076</v>
+        <v>14077</v>
       </c>
       <c r="C33">
         <v>7343</v>
@@ -3746,14 +3798,17 @@
       <c r="L33">
         <v>14076</v>
       </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M33">
+        <v>14077</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>43935.628472222219</v>
       </c>
       <c r="B34">
         <f t="shared" si="2"/>
-        <v>14165</v>
+        <v>14166</v>
       </c>
       <c r="C34">
         <v>7633</v>
@@ -3783,14 +3838,17 @@
       <c r="L34">
         <v>14165</v>
       </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M34">
+        <v>14166</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>43936.576388888891</v>
       </c>
       <c r="B35">
         <f t="shared" si="2"/>
-        <v>14313</v>
+        <v>14314</v>
       </c>
       <c r="C35">
         <v>8098</v>
@@ -3820,14 +3878,17 @@
       <c r="L35">
         <v>14313</v>
       </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M35">
+        <v>14314</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>43937.34097222222</v>
       </c>
       <c r="B36">
         <f t="shared" si="2"/>
-        <v>14433</v>
+        <v>14434</v>
       </c>
       <c r="E36">
         <v>129</v>
@@ -3851,14 +3912,17 @@
       <c r="L36">
         <v>14433</v>
       </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M36">
+        <v>14434</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>43938.404861111114</v>
       </c>
       <c r="B37">
         <f t="shared" si="2"/>
-        <v>14562</v>
+        <v>14563</v>
       </c>
       <c r="E37">
         <v>93</v>
@@ -3882,14 +3946,17 @@
       <c r="L37">
         <v>14562</v>
       </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M37">
+        <v>14563</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>43939</v>
       </c>
       <c r="B38">
         <f t="shared" si="2"/>
-        <v>14655</v>
+        <v>14656</v>
       </c>
       <c r="E38">
         <v>62</v>
@@ -3913,14 +3980,17 @@
       <c r="L38">
         <v>14655</v>
       </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M38">
+        <v>14656</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>43940.520138888889</v>
       </c>
       <c r="B39">
         <f t="shared" si="2"/>
-        <v>14717</v>
+        <v>14718</v>
       </c>
       <c r="E39">
         <v>48</v>
@@ -3944,14 +4014,17 @@
       <c r="L39">
         <v>14717</v>
       </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M39">
+        <v>14718</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>43941.467361111114</v>
       </c>
       <c r="B40">
         <f t="shared" si="2"/>
-        <v>14765</v>
+        <v>14766</v>
       </c>
       <c r="E40">
         <v>65</v>
@@ -3975,14 +4048,17 @@
       <c r="L40">
         <v>14765</v>
       </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M40">
+        <v>14766</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>43942.553472222222</v>
       </c>
       <c r="B41">
         <f t="shared" si="2"/>
-        <v>14830</v>
+        <v>14831</v>
       </c>
       <c r="E41">
         <v>71</v>
@@ -4006,14 +4082,17 @@
       <c r="L41">
         <v>14830</v>
       </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M41">
+        <v>14831</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>43943</v>
       </c>
       <c r="B42">
         <f t="shared" ref="B42:B45" si="3">B43-E42</f>
-        <v>14901</v>
+        <v>14902</v>
       </c>
       <c r="E42">
         <v>82</v>
@@ -4037,14 +4116,17 @@
       <c r="L42">
         <v>14901</v>
       </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M42">
+        <v>14902</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>43944</v>
       </c>
       <c r="B43">
         <f t="shared" si="3"/>
-        <v>14983</v>
+        <v>14984</v>
       </c>
       <c r="E43">
         <v>62</v>
@@ -4068,14 +4150,17 @@
       <c r="L43">
         <v>14983</v>
       </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M43">
+        <v>14984</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>43945.734027777777</v>
       </c>
       <c r="B44">
         <f t="shared" si="3"/>
-        <v>15045</v>
+        <v>15046</v>
       </c>
       <c r="E44">
         <v>82</v>
@@ -4099,14 +4184,17 @@
       <c r="L44">
         <v>15045</v>
       </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M44">
+        <v>15046</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43946</v>
       </c>
       <c r="B45">
         <f t="shared" si="3"/>
-        <v>15127</v>
+        <v>15128</v>
       </c>
       <c r="E45">
         <v>58</v>
@@ -4130,14 +4218,17 @@
       <c r="L45">
         <v>15127</v>
       </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M45">
+        <v>15128</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>43947</v>
       </c>
       <c r="B46">
-        <f t="shared" ref="B46:B58" si="4">B47-E46</f>
-        <v>15185</v>
+        <f t="shared" ref="B46:B59" si="4">B47-E46</f>
+        <v>15186</v>
       </c>
       <c r="E46">
         <v>43</v>
@@ -4161,14 +4252,17 @@
       <c r="L46">
         <v>15185</v>
       </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M46">
+        <v>15186</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>43948.700694444444</v>
       </c>
       <c r="B47">
         <f t="shared" si="4"/>
-        <v>15228</v>
+        <v>15229</v>
       </c>
       <c r="E47">
         <v>59</v>
@@ -4192,14 +4286,17 @@
       <c r="L47">
         <v>15228</v>
       </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M47">
+        <v>15229</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>43949</v>
       </c>
       <c r="B48">
         <f t="shared" si="4"/>
-        <v>15287</v>
+        <v>15288</v>
       </c>
       <c r="E48">
         <v>53</v>
@@ -4223,14 +4320,17 @@
       <c r="L48">
         <v>15287</v>
       </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M48">
+        <v>15288</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>43950.65347222222</v>
       </c>
       <c r="B49">
         <f t="shared" si="4"/>
-        <v>15340</v>
+        <v>15341</v>
       </c>
       <c r="E49">
         <v>51</v>
@@ -4254,14 +4354,17 @@
       <c r="L49">
         <v>15340</v>
       </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M49">
+        <v>15341</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>43951.574305555558</v>
       </c>
       <c r="B50">
         <f t="shared" si="4"/>
-        <v>15391</v>
+        <v>15392</v>
       </c>
       <c r="E50">
         <v>66</v>
@@ -4285,14 +4388,17 @@
       <c r="L50">
         <v>15391</v>
       </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M50">
+        <v>15392</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>43952.430555555555</v>
       </c>
       <c r="B51">
         <f t="shared" si="4"/>
-        <v>15457</v>
+        <v>15458</v>
       </c>
       <c r="E51">
         <v>30</v>
@@ -4316,14 +4422,17 @@
       <c r="L51">
         <v>15457</v>
       </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M51">
+        <v>15458</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>43953.801388888889</v>
       </c>
       <c r="B52">
         <f t="shared" si="4"/>
-        <v>15487</v>
+        <v>15488</v>
       </c>
       <c r="E52">
         <v>31</v>
@@ -4347,14 +4456,17 @@
       <c r="L52">
         <v>15487</v>
       </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M52">
+        <v>15488</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>43954</v>
       </c>
       <c r="B53">
         <f t="shared" si="4"/>
-        <v>15518</v>
+        <v>15519</v>
       </c>
       <c r="E53">
         <v>15</v>
@@ -4378,14 +4490,17 @@
       <c r="L53">
         <v>15518</v>
       </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M53">
+        <v>15519</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>43955.617361111108</v>
       </c>
       <c r="B54">
         <f t="shared" si="4"/>
-        <v>15533</v>
+        <v>15534</v>
       </c>
       <c r="E54">
         <v>24</v>
@@ -4405,17 +4520,20 @@
       <c r="L54">
         <v>15533</v>
       </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M54">
+        <v>15534</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>43956.67291666667</v>
       </c>
       <c r="B55">
         <f t="shared" si="4"/>
-        <v>15557</v>
+        <v>15558</v>
       </c>
       <c r="E55">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55">
         <f>I55-G54</f>
@@ -4433,14 +4551,17 @@
       <c r="L55">
         <v>15557</v>
       </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M55">
+        <v>15558</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>43957</v>
       </c>
       <c r="B56">
         <f t="shared" si="4"/>
-        <v>15603</v>
+        <v>15605</v>
       </c>
       <c r="E56">
         <v>53</v>
@@ -4454,14 +4575,17 @@
       <c r="L56">
         <v>15603</v>
       </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M56">
+        <v>15605</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>43958.469444444447</v>
       </c>
       <c r="B57">
         <f t="shared" si="4"/>
-        <v>15656</v>
+        <v>15658</v>
       </c>
       <c r="E57">
         <v>32</v>
@@ -4475,17 +4599,20 @@
       <c r="L57">
         <v>15656</v>
       </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M57">
+        <v>15658</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>43959.447916666664</v>
       </c>
       <c r="B58">
         <f t="shared" si="4"/>
-        <v>15688</v>
+        <v>15690</v>
       </c>
       <c r="E58">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="K58">
         <v>15686</v>
@@ -4493,16 +4620,37 @@
       <c r="L58">
         <v>15688</v>
       </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M58">
+        <v>15690</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>43960.340277777781</v>
       </c>
       <c r="B59">
-        <v>15735</v>
+        <f t="shared" si="4"/>
+        <v>15740</v>
+      </c>
+      <c r="E59">
+        <v>36</v>
       </c>
       <c r="L59">
         <v>15735</v>
+      </c>
+      <c r="M59">
+        <v>15740</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>43961.277083333334</v>
+      </c>
+      <c r="B60">
+        <v>15776</v>
+      </c>
+      <c r="M60">
+        <v>15776</v>
       </c>
     </row>
   </sheetData>

--- a/covid-manual-excel.xlsx
+++ b/covid-manual-excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspaces\covid-19-data-analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A635054-8681-42A0-B035-E9A00B0354E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1A5BFB5-8525-48C9-888A-E03EA5F1845F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="18960" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -688,10 +688,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E60"/>
+  <dimension ref="A1:E61"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D60" sqref="D60"/>
+      <selection activeCell="D61" sqref="D61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1542,6 +1542,20 @@
       </c>
       <c r="D60" s="4">
         <v>7435</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>43962.426388888889</v>
+      </c>
+      <c r="B61" s="4">
+        <v>169876</v>
+      </c>
+      <c r="C61" s="4">
+        <v>144575</v>
+      </c>
+      <c r="D61" s="4">
+        <v>7444</v>
       </c>
     </row>
   </sheetData>
@@ -2300,10 +2314,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B8DAF25-F5B0-47E4-BAFA-42517715F0C0}">
-  <dimension ref="A1:D60"/>
+  <dimension ref="A1:D61"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C61" sqref="C61"/>
+      <selection activeCell="D61" sqref="D61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2654,7 +2668,7 @@
         <v>43926.40625</v>
       </c>
       <c r="B25">
-        <v>12072</v>
+        <v>12089</v>
       </c>
       <c r="C25">
         <v>2998</v>
@@ -2668,7 +2682,7 @@
         <v>43927.370138888888</v>
       </c>
       <c r="B26">
-        <v>12243</v>
+        <v>12260</v>
       </c>
       <c r="C26">
         <v>2998</v>
@@ -2682,7 +2696,7 @@
         <v>43928.375</v>
       </c>
       <c r="B27">
-        <v>12514</v>
+        <v>12531</v>
       </c>
       <c r="C27">
         <v>3463</v>
@@ -2696,7 +2710,7 @@
         <v>43929.344444444447</v>
       </c>
       <c r="B28">
-        <v>12822</v>
+        <v>12839</v>
       </c>
       <c r="C28">
         <v>4046</v>
@@ -2710,7 +2724,7 @@
         <v>43930.14166666667</v>
       </c>
       <c r="B29">
-        <v>13089</v>
+        <v>13106</v>
       </c>
       <c r="C29">
         <v>4512</v>
@@ -2724,7 +2738,7 @@
         <v>43931.00277777778</v>
       </c>
       <c r="B30">
-        <v>13383</v>
+        <v>13400</v>
       </c>
       <c r="C30">
         <v>5240</v>
@@ -2738,7 +2752,7 @@
         <v>43932.246527777781</v>
       </c>
       <c r="B31">
-        <v>13756</v>
+        <v>13773</v>
       </c>
       <c r="C31">
         <v>6064</v>
@@ -2752,7 +2766,7 @@
         <v>43933.350694444445</v>
       </c>
       <c r="B32">
-        <v>13967</v>
+        <v>13984</v>
       </c>
       <c r="C32">
         <v>6604</v>
@@ -2766,7 +2780,7 @@
         <v>43934.474999999999</v>
       </c>
       <c r="B33">
-        <v>14077</v>
+        <v>14094</v>
       </c>
       <c r="C33">
         <v>7343</v>
@@ -2780,7 +2794,7 @@
         <v>43935.628472222219</v>
       </c>
       <c r="B34">
-        <v>14166</v>
+        <v>14183</v>
       </c>
       <c r="C34">
         <v>7633</v>
@@ -2794,7 +2808,7 @@
         <v>43936.576388888891</v>
       </c>
       <c r="B35">
-        <v>14314</v>
+        <v>14331</v>
       </c>
       <c r="C35">
         <v>8098</v>
@@ -2808,7 +2822,7 @@
         <v>43937.34097222222</v>
       </c>
       <c r="B36">
-        <v>14434</v>
+        <v>14451</v>
       </c>
       <c r="C36">
         <v>8986</v>
@@ -2822,7 +2836,7 @@
         <v>43938.404861111114</v>
       </c>
       <c r="B37">
-        <v>14563</v>
+        <v>14580</v>
       </c>
       <c r="C37">
         <v>9704</v>
@@ -2836,7 +2850,7 @@
         <v>43939</v>
       </c>
       <c r="B38">
-        <v>14656</v>
+        <v>14673</v>
       </c>
       <c r="C38">
         <v>10214</v>
@@ -2850,7 +2864,7 @@
         <v>43940.520138888889</v>
       </c>
       <c r="B39">
-        <v>14718</v>
+        <v>14735</v>
       </c>
       <c r="C39">
         <v>10501</v>
@@ -2864,7 +2878,7 @@
         <v>43941.467361111114</v>
       </c>
       <c r="B40">
-        <v>14766</v>
+        <v>14783</v>
       </c>
       <c r="C40">
         <v>10631</v>
@@ -2878,7 +2892,7 @@
         <v>43942.553472222222</v>
       </c>
       <c r="B41">
-        <v>14831</v>
+        <v>14848</v>
       </c>
       <c r="C41">
         <v>10971</v>
@@ -2892,7 +2906,7 @@
         <v>43943</v>
       </c>
       <c r="B42">
-        <v>14902</v>
+        <v>14919</v>
       </c>
       <c r="C42">
         <v>11328</v>
@@ -2906,7 +2920,7 @@
         <v>43944</v>
       </c>
       <c r="B43">
-        <v>14984</v>
+        <v>15001</v>
       </c>
       <c r="C43">
         <v>11694</v>
@@ -2920,7 +2934,7 @@
         <v>43945.734027777777</v>
       </c>
       <c r="B44">
-        <v>15046</v>
+        <v>15063</v>
       </c>
       <c r="C44">
         <v>11872</v>
@@ -2934,7 +2948,7 @@
         <v>43946</v>
       </c>
       <c r="B45">
-        <v>15128</v>
+        <v>15145</v>
       </c>
       <c r="C45">
         <v>12103</v>
@@ -2948,7 +2962,7 @@
         <v>43947</v>
       </c>
       <c r="B46">
-        <v>15186</v>
+        <v>15203</v>
       </c>
       <c r="C46">
         <v>12282</v>
@@ -2962,7 +2976,7 @@
         <v>43948.700694444444</v>
       </c>
       <c r="B47">
-        <v>15229</v>
+        <v>15246</v>
       </c>
       <c r="C47">
         <v>12362</v>
@@ -2976,7 +2990,7 @@
         <v>43949</v>
       </c>
       <c r="B48">
-        <v>15288</v>
+        <v>15305</v>
       </c>
       <c r="C48">
         <v>12580</v>
@@ -2990,7 +3004,7 @@
         <v>43950.65347222222</v>
       </c>
       <c r="B49">
-        <v>15341</v>
+        <v>15358</v>
       </c>
       <c r="C49">
         <v>12779</v>
@@ -3004,7 +3018,7 @@
         <v>43951.574305555558</v>
       </c>
       <c r="B50">
-        <v>15392</v>
+        <v>15409</v>
       </c>
       <c r="C50">
         <v>12907</v>
@@ -3018,7 +3032,7 @@
         <v>43952.430555555555</v>
       </c>
       <c r="B51">
-        <v>15458</v>
+        <v>15475</v>
       </c>
       <c r="C51">
         <v>13110</v>
@@ -3032,7 +3046,7 @@
         <v>43953.801388888889</v>
       </c>
       <c r="B52">
-        <v>15488</v>
+        <v>15505</v>
       </c>
       <c r="C52">
         <v>13180</v>
@@ -3046,7 +3060,7 @@
         <v>43954</v>
       </c>
       <c r="B53">
-        <v>15519</v>
+        <v>15536</v>
       </c>
       <c r="C53">
         <v>13228</v>
@@ -3060,7 +3074,7 @@
         <v>43955.617361111108</v>
       </c>
       <c r="B54">
-        <v>15534</v>
+        <v>15551</v>
       </c>
       <c r="C54">
         <v>13316</v>
@@ -3074,7 +3088,7 @@
         <v>43956.67291666667</v>
       </c>
       <c r="B55">
-        <v>15558</v>
+        <v>15575</v>
       </c>
       <c r="C55">
         <v>13462</v>
@@ -3088,7 +3102,7 @@
         <v>43957</v>
       </c>
       <c r="B56">
-        <v>15605</v>
+        <v>15622</v>
       </c>
       <c r="C56">
         <v>13550</v>
@@ -3102,7 +3116,7 @@
         <v>43958.469444444447</v>
       </c>
       <c r="B57">
-        <v>15658</v>
+        <v>15675</v>
       </c>
       <c r="C57">
         <v>13639</v>
@@ -3116,7 +3130,7 @@
         <v>43959.447916666664</v>
       </c>
       <c r="B58">
-        <v>15690</v>
+        <v>15707</v>
       </c>
       <c r="C58">
         <v>13698</v>
@@ -3130,7 +3144,7 @@
         <v>43960.340277777781</v>
       </c>
       <c r="B59">
-        <v>15740</v>
+        <v>15761</v>
       </c>
       <c r="C59">
         <v>13836</v>
@@ -3144,13 +3158,27 @@
         <v>43961.277083333334</v>
       </c>
       <c r="B60">
-        <v>15776</v>
+        <v>15795</v>
       </c>
       <c r="C60">
         <v>13928</v>
       </c>
       <c r="D60">
         <v>615</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>43962.426388888889</v>
+      </c>
+      <c r="B61">
+        <v>15804</v>
+      </c>
+      <c r="C61">
+        <v>13991</v>
+      </c>
+      <c r="D61">
+        <v>618</v>
       </c>
     </row>
   </sheetData>
@@ -3162,10 +3190,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C361FD1-37DF-4CF9-A8B7-B834A1753F46}">
-  <dimension ref="A1:M60"/>
+  <dimension ref="A1:N61"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="M25" sqref="M25:M60"/>
+      <selection activeCell="N25" sqref="N25:N61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3354,7 +3382,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>43918.418055555558</v>
       </c>
@@ -3365,7 +3393,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>43919.418055555558</v>
       </c>
@@ -3376,7 +3404,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>43920.367361111108</v>
       </c>
@@ -3387,7 +3415,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>43921.167361111111</v>
       </c>
@@ -3398,7 +3426,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>43922.416666666664</v>
       </c>
@@ -3409,7 +3437,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>43923.112500000003</v>
       </c>
@@ -3420,7 +3448,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>43924.272916666669</v>
       </c>
@@ -3431,7 +3459,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>43925.448611111111</v>
       </c>
@@ -3442,13 +3470,13 @@
         <v>168</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>43926.40625</v>
       </c>
       <c r="B25">
         <f t="shared" ref="B25:B32" si="0">B26-E25</f>
-        <v>12072</v>
+        <v>12089</v>
       </c>
       <c r="C25">
         <v>2998</v>
@@ -3481,14 +3509,17 @@
       <c r="M25">
         <v>12072</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N25">
+        <v>12089</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>43927.370138888888</v>
       </c>
       <c r="B26">
         <f t="shared" si="0"/>
-        <v>12243</v>
+        <v>12260</v>
       </c>
       <c r="C26">
         <v>2998</v>
@@ -3521,14 +3552,17 @@
       <c r="M26">
         <v>12243</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N26">
+        <v>12260</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>43928.375</v>
       </c>
       <c r="B27">
         <f t="shared" si="0"/>
-        <v>12514</v>
+        <v>12531</v>
       </c>
       <c r="C27">
         <v>3463</v>
@@ -3561,14 +3595,17 @@
       <c r="M27">
         <v>12514</v>
       </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N27">
+        <v>12531</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>43929.344444444447</v>
       </c>
       <c r="B28">
         <f t="shared" si="0"/>
-        <v>12822</v>
+        <v>12839</v>
       </c>
       <c r="C28">
         <v>4046</v>
@@ -3601,14 +3638,17 @@
       <c r="M28">
         <v>12822</v>
       </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N28">
+        <v>12839</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>43930.14166666667</v>
       </c>
       <c r="B29">
         <f t="shared" si="0"/>
-        <v>13089</v>
+        <v>13106</v>
       </c>
       <c r="C29">
         <v>4512</v>
@@ -3641,14 +3681,17 @@
       <c r="M29">
         <v>13089</v>
       </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N29">
+        <v>13106</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>43931.00277777778</v>
       </c>
       <c r="B30">
         <f t="shared" si="0"/>
-        <v>13383</v>
+        <v>13400</v>
       </c>
       <c r="C30">
         <v>5240</v>
@@ -3681,14 +3724,17 @@
       <c r="M30">
         <v>13383</v>
       </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N30">
+        <v>13400</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>43932.246527777781</v>
       </c>
       <c r="B31">
         <f t="shared" si="0"/>
-        <v>13756</v>
+        <v>13773</v>
       </c>
       <c r="C31">
         <v>6064</v>
@@ -3721,14 +3767,17 @@
       <c r="M31">
         <v>13756</v>
       </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N31">
+        <v>13773</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>43933.350694444445</v>
       </c>
       <c r="B32">
         <f t="shared" si="0"/>
-        <v>13967</v>
+        <v>13984</v>
       </c>
       <c r="C32">
         <v>6604</v>
@@ -3761,14 +3810,17 @@
       <c r="M32">
         <v>13967</v>
       </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N32">
+        <v>13984</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>43934.474999999999</v>
       </c>
       <c r="B33">
         <f t="shared" ref="B33:B41" si="2">B34-E33</f>
-        <v>14077</v>
+        <v>14094</v>
       </c>
       <c r="C33">
         <v>7343</v>
@@ -3801,14 +3853,17 @@
       <c r="M33">
         <v>14077</v>
       </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N33">
+        <v>14094</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>43935.628472222219</v>
       </c>
       <c r="B34">
         <f t="shared" si="2"/>
-        <v>14166</v>
+        <v>14183</v>
       </c>
       <c r="C34">
         <v>7633</v>
@@ -3841,14 +3896,17 @@
       <c r="M34">
         <v>14166</v>
       </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N34">
+        <v>14183</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>43936.576388888891</v>
       </c>
       <c r="B35">
         <f t="shared" si="2"/>
-        <v>14314</v>
+        <v>14331</v>
       </c>
       <c r="C35">
         <v>8098</v>
@@ -3881,14 +3939,17 @@
       <c r="M35">
         <v>14314</v>
       </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N35">
+        <v>14331</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>43937.34097222222</v>
       </c>
       <c r="B36">
         <f t="shared" si="2"/>
-        <v>14434</v>
+        <v>14451</v>
       </c>
       <c r="E36">
         <v>129</v>
@@ -3915,14 +3976,17 @@
       <c r="M36">
         <v>14434</v>
       </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N36">
+        <v>14451</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>43938.404861111114</v>
       </c>
       <c r="B37">
         <f t="shared" si="2"/>
-        <v>14563</v>
+        <v>14580</v>
       </c>
       <c r="E37">
         <v>93</v>
@@ -3949,14 +4013,17 @@
       <c r="M37">
         <v>14563</v>
       </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N37">
+        <v>14580</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>43939</v>
       </c>
       <c r="B38">
         <f t="shared" si="2"/>
-        <v>14656</v>
+        <v>14673</v>
       </c>
       <c r="E38">
         <v>62</v>
@@ -3983,14 +4050,17 @@
       <c r="M38">
         <v>14656</v>
       </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N38">
+        <v>14673</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>43940.520138888889</v>
       </c>
       <c r="B39">
         <f t="shared" si="2"/>
-        <v>14718</v>
+        <v>14735</v>
       </c>
       <c r="E39">
         <v>48</v>
@@ -4017,14 +4087,17 @@
       <c r="M39">
         <v>14718</v>
       </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N39">
+        <v>14735</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>43941.467361111114</v>
       </c>
       <c r="B40">
         <f t="shared" si="2"/>
-        <v>14766</v>
+        <v>14783</v>
       </c>
       <c r="E40">
         <v>65</v>
@@ -4051,14 +4124,17 @@
       <c r="M40">
         <v>14766</v>
       </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N40">
+        <v>14783</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>43942.553472222222</v>
       </c>
       <c r="B41">
         <f t="shared" si="2"/>
-        <v>14831</v>
+        <v>14848</v>
       </c>
       <c r="E41">
         <v>71</v>
@@ -4085,14 +4161,17 @@
       <c r="M41">
         <v>14831</v>
       </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N41">
+        <v>14848</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>43943</v>
       </c>
       <c r="B42">
         <f t="shared" ref="B42:B45" si="3">B43-E42</f>
-        <v>14902</v>
+        <v>14919</v>
       </c>
       <c r="E42">
         <v>82</v>
@@ -4119,14 +4198,17 @@
       <c r="M42">
         <v>14902</v>
       </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N42">
+        <v>14919</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>43944</v>
       </c>
       <c r="B43">
         <f t="shared" si="3"/>
-        <v>14984</v>
+        <v>15001</v>
       </c>
       <c r="E43">
         <v>62</v>
@@ -4153,14 +4235,17 @@
       <c r="M43">
         <v>14984</v>
       </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N43">
+        <v>15001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>43945.734027777777</v>
       </c>
       <c r="B44">
         <f t="shared" si="3"/>
-        <v>15046</v>
+        <v>15063</v>
       </c>
       <c r="E44">
         <v>82</v>
@@ -4187,14 +4272,17 @@
       <c r="M44">
         <v>15046</v>
       </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N44">
+        <v>15063</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43946</v>
       </c>
       <c r="B45">
         <f t="shared" si="3"/>
-        <v>15128</v>
+        <v>15145</v>
       </c>
       <c r="E45">
         <v>58</v>
@@ -4221,14 +4309,17 @@
       <c r="M45">
         <v>15128</v>
       </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N45">
+        <v>15145</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>43947</v>
       </c>
       <c r="B46">
-        <f t="shared" ref="B46:B59" si="4">B47-E46</f>
-        <v>15186</v>
+        <f t="shared" ref="B46:B60" si="4">B47-E46</f>
+        <v>15203</v>
       </c>
       <c r="E46">
         <v>43</v>
@@ -4255,14 +4346,17 @@
       <c r="M46">
         <v>15186</v>
       </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N46">
+        <v>15203</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>43948.700694444444</v>
       </c>
       <c r="B47">
         <f t="shared" si="4"/>
-        <v>15229</v>
+        <v>15246</v>
       </c>
       <c r="E47">
         <v>59</v>
@@ -4289,14 +4383,17 @@
       <c r="M47">
         <v>15229</v>
       </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N47">
+        <v>15246</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>43949</v>
       </c>
       <c r="B48">
         <f t="shared" si="4"/>
-        <v>15288</v>
+        <v>15305</v>
       </c>
       <c r="E48">
         <v>53</v>
@@ -4323,14 +4420,17 @@
       <c r="M48">
         <v>15288</v>
       </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N48">
+        <v>15305</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>43950.65347222222</v>
       </c>
       <c r="B49">
         <f t="shared" si="4"/>
-        <v>15341</v>
+        <v>15358</v>
       </c>
       <c r="E49">
         <v>51</v>
@@ -4357,14 +4457,17 @@
       <c r="M49">
         <v>15341</v>
       </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N49">
+        <v>15358</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>43951.574305555558</v>
       </c>
       <c r="B50">
         <f t="shared" si="4"/>
-        <v>15392</v>
+        <v>15409</v>
       </c>
       <c r="E50">
         <v>66</v>
@@ -4391,14 +4494,17 @@
       <c r="M50">
         <v>15392</v>
       </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N50">
+        <v>15409</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>43952.430555555555</v>
       </c>
       <c r="B51">
         <f t="shared" si="4"/>
-        <v>15458</v>
+        <v>15475</v>
       </c>
       <c r="E51">
         <v>30</v>
@@ -4425,14 +4531,17 @@
       <c r="M51">
         <v>15458</v>
       </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N51">
+        <v>15475</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>43953.801388888889</v>
       </c>
       <c r="B52">
         <f t="shared" si="4"/>
-        <v>15488</v>
+        <v>15505</v>
       </c>
       <c r="E52">
         <v>31</v>
@@ -4459,14 +4568,17 @@
       <c r="M52">
         <v>15488</v>
       </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N52">
+        <v>15505</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>43954</v>
       </c>
       <c r="B53">
         <f t="shared" si="4"/>
-        <v>15519</v>
+        <v>15536</v>
       </c>
       <c r="E53">
         <v>15</v>
@@ -4493,14 +4605,17 @@
       <c r="M53">
         <v>15519</v>
       </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N53">
+        <v>15536</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>43955.617361111108</v>
       </c>
       <c r="B54">
         <f t="shared" si="4"/>
-        <v>15534</v>
+        <v>15551</v>
       </c>
       <c r="E54">
         <v>24</v>
@@ -4523,14 +4638,17 @@
       <c r="M54">
         <v>15534</v>
       </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N54">
+        <v>15551</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>43956.67291666667</v>
       </c>
       <c r="B55">
         <f t="shared" si="4"/>
-        <v>15558</v>
+        <v>15575</v>
       </c>
       <c r="E55">
         <v>47</v>
@@ -4554,14 +4672,17 @@
       <c r="M55">
         <v>15558</v>
       </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N55">
+        <v>15575</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>43957</v>
       </c>
       <c r="B56">
         <f t="shared" si="4"/>
-        <v>15605</v>
+        <v>15622</v>
       </c>
       <c r="E56">
         <v>53</v>
@@ -4578,14 +4699,17 @@
       <c r="M56">
         <v>15605</v>
       </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N56">
+        <v>15622</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>43958.469444444447</v>
       </c>
       <c r="B57">
         <f t="shared" si="4"/>
-        <v>15658</v>
+        <v>15675</v>
       </c>
       <c r="E57">
         <v>32</v>
@@ -4602,17 +4726,20 @@
       <c r="M57">
         <v>15658</v>
       </c>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N57">
+        <v>15675</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>43959.447916666664</v>
       </c>
       <c r="B58">
         <f t="shared" si="4"/>
-        <v>15690</v>
+        <v>15707</v>
       </c>
       <c r="E58">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="K58">
         <v>15686</v>
@@ -4623,17 +4750,20 @@
       <c r="M58">
         <v>15690</v>
       </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N58">
+        <v>15707</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>43960.340277777781</v>
       </c>
       <c r="B59">
         <f t="shared" si="4"/>
-        <v>15740</v>
+        <v>15761</v>
       </c>
       <c r="E59">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L59">
         <v>15735</v>
@@ -4641,16 +4771,37 @@
       <c r="M59">
         <v>15740</v>
       </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N59">
+        <v>15761</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>43961.277083333334</v>
       </c>
       <c r="B60">
-        <v>15776</v>
+        <f t="shared" si="4"/>
+        <v>15795</v>
+      </c>
+      <c r="E60">
+        <v>9</v>
       </c>
       <c r="M60">
         <v>15776</v>
+      </c>
+      <c r="N60">
+        <v>15795</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>43962.426388888889</v>
+      </c>
+      <c r="B61">
+        <v>15804</v>
+      </c>
+      <c r="N61">
+        <v>15804</v>
       </c>
     </row>
   </sheetData>

--- a/covid-manual-excel.xlsx
+++ b/covid-manual-excel.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspaces\covid-19-data-analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1A5BFB5-8525-48C9-888A-E03EA5F1845F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF51F063-4693-4967-B27B-F3826F32C583}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="18960" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="18960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="1" r:id="rId1"/>
-    <sheet name="Austria" sheetId="8" r:id="rId2"/>
+    <sheet name="Austria_" sheetId="8" r:id="rId2"/>
     <sheet name="Austria-calc" sheetId="14" r:id="rId3"/>
     <sheet name="Italy" sheetId="6" r:id="rId4"/>
     <sheet name="Spain" sheetId="3" r:id="rId5"/>
@@ -688,10 +688,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E61"/>
+  <dimension ref="A1:E62"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D61" sqref="D61"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D62" sqref="D62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1556,6 +1556,20 @@
       </c>
       <c r="D61" s="4">
         <v>7444</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>43963.386111111111</v>
+      </c>
+      <c r="B62" s="4">
+        <v>170418</v>
+      </c>
+      <c r="C62" s="4">
+        <v>145617</v>
+      </c>
+      <c r="D62" s="4">
+        <v>7510</v>
       </c>
     </row>
   </sheetData>
@@ -2316,7 +2330,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B8DAF25-F5B0-47E4-BAFA-42517715F0C0}">
   <dimension ref="A1:D61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="D61" sqref="D61"/>
     </sheetView>
   </sheetViews>

--- a/covid-manual-excel.xlsx
+++ b/covid-manual-excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspaces\covid-19-data-analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF51F063-4693-4967-B27B-F3826F32C583}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD21B828-3CF4-4EBA-B79B-E34B497A982E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="18960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -688,10 +688,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E62"/>
+  <dimension ref="A1:E63"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D62" sqref="D62"/>
+      <selection activeCell="C64" sqref="C64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1570,6 +1570,20 @@
       </c>
       <c r="D62" s="4">
         <v>7510</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>43964.257638888892</v>
+      </c>
+      <c r="B63" s="4">
+        <v>171150</v>
+      </c>
+      <c r="C63" s="4">
+        <v>147298</v>
+      </c>
+      <c r="D63" s="4">
+        <v>7633</v>
       </c>
     </row>
   </sheetData>

--- a/covid-manual-excel.xlsx
+++ b/covid-manual-excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspaces\covid-19-data-analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD21B828-3CF4-4EBA-B79B-E34B497A982E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EC25882-FC89-4044-8798-33D62B251ECE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="18960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -688,10 +688,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E63"/>
+  <dimension ref="A1:E65"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C64" sqref="C64"/>
+      <selection activeCell="C65" sqref="C65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1584,6 +1584,34 @@
       </c>
       <c r="D63" s="4">
         <v>7633</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>43965</v>
+      </c>
+      <c r="B64" s="4">
+        <v>172094</v>
+      </c>
+      <c r="C64" s="4">
+        <v>148700</v>
+      </c>
+      <c r="D64" s="4">
+        <v>7732</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <v>43966.677777777775</v>
+      </c>
+      <c r="B65" s="4">
+        <v>172961</v>
+      </c>
+      <c r="C65" s="4">
+        <v>150300</v>
+      </c>
+      <c r="D65" s="4">
+        <v>7812</v>
       </c>
     </row>
   </sheetData>

--- a/covid-manual-excel.xlsx
+++ b/covid-manual-excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspaces\covid-19-data-analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EC25882-FC89-4044-8798-33D62B251ECE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F13F956-3077-4E30-8EF9-570EA467C90F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="18960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -688,10 +688,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E65"/>
+  <dimension ref="A1:E67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C65" sqref="C65"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C67" sqref="C67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1612,6 +1612,34 @@
       </c>
       <c r="D65" s="4">
         <v>7812</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
+        <v>43967</v>
+      </c>
+      <c r="B66" s="4">
+        <v>173716</v>
+      </c>
+      <c r="C66" s="4">
+        <v>151597</v>
+      </c>
+      <c r="D66" s="4">
+        <v>7895</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <v>43968.556250000001</v>
+      </c>
+      <c r="B67" s="4">
+        <v>174304</v>
+      </c>
+      <c r="C67" s="4">
+        <v>152600</v>
+      </c>
+      <c r="D67" s="4">
+        <v>7935</v>
       </c>
     </row>
   </sheetData>

--- a/covid-manual-excel.xlsx
+++ b/covid-manual-excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspaces\covid-19-data-analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F13F956-3077-4E30-8EF9-570EA467C90F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{263B4699-5FE2-46D3-9DAA-52A180A9478B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="18960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -688,10 +688,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E67"/>
+  <dimension ref="A1:E68"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C67" sqref="C67"/>
+      <selection activeCell="A69" sqref="A69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1640,6 +1640,20 @@
       </c>
       <c r="D67" s="4">
         <v>7935</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <v>43969.388888888891</v>
+      </c>
+      <c r="B68" s="4">
+        <v>174774</v>
+      </c>
+      <c r="C68" s="4">
+        <v>154011</v>
+      </c>
+      <c r="D68" s="4">
+        <v>7957</v>
       </c>
     </row>
   </sheetData>

--- a/covid-manual-excel.xlsx
+++ b/covid-manual-excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspaces\covid-19-data-analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{263B4699-5FE2-46D3-9DAA-52A180A9478B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86FBE49E-1C6E-4C88-8AA4-8A8FBCEB5166}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="18960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -688,10 +688,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E68"/>
+  <dimension ref="A1:E69"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A69" sqref="A69"/>
+      <selection activeCell="C70" sqref="C70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1654,6 +1654,20 @@
       </c>
       <c r="D68" s="4">
         <v>7957</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
+        <v>43970.581944444442</v>
+      </c>
+      <c r="B69" s="4">
+        <v>175171</v>
+      </c>
+      <c r="C69" s="4">
+        <v>155041</v>
+      </c>
+      <c r="D69" s="4">
+        <v>8004</v>
       </c>
     </row>
   </sheetData>

--- a/covid-manual-excel.xlsx
+++ b/covid-manual-excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspaces\covid-19-data-analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86FBE49E-1C6E-4C88-8AA4-8A8FBCEB5166}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C49EC5AF-609E-4BFC-80BF-6B2809465777}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="18960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -688,10 +688,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E69"/>
+  <dimension ref="A1:E70"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C70" sqref="C70"/>
+      <selection activeCell="C71" sqref="C71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1668,6 +1668,20 @@
       </c>
       <c r="D69" s="4">
         <v>8004</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <v>43971.73333333333</v>
+      </c>
+      <c r="B70" s="4">
+        <v>175672</v>
+      </c>
+      <c r="C70" s="4">
+        <v>155681</v>
+      </c>
+      <c r="D70" s="4">
+        <v>8081</v>
       </c>
     </row>
   </sheetData>

--- a/covid-manual-excel.xlsx
+++ b/covid-manual-excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspaces\covid-19-data-analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C49EC5AF-609E-4BFC-80BF-6B2809465777}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A99531C5-661C-46D2-B4D1-A63A729913C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="18960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -688,10 +688,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E70"/>
+  <dimension ref="A1:E71"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C71" sqref="C71"/>
+      <selection activeCell="D71" sqref="D71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1682,6 +1682,20 @@
       </c>
       <c r="D70" s="4">
         <v>8081</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
+        <v>43972.446527777778</v>
+      </c>
+      <c r="B71" s="4">
+        <v>176479</v>
+      </c>
+      <c r="C71" s="4">
+        <v>156966</v>
+      </c>
+      <c r="D71" s="4">
+        <v>8143</v>
       </c>
     </row>
   </sheetData>

--- a/covid-manual-excel.xlsx
+++ b/covid-manual-excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspaces\covid-19-data-analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A99531C5-661C-46D2-B4D1-A63A729913C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A5341C5-4971-4C7C-B876-92EBC5B75DBA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="18960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -688,10 +688,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E71"/>
+  <dimension ref="A1:E72"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D71" sqref="D71"/>
+      <selection activeCell="C73" sqref="C73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1696,6 +1696,20 @@
       </c>
       <c r="D71" s="4">
         <v>8143</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
+        <v>43973.511805555558</v>
+      </c>
+      <c r="B72" s="4">
+        <v>177201</v>
+      </c>
+      <c r="C72" s="4">
+        <v>158087</v>
+      </c>
+      <c r="D72" s="4">
+        <v>8201</v>
       </c>
     </row>
   </sheetData>

--- a/covid-manual-excel.xlsx
+++ b/covid-manual-excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspaces\covid-19-data-analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A5341C5-4971-4C7C-B876-92EBC5B75DBA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6D99AB4-F32D-4272-AA5C-3610E9920B28}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="18960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -688,10 +688,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E72"/>
+  <dimension ref="A1:E73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C73" sqref="C73"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="C74" sqref="C74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1710,6 +1710,20 @@
       </c>
       <c r="D72" s="4">
         <v>8201</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
+        <v>43974.402777777781</v>
+      </c>
+      <c r="B73" s="4">
+        <v>177719</v>
+      </c>
+      <c r="C73" s="4">
+        <v>159064</v>
+      </c>
+      <c r="D73" s="4">
+        <v>8228</v>
       </c>
     </row>
   </sheetData>

--- a/covid-manual-excel.xlsx
+++ b/covid-manual-excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspaces\covid-19-data-analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6D99AB4-F32D-4272-AA5C-3610E9920B28}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F567A67-8A96-4956-96D2-57A62D4D1E42}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="18960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -688,10 +688,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E73"/>
+  <dimension ref="A1:E74"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="C74" sqref="C74"/>
+      <selection activeCell="C75" sqref="C75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1724,6 +1724,20 @@
       </c>
       <c r="D73" s="4">
         <v>8228</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
+        <v>43975.281944444447</v>
+      </c>
+      <c r="B74" s="4">
+        <v>178190</v>
+      </c>
+      <c r="C74" s="4">
+        <v>159716</v>
+      </c>
+      <c r="D74" s="4">
+        <v>8259</v>
       </c>
     </row>
   </sheetData>

--- a/covid-manual-excel.xlsx
+++ b/covid-manual-excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspaces\covid-19-data-analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F567A67-8A96-4956-96D2-57A62D4D1E42}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AA9EF9E-CA84-4D95-915B-269F2DB32A58}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="18960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -688,10 +688,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E74"/>
+  <dimension ref="A1:E78"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="C75" sqref="C75"/>
+      <selection activeCell="C74" sqref="C74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1738,6 +1738,62 @@
       </c>
       <c r="D74" s="4">
         <v>8259</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
+        <v>43976</v>
+      </c>
+      <c r="B75" s="4">
+        <v>178568</v>
+      </c>
+      <c r="C75" s="4">
+        <v>160281</v>
+      </c>
+      <c r="D75" s="4">
+        <v>8280</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
+        <v>43977</v>
+      </c>
+      <c r="B76" s="4">
+        <v>178864</v>
+      </c>
+      <c r="C76" s="4">
+        <v>161199</v>
+      </c>
+      <c r="D76" s="4">
+        <v>8308</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
+        <v>43978</v>
+      </c>
+      <c r="B77" s="4">
+        <v>179274</v>
+      </c>
+      <c r="C77" s="4">
+        <v>161967</v>
+      </c>
+      <c r="D77" s="4">
+        <v>8369</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
+        <v>43979.401388888888</v>
+      </c>
+      <c r="B78">
+        <v>179930</v>
+      </c>
+      <c r="C78">
+        <v>162820</v>
+      </c>
+      <c r="D78">
+        <v>8429</v>
       </c>
     </row>
   </sheetData>

--- a/covid-manual-excel.xlsx
+++ b/covid-manual-excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspaces\covid-19-data-analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AA9EF9E-CA84-4D95-915B-269F2DB32A58}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E76FA9E0-EDAD-4094-A052-004C2C15C95B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="18960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -688,10 +688,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E78"/>
+  <dimension ref="A1:E79"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="C74" sqref="C74"/>
+      <selection activeCell="C80" sqref="C80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1794,6 +1794,20 @@
       </c>
       <c r="D78">
         <v>8429</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="1">
+        <v>43980.422222222223</v>
+      </c>
+      <c r="B79" s="4">
+        <v>180559</v>
+      </c>
+      <c r="C79" s="4">
+        <v>163360</v>
+      </c>
+      <c r="D79" s="4">
+        <v>8467</v>
       </c>
     </row>
   </sheetData>

--- a/covid-manual-excel.xlsx
+++ b/covid-manual-excel.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspaces\covid-19-data-analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E76FA9E0-EDAD-4094-A052-004C2C15C95B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E24FA0ED-05C1-4165-829D-58E2EE126FC6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="18960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Germany" sheetId="1" r:id="rId1"/>
+    <sheet name="Germany_" sheetId="1" r:id="rId1"/>
     <sheet name="Austria_" sheetId="8" r:id="rId2"/>
     <sheet name="Austria-calc" sheetId="14" r:id="rId3"/>
     <sheet name="Italy" sheetId="6" r:id="rId4"/>
